--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0385C-AF1F-49FC-B9F2-77411C86E72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DC3DE-F550-453E-9D4F-A4E2D1BD4AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="300">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,10 +1137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25球阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32X3.6PPR管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1202,6 +1198,22 @@
   </si>
   <si>
     <t>水电暖卫家装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25#球阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉唐盛世厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,7 +1224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,6 +1301,19 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1442,7 +1467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1550,90 +1575,90 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,6 +1682,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1942,8 +1979,8 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69:I70"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1964,19 +2001,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="29" t="s">
@@ -1984,33 +2021,33 @@
       </c>
       <c r="G1" s="30">
         <f>SUM(G3:G120)</f>
-        <v>23794.62000000001</v>
-      </c>
-      <c r="H1" s="57" t="s">
+        <v>24393.260000000009</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="41" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="64"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="42"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -2030,7 +2067,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="55" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -2039,11 +2076,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="46">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="38" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2063,21 +2100,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="60" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2087,17 +2124,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="40"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -2105,17 +2142,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="42"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
+      <c r="A7" s="43">
         <v>4</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="59" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2124,48 +2161,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="57">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="57">
         <v>630</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="52"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="42"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
+      <c r="A9" s="37">
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="58" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2177,26 +2214,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="58" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="44">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -2206,17 +2243,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="41"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -2226,17 +2263,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="41"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -2246,17 +2283,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="41"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -2266,17 +2303,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="41"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -2286,41 +2323,51 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="42"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>6</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="76" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" s="16">
+        <v>598.64</v>
+      </c>
       <c r="H15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="16">
+        <v>598.64</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
+      <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -2329,140 +2376,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="44">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="37">
+      <c r="H16" s="47"/>
+      <c r="I16" s="44">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="26" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="41"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="26" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="41"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="26" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="41"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="41"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="41"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="26" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="41"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="42"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
+      <c r="A24" s="37">
         <v>8</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="58" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -2471,106 +2518,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="44">
         <v>180.56</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="37">
+      <c r="H24" s="47"/>
+      <c r="I24" s="44">
         <v>180.56</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="37" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="26" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="41"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="41"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="26" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="41"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="26" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="41"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="42"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
+      <c r="A30" s="37">
         <v>16</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="58" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -2579,41 +2628,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="44">
         <v>1950</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="37">
+      <c r="H30" s="47"/>
+      <c r="I30" s="44">
         <v>180.56</v>
       </c>
-      <c r="J30" s="40" t="s">
+      <c r="J30" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="26" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="42"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40">
+      <c r="A32" s="37">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -2643,7 +2692,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -2701,7 +2750,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40">
+      <c r="A35" s="37">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2731,8 +2780,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -2759,8 +2808,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -2768,10 +2817,10 @@
         <v>249</v>
       </c>
       <c r="E37" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="G37" s="16">
         <v>159.32</v>
@@ -2785,8 +2834,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="47" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -2811,8 +2860,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -2835,8 +2884,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -2859,8 +2908,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="47" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2885,8 +2934,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -2909,8 +2958,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -2933,8 +2982,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -2987,10 +3036,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="40">
+      <c r="A46" s="37">
         <v>21</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="58" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -3015,8 +3064,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -3039,8 +3088,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -3063,8 +3112,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="33" t="s">
         <v>168</v>
       </c>
@@ -3085,8 +3134,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -3096,7 +3145,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="58" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -3109,8 +3158,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -3120,7 +3169,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -3131,8 +3180,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -3142,7 +3191,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -3153,10 +3202,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40">
+      <c r="A53" s="37">
         <v>22</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="58" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -3168,7 +3217,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="58" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -3181,8 +3230,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -3192,7 +3241,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -3203,8 +3252,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -3214,7 +3263,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -3225,8 +3274,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -3236,7 +3285,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -3247,8 +3296,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -3258,7 +3307,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -3269,8 +3318,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="45"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -3280,7 +3329,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="44"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -3291,10 +3340,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="40">
+      <c r="A59" s="37">
         <v>23</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="58" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -3319,8 +3368,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
-      <c r="B60" s="45"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -3343,8 +3392,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -3367,8 +3416,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -3391,8 +3440,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="36" t="s">
         <v>190</v>
       </c>
@@ -3402,17 +3451,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="43"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="49"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="40"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="33" t="s">
         <v>192</v>
       </c>
@@ -3422,17 +3471,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="45"/>
+      <c r="F64" s="55"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="50"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="41"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="50"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="33" t="s">
         <v>194</v>
       </c>
@@ -3442,17 +3491,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="45"/>
+      <c r="F65" s="55"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="41"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="50"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="33" t="s">
         <v>278</v>
       </c>
@@ -3462,28 +3511,28 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="42"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="15" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>295</v>
       </c>
       <c r="G67" s="16">
         <v>67.959999999999994</v>
@@ -3492,69 +3541,69 @@
       <c r="I67" s="16">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="40" t="s">
+      <c r="J67" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="15" t="s">
+      <c r="A68" s="50"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F68" s="39"/>
+      <c r="E68" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" s="59"/>
       <c r="G68" s="16"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16"/>
-      <c r="J68" s="41"/>
+      <c r="J68" s="50"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="15" t="s">
+      <c r="A69" s="50"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" s="59"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="50"/>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="39"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D70" s="11" t="s">
+      <c r="E70" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F70" s="59"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="50"/>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="50"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -3562,19 +3611,19 @@
       <c r="G71" s="16"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16"/>
-      <c r="J71" s="41"/>
+      <c r="J71" s="50"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="16"/>
@@ -3582,11 +3631,11 @@
       <c r="I72" s="16">
         <v>5.89</v>
       </c>
-      <c r="J72" s="42"/>
+      <c r="J72" s="38"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="15" t="s">
         <v>196</v>
       </c>
@@ -3609,10 +3658,10 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47">
+      <c r="A74" s="43">
         <v>24</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="64" t="s">
         <v>155</v>
       </c>
       <c r="C74" s="12" t="s">
@@ -3639,8 +3688,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="12" t="s">
         <v>145</v>
       </c>
@@ -3663,8 +3712,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="46"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="12" t="s">
         <v>148</v>
       </c>
@@ -3687,8 +3736,8 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="12" t="s">
         <v>204</v>
       </c>
@@ -3711,8 +3760,8 @@
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="46"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="12" t="s">
         <v>213</v>
       </c>
@@ -3735,8 +3784,8 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="12" t="s">
         <v>206</v>
       </c>
@@ -3759,8 +3808,8 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="12" t="s">
         <v>146</v>
       </c>
@@ -3783,8 +3832,8 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="12" t="s">
         <v>199</v>
       </c>
@@ -3807,8 +3856,8 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="46"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="12" t="s">
         <v>149</v>
       </c>
@@ -3823,10 +3872,10 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40">
+      <c r="A83" s="37">
         <v>25</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="58" t="s">
         <v>198</v>
       </c>
       <c r="C83" s="12" t="s">
@@ -3851,8 +3900,8 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="45"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="12" t="s">
         <v>224</v>
       </c>
@@ -3875,8 +3924,8 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
-      <c r="B85" s="45"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="12" t="s">
         <v>151</v>
       </c>
@@ -3891,8 +3940,8 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="12" t="s">
         <v>150</v>
       </c>
@@ -3907,8 +3956,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="12" t="s">
         <v>152</v>
       </c>
@@ -3923,8 +3972,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="42"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="12" t="s">
         <v>147</v>
       </c>
@@ -3939,10 +3988,10 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="41">
+      <c r="A89" s="50">
         <v>26</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="55" t="s">
         <v>241</v>
       </c>
       <c r="C89" s="12" t="s">
@@ -3959,8 +4008,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
-      <c r="B90" s="45"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="12" t="s">
         <v>216</v>
       </c>
@@ -3983,8 +4032,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
-      <c r="B91" s="45"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="12" t="s">
         <v>219</v>
       </c>
@@ -4066,7 +4115,7 @@
       <c r="A94" s="11">
         <v>29</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="58" t="s">
         <v>259</v>
       </c>
       <c r="C94" s="12" t="s">
@@ -4092,18 +4141,18 @@
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11"/>
-      <c r="B95" s="44"/>
+      <c r="B95" s="56"/>
       <c r="C95" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="E95" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="G95" s="16">
         <v>129.71</v>
@@ -4176,7 +4225,7 @@
       <c r="A98" s="11">
         <v>32</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="58" t="s">
         <v>272</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -4204,7 +4253,7 @@
       <c r="A99" s="11">
         <v>33</v>
       </c>
-      <c r="B99" s="44"/>
+      <c r="B99" s="56"/>
       <c r="C99" s="12" t="s">
         <v>270</v>
       </c>
@@ -4230,7 +4279,7 @@
       <c r="A100" s="11">
         <v>34</v>
       </c>
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="58" t="s">
         <v>273</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -4258,7 +4307,7 @@
       <c r="A101" s="11">
         <v>35</v>
       </c>
-      <c r="B101" s="44"/>
+      <c r="B101" s="56"/>
       <c r="C101" s="12" t="s">
         <v>275</v>
       </c>
@@ -4449,7 +4498,77 @@
       <c r="J113" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="86">
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="J67:J72"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="A59:A73"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -4466,75 +4585,6 @@
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B73"/>
-    <mergeCell ref="A59:A73"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="J67:J72"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B74:B82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DC3DE-F550-453E-9D4F-A4E2D1BD4AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39E054-3A63-4793-92CE-361391D3EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总价表" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="320">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,10 +1141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.12.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1153,10 +1149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生料带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,6 +1206,94 @@
   </si>
   <si>
     <t>黄林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂石14.03X17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石粉5吨X100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人菜钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板51张X31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板10张X40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢筋8#x100根x17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25x3.5PPR热水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32X3.6PPR管（灰色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄林微信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1539,9 +1619,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1575,90 +1652,96 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,17 +1766,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1976,21 +2056,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4B38C-0E57-4DCD-BB20-235DA37D610B}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="23.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="26" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="8" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="9" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="9" bestFit="1" customWidth="1"/>
@@ -2001,53 +2081,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="30">
-        <f>SUM(G3:G120)</f>
-        <v>24393.260000000009</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="29">
+        <f>SUM(G3:G124)</f>
+        <v>30975.78000000001</v>
+      </c>
+      <c r="H1" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="64" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="31" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="42"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="65"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -2067,7 +2147,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="50" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -2076,11 +2156,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="44">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="48" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2100,21 +2180,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="53" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2124,35 +2204,35 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="37"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="38"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43">
+      <c r="A7" s="49">
         <v>4</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="45" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2161,10 +2241,10 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="45" t="s">
         <v>139</v>
       </c>
       <c r="G7" s="57">
@@ -2176,33 +2256,33 @@
       <c r="I7" s="57">
         <v>630</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="46" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="57"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="57"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="38" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2214,26 +2294,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="46" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -2243,17 +2323,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -2263,17 +2343,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="50"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -2283,17 +2363,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="50"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -2303,17 +2383,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="50"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -2323,32 +2403,32 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="38"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>6</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G15" s="16">
         <v>598.64</v>
@@ -2360,309 +2440,309 @@
         <v>598.64</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="46">
         <v>7</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="43">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="44">
+      <c r="H16" s="41"/>
+      <c r="I16" s="43">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="46" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="50"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="50"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="50"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="50"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="50"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="26" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="38"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37">
+      <c r="A24" s="46">
         <v>8</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="43">
         <v>180.56</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="44">
+      <c r="H24" s="41"/>
+      <c r="I24" s="43">
         <v>180.56</v>
       </c>
-      <c r="J24" s="37" t="s">
-        <v>299</v>
+      <c r="J24" s="46" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="26" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="50"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="26" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="50"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="50"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="26" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="50"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="38"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37">
+      <c r="A30" s="46">
         <v>16</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>141</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="43">
         <v>1950</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="44">
+      <c r="H30" s="41"/>
+      <c r="I30" s="43">
         <v>180.56</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="46" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="26" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="38"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37">
+      <c r="A32" s="46">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -2692,7 +2772,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -2750,7 +2830,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
+      <c r="A35" s="46">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2780,8 +2860,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="38" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -2808,8 +2888,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -2817,10 +2897,10 @@
         <v>249</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G37" s="16">
         <v>159.32</v>
@@ -2834,8 +2914,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="41" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -2860,8 +2940,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -2884,8 +2964,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -2908,8 +2988,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="47" t="s">
+      <c r="A41" s="47"/>
+      <c r="B41" s="41" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -2934,8 +3014,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -2958,8 +3038,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -2982,8 +3062,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -3036,10 +3116,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="37">
+      <c r="A46" s="46">
         <v>21</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="38" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -3064,8 +3144,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -3088,8 +3168,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
-      <c r="B48" s="55"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -3112,21 +3192,21 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="33" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="34">
         <v>128.75</v>
       </c>
       <c r="H49" s="12"/>
@@ -3134,8 +3214,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
-      <c r="B50" s="55"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -3145,7 +3225,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="38" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -3158,8 +3238,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
-      <c r="B51" s="55"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -3169,7 +3249,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="55"/>
+      <c r="F51" s="50"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -3180,8 +3260,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="56"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -3191,7 +3271,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="56"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -3202,10 +3282,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="37">
+      <c r="A53" s="46">
         <v>22</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="38" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -3217,7 +3297,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="58" t="s">
+      <c r="F53" s="38" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -3230,8 +3310,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
-      <c r="B54" s="55"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -3241,7 +3321,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="55"/>
+      <c r="F54" s="50"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -3252,8 +3332,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -3263,7 +3343,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="55"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -3274,8 +3354,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
-      <c r="B56" s="55"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -3285,7 +3365,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="55"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -3296,8 +3376,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
-      <c r="B57" s="55"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -3307,7 +3387,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="55"/>
+      <c r="F57" s="50"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -3318,8 +3398,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -3329,7 +3409,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="56"/>
+      <c r="F58" s="39"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -3340,10 +3420,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="37">
+      <c r="A59" s="46">
         <v>23</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="38" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -3368,8 +3448,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
-      <c r="B60" s="55"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -3392,8 +3472,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
-      <c r="B61" s="55"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -3416,8 +3496,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -3440,9 +3520,9 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="36" t="s">
+      <c r="A63" s="47"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -3451,18 +3531,18 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="38"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="47"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="37"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="46"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="33" t="s">
+      <c r="A64" s="47"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -3471,18 +3551,18 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="55"/>
+      <c r="F64" s="50"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="48"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="50"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="47"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="33" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -3491,18 +3571,18 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="55"/>
+      <c r="F65" s="50"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="48"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="50"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="47"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="33" t="s">
+      <c r="A66" s="47"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -3511,474 +3591,482 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="56"/>
+      <c r="F66" s="39"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="49"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="38"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="48"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
-      <c r="B67" s="55"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E67" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G67" s="43">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="43">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="47"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F68" s="42"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="48"/>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="47"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="47"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F67" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="G67" s="16">
-        <v>67.959999999999994</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="16">
-        <v>67.959999999999994</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="50"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="D68" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="E68" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="F68" s="59"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="50"/>
-    </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="D69" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="E69" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="50"/>
-    </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F70" s="59"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="50"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="16"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="E71" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="F71" s="37"/>
+      <c r="G71" s="16">
+        <v>21.91</v>
+      </c>
       <c r="H71" s="12"/>
       <c r="I71" s="16"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="A72" s="47"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="E72" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="16">
+        <v>132.5</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="47"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="E73" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="16">
+        <v>50.8</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="47"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="16">
+        <v>27.35</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="47"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="16">
-        <v>5.89</v>
-      </c>
-      <c r="J72" s="38"/>
-    </row>
-    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="15" t="s">
+      <c r="E75" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="16">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="47"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D76" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G73" s="16">
-        <v>277.45999999999998</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="16">
-        <v>277.45999999999998</v>
-      </c>
-      <c r="J73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="43">
-        <v>24</v>
-      </c>
-      <c r="B74" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G74" s="16">
-        <v>486</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="16">
-        <v>486</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="43"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G75" s="16">
-        <v>22.67</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="16">
-        <v>22.67</v>
-      </c>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G76" s="16">
-        <v>73.290000000000006</v>
+        <v>277.45999999999998</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="16">
+        <v>277.45999999999998</v>
+      </c>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="49">
+        <v>24</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G77" s="16">
+        <v>486</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="16">
+        <v>486</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="49"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="16">
+        <v>22.67</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="16">
+        <v>22.67</v>
+      </c>
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="49"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" s="16">
         <v>73.290000000000006</v>
-      </c>
-      <c r="J76" s="11"/>
-    </row>
-    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="43"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G77" s="11">
-        <v>60.52</v>
-      </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="11">
-        <v>60.52</v>
-      </c>
-      <c r="J77" s="11"/>
-    </row>
-    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="43"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G78" s="11">
-        <v>10.48</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="11">
-        <v>10.48</v>
-      </c>
-      <c r="J78" s="11"/>
-    </row>
-    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="43"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="G79" s="16">
-        <v>169.79</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="16">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="49"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="11">
+        <v>60.52</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="11">
+        <v>60.52</v>
+      </c>
+      <c r="J80" s="11"/>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="49"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81" s="11">
+        <v>10.48</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="11">
+        <v>10.48</v>
+      </c>
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="49"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G82" s="16">
         <v>169.79</v>
       </c>
-      <c r="J79" s="11"/>
-    </row>
-    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="43"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="12" t="s">
+      <c r="H82" s="12"/>
+      <c r="I82" s="16">
+        <v>169.79</v>
+      </c>
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="49"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F83" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G83" s="16">
         <v>210</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="16">
-        <v>210</v>
-      </c>
-      <c r="J80" s="11"/>
-    </row>
-    <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="43"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G81" s="16">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="16">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="43"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="37">
-        <v>25</v>
-      </c>
-      <c r="B83" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G83" s="16">
-        <v>610.78</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="16">
-        <v>610.78</v>
+        <v>210</v>
       </c>
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
-      <c r="B84" s="55"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="12" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>226</v>
+        <v>265</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="G84" s="16">
-        <v>277.89999999999998</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="16">
-        <v>277.89999999999998</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
-      <c r="B85" s="55"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="15"/>
       <c r="G85" s="16"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="16"/>
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
-      <c r="B86" s="55"/>
+      <c r="A86" s="46">
+        <v>25</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>198</v>
+      </c>
       <c r="C86" s="12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="16"/>
+        <v>119</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G86" s="16">
+        <v>610.78</v>
+      </c>
       <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="16">
+        <v>610.78</v>
+      </c>
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
-      <c r="B87" s="55"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="12" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G87" s="16">
+        <v>277.89999999999998</v>
+      </c>
       <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+      <c r="I87" s="16">
+        <v>277.89999999999998</v>
+      </c>
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
-      <c r="B88" s="56"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="15"/>
@@ -3988,17 +4076,13 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="50">
-        <v>26</v>
-      </c>
-      <c r="B89" s="55" t="s">
-        <v>241</v>
-      </c>
+      <c r="A89" s="47"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="15"/>
@@ -4008,175 +4092,145 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="50"/>
-      <c r="B90" s="55"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="48"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="11"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="47">
+        <v>26</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="47"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E93" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F93" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G93" s="16">
         <v>15.29</v>
-      </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="16">
-        <v>15.29</v>
-      </c>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="50"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G91" s="16">
-        <v>56.65</v>
-      </c>
-      <c r="H91" s="12"/>
-      <c r="I91" s="16">
-        <v>56.65</v>
-      </c>
-      <c r="J91" s="11"/>
-    </row>
-    <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="11">
-        <v>27</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G92" s="16">
-        <v>57.28</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="16">
-        <v>57.28</v>
-      </c>
-      <c r="J92" s="11"/>
-    </row>
-    <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11">
-        <v>28</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G93" s="16">
-        <v>2340</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="16">
-        <v>2340</v>
+        <v>15.29</v>
       </c>
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11">
-        <v>29</v>
-      </c>
-      <c r="B94" s="58" t="s">
-        <v>259</v>
-      </c>
+      <c r="A94" s="47"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="12" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="G94" s="16">
-        <v>851.72</v>
+        <v>56.65</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="16">
-        <v>851.72</v>
+        <v>56.65</v>
       </c>
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="56"/>
+      <c r="A95" s="11">
+        <v>27</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="C95" s="12" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="G95" s="16">
-        <v>129.71</v>
+        <v>57.28</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="16">
-        <v>129.71</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>251</v>
-      </c>
+        <v>57.28</v>
+      </c>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>255</v>
@@ -4185,293 +4239,403 @@
         <v>256</v>
       </c>
       <c r="G96" s="16">
-        <v>150</v>
+        <v>2340</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="16">
-        <v>150</v>
+        <v>2340</v>
       </c>
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
-        <v>31</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>263</v>
+        <v>29</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G97" s="16">
-        <v>220</v>
+        <v>851.72</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="16">
-        <v>220</v>
+        <v>851.72</v>
       </c>
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11">
-        <v>32</v>
-      </c>
-      <c r="B98" s="58" t="s">
-        <v>272</v>
-      </c>
+      <c r="A98" s="11"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="12" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G98" s="16">
-        <v>152.07</v>
+        <v>129.71</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="16">
-        <v>152.07</v>
-      </c>
-      <c r="J98" s="11"/>
+        <v>129.71</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
-        <v>33</v>
-      </c>
-      <c r="B99" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="C99" s="12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>255</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G99" s="16">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="16">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
-        <v>34</v>
-      </c>
-      <c r="B100" s="58" t="s">
-        <v>273</v>
+        <v>31</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="G100" s="16">
-        <v>2500</v>
+        <v>220</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="16">
-        <v>2500</v>
+        <v>220</v>
       </c>
       <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
-        <v>35</v>
-      </c>
-      <c r="B101" s="56"/>
+        <v>32</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>272</v>
+      </c>
       <c r="C101" s="12" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G101" s="16">
-        <v>3206</v>
+        <v>152.07</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="16">
-        <v>3206</v>
+        <v>152.07</v>
       </c>
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
-        <v>36</v>
-      </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="B102" s="39"/>
+      <c r="C102" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G102" s="16">
+        <v>273</v>
+      </c>
       <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="I102" s="16">
+        <v>273</v>
+      </c>
       <c r="J102" s="11"/>
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
-        <v>37</v>
-      </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G103" s="16">
+        <v>2500</v>
+      </c>
       <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="16">
+        <v>2500</v>
+      </c>
       <c r="J103" s="11"/>
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
-        <v>38</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="B104" s="50"/>
+      <c r="C104" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G104" s="16">
+        <v>3206</v>
+      </c>
       <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="I104" s="16">
+        <v>3206</v>
+      </c>
       <c r="J104" s="11"/>
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
-        <v>39</v>
-      </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="B105" s="50"/>
+      <c r="C105" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G105" s="16">
+        <v>400</v>
+      </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
-        <v>40</v>
-      </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="B106" s="50"/>
+      <c r="C106" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G106" s="16">
+        <v>1700</v>
+      </c>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
-        <v>41</v>
-      </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="B107" s="50"/>
+      <c r="C107" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G107" s="16">
+        <v>982</v>
+      </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
-        <v>42</v>
-      </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="B108" s="50"/>
+      <c r="C108" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G108" s="16">
+        <v>500</v>
+      </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
-        <v>43</v>
-      </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="B109" s="50"/>
+      <c r="C109" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="G109" s="16">
+        <v>1580</v>
+      </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="11">
-        <v>44</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="16"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G110" s="16">
+        <v>120</v>
+      </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
-        <v>45</v>
-      </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G111" s="16">
+        <v>1000</v>
+      </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="12"/>
@@ -4485,7 +4649,7 @@
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="12"/>
@@ -4497,51 +4661,91 @@
       <c r="I113" s="12"/>
       <c r="J113" s="11"/>
     </row>
+    <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="11">
+        <v>44</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="11"/>
+    </row>
+    <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="11">
+        <v>45</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="11">
+        <v>46</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="11">
+        <v>47</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="J67:J72"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B73"/>
-    <mergeCell ref="A59:A73"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
+  <mergeCells count="85">
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A16:A23"/>
     <mergeCell ref="A24:A29"/>
@@ -4558,33 +4762,48 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G16:G23"/>
     <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I16:I23"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4955,13 +5174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -5167,28 +5386,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="68" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -5198,9 +5417,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39E054-3A63-4793-92CE-361391D3EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F033E8D-04F4-42C8-A275-725A17CBD5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="总价表" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="水管" sheetId="3" r:id="rId3"/>
-    <sheet name="窗" sheetId="1" r:id="rId4"/>
+    <sheet name="门窗表" sheetId="5" r:id="rId1"/>
+    <sheet name="总价表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="水管" sheetId="3" r:id="rId4"/>
+    <sheet name="窗" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1294,6 +1295,211 @@
   </si>
   <si>
     <t>黄林微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>水管，防盗门运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中诺管业</t>
+  </si>
+  <si>
+    <t>PPR水管</t>
+  </si>
+  <si>
+    <t>PVC管配件</t>
+  </si>
+  <si>
+    <t>304不锈钢进户水管</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢水管</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰宇门窗</t>
+  </si>
+  <si>
+    <t>2023.11.16</t>
+  </si>
+  <si>
+    <t>304不锈钢窗，一周发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.15</t>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>兢业旗舰店</t>
+  </si>
+  <si>
+    <t>2023.11.14</t>
+  </si>
+  <si>
+    <t>到货检查</t>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电暖卫家装</t>
+  </si>
+  <si>
+    <t>1栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高铁票</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地</t>
+  </si>
+  <si>
+    <t>线材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPR水管</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4平方线材，100米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75#-110#热熔器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热缩管，地线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPR配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甩棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手盆水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万州工人费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,7 +1510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1396,8 +1602,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,8 +1637,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1542,12 +1769,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1658,51 +1964,219 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1766,18 +2240,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{6D64EA4D-9A41-4310-B70D-6E41787A3F58}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2055,12 +2521,3093 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}">
+  <dimension ref="A1:J170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95:G96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12" style="42" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="68">
+        <f>SUM(G2:G170)</f>
+        <v>30907.820000000007</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" s="52">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="89">
+        <f>SUM(G2:G3)</f>
+        <v>2400</v>
+      </c>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="45">
+        <v>1</v>
+      </c>
+      <c r="G3" s="47">
+        <v>1200</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="76">
+        <v>2</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="45">
+        <v>1</v>
+      </c>
+      <c r="G4" s="47">
+        <v>720</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="92">
+        <f>SUM(G4:G9)</f>
+        <v>3180</v>
+      </c>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="45">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47">
+        <v>720</v>
+      </c>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="45">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47">
+        <v>468</v>
+      </c>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1</v>
+      </c>
+      <c r="G7" s="47">
+        <v>432</v>
+      </c>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1</v>
+      </c>
+      <c r="G8" s="47">
+        <v>365</v>
+      </c>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1</v>
+      </c>
+      <c r="G9" s="47">
+        <v>475</v>
+      </c>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="81"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="76">
+        <v>3</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="45">
+        <v>1</v>
+      </c>
+      <c r="G10" s="93">
+        <v>630</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="92">
+        <v>630</v>
+      </c>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="45">
+        <v>1</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="92"/>
+      <c r="J11" s="81"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="61">
+        <v>1</v>
+      </c>
+      <c r="G12" s="82">
+        <v>1387.81</v>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="87">
+        <v>1387.81</v>
+      </c>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="61">
+        <v>1</v>
+      </c>
+      <c r="G13" s="86"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="80"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="61">
+        <v>1</v>
+      </c>
+      <c r="G14" s="86"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="80"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="61">
+        <v>2</v>
+      </c>
+      <c r="G15" s="86"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="61">
+        <v>2</v>
+      </c>
+      <c r="G16" s="86"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="80"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="61">
+        <v>4</v>
+      </c>
+      <c r="G17" s="86"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="61">
+        <v>5</v>
+      </c>
+      <c r="G18" s="86"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="80"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="61">
+        <v>1</v>
+      </c>
+      <c r="G19" s="83"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="81"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="61">
+        <v>1</v>
+      </c>
+      <c r="G20" s="82">
+        <v>180.56</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="I20" s="87">
+        <v>180.56</v>
+      </c>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="61">
+        <v>2</v>
+      </c>
+      <c r="G21" s="86"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="80"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="61">
+        <v>2</v>
+      </c>
+      <c r="G22" s="86"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="61">
+        <v>1</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="80"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="61">
+        <v>2</v>
+      </c>
+      <c r="G24" s="86"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="80"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="61">
+        <v>1</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="81"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="61">
+        <v>1</v>
+      </c>
+      <c r="G26" s="82">
+        <v>1950</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="61">
+        <v>1</v>
+      </c>
+      <c r="G27" s="83"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="45">
+        <v>1</v>
+      </c>
+      <c r="G28" s="47">
+        <v>99.52</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="47">
+        <v>388.36</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="63"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="45">
+        <v>1</v>
+      </c>
+      <c r="G30" s="47">
+        <v>152.41999999999999</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="47">
+        <v>15.15</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="63"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="45">
+        <v>4</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="45">
+        <v>1</v>
+      </c>
+      <c r="G32" s="47">
+        <v>75</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="63"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="76">
+        <v>5</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="45">
+        <v>40</v>
+      </c>
+      <c r="G33" s="47">
+        <v>23.43</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="47">
+        <v>27.2</v>
+      </c>
+      <c r="H34" s="46"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="45">
+        <v>10</v>
+      </c>
+      <c r="G35" s="47">
+        <v>11.89</v>
+      </c>
+      <c r="H35" s="46"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="45">
+        <v>2</v>
+      </c>
+      <c r="G36" s="47">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="45">
+        <v>2</v>
+      </c>
+      <c r="G37" s="47">
+        <v>20.09</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="45">
+        <v>3</v>
+      </c>
+      <c r="G38" s="47">
+        <v>17.7</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="45">
+        <v>3</v>
+      </c>
+      <c r="G39" s="47">
+        <v>7.57</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="44"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="45">
+        <v>2</v>
+      </c>
+      <c r="G40" s="47">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="H40" s="46"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="44"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="45">
+        <v>5</v>
+      </c>
+      <c r="G41" s="47">
+        <v>7.82</v>
+      </c>
+      <c r="H41" s="46"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="44"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="59">
+        <v>128.75</v>
+      </c>
+      <c r="H42" s="46"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="44"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="47">
+        <v>46.93</v>
+      </c>
+      <c r="H43" s="46"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="44"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="47">
+        <v>486</v>
+      </c>
+      <c r="H44" s="46"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="76">
+        <v>6</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="47">
+        <v>15.41</v>
+      </c>
+      <c r="H45" s="46"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="44"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="47">
+        <v>15.7</v>
+      </c>
+      <c r="H46" s="46"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="44"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="47">
+        <v>101.2</v>
+      </c>
+      <c r="H47" s="46"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="60">
+        <v>17.16</v>
+      </c>
+      <c r="H48" s="46"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="44"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E49" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="60">
+        <v>19.43</v>
+      </c>
+      <c r="H49" s="46"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="44"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="60">
+        <v>14.29</v>
+      </c>
+      <c r="H50" s="46"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="44"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="77"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="60">
+        <v>15.78</v>
+      </c>
+      <c r="H51" s="46"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="44"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="77"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="47">
+        <v>277.45999999999998</v>
+      </c>
+      <c r="H52" s="46"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="44"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="77"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="47">
+        <v>22.67</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="44"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="77"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="47">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="H54" s="46"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="44"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="77"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="45">
+        <v>8</v>
+      </c>
+      <c r="G55" s="47">
+        <v>12.55</v>
+      </c>
+      <c r="H55" s="46"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="44"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="77"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="45">
+        <v>6</v>
+      </c>
+      <c r="G56" s="47">
+        <v>8.84</v>
+      </c>
+      <c r="H56" s="46"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="44"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="77"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="45">
+        <v>8</v>
+      </c>
+      <c r="G57" s="47">
+        <v>22.7</v>
+      </c>
+      <c r="H57" s="46"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="44"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="76">
+        <v>7</v>
+      </c>
+      <c r="B58" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="45">
+        <v>60.52</v>
+      </c>
+      <c r="H58" s="46"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="44"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="77"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="45">
+        <v>10.48</v>
+      </c>
+      <c r="H59" s="46"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="44"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="77"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="47">
+        <v>169.79</v>
+      </c>
+      <c r="H60" s="46"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="44"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="77"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="47">
+        <v>610.78</v>
+      </c>
+      <c r="H61" s="46"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="44"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="47">
+        <v>57.28</v>
+      </c>
+      <c r="H62" s="46"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="44"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="76">
+        <v>8</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" s="47">
+        <v>15.29</v>
+      </c>
+      <c r="H63" s="46"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="44"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="77"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="47">
+        <v>56.65</v>
+      </c>
+      <c r="H64" s="46"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="44"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="77"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="47">
+        <v>41.2</v>
+      </c>
+      <c r="H65" s="46"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="44"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="77"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" s="47">
+        <v>18</v>
+      </c>
+      <c r="H66" s="46"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="44"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="77"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="42">
+        <v>20.78</v>
+      </c>
+      <c r="H67" s="46"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="44"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" s="47">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H68" s="46"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="44"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="76">
+        <v>9</v>
+      </c>
+      <c r="B69" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" s="47">
+        <v>106.08</v>
+      </c>
+      <c r="H69" s="46"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="44"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="77"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="47">
+        <v>4.12</v>
+      </c>
+      <c r="H70" s="46"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="44"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="77"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="47">
+        <v>21.12</v>
+      </c>
+      <c r="H71" s="46"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="44"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="78"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="47">
+        <v>30.12</v>
+      </c>
+      <c r="H72" s="46"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="44"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="76">
+        <v>10</v>
+      </c>
+      <c r="B73" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" s="47">
+        <v>210</v>
+      </c>
+      <c r="H73" s="46"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="44"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="78"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="47">
+        <v>277.89999999999998</v>
+      </c>
+      <c r="H74" s="46"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="76">
+        <v>11</v>
+      </c>
+      <c r="B75" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G75" s="47">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="H75" s="46"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="44"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="77"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="45"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="44"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="G77" s="47">
+        <v>220</v>
+      </c>
+      <c r="H77" s="46"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="44"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="76">
+        <v>12</v>
+      </c>
+      <c r="B78" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G78" s="47">
+        <v>2340</v>
+      </c>
+      <c r="H78" s="46"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="44"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="77"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G79" s="47">
+        <v>851.72</v>
+      </c>
+      <c r="H79" s="46"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="44"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="77"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G80" s="47">
+        <v>150</v>
+      </c>
+      <c r="H80" s="46"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="44"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="77"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="G81" s="47">
+        <v>152.07</v>
+      </c>
+      <c r="H81" s="46"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="44"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="78"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82" s="47">
+        <v>273</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="I82" s="63"/>
+      <c r="J82" s="44"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="76">
+        <v>13</v>
+      </c>
+      <c r="B83" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E83" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G83" s="47">
+        <v>2500</v>
+      </c>
+      <c r="H83" s="46"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="44"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="78"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G84" s="47">
+        <v>3206</v>
+      </c>
+      <c r="H84" s="46"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="44"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="45">
+        <v>14</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85" s="46"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="44"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="76">
+        <v>15</v>
+      </c>
+      <c r="B86" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G86" s="47">
+        <v>598.64</v>
+      </c>
+      <c r="I86" s="63"/>
+      <c r="J86" s="44"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="77"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G87" s="47">
+        <v>159.32</v>
+      </c>
+      <c r="H87" s="46"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="44"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="77"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F88" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G88" s="47">
+        <v>129.71</v>
+      </c>
+      <c r="H88" s="46"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="44"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="77"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89" s="47">
+        <v>400</v>
+      </c>
+      <c r="I89" s="63"/>
+      <c r="J89" s="44"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="77"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G90" s="47">
+        <v>1700</v>
+      </c>
+      <c r="H90" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="I90" s="63"/>
+      <c r="J90" s="44"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="77"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91" s="47">
+        <v>982</v>
+      </c>
+      <c r="H91" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="I91" s="63"/>
+      <c r="J91" s="44"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="77"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G92" s="47">
+        <v>500</v>
+      </c>
+      <c r="H92" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="I92" s="63"/>
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="77"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G93" s="47">
+        <v>1580</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="I93" s="63"/>
+      <c r="J93" s="44"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="78"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="E94" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="F94" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G94" s="47">
+        <v>120</v>
+      </c>
+      <c r="H94" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="I94" s="63"/>
+      <c r="J94" s="44"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="76">
+        <v>16</v>
+      </c>
+      <c r="B95" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G95" s="82">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="H95" s="46"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="44"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="78"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="F96" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="G96" s="83"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="63"/>
+      <c r="J96" s="44"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="76">
+        <v>17</v>
+      </c>
+      <c r="B97" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="F97" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="G97" s="47">
+        <v>21.91</v>
+      </c>
+      <c r="H97" s="46"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="44"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="77"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="G98" s="47">
+        <v>132.5</v>
+      </c>
+      <c r="H98" s="46"/>
+      <c r="I98" s="63"/>
+      <c r="J98" s="44"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="77"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="F99" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G99" s="47">
+        <v>50.8</v>
+      </c>
+      <c r="H99" s="46"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="44"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="78"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="F100" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="G100" s="47">
+        <v>27.35</v>
+      </c>
+      <c r="H100" s="46"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="44"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="45">
+        <v>18</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E101" s="44"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="47">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="63"/>
+      <c r="J101" s="46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="44"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="44"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="44"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="44"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="44"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="44"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="63"/>
+      <c r="J108" s="44"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="44"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="44"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="44"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="44"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="44"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="44"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="44"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="63"/>
+      <c r="J116" s="44"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="44"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="44"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="63"/>
+      <c r="J119" s="44"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="45"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="63"/>
+      <c r="J120" s="44"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="63"/>
+      <c r="J121" s="44"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="45"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="44"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="63"/>
+      <c r="J123" s="44"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="44"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="63"/>
+      <c r="J125" s="44"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="44"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="63"/>
+      <c r="J127" s="44"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="63"/>
+      <c r="J128" s="44"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="63"/>
+      <c r="J129" s="44"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="44"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="44"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="63"/>
+      <c r="J132" s="44"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="63"/>
+      <c r="J133" s="44"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="63"/>
+      <c r="J134" s="44"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="63"/>
+      <c r="J135" s="44"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="44"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="63"/>
+      <c r="J136" s="44"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="63"/>
+      <c r="J137" s="44"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="63"/>
+      <c r="J138" s="44"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="44"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="63"/>
+      <c r="J139" s="44"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="63"/>
+      <c r="J140" s="44"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="63"/>
+      <c r="J141" s="44"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="63"/>
+      <c r="J142" s="44"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="63"/>
+      <c r="J143" s="44"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="63"/>
+      <c r="J144" s="44"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="63"/>
+      <c r="J145" s="44"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="63"/>
+      <c r="J146" s="44"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="63"/>
+      <c r="J147" s="44"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="63"/>
+      <c r="J148" s="44"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="44"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="63"/>
+      <c r="J150" s="44"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="63"/>
+      <c r="J151" s="44"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="44"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="46"/>
+      <c r="I153" s="63"/>
+      <c r="J153" s="44"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="44"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="46"/>
+      <c r="I154" s="63"/>
+      <c r="J154" s="44"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="45"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="44"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="45"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="45"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="46"/>
+      <c r="I156" s="63"/>
+      <c r="J156" s="44"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="45"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="63"/>
+      <c r="J157" s="44"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="45"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="45"/>
+      <c r="G158" s="45"/>
+      <c r="H158" s="46"/>
+      <c r="I158" s="63"/>
+      <c r="J158" s="44"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="63"/>
+      <c r="J159" s="44"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="63"/>
+      <c r="J160" s="44"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="63"/>
+      <c r="J161" s="44"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="46"/>
+      <c r="I162" s="63"/>
+      <c r="J162" s="44"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
+      <c r="C163" s="44"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="44"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="46"/>
+      <c r="I163" s="63"/>
+      <c r="J163" s="44"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="46"/>
+      <c r="E164" s="44"/>
+      <c r="F164" s="45"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="46"/>
+      <c r="I164" s="63"/>
+      <c r="J164" s="44"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="45"/>
+      <c r="B165" s="45"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="46"/>
+      <c r="I165" s="63"/>
+      <c r="J165" s="44"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="46"/>
+      <c r="I166" s="63"/>
+      <c r="J166" s="44"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="46"/>
+      <c r="I167" s="63"/>
+      <c r="J167" s="44"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="45"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="46"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="45"/>
+      <c r="H168" s="46"/>
+      <c r="I168" s="63"/>
+      <c r="J168" s="44"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="46"/>
+      <c r="E169" s="44"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="46"/>
+      <c r="I169" s="63"/>
+      <c r="J169" s="44"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="45"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="46"/>
+      <c r="I170" s="63"/>
+      <c r="J170" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D83:D84"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4B38C-0E57-4DCD-BB20-235DA37D610B}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2081,19 +5628,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="114" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -2103,31 +5650,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="120" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="65"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="121"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -2147,7 +5694,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="96" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -2156,11 +5703,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="103">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="99" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2180,21 +5727,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="97">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="109" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2204,17 +5751,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="104"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="46"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -2222,17 +5769,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="48"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+      <c r="A7" s="100">
         <v>4</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="108" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2241,48 +5788,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="113">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="113">
         <v>630</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="97" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="48"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+      <c r="A9" s="97">
         <v>5</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="94" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2294,26 +5841,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="94" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="101">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="97" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -2323,17 +5870,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="47"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -2343,17 +5890,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -2363,17 +5910,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="47"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -2383,17 +5930,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="47"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="98"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -2403,13 +5950,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="48"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -2444,10 +5991,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="A16" s="97">
         <v>7</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="111" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -2456,140 +6003,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="101">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="43">
+      <c r="H16" s="104"/>
+      <c r="I16" s="101">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="97" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="47"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="98"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="47"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="98"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="47"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="98"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="47"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="98"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="47"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="48"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
+      <c r="A24" s="97">
         <v>8</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="94" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -2598,108 +6145,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="101">
         <v>180.56</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="43">
+      <c r="H24" s="104"/>
+      <c r="I24" s="101">
         <v>180.56</v>
       </c>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="97" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="47"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="98"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="47"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="98"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="47"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="98"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="47"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="98"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="48"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
+      <c r="A30" s="97">
         <v>16</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="94" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -2708,41 +6255,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="101">
         <v>1950</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="43">
+      <c r="H30" s="104"/>
+      <c r="I30" s="101">
         <v>180.56</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="97" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="48"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46">
+      <c r="A32" s="97">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -2772,7 +6319,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -2830,7 +6377,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="97">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2860,8 +6407,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="94" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -2888,8 +6435,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -2914,8 +6461,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="104" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -2940,8 +6487,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -2964,8 +6511,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -2988,8 +6535,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="98"/>
+      <c r="B41" s="104" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -3014,8 +6561,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -3038,8 +6585,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -3062,8 +6609,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -3116,10 +6663,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46">
+      <c r="A46" s="97">
         <v>21</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="94" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -3144,8 +6691,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -3168,8 +6715,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -3192,8 +6739,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -3214,8 +6761,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -3225,7 +6772,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="94" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -3238,8 +6785,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
-      <c r="B51" s="50"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -3249,7 +6796,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="50"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -3260,8 +6807,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="95"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -3271,7 +6818,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="39"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -3282,10 +6829,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="97">
         <v>22</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="94" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -3297,7 +6844,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="94" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -3310,8 +6857,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="50"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -3321,7 +6868,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="50"/>
+      <c r="F54" s="96"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -3332,8 +6879,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="50"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -3343,7 +6890,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="96"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -3354,8 +6901,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="50"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -3365,7 +6912,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="50"/>
+      <c r="F56" s="96"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -3376,8 +6923,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="50"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -3387,7 +6934,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="50"/>
+      <c r="F57" s="96"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -3398,8 +6945,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="50"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="96"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -3409,7 +6956,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="39"/>
+      <c r="F58" s="95"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -3420,10 +6967,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="46">
+      <c r="A59" s="97">
         <v>23</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="94" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -3448,8 +6995,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="50"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -3472,8 +7019,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="50"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -3496,8 +7043,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="50"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -3520,8 +7067,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="50"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -3531,17 +7078,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="38"/>
+      <c r="F63" s="94"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="46"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="97"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="50"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -3551,17 +7098,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="50"/>
+      <c r="F64" s="96"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="52"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="47"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="98"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="50"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -3571,17 +7118,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="50"/>
+      <c r="F65" s="96"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="52"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="47"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="98"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="50"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -3591,17 +7138,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="39"/>
+      <c r="F66" s="95"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="42"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="48"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="99"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="50"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -3611,23 +7158,23 @@
       <c r="E67" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="104" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="43">
+      <c r="G67" s="101">
         <v>67.959999999999994</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="43">
+      <c r="I67" s="101">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="46" t="s">
+      <c r="J67" s="97" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="50"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -3637,15 +7184,15 @@
       <c r="E68" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="42"/>
-      <c r="G68" s="44"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="103"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="48"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="99"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
-      <c r="B69" s="50"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -3656,8 +7203,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="50"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -3670,15 +7217,15 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="74" t="s">
+      <c r="A71" s="98"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="D71" s="75" t="s">
+      <c r="D71" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="E71" s="75" t="s">
+      <c r="E71" s="39" t="s">
         <v>313</v>
       </c>
       <c r="F71" s="37"/>
@@ -3690,15 +7237,15 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="76" t="s">
+      <c r="A72" s="98"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="75" t="s">
+      <c r="E72" s="39" t="s">
         <v>313</v>
       </c>
       <c r="F72" s="37"/>
@@ -3710,15 +7257,15 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="76" t="s">
+      <c r="A73" s="98"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="D73" s="75" t="s">
+      <c r="D73" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="E73" s="75" t="s">
+      <c r="E73" s="39" t="s">
         <v>313</v>
       </c>
       <c r="F73" s="37"/>
@@ -3730,15 +7277,15 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="76" t="s">
+      <c r="A74" s="98"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="D74" s="75" t="s">
+      <c r="D74" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="E74" s="75" t="s">
+      <c r="E74" s="39" t="s">
         <v>313</v>
       </c>
       <c r="F74" s="37"/>
@@ -3750,8 +7297,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="50"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="96"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -3770,8 +7317,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="50"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="96"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -3794,10 +7341,10 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="49">
+      <c r="A77" s="100">
         <v>24</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="107" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -3824,8 +7371,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="49"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -3848,8 +7395,8 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="49"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -3872,8 +7419,8 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="49"/>
-      <c r="B80" s="40"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -3896,8 +7443,8 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="107"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -3920,8 +7467,8 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="49"/>
-      <c r="B82" s="40"/>
+      <c r="A82" s="100"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -3944,8 +7491,8 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="49"/>
-      <c r="B83" s="40"/>
+      <c r="A83" s="100"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -3968,8 +7515,8 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="49"/>
-      <c r="B84" s="40"/>
+      <c r="A84" s="100"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -3992,8 +7539,8 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="49"/>
-      <c r="B85" s="40"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -4008,10 +7555,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="46">
+      <c r="A86" s="97">
         <v>25</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="94" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -4036,8 +7583,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
-      <c r="B87" s="50"/>
+      <c r="A87" s="98"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -4060,8 +7607,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
-      <c r="B88" s="50"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -4076,8 +7623,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="50"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -4092,8 +7639,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
-      <c r="B90" s="50"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -4108,8 +7655,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="48"/>
-      <c r="B91" s="39"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="95"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -4124,10 +7671,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47">
+      <c r="A92" s="98">
         <v>26</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="96" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -4144,8 +7691,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="50"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -4168,8 +7715,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="50"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="96"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -4251,7 +7798,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="94" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -4277,7 +7824,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="39"/>
+      <c r="B98" s="95"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -4361,7 +7908,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="94" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -4389,7 +7936,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="39"/>
+      <c r="B102" s="95"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -4415,7 +7962,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="94" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -4443,7 +7990,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="50"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -4469,7 +8016,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="50"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -4493,7 +8040,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="50"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -4517,7 +8064,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="50"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -4541,7 +8088,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="50"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -4565,7 +8112,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="50"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -4587,7 +8134,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="39"/>
+      <c r="B110" s="95"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -4780,6 +8327,7 @@
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="E16:E23"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B77:B85"/>
     <mergeCell ref="A35:A44"/>
     <mergeCell ref="B46:B52"/>
     <mergeCell ref="A53:A58"/>
@@ -4787,6 +8335,8 @@
     <mergeCell ref="B59:B76"/>
     <mergeCell ref="A59:A76"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B110"/>
     <mergeCell ref="J63:J66"/>
     <mergeCell ref="A77:A85"/>
     <mergeCell ref="F63:F66"/>
@@ -4801,9 +8351,6 @@
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="J67:J68"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4814,7 +8361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA731C1E-5968-48FD-8DF0-32A7DA89FFAA}">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -5155,7 +8702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71580FCD-90D0-45A8-A45B-29CD4EF2655C}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -5174,13 +8721,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -5367,7 +8914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -5386,28 +8933,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="69" t="s">
+      <c r="D1" s="128"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="67"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -5417,9 +8964,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="68"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F033E8D-04F4-42C8-A275-725A17CBD5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5709FA-9014-4366-ADA7-9E93B1E5D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="400">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,6 +1500,110 @@
   </si>
   <si>
     <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEL安防官方旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TONYON锁具旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄铜款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳乐汇家居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90度直角门锁扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江豪门电力科技工厂店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行分线器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京选京诚专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jerxun京选旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝刀批头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JERXUN京选伐姆勒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹钳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1644,7 +1748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1845,6 +1949,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1853,7 +1988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2060,14 +2195,71 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2078,144 +2270,90 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2239,6 +2377,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2522,11 +2669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95:G96"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2563,8 +2710,8 @@
         <v>338</v>
       </c>
       <c r="G1" s="68">
-        <f>SUM(G2:G170)</f>
-        <v>30907.820000000007</v>
+        <f>SUM(G2:G171)</f>
+        <v>31075.30000000001</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>337</v>
@@ -2577,10 +2724,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="77">
+      <c r="A2" s="73">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="73" t="s">
         <v>334</v>
       </c>
       <c r="C2" s="71" t="s">
@@ -2601,15 +2748,15 @@
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="89">
+      <c r="I2" s="79">
         <f>SUM(G2:G3)</f>
         <v>2400</v>
       </c>
       <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="46" t="s">
@@ -2624,7 +2771,7 @@
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="90"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2634,10 +2781,10 @@
       <c r="B4" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="75" t="s">
         <v>327</v>
       </c>
       <c r="E4" s="44" t="s">
@@ -2649,18 +2796,18 @@
       <c r="G4" s="47">
         <v>720</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="81">
         <f>SUM(G4:G9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="79"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
       <c r="E5" s="44" t="s">
@@ -2672,13 +2819,13 @@
       <c r="G5" s="47">
         <v>720</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
       <c r="E6" s="44" t="s">
@@ -2690,13 +2837,13 @@
       <c r="G6" s="47">
         <v>468</v>
       </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="80"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
       <c r="E7" s="44" t="s">
@@ -2708,13 +2855,13 @@
       <c r="G7" s="47">
         <v>432</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="80"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
       <c r="E8" s="44" t="s">
@@ -2726,13 +2873,13 @@
       <c r="G8" s="47">
         <v>365</v>
       </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="80"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="44" t="s">
@@ -2744,9 +2891,9 @@
       <c r="G9" s="47">
         <v>475</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="76">
@@ -2755,10 +2902,10 @@
       <c r="B10" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="75" t="s">
         <v>327</v>
       </c>
       <c r="E10" s="44" t="s">
@@ -2767,21 +2914,21 @@
       <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="80">
         <v>630</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="81">
         <v>630</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="81"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="72"/>
       <c r="E11" s="44" t="s">
         <v>73</v>
@@ -2789,20 +2936,20 @@
       <c r="F11" s="45">
         <v>1</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="79" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="75" t="s">
         <v>350</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -2814,16 +2961,16 @@
       <c r="G12" s="82">
         <v>1387.81</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="87">
+      <c r="H12" s="75"/>
+      <c r="I12" s="77">
         <v>1387.81</v>
       </c>
-      <c r="J12" s="79"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="71"/>
       <c r="E13" s="62" t="s">
         <v>131</v>
@@ -2831,15 +2978,15 @@
       <c r="F13" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="86"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="71"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="80"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="80"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="71"/>
       <c r="E14" s="62" t="s">
         <v>130</v>
@@ -2847,15 +2994,15 @@
       <c r="F14" s="61">
         <v>1</v>
       </c>
-      <c r="G14" s="86"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="71"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="80"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="71"/>
       <c r="E15" s="62" t="s">
         <v>129</v>
@@ -2863,15 +3010,15 @@
       <c r="F15" s="61">
         <v>2</v>
       </c>
-      <c r="G15" s="86"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="71"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="80"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="80"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="71"/>
       <c r="E16" s="62" t="s">
         <v>128</v>
@@ -2879,15 +3026,15 @@
       <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="71"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="80"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="80"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="71"/>
       <c r="E17" s="62" t="s">
         <v>127</v>
@@ -2895,15 +3042,15 @@
       <c r="F17" s="61">
         <v>4</v>
       </c>
-      <c r="G17" s="86"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="71"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="80"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="91"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="80"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="71"/>
       <c r="E18" s="62" t="s">
         <v>144</v>
@@ -2911,15 +3058,15 @@
       <c r="F18" s="61">
         <v>5</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="80"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="81"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="72"/>
       <c r="E19" s="62" t="s">
         <v>126</v>
@@ -2927,18 +3074,18 @@
       <c r="F19" s="61">
         <v>1</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="72"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="79" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="75" t="s">
         <v>326</v>
       </c>
       <c r="E20" s="62" t="s">
@@ -2950,18 +3097,18 @@
       <c r="G20" s="82">
         <v>180.56</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="77">
         <v>180.56</v>
       </c>
-      <c r="J20" s="79"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="71"/>
       <c r="E21" s="62" t="s">
         <v>133</v>
@@ -2969,15 +3116,15 @@
       <c r="F21" s="61">
         <v>2</v>
       </c>
-      <c r="G21" s="86"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="80"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="80"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="71"/>
       <c r="E22" s="62" t="s">
         <v>134</v>
@@ -2985,15 +3132,15 @@
       <c r="F22" s="61">
         <v>2</v>
       </c>
-      <c r="G22" s="86"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="80"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="80"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="71"/>
       <c r="E23" s="62" t="s">
         <v>135</v>
@@ -3001,15 +3148,15 @@
       <c r="F23" s="61">
         <v>1</v>
       </c>
-      <c r="G23" s="86"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="71"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="80"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="71"/>
       <c r="E24" s="62" t="s">
         <v>136</v>
@@ -3017,15 +3164,15 @@
       <c r="F24" s="61">
         <v>2</v>
       </c>
-      <c r="G24" s="86"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="71"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="80"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="91"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="81"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="72"/>
       <c r="E25" s="62" t="s">
         <v>137</v>
@@ -3033,18 +3180,18 @@
       <c r="F25" s="61">
         <v>1</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="72"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="81"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="79" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="87" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="62" t="s">
@@ -3061,24 +3208,24 @@
       <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="85"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="62" t="s">
         <v>140</v>
       </c>
       <c r="F27" s="61">
         <v>1</v>
       </c>
-      <c r="G27" s="83"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="46"/>
       <c r="I27" s="63"/>
       <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="46" t="s">
         <v>83</v>
       </c>
@@ -3099,8 +3246,8 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="46" t="s">
         <v>89</v>
       </c>
@@ -3123,8 +3270,8 @@
       <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="46" t="s">
         <v>86</v>
       </c>
@@ -3147,8 +3294,8 @@
       <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="46" t="s">
         <v>90</v>
       </c>
@@ -3225,8 +3372,8 @@
       <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="46" t="s">
         <v>166</v>
       </c>
@@ -3247,9 +3394,9 @@
       <c r="J34" s="44"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="70" t="s">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="75" t="s">
         <v>170</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -3269,8 +3416,8 @@
       <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="71"/>
       <c r="D36" s="46" t="s">
         <v>324</v>
@@ -3289,8 +3436,8 @@
       <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="71"/>
       <c r="D37" s="46" t="s">
         <v>324</v>
@@ -3309,8 +3456,8 @@
       <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="71"/>
       <c r="D38" s="46" t="s">
         <v>324</v>
@@ -3329,8 +3476,8 @@
       <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="71"/>
       <c r="D39" s="46" t="s">
         <v>324</v>
@@ -3349,8 +3496,8 @@
       <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="71"/>
       <c r="D40" s="46" t="s">
         <v>324</v>
@@ -3369,8 +3516,8 @@
       <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="71"/>
       <c r="D41" s="46" t="s">
         <v>324</v>
@@ -3389,8 +3536,8 @@
       <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="72"/>
       <c r="D42" s="46" t="s">
         <v>323</v>
@@ -3409,8 +3556,8 @@
       <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="46" t="s">
         <v>173</v>
       </c>
@@ -3431,8 +3578,8 @@
       <c r="J43" s="44"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="46" t="s">
         <v>179</v>
       </c>
@@ -3479,8 +3626,8 @@
       <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="46" t="s">
         <v>184</v>
       </c>
@@ -3501,8 +3648,8 @@
       <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="46" t="s">
         <v>187</v>
       </c>
@@ -3523,9 +3670,9 @@
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="79" t="s">
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="89" t="s">
         <v>322</v>
       </c>
       <c r="D48" s="46" t="s">
@@ -3545,9 +3692,9 @@
       <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="80"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="46" t="s">
         <v>361</v>
       </c>
@@ -3565,9 +3712,9 @@
       <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="80"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="46" t="s">
         <v>361</v>
       </c>
@@ -3585,9 +3732,9 @@
       <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="81"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="46" t="s">
         <v>361</v>
       </c>
@@ -3605,8 +3752,8 @@
       <c r="J51" s="44"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="46" t="s">
         <v>202</v>
       </c>
@@ -3627,8 +3774,8 @@
       <c r="J52" s="44"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="46" t="s">
         <v>189</v>
       </c>
@@ -3649,8 +3796,8 @@
       <c r="J53" s="44"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="77"/>
-      <c r="B54" s="77"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="46" t="s">
         <v>203</v>
       </c>
@@ -3671,12 +3818,12 @@
       <c r="J54" s="44"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="77"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="70" t="s">
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="75" t="s">
         <v>359</v>
       </c>
       <c r="E55" s="44" t="s">
@@ -3693,8 +3840,8 @@
       <c r="J55" s="44"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="77"/>
-      <c r="B56" s="77"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="44" t="s">
@@ -3711,8 +3858,8 @@
       <c r="J56" s="44"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
       <c r="E57" s="44" t="s">
@@ -3755,8 +3902,8 @@
       <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="46" t="s">
         <v>215</v>
       </c>
@@ -3777,8 +3924,8 @@
       <c r="J59" s="44"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="77"/>
-      <c r="B60" s="77"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="46" t="s">
         <v>209</v>
       </c>
@@ -3799,8 +3946,8 @@
       <c r="J60" s="44"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="46" t="s">
         <v>221</v>
       </c>
@@ -3821,8 +3968,8 @@
       <c r="J61" s="44"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="46" t="s">
         <v>211</v>
       </c>
@@ -3869,8 +4016,8 @@
       <c r="J63" s="44"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="77"/>
-      <c r="B64" s="77"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="46" t="s">
         <v>220</v>
       </c>
@@ -3891,8 +4038,8 @@
       <c r="J64" s="44"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="77"/>
-      <c r="B65" s="77"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="46" t="s">
         <v>242</v>
       </c>
@@ -3913,8 +4060,8 @@
       <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="77"/>
-      <c r="B66" s="77"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="46" t="s">
         <v>244</v>
       </c>
@@ -3935,12 +4082,12 @@
       <c r="J66" s="44"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="77"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="70" t="s">
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="D67" s="70" t="s">
+      <c r="D67" s="75" t="s">
         <v>364</v>
       </c>
       <c r="E67" s="46" t="s">
@@ -3957,8 +4104,8 @@
       <c r="J67" s="44"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="72"/>
       <c r="D68" s="72"/>
       <c r="E68" s="46" t="s">
@@ -4001,12 +4148,12 @@
       <c r="J69" s="44"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="77"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="70" t="s">
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D70" s="75" t="s">
         <v>366</v>
       </c>
       <c r="E70" s="46" t="s">
@@ -4023,8 +4170,8 @@
       <c r="J70" s="44"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="77"/>
-      <c r="B71" s="77"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="71"/>
       <c r="D71" s="71"/>
       <c r="E71" s="46" t="s">
@@ -4041,8 +4188,8 @@
       <c r="J71" s="44"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="78"/>
-      <c r="B72" s="78"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="72"/>
       <c r="D72" s="72"/>
       <c r="E72" s="46" t="s">
@@ -4085,8 +4232,8 @@
       <c r="J73" s="44"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="78"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="46" t="s">
         <v>226</v>
       </c>
@@ -4113,7 +4260,7 @@
       <c r="B75" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="89" t="s">
         <v>266</v>
       </c>
       <c r="D75" s="46" t="s">
@@ -4133,9 +4280,9 @@
       <c r="J75" s="44"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="77"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="81"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="46"/>
       <c r="E76" s="44" t="s">
         <v>149</v>
@@ -4149,8 +4296,8 @@
       <c r="J76" s="44"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="78"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="46" t="s">
         <v>370</v>
       </c>
@@ -4197,8 +4344,8 @@
       <c r="J78" s="44"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="77"/>
-      <c r="B79" s="77"/>
+      <c r="A79" s="73"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="46" t="s">
         <v>262</v>
       </c>
@@ -4219,8 +4366,8 @@
       <c r="J79" s="44"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="77"/>
-      <c r="B80" s="77"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="46" t="s">
         <v>256</v>
       </c>
@@ -4241,8 +4388,8 @@
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="77"/>
-      <c r="B81" s="77"/>
+      <c r="A81" s="73"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="46" t="s">
         <v>269</v>
       </c>
@@ -4263,8 +4410,8 @@
       <c r="J81" s="44"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="78"/>
-      <c r="B82" s="78"/>
+      <c r="A82" s="74"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="44" t="s">
         <v>346</v>
       </c>
@@ -4293,10 +4440,10 @@
       <c r="B83" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="D83" s="70" t="s">
+      <c r="D83" s="75" t="s">
         <v>372</v>
       </c>
       <c r="E83" s="44" t="s">
@@ -4313,8 +4460,8 @@
       <c r="J83" s="44"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="78"/>
-      <c r="B84" s="78"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="74"/>
       <c r="C84" s="72"/>
       <c r="D84" s="72"/>
       <c r="E84" s="44" t="s">
@@ -4376,8 +4523,8 @@
       <c r="J86" s="44"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="77"/>
-      <c r="B87" s="77"/>
+      <c r="A87" s="73"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="46" t="s">
         <v>285</v>
       </c>
@@ -4398,8 +4545,8 @@
       <c r="J87" s="44"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="77"/>
-      <c r="B88" s="77"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="73"/>
       <c r="C88" s="46" t="s">
         <v>288</v>
       </c>
@@ -4420,12 +4567,12 @@
       <c r="J88" s="44"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="77"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="70" t="s">
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="D89" s="70" t="s">
+      <c r="D89" s="75" t="s">
         <v>372</v>
       </c>
       <c r="E89" s="44" t="s">
@@ -4441,8 +4588,8 @@
       <c r="J89" s="44"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="77"/>
-      <c r="B90" s="77"/>
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
       <c r="C90" s="71"/>
       <c r="D90" s="71"/>
       <c r="E90" s="44" t="s">
@@ -4461,8 +4608,8 @@
       <c r="J90" s="44"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="77"/>
-      <c r="B91" s="77"/>
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="71"/>
       <c r="D91" s="71"/>
       <c r="E91" s="44" t="s">
@@ -4481,8 +4628,8 @@
       <c r="J91" s="44"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="77"/>
-      <c r="B92" s="77"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
       <c r="C92" s="71"/>
       <c r="D92" s="72"/>
       <c r="E92" s="44" t="s">
@@ -4501,8 +4648,8 @@
       <c r="J92" s="44"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="77"/>
-      <c r="B93" s="77"/>
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
       <c r="C93" s="71"/>
       <c r="D93" s="46" t="s">
         <v>307</v>
@@ -4523,8 +4670,8 @@
       <c r="J93" s="44"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="78"/>
-      <c r="B94" s="78"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="74"/>
       <c r="C94" s="72"/>
       <c r="D94" s="46" t="s">
         <v>347</v>
@@ -4551,10 +4698,10 @@
       <c r="B95" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="79" t="s">
+      <c r="C95" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="D95" s="70" t="s">
+      <c r="D95" s="75" t="s">
         <v>349</v>
       </c>
       <c r="E95" s="46" t="s">
@@ -4571,9 +4718,9 @@
       <c r="J95" s="44"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="78"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="81"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="72"/>
       <c r="E96" s="46" t="s">
         <v>283</v>
@@ -4581,7 +4728,7 @@
       <c r="F96" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="G96" s="83"/>
+      <c r="G96" s="84"/>
       <c r="H96" s="46"/>
       <c r="I96" s="63"/>
       <c r="J96" s="44"/>
@@ -4590,13 +4737,13 @@
       <c r="A97" s="76">
         <v>17</v>
       </c>
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="92" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="79" t="s">
+      <c r="C97" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="70" t="s">
+      <c r="D97" s="75" t="s">
         <v>63</v>
       </c>
       <c r="E97" s="51" t="s">
@@ -4613,9 +4760,9 @@
       <c r="J97" s="44"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="77"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="80"/>
+      <c r="A98" s="73"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="71"/>
       <c r="E98" s="49" t="s">
         <v>282</v>
@@ -4631,9 +4778,9 @@
       <c r="J98" s="44"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="77"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="80"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="71"/>
       <c r="E99" s="49" t="s">
         <v>280</v>
@@ -4649,9 +4796,9 @@
       <c r="J99" s="44"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="78"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="81"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="90"/>
       <c r="D100" s="72"/>
       <c r="E100" s="49" t="s">
         <v>318</v>
@@ -4690,121 +4837,217 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
+      <c r="A102" s="76">
+        <v>19</v>
+      </c>
+      <c r="B102" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" s="89" t="s">
+        <v>376</v>
+      </c>
+      <c r="D102" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="E102" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G102" s="47">
+        <v>17.190000000000001</v>
+      </c>
       <c r="H102" s="46"/>
       <c r="I102" s="63"/>
       <c r="J102" s="44"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
+      <c r="A103" s="73"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G103" s="47">
+        <v>19.34</v>
+      </c>
       <c r="H103" s="46"/>
       <c r="I103" s="63"/>
       <c r="J103" s="44"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="D104" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="E104" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="F104" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G104" s="47">
+        <v>21</v>
+      </c>
       <c r="H104" s="46"/>
       <c r="I104" s="63"/>
       <c r="J104" s="44"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
+      <c r="A105" s="74"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G105" s="47">
+        <v>27.43</v>
+      </c>
       <c r="H105" s="46"/>
       <c r="I105" s="63"/>
       <c r="J105" s="44"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
+      <c r="A106" s="45">
+        <v>20</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="C106" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="D106" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="E106" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="F106" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G106" s="47">
+        <v>18.989999999999998</v>
+      </c>
       <c r="H106" s="46"/>
       <c r="I106" s="63"/>
       <c r="J106" s="44"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="46"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
+      <c r="A107" s="131">
+        <v>21</v>
+      </c>
+      <c r="B107" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="D107" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E107" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F107" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G107" s="47">
+        <v>21.61</v>
+      </c>
       <c r="H107" s="46"/>
       <c r="I107" s="63"/>
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
+      <c r="A108" s="132"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="D108" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="E108" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="F108" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G108" s="47">
+        <v>12.09</v>
+      </c>
       <c r="H108" s="46"/>
       <c r="I108" s="63"/>
       <c r="J108" s="44"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
+      <c r="A109" s="132"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="F109" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G109" s="47">
+        <v>6.63</v>
+      </c>
       <c r="H109" s="46"/>
       <c r="I109" s="63"/>
       <c r="J109" s="44"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
+      <c r="A110" s="132"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="D110" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G110" s="47">
+        <v>7.5</v>
+      </c>
       <c r="H110" s="46"/>
       <c r="I110" s="63"/>
       <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="46"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
+      <c r="A111" s="133"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D111" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G111" s="47">
+        <v>15.7</v>
+      </c>
       <c r="H111" s="46"/>
       <c r="I111" s="63"/>
       <c r="J111" s="44"/>
@@ -4816,7 +5059,7 @@
       <c r="D112" s="46"/>
       <c r="E112" s="44"/>
       <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
+      <c r="G112" s="47"/>
       <c r="H112" s="46"/>
       <c r="I112" s="63"/>
       <c r="J112" s="44"/>
@@ -4828,7 +5071,7 @@
       <c r="D113" s="46"/>
       <c r="E113" s="44"/>
       <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
+      <c r="G113" s="47"/>
       <c r="H113" s="46"/>
       <c r="I113" s="63"/>
       <c r="J113" s="44"/>
@@ -4840,7 +5083,7 @@
       <c r="D114" s="46"/>
       <c r="E114" s="44"/>
       <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
+      <c r="G114" s="47"/>
       <c r="H114" s="46"/>
       <c r="I114" s="63"/>
       <c r="J114" s="44"/>
@@ -4852,7 +5095,7 @@
       <c r="D115" s="46"/>
       <c r="E115" s="44"/>
       <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
+      <c r="G115" s="47"/>
       <c r="H115" s="46"/>
       <c r="I115" s="63"/>
       <c r="J115" s="44"/>
@@ -4864,7 +5107,7 @@
       <c r="D116" s="46"/>
       <c r="E116" s="44"/>
       <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
+      <c r="G116" s="47"/>
       <c r="H116" s="46"/>
       <c r="I116" s="63"/>
       <c r="J116" s="44"/>
@@ -4876,7 +5119,7 @@
       <c r="D117" s="46"/>
       <c r="E117" s="44"/>
       <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
+      <c r="G117" s="47"/>
       <c r="H117" s="46"/>
       <c r="I117" s="63"/>
       <c r="J117" s="44"/>
@@ -4888,7 +5131,7 @@
       <c r="D118" s="46"/>
       <c r="E118" s="44"/>
       <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
+      <c r="G118" s="47"/>
       <c r="H118" s="46"/>
       <c r="I118" s="63"/>
       <c r="J118" s="44"/>
@@ -4900,7 +5143,7 @@
       <c r="D119" s="46"/>
       <c r="E119" s="44"/>
       <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
+      <c r="G119" s="47"/>
       <c r="H119" s="46"/>
       <c r="I119" s="63"/>
       <c r="J119" s="44"/>
@@ -4912,7 +5155,7 @@
       <c r="D120" s="46"/>
       <c r="E120" s="44"/>
       <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
+      <c r="G120" s="47"/>
       <c r="H120" s="46"/>
       <c r="I120" s="63"/>
       <c r="J120" s="44"/>
@@ -5517,63 +5760,37 @@
       <c r="I170" s="63"/>
       <c r="J170" s="44"/>
     </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="45"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="44"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="45"/>
+      <c r="H171" s="46"/>
+      <c r="I171" s="63"/>
+      <c r="J171" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
+  <mergeCells count="88">
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="B97:B100"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="J4:J9"/>
@@ -5590,11 +5807,61 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5628,19 +5895,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="97" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -5650,31 +5917,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="J1" s="99" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="121"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="100"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -5694,7 +5961,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="113" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -5703,11 +5970,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="103">
+      <c r="I3" s="104">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="96" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5727,21 +5994,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97">
+      <c r="A5" s="95">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="118" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -5751,17 +6018,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="97"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="110"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -5769,17 +6036,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
+      <c r="A7" s="101">
         <v>4</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="117" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -5788,48 +6055,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="113">
+      <c r="G7" s="115">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="115">
         <v>630</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="113"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="115"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="99"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="96"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97">
+      <c r="A9" s="95">
         <v>5</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="116" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -5841,26 +6108,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="116" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="102">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -5870,17 +6137,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="96"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="98"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -5890,17 +6157,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="96"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="98"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="108"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -5910,17 +6177,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="98"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -5930,17 +6197,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="96"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="98"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="108"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="95"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -5950,13 +6217,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="99"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -5991,10 +6258,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97">
+      <c r="A16" s="95">
         <v>7</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="120" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -6003,140 +6270,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="102">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="101">
+      <c r="H16" s="105"/>
+      <c r="I16" s="102">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="97" t="s">
+      <c r="J16" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="98"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="108"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="98"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="108"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="98"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="108"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="98"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="108"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="98"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="108"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="98"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="108"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="99"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="96"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97">
+      <c r="A24" s="95">
         <v>8</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="116" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -6145,108 +6412,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="97" t="s">
+      <c r="E24" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="102">
         <v>180.56</v>
       </c>
-      <c r="H24" s="104"/>
-      <c r="I24" s="101">
+      <c r="H24" s="105"/>
+      <c r="I24" s="102">
         <v>180.56</v>
       </c>
-      <c r="J24" s="97" t="s">
+      <c r="J24" s="95" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="98"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="108"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="98"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="98"/>
-      <c r="B27" s="96"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="98"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="98"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="108"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="98"/>
-      <c r="B28" s="96"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="98"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="108"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="95"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="99"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="96"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="97">
+      <c r="A30" s="95">
         <v>16</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="116" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6255,41 +6522,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="101">
+      <c r="G30" s="102">
         <v>1950</v>
       </c>
-      <c r="H30" s="104"/>
-      <c r="I30" s="101">
+      <c r="H30" s="105"/>
+      <c r="I30" s="102">
         <v>180.56</v>
       </c>
-      <c r="J30" s="97" t="s">
+      <c r="J30" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="95"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="99"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="96"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="97">
+      <c r="A32" s="95">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -6319,7 +6586,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -6377,7 +6644,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="97">
+      <c r="A35" s="95">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -6407,8 +6674,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="98"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="108"/>
+      <c r="B36" s="116" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -6435,8 +6702,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="95"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -6461,8 +6728,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="104" t="s">
+      <c r="A38" s="108"/>
+      <c r="B38" s="105" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -6487,8 +6754,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="98"/>
-      <c r="B39" s="105"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -6511,8 +6778,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="98"/>
-      <c r="B40" s="106"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -6535,8 +6802,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
-      <c r="B41" s="104" t="s">
+      <c r="A41" s="108"/>
+      <c r="B41" s="105" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -6561,8 +6828,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="98"/>
-      <c r="B42" s="105"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -6585,8 +6852,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="98"/>
-      <c r="B43" s="105"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="106"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -6609,8 +6876,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="106"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -6663,10 +6930,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="97">
+      <c r="A46" s="95">
         <v>21</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="116" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -6691,8 +6958,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -6715,8 +6982,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="98"/>
-      <c r="B48" s="96"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="113"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -6739,8 +7006,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="98"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="113"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -6761,8 +7028,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="98"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -6772,7 +7039,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="94" t="s">
+      <c r="F50" s="116" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -6785,8 +7052,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="98"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -6796,7 +7063,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="96"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -6807,8 +7074,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="99"/>
-      <c r="B52" s="95"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -6818,7 +7085,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="95"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -6829,10 +7096,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="97">
+      <c r="A53" s="95">
         <v>22</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="116" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -6844,7 +7111,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="94" t="s">
+      <c r="F53" s="116" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -6857,8 +7124,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
-      <c r="B54" s="96"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="113"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -6868,7 +7135,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="96"/>
+      <c r="F54" s="113"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -6879,8 +7146,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="98"/>
-      <c r="B55" s="96"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -6890,7 +7157,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="96"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -6901,8 +7168,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="98"/>
-      <c r="B56" s="96"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -6912,7 +7179,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="96"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -6923,8 +7190,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="98"/>
-      <c r="B57" s="96"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="113"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -6934,7 +7201,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="96"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -6945,8 +7212,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="98"/>
-      <c r="B58" s="96"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -6956,7 +7223,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="95"/>
+      <c r="F58" s="114"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -6967,10 +7234,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="97">
+      <c r="A59" s="95">
         <v>23</v>
       </c>
-      <c r="B59" s="94" t="s">
+      <c r="B59" s="116" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -6995,8 +7262,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="98"/>
-      <c r="B60" s="96"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="113"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -7019,8 +7286,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="98"/>
-      <c r="B61" s="96"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -7043,8 +7310,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="98"/>
-      <c r="B62" s="96"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="113"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -7067,8 +7334,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="98"/>
-      <c r="B63" s="96"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -7078,17 +7345,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="94"/>
+      <c r="F63" s="116"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="104"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="97"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="95"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="98"/>
-      <c r="B64" s="96"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="113"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -7098,17 +7365,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="96"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="105"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="98"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="108"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="98"/>
-      <c r="B65" s="96"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="113"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -7118,17 +7385,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="96"/>
+      <c r="F65" s="113"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="105"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="98"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="108"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="98"/>
-      <c r="B66" s="96"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="113"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -7138,17 +7405,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="95"/>
+      <c r="F66" s="114"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="106"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="99"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="96"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="98"/>
-      <c r="B67" s="96"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="113"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -7158,23 +7425,23 @@
       <c r="E67" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="104" t="s">
+      <c r="F67" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="101">
+      <c r="G67" s="102">
         <v>67.959999999999994</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="101">
+      <c r="I67" s="102">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="97" t="s">
+      <c r="J67" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="98"/>
-      <c r="B68" s="96"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -7184,15 +7451,15 @@
       <c r="E68" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="106"/>
-      <c r="G68" s="103"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="104"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="99"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="96"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="98"/>
-      <c r="B69" s="96"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="113"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -7203,8 +7470,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="98"/>
-      <c r="B70" s="96"/>
+      <c r="A70" s="108"/>
+      <c r="B70" s="113"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -7217,8 +7484,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="98"/>
-      <c r="B71" s="96"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="113"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -7237,8 +7504,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="98"/>
-      <c r="B72" s="96"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="113"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -7257,8 +7524,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="98"/>
-      <c r="B73" s="96"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="113"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -7277,8 +7544,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="98"/>
-      <c r="B74" s="96"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="113"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -7297,8 +7564,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="98"/>
-      <c r="B75" s="96"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="113"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -7317,8 +7584,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="98"/>
-      <c r="B76" s="96"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -7341,10 +7608,10 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="100">
+      <c r="A77" s="101">
         <v>24</v>
       </c>
-      <c r="B77" s="107" t="s">
+      <c r="B77" s="122" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -7371,8 +7638,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="100"/>
-      <c r="B78" s="107"/>
+      <c r="A78" s="101"/>
+      <c r="B78" s="122"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -7395,8 +7662,8 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="100"/>
-      <c r="B79" s="107"/>
+      <c r="A79" s="101"/>
+      <c r="B79" s="122"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -7419,8 +7686,8 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="100"/>
-      <c r="B80" s="107"/>
+      <c r="A80" s="101"/>
+      <c r="B80" s="122"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -7443,8 +7710,8 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="100"/>
-      <c r="B81" s="107"/>
+      <c r="A81" s="101"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -7467,8 +7734,8 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="100"/>
-      <c r="B82" s="107"/>
+      <c r="A82" s="101"/>
+      <c r="B82" s="122"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -7491,8 +7758,8 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="100"/>
-      <c r="B83" s="107"/>
+      <c r="A83" s="101"/>
+      <c r="B83" s="122"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -7515,8 +7782,8 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="100"/>
-      <c r="B84" s="107"/>
+      <c r="A84" s="101"/>
+      <c r="B84" s="122"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -7539,8 +7806,8 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="100"/>
-      <c r="B85" s="107"/>
+      <c r="A85" s="101"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -7555,10 +7822,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="97">
+      <c r="A86" s="95">
         <v>25</v>
       </c>
-      <c r="B86" s="94" t="s">
+      <c r="B86" s="116" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -7583,8 +7850,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="98"/>
-      <c r="B87" s="96"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="113"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -7607,8 +7874,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="98"/>
-      <c r="B88" s="96"/>
+      <c r="A88" s="108"/>
+      <c r="B88" s="113"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -7623,8 +7890,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="98"/>
-      <c r="B89" s="96"/>
+      <c r="A89" s="108"/>
+      <c r="B89" s="113"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -7639,8 +7906,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="98"/>
-      <c r="B90" s="96"/>
+      <c r="A90" s="108"/>
+      <c r="B90" s="113"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -7655,8 +7922,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="99"/>
-      <c r="B91" s="95"/>
+      <c r="A91" s="96"/>
+      <c r="B91" s="114"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -7671,10 +7938,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="98">
+      <c r="A92" s="108">
         <v>26</v>
       </c>
-      <c r="B92" s="96" t="s">
+      <c r="B92" s="113" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -7691,8 +7958,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="98"/>
-      <c r="B93" s="96"/>
+      <c r="A93" s="108"/>
+      <c r="B93" s="113"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -7715,8 +7982,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="98"/>
-      <c r="B94" s="96"/>
+      <c r="A94" s="108"/>
+      <c r="B94" s="113"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -7798,7 +8065,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="94" t="s">
+      <c r="B97" s="116" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -7824,7 +8091,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="95"/>
+      <c r="B98" s="114"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -7908,7 +8175,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="116" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -7936,7 +8203,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="95"/>
+      <c r="B102" s="114"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -7962,7 +8229,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="94" t="s">
+      <c r="B103" s="116" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -7990,7 +8257,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="96"/>
+      <c r="B104" s="113"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -8016,7 +8283,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="96"/>
+      <c r="B105" s="113"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -8040,7 +8307,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="96"/>
+      <c r="B106" s="113"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -8064,7 +8331,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="96"/>
+      <c r="B107" s="113"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -8088,7 +8355,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="96"/>
+      <c r="B108" s="113"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -8112,7 +8379,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="96"/>
+      <c r="B109" s="113"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -8134,7 +8401,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="95"/>
+      <c r="B110" s="114"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -8266,6 +8533,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -8282,75 +8618,6 @@
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8721,13 +8988,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -8933,28 +9200,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="125" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="123"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="126"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -8964,9 +9231,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="124"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5709FA-9014-4366-ADA7-9E93B1E5D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A1F4A-E69E-4221-90A2-1286C16A9F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="410">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1604,6 +1604,46 @@
   </si>
   <si>
     <t>1把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6#，50米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房大功率用电线，电磁炉，水盆热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铭悍五金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老款门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1副</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,22 +2238,64 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2231,129 +2313,96 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2377,15 +2426,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2673,7 +2713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2751,7 @@
       </c>
       <c r="G1" s="68">
         <f>SUM(G2:G171)</f>
-        <v>31075.30000000001</v>
+        <v>31443.340000000011</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>337</v>
@@ -2724,16 +2764,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="73">
+      <c r="A2" s="72">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="81" t="s">
         <v>332</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -2748,17 +2788,17 @@
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="93">
         <f>SUM(G2:G3)</f>
         <v>2400</v>
       </c>
       <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="46" t="s">
         <v>80</v>
       </c>
@@ -2771,20 +2811,20 @@
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="96"/>
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="76">
+      <c r="A4" s="71">
         <v>2</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>327</v>
       </c>
       <c r="E4" s="44" t="s">
@@ -2796,20 +2836,20 @@
       <c r="G4" s="47">
         <v>720</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="95">
         <f>SUM(G4:G9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="44" t="s">
         <v>78</v>
       </c>
@@ -2819,15 +2859,15 @@
       <c r="G5" s="47">
         <v>720</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="44" t="s">
         <v>65</v>
       </c>
@@ -2837,15 +2877,15 @@
       <c r="G6" s="47">
         <v>468</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="91"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="44" t="s">
         <v>66</v>
       </c>
@@ -2855,15 +2895,15 @@
       <c r="G7" s="47">
         <v>432</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="91"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="44" t="s">
         <v>67</v>
       </c>
@@ -2873,15 +2913,15 @@
       <c r="G8" s="47">
         <v>365</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="91"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
@@ -2891,21 +2931,21 @@
       <c r="G9" s="47">
         <v>475</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="90"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="76">
+      <c r="A10" s="71">
         <v>3</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="76" t="s">
         <v>327</v>
       </c>
       <c r="E10" s="44" t="s">
@@ -2914,42 +2954,42 @@
       <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="94">
         <v>630</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="95">
         <v>630</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="72"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
       </c>
-      <c r="G11" s="80"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="90"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="89" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="76" t="s">
         <v>350</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -2958,134 +2998,134 @@
       <c r="F12" s="61">
         <v>1</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="86">
         <v>1387.81</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="77">
+      <c r="H12" s="76"/>
+      <c r="I12" s="91">
         <v>1387.81</v>
       </c>
-      <c r="J12" s="89"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="71"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="62" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="91"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="71"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="62" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="61">
         <v>1</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="91"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="71"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="62" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="61">
         <v>2</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="91"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="71"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="62" t="s">
         <v>128</v>
       </c>
       <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="91"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="71"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="62" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="61">
         <v>4</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="91"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="71"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="62" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="61">
         <v>5</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="91"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="72"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="62" t="s">
         <v>126</v>
       </c>
       <c r="F19" s="61">
         <v>1</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="90"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="89" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="76" t="s">
         <v>326</v>
       </c>
       <c r="E20" s="62" t="s">
@@ -3094,104 +3134,104 @@
       <c r="F20" s="61">
         <v>1</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="86">
         <v>180.56</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="91">
         <v>180.56</v>
       </c>
-      <c r="J20" s="89"/>
+      <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="71"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="62" t="s">
         <v>133</v>
       </c>
       <c r="F21" s="61">
         <v>2</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="91"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="62" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="61">
         <v>2</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="91"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="71"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F23" s="61">
         <v>1</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="91"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="62" t="s">
         <v>136</v>
       </c>
       <c r="F24" s="61">
         <v>2</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="91"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="72"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="62" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="61">
         <v>1</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="90"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="89" t="s">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="88" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="62" t="s">
@@ -3200,7 +3240,7 @@
       <c r="F26" s="61">
         <v>1</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="86">
         <v>1950</v>
       </c>
       <c r="H26" s="46"/>
@@ -3208,24 +3248,24 @@
       <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="88"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="62" t="s">
         <v>140</v>
       </c>
       <c r="F27" s="61">
         <v>1</v>
       </c>
-      <c r="G27" s="84"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="46"/>
       <c r="I27" s="63"/>
       <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="46" t="s">
         <v>83</v>
       </c>
@@ -3246,8 +3286,8 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="46" t="s">
         <v>89</v>
       </c>
@@ -3270,8 +3310,8 @@
       <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="46" t="s">
         <v>86</v>
       </c>
@@ -3294,8 +3334,8 @@
       <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="46" t="s">
         <v>90</v>
       </c>
@@ -3346,10 +3386,10 @@
       <c r="J32" s="44"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="76">
+      <c r="A33" s="71">
         <v>5</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="71" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="46" t="s">
@@ -3372,8 +3412,8 @@
       <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="46" t="s">
         <v>166</v>
       </c>
@@ -3394,9 +3434,9 @@
       <c r="J34" s="44"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="75" t="s">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="76" t="s">
         <v>170</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -3416,9 +3456,9 @@
       <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="71"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="46" t="s">
         <v>324</v>
       </c>
@@ -3436,9 +3476,9 @@
       <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="71"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="46" t="s">
         <v>324</v>
       </c>
@@ -3456,9 +3496,9 @@
       <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="71"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="46" t="s">
         <v>324</v>
       </c>
@@ -3476,9 +3516,9 @@
       <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="71"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="46" t="s">
         <v>324</v>
       </c>
@@ -3496,9 +3536,9 @@
       <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="71"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="46" t="s">
         <v>324</v>
       </c>
@@ -3516,9 +3556,9 @@
       <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="71"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="46" t="s">
         <v>324</v>
       </c>
@@ -3536,9 +3576,9 @@
       <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="72"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="46" t="s">
         <v>323</v>
       </c>
@@ -3556,8 +3596,8 @@
       <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="46" t="s">
         <v>173</v>
       </c>
@@ -3578,8 +3618,8 @@
       <c r="J43" s="44"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="46" t="s">
         <v>179</v>
       </c>
@@ -3600,10 +3640,10 @@
       <c r="J44" s="44"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="76">
+      <c r="A45" s="71">
         <v>6</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="71" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="46" t="s">
@@ -3626,8 +3666,8 @@
       <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="46" t="s">
         <v>184</v>
       </c>
@@ -3648,8 +3688,8 @@
       <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="46" t="s">
         <v>187</v>
       </c>
@@ -3670,9 +3710,9 @@
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="89" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="74" t="s">
         <v>322</v>
       </c>
       <c r="D48" s="46" t="s">
@@ -3692,9 +3732,9 @@
       <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="91"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="46" t="s">
         <v>361</v>
       </c>
@@ -3712,9 +3752,9 @@
       <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="91"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="46" t="s">
         <v>361</v>
       </c>
@@ -3732,9 +3772,9 @@
       <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="90"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="46" t="s">
         <v>361</v>
       </c>
@@ -3752,8 +3792,8 @@
       <c r="J51" s="44"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="46" t="s">
         <v>202</v>
       </c>
@@ -3774,8 +3814,8 @@
       <c r="J52" s="44"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="46" t="s">
         <v>189</v>
       </c>
@@ -3796,8 +3836,8 @@
       <c r="J53" s="44"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="46" t="s">
         <v>203</v>
       </c>
@@ -3818,12 +3858,12 @@
       <c r="J54" s="44"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="75" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="76" t="s">
         <v>359</v>
       </c>
       <c r="E55" s="44" t="s">
@@ -3840,10 +3880,10 @@
       <c r="J55" s="44"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="44" t="s">
         <v>159</v>
       </c>
@@ -3858,10 +3898,10 @@
       <c r="J56" s="44"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="44" t="s">
         <v>164</v>
       </c>
@@ -3876,10 +3916,10 @@
       <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="76">
+      <c r="A58" s="71">
         <v>7</v>
       </c>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="71" t="s">
         <v>208</v>
       </c>
       <c r="C58" s="46" t="s">
@@ -3902,8 +3942,8 @@
       <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
-      <c r="B59" s="73"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="46" t="s">
         <v>215</v>
       </c>
@@ -3924,8 +3964,8 @@
       <c r="J59" s="44"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
-      <c r="B60" s="73"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="46" t="s">
         <v>209</v>
       </c>
@@ -3946,8 +3986,8 @@
       <c r="J60" s="44"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="46" t="s">
         <v>221</v>
       </c>
@@ -3968,8 +4008,8 @@
       <c r="J61" s="44"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="74"/>
-      <c r="B62" s="74"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="46" t="s">
         <v>211</v>
       </c>
@@ -3990,10 +4030,10 @@
       <c r="J62" s="44"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="76">
+      <c r="A63" s="71">
         <v>8</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="71" t="s">
         <v>217</v>
       </c>
       <c r="C63" s="46" t="s">
@@ -4016,8 +4056,8 @@
       <c r="J63" s="44"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
-      <c r="B64" s="73"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="46" t="s">
         <v>220</v>
       </c>
@@ -4038,8 +4078,8 @@
       <c r="J64" s="44"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="73"/>
-      <c r="B65" s="73"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="46" t="s">
         <v>242</v>
       </c>
@@ -4060,8 +4100,8 @@
       <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="73"/>
-      <c r="B66" s="73"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="72"/>
       <c r="C66" s="46" t="s">
         <v>244</v>
       </c>
@@ -4082,12 +4122,12 @@
       <c r="J66" s="44"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="75" t="s">
+      <c r="A67" s="72"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="D67" s="75" t="s">
+      <c r="D67" s="76" t="s">
         <v>364</v>
       </c>
       <c r="E67" s="46" t="s">
@@ -4104,10 +4144,10 @@
       <c r="J67" s="44"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="74"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
       <c r="E68" s="46" t="s">
         <v>247</v>
       </c>
@@ -4122,10 +4162,10 @@
       <c r="J68" s="44"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="76">
+      <c r="A69" s="71">
         <v>9</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="71" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4148,12 +4188,12 @@
       <c r="J69" s="44"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="75" t="s">
+      <c r="A70" s="72"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="75" t="s">
+      <c r="D70" s="76" t="s">
         <v>366</v>
       </c>
       <c r="E70" s="46" t="s">
@@ -4170,10 +4210,10 @@
       <c r="J70" s="44"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
       <c r="E71" s="46" t="s">
         <v>227</v>
       </c>
@@ -4188,10 +4228,10 @@
       <c r="J71" s="44"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="74"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
       <c r="E72" s="46" t="s">
         <v>231</v>
       </c>
@@ -4206,10 +4246,10 @@
       <c r="J72" s="44"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="76">
+      <c r="A73" s="71">
         <v>10</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="71" t="s">
         <v>222</v>
       </c>
       <c r="C73" s="44" t="s">
@@ -4232,8 +4272,8 @@
       <c r="J73" s="44"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="74"/>
-      <c r="B74" s="74"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="46" t="s">
         <v>226</v>
       </c>
@@ -4254,13 +4294,13 @@
       <c r="J74" s="44"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="76">
+      <c r="A75" s="71">
         <v>11</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="89" t="s">
+      <c r="C75" s="74" t="s">
         <v>266</v>
       </c>
       <c r="D75" s="46" t="s">
@@ -4280,9 +4320,9 @@
       <c r="J75" s="44"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="73"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="90"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="75"/>
       <c r="D76" s="46"/>
       <c r="E76" s="44" t="s">
         <v>149</v>
@@ -4296,8 +4336,8 @@
       <c r="J76" s="44"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="74"/>
-      <c r="B77" s="74"/>
+      <c r="A77" s="73"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="46" t="s">
         <v>370</v>
       </c>
@@ -4318,10 +4358,10 @@
       <c r="J77" s="44"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="76">
+      <c r="A78" s="71">
         <v>12</v>
       </c>
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="71" t="s">
         <v>255</v>
       </c>
       <c r="C78" s="46" t="s">
@@ -4344,8 +4384,8 @@
       <c r="J78" s="44"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="73"/>
-      <c r="B79" s="73"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="46" t="s">
         <v>262</v>
       </c>
@@ -4366,8 +4406,8 @@
       <c r="J79" s="44"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
       <c r="C80" s="46" t="s">
         <v>256</v>
       </c>
@@ -4388,8 +4428,8 @@
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="73"/>
-      <c r="B81" s="73"/>
+      <c r="A81" s="72"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="46" t="s">
         <v>269</v>
       </c>
@@ -4410,8 +4450,8 @@
       <c r="J81" s="44"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="73"/>
       <c r="C82" s="44" t="s">
         <v>346</v>
       </c>
@@ -4434,16 +4474,16 @@
       <c r="J82" s="44"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="76">
+      <c r="A83" s="71">
         <v>13</v>
       </c>
-      <c r="B83" s="76" t="s">
+      <c r="B83" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="D83" s="75" t="s">
+      <c r="D83" s="76" t="s">
         <v>372</v>
       </c>
       <c r="E83" s="44" t="s">
@@ -4460,10 +4500,10 @@
       <c r="J83" s="44"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
       <c r="E84" s="44" t="s">
         <v>275</v>
       </c>
@@ -4498,10 +4538,10 @@
       <c r="J85" s="44"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="76">
+      <c r="A86" s="71">
         <v>15</v>
       </c>
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="71" t="s">
         <v>284</v>
       </c>
       <c r="C86" s="46" t="s">
@@ -4523,8 +4563,8 @@
       <c r="J86" s="44"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="73"/>
-      <c r="B87" s="73"/>
+      <c r="A87" s="72"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="46" t="s">
         <v>285</v>
       </c>
@@ -4545,8 +4585,8 @@
       <c r="J87" s="44"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="73"/>
-      <c r="B88" s="73"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="46" t="s">
         <v>288</v>
       </c>
@@ -4567,12 +4607,12 @@
       <c r="J88" s="44"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="73"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="75" t="s">
+      <c r="A89" s="72"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="D89" s="75" t="s">
+      <c r="D89" s="76" t="s">
         <v>372</v>
       </c>
       <c r="E89" s="44" t="s">
@@ -4588,10 +4628,10 @@
       <c r="J89" s="44"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="73"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
       <c r="E90" s="44" t="s">
         <v>309</v>
       </c>
@@ -4608,10 +4648,10 @@
       <c r="J90" s="44"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="73"/>
-      <c r="B91" s="73"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
+      <c r="A91" s="72"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
       <c r="E91" s="44" t="s">
         <v>300</v>
       </c>
@@ -4628,10 +4668,10 @@
       <c r="J91" s="44"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="73"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="72"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="77"/>
       <c r="E92" s="44" t="s">
         <v>301</v>
       </c>
@@ -4648,9 +4688,9 @@
       <c r="J92" s="44"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="73"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="71"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="81"/>
       <c r="D93" s="46" t="s">
         <v>307</v>
       </c>
@@ -4670,9 +4710,9 @@
       <c r="J93" s="44"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="74"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="72"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="77"/>
       <c r="D94" s="46" t="s">
         <v>347</v>
       </c>
@@ -4692,16 +4732,16 @@
       <c r="J94" s="44"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="76">
+      <c r="A95" s="71">
         <v>16</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="89" t="s">
+      <c r="C95" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="D95" s="75" t="s">
+      <c r="D95" s="76" t="s">
         <v>349</v>
       </c>
       <c r="E95" s="46" t="s">
@@ -4710,7 +4750,7 @@
       <c r="F95" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="82">
+      <c r="G95" s="86">
         <v>67.959999999999994</v>
       </c>
       <c r="H95" s="46"/>
@@ -4718,32 +4758,32 @@
       <c r="J95" s="44"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="72"/>
+      <c r="A96" s="73"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="77"/>
       <c r="E96" s="46" t="s">
         <v>283</v>
       </c>
       <c r="F96" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="G96" s="84"/>
+      <c r="G96" s="87"/>
       <c r="H96" s="46"/>
       <c r="I96" s="63"/>
       <c r="J96" s="44"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="76">
+      <c r="A97" s="71">
         <v>17</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="89" t="s">
+      <c r="C97" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="75" t="s">
+      <c r="D97" s="76" t="s">
         <v>63</v>
       </c>
       <c r="E97" s="51" t="s">
@@ -4760,10 +4800,10 @@
       <c r="J97" s="44"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="73"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="71"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="81"/>
       <c r="E98" s="49" t="s">
         <v>282</v>
       </c>
@@ -4778,10 +4818,10 @@
       <c r="J98" s="44"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="73"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="71"/>
+      <c r="A99" s="72"/>
+      <c r="B99" s="83"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="81"/>
       <c r="E99" s="49" t="s">
         <v>280</v>
       </c>
@@ -4796,10 +4836,10 @@
       <c r="J99" s="44"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="74"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="72"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="77"/>
       <c r="E100" s="49" t="s">
         <v>318</v>
       </c>
@@ -4837,19 +4877,19 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="76">
+      <c r="A102" s="71">
         <v>19</v>
       </c>
-      <c r="B102" s="76" t="s">
+      <c r="B102" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="89" t="s">
+      <c r="C102" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="D102" s="89" t="s">
+      <c r="D102" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="E102" s="89" t="s">
+      <c r="E102" s="74" t="s">
         <v>377</v>
       </c>
       <c r="F102" s="45" t="s">
@@ -4863,11 +4903,11 @@
       <c r="J102" s="44"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="73"/>
-      <c r="B103" s="73"/>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
+      <c r="A103" s="72"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
       <c r="F103" s="45" t="s">
         <v>380</v>
       </c>
@@ -4879,15 +4919,15 @@
       <c r="J103" s="44"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="73"/>
-      <c r="B104" s="73"/>
-      <c r="C104" s="89" t="s">
+      <c r="A104" s="72"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="D104" s="89" t="s">
+      <c r="D104" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="E104" s="89" t="s">
+      <c r="E104" s="74" t="s">
         <v>379</v>
       </c>
       <c r="F104" s="45" t="s">
@@ -4901,11 +4941,11 @@
       <c r="J104" s="44"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
       <c r="F105" s="45" t="s">
         <v>380</v>
       </c>
@@ -4943,10 +4983,10 @@
       <c r="J106" s="44"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="131">
+      <c r="A107" s="78">
         <v>21</v>
       </c>
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="71" t="s">
         <v>381</v>
       </c>
       <c r="C107" s="44" t="s">
@@ -4969,12 +5009,12 @@
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="132"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="89" t="s">
+      <c r="A108" s="79"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="74" t="s">
         <v>390</v>
       </c>
-      <c r="D108" s="75" t="s">
+      <c r="D108" s="76" t="s">
         <v>392</v>
       </c>
       <c r="E108" s="44" t="s">
@@ -4991,10 +5031,10 @@
       <c r="J108" s="44"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="132"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="72"/>
+      <c r="A109" s="79"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="77"/>
       <c r="E109" s="44" t="s">
         <v>393</v>
       </c>
@@ -5009,8 +5049,8 @@
       <c r="J109" s="44"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="132"/>
-      <c r="B110" s="73"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="72"/>
       <c r="C110" s="44" t="s">
         <v>395</v>
       </c>
@@ -5031,8 +5071,8 @@
       <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="133"/>
-      <c r="B111" s="74"/>
+      <c r="A111" s="80"/>
+      <c r="B111" s="73"/>
       <c r="C111" s="44" t="s">
         <v>397</v>
       </c>
@@ -5052,38 +5092,74 @@
       <c r="I111" s="63"/>
       <c r="J111" s="44"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="46"/>
+    <row r="112" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="71">
+        <v>22</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="C112" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E112" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="F112" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G112" s="47">
+        <v>315.45</v>
+      </c>
+      <c r="H112" s="57" t="s">
+        <v>404</v>
+      </c>
       <c r="I112" s="63"/>
       <c r="J112" s="44"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="47"/>
+      <c r="A113" s="72"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="F113" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="G113" s="47">
+        <v>29.48</v>
+      </c>
       <c r="H113" s="46"/>
       <c r="I113" s="63"/>
       <c r="J113" s="44"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="45"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="47"/>
+      <c r="A114" s="73"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="D114" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="F114" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="G114" s="47">
+        <v>23.11</v>
+      </c>
       <c r="H114" s="46"/>
       <c r="I114" s="63"/>
       <c r="J114" s="44"/>
@@ -5773,24 +5849,64 @@
       <c r="J171" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D83:D84"/>
+  <mergeCells count="90">
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="B97:B100"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="J4:J9"/>
@@ -5807,61 +5923,23 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="G95:G96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5895,19 +5973,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -5917,31 +5995,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="124" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="100"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="125"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -5961,7 +6039,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="100" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -5970,11 +6048,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="107">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="103" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5994,21 +6072,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="114"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95">
+      <c r="A5" s="101">
         <v>3</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="113" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6018,17 +6096,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95" t="s">
+      <c r="F5" s="108"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="95"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="101"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -6036,17 +6114,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="96"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101">
+      <c r="A7" s="104">
         <v>4</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="112" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6055,48 +6133,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="117">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="117">
         <v>630</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="115"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="117"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="96"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95">
+      <c r="A9" s="101">
         <v>5</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="98" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -6108,26 +6186,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="98" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="102">
+      <c r="I9" s="105">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -6137,17 +6215,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="113"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="108"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -6157,17 +6235,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="113"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="108"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -6177,17 +6255,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="108"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="108"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -6197,17 +6275,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="108"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -6217,13 +6295,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="114"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="96"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="103"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -6258,10 +6336,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95">
+      <c r="A16" s="101">
         <v>7</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="115" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -6270,140 +6348,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="116" t="s">
+      <c r="F16" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="105">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="102">
+      <c r="H16" s="108"/>
+      <c r="I16" s="105">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="95" t="s">
+      <c r="J16" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="108"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="108"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="108"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="108"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="108"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="108"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="108"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="96"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="95">
+      <c r="A24" s="101">
         <v>8</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -6412,108 +6490,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="116" t="s">
+      <c r="F24" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G24" s="105">
         <v>180.56</v>
       </c>
-      <c r="H24" s="105"/>
-      <c r="I24" s="102">
+      <c r="H24" s="108"/>
+      <c r="I24" s="105">
         <v>180.56</v>
       </c>
-      <c r="J24" s="95" t="s">
+      <c r="J24" s="101" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="113"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="108"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="108"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="113"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="108"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="113"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="108"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="108"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="102"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="113"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="108"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="96"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="96"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="95">
+      <c r="A30" s="101">
         <v>16</v>
       </c>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="98" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6522,41 +6600,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="116" t="s">
+      <c r="F30" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="102">
+      <c r="G30" s="105">
         <v>1950</v>
       </c>
-      <c r="H30" s="105"/>
-      <c r="I30" s="102">
+      <c r="H30" s="108"/>
+      <c r="I30" s="105">
         <v>180.56</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96"/>
-      <c r="B31" s="114"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="96"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="103"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="95">
+      <c r="A32" s="101">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -6586,7 +6664,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -6644,7 +6722,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95">
+      <c r="A35" s="101">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -6674,8 +6752,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="108"/>
-      <c r="B36" s="116" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="98" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -6702,8 +6780,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="108"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -6728,8 +6806,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="105" t="s">
+      <c r="A38" s="102"/>
+      <c r="B38" s="108" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -6754,8 +6832,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="108"/>
-      <c r="B39" s="106"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -6778,8 +6856,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="107"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -6802,8 +6880,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="108"/>
-      <c r="B41" s="105" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="108" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -6828,8 +6906,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="108"/>
-      <c r="B42" s="106"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -6852,8 +6930,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="108"/>
-      <c r="B43" s="106"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -6876,8 +6954,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="96"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -6930,10 +7008,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="95">
+      <c r="A46" s="101">
         <v>21</v>
       </c>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="98" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -6958,8 +7036,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="108"/>
-      <c r="B47" s="113"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -6982,8 +7060,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="108"/>
-      <c r="B48" s="113"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -7006,8 +7084,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="108"/>
-      <c r="B49" s="113"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -7028,8 +7106,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="108"/>
-      <c r="B50" s="113"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -7039,7 +7117,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="116" t="s">
+      <c r="F50" s="98" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -7052,8 +7130,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="108"/>
-      <c r="B51" s="113"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -7063,7 +7141,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="113"/>
+      <c r="F51" s="100"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -7074,8 +7152,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="96"/>
-      <c r="B52" s="114"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -7085,7 +7163,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="114"/>
+      <c r="F52" s="99"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -7096,10 +7174,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="95">
+      <c r="A53" s="101">
         <v>22</v>
       </c>
-      <c r="B53" s="116" t="s">
+      <c r="B53" s="98" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -7111,7 +7189,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="116" t="s">
+      <c r="F53" s="98" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -7124,8 +7202,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="108"/>
-      <c r="B54" s="113"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -7135,7 +7213,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="113"/>
+      <c r="F54" s="100"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -7146,8 +7224,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="108"/>
-      <c r="B55" s="113"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -7157,7 +7235,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="113"/>
+      <c r="F55" s="100"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -7168,8 +7246,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="108"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -7179,7 +7257,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="113"/>
+      <c r="F56" s="100"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -7190,8 +7268,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="108"/>
-      <c r="B57" s="113"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -7201,7 +7279,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="113"/>
+      <c r="F57" s="100"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -7212,8 +7290,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="108"/>
-      <c r="B58" s="113"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -7223,7 +7301,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="114"/>
+      <c r="F58" s="99"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -7234,10 +7312,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="95">
+      <c r="A59" s="101">
         <v>23</v>
       </c>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="98" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -7262,8 +7340,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="108"/>
-      <c r="B60" s="113"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -7286,8 +7364,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="108"/>
-      <c r="B61" s="113"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -7310,8 +7388,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="108"/>
-      <c r="B62" s="113"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -7334,8 +7412,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="108"/>
-      <c r="B63" s="113"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -7345,17 +7423,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="116"/>
+      <c r="F63" s="98"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="105"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="95"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="101"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="108"/>
-      <c r="B64" s="113"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -7365,17 +7443,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="113"/>
+      <c r="F64" s="100"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="106"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="108"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="102"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="108"/>
-      <c r="B65" s="113"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -7385,17 +7463,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="113"/>
+      <c r="F65" s="100"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="106"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="108"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="102"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="108"/>
-      <c r="B66" s="113"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="100"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -7405,17 +7483,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="114"/>
+      <c r="F66" s="99"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="107"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="96"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="103"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="108"/>
-      <c r="B67" s="113"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -7425,23 +7503,23 @@
       <c r="E67" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="105" t="s">
+      <c r="F67" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="102">
+      <c r="G67" s="105">
         <v>67.959999999999994</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="102">
+      <c r="I67" s="105">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="95" t="s">
+      <c r="J67" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="108"/>
-      <c r="B68" s="113"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -7451,15 +7529,15 @@
       <c r="E68" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="107"/>
-      <c r="G68" s="104"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="107"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="96"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="103"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="108"/>
-      <c r="B69" s="113"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -7470,8 +7548,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="108"/>
-      <c r="B70" s="113"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="100"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -7484,8 +7562,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="108"/>
-      <c r="B71" s="113"/>
+      <c r="A71" s="102"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -7504,8 +7582,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="108"/>
-      <c r="B72" s="113"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -7524,8 +7602,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="108"/>
-      <c r="B73" s="113"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -7544,8 +7622,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="108"/>
-      <c r="B74" s="113"/>
+      <c r="A74" s="102"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -7564,8 +7642,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="108"/>
-      <c r="B75" s="113"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -7584,8 +7662,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="108"/>
-      <c r="B76" s="113"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -7608,10 +7686,10 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="101">
+      <c r="A77" s="104">
         <v>24</v>
       </c>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="111" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -7638,8 +7716,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="101"/>
-      <c r="B78" s="122"/>
+      <c r="A78" s="104"/>
+      <c r="B78" s="111"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -7662,8 +7740,8 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="101"/>
-      <c r="B79" s="122"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -7686,8 +7764,8 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="101"/>
-      <c r="B80" s="122"/>
+      <c r="A80" s="104"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -7710,8 +7788,8 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="101"/>
-      <c r="B81" s="122"/>
+      <c r="A81" s="104"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -7734,8 +7812,8 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="101"/>
-      <c r="B82" s="122"/>
+      <c r="A82" s="104"/>
+      <c r="B82" s="111"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -7758,8 +7836,8 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="101"/>
-      <c r="B83" s="122"/>
+      <c r="A83" s="104"/>
+      <c r="B83" s="111"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -7782,8 +7860,8 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="101"/>
-      <c r="B84" s="122"/>
+      <c r="A84" s="104"/>
+      <c r="B84" s="111"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -7806,8 +7884,8 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="101"/>
-      <c r="B85" s="122"/>
+      <c r="A85" s="104"/>
+      <c r="B85" s="111"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -7822,10 +7900,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="95">
+      <c r="A86" s="101">
         <v>25</v>
       </c>
-      <c r="B86" s="116" t="s">
+      <c r="B86" s="98" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -7850,8 +7928,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="108"/>
-      <c r="B87" s="113"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="100"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -7874,8 +7952,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="108"/>
-      <c r="B88" s="113"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="100"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -7890,8 +7968,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="108"/>
-      <c r="B89" s="113"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="100"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -7906,8 +7984,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="108"/>
-      <c r="B90" s="113"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="100"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -7922,8 +8000,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="96"/>
-      <c r="B91" s="114"/>
+      <c r="A91" s="103"/>
+      <c r="B91" s="99"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -7938,10 +8016,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="108">
+      <c r="A92" s="102">
         <v>26</v>
       </c>
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="100" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -7958,8 +8036,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="108"/>
-      <c r="B93" s="113"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="100"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -7982,8 +8060,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="108"/>
-      <c r="B94" s="113"/>
+      <c r="A94" s="102"/>
+      <c r="B94" s="100"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -8065,7 +8143,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="116" t="s">
+      <c r="B97" s="98" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -8091,7 +8169,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="114"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -8175,7 +8253,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="116" t="s">
+      <c r="B101" s="98" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -8203,7 +8281,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="114"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -8229,7 +8307,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="116" t="s">
+      <c r="B103" s="98" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -8257,7 +8335,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="113"/>
+      <c r="B104" s="100"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -8283,7 +8361,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="113"/>
+      <c r="B105" s="100"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -8307,7 +8385,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="113"/>
+      <c r="B106" s="100"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -8331,7 +8409,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="113"/>
+      <c r="B107" s="100"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -8355,7 +8433,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="113"/>
+      <c r="B108" s="100"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -8379,7 +8457,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="113"/>
+      <c r="B109" s="100"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -8401,7 +8479,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="114"/>
+      <c r="B110" s="99"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -8533,6 +8611,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:B110"/>
     <mergeCell ref="J63:J66"/>
@@ -8549,75 +8696,6 @@
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="J67:J68"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I16:I23"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8988,13 +9066,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -9200,28 +9278,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="126" t="s">
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="124"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="123"/>
-      <c r="B2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -9231,9 +9309,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="125"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A1F4A-E69E-4221-90A2-1286C16A9F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DFBD3C-38B5-439C-9C98-28115E59D289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="413">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1644,6 +1644,18 @@
   </si>
   <si>
     <t>1副</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河沙，红砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2247,17 +2259,68 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2268,140 +2331,89 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2713,7 +2725,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2751,7 +2763,7 @@
       </c>
       <c r="G1" s="68">
         <f>SUM(G2:G171)</f>
-        <v>31443.340000000011</v>
+        <v>34127.340000000011</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>337</v>
@@ -2770,10 +2782,10 @@
       <c r="B2" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="74" t="s">
         <v>332</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -2788,7 +2800,7 @@
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="93">
+      <c r="I2" s="79">
         <f>SUM(G2:G3)</f>
         <v>2400</v>
       </c>
@@ -2797,8 +2809,8 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="46" t="s">
         <v>80</v>
       </c>
@@ -2811,7 +2823,7 @@
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="96"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2836,20 +2848,20 @@
       <c r="G4" s="47">
         <v>720</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="81">
         <f>SUM(G4:G9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="74"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="44" t="s">
         <v>78</v>
       </c>
@@ -2859,15 +2871,15 @@
       <c r="G5" s="47">
         <v>720</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="85"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="44" t="s">
         <v>65</v>
       </c>
@@ -2877,15 +2889,15 @@
       <c r="G6" s="47">
         <v>468</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="44" t="s">
         <v>66</v>
       </c>
@@ -2895,15 +2907,15 @@
       <c r="G7" s="47">
         <v>432</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="44" t="s">
         <v>67</v>
       </c>
@@ -2913,15 +2925,15 @@
       <c r="G8" s="47">
         <v>365</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="73"/>
       <c r="B9" s="73"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
@@ -2931,9 +2943,9 @@
       <c r="G9" s="47">
         <v>475</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="75"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
@@ -2942,7 +2954,7 @@
       <c r="B10" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="89" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -2954,39 +2966,39 @@
       <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="80">
         <v>630</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="81">
         <v>630</v>
       </c>
-      <c r="J10" s="74"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="77"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
       </c>
-      <c r="G11" s="94"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="75"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="89" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="76" t="s">
@@ -2998,131 +3010,131 @@
       <c r="F12" s="61">
         <v>1</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="82">
         <v>1387.81</v>
       </c>
       <c r="H12" s="76"/>
-      <c r="I12" s="91">
+      <c r="I12" s="77">
         <v>1387.81</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="62" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="85"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="81"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="62" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="61">
         <v>1</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="85"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="62" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="61">
         <v>2</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="85"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="72"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="62" t="s">
         <v>128</v>
       </c>
       <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="85"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="81"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="62" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="61">
         <v>4</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="85"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="91"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="62" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="61">
         <v>5</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="85"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="77"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="62" t="s">
         <v>126</v>
       </c>
       <c r="F19" s="61">
         <v>1</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="75"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="89" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="76" t="s">
@@ -3134,104 +3146,104 @@
       <c r="F20" s="61">
         <v>1</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="82">
         <v>180.56</v>
       </c>
       <c r="H20" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="I20" s="91">
+      <c r="I20" s="77">
         <v>180.56</v>
       </c>
-      <c r="J20" s="74"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="62" t="s">
         <v>133</v>
       </c>
       <c r="F21" s="61">
         <v>2</v>
       </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="85"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="81"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="62" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="61">
         <v>2</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="85"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="81"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F23" s="61">
         <v>1</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="85"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="81"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="62" t="s">
         <v>136</v>
       </c>
       <c r="F24" s="61">
         <v>2</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="85"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="91"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="77"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="62" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="61">
         <v>1</v>
       </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="75"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="87" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="62" t="s">
@@ -3240,7 +3252,7 @@
       <c r="F26" s="61">
         <v>1</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="82">
         <v>1950</v>
       </c>
       <c r="H26" s="46"/>
@@ -3250,15 +3262,15 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="62" t="s">
         <v>140</v>
       </c>
       <c r="F27" s="61">
         <v>1</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="46"/>
       <c r="I27" s="63"/>
       <c r="J27" s="44"/>
@@ -3458,7 +3470,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="72"/>
       <c r="B36" s="72"/>
-      <c r="C36" s="81"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="46" t="s">
         <v>324</v>
       </c>
@@ -3478,7 +3490,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
-      <c r="C37" s="81"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="46" t="s">
         <v>324</v>
       </c>
@@ -3498,7 +3510,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="72"/>
       <c r="B38" s="72"/>
-      <c r="C38" s="81"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="46" t="s">
         <v>324</v>
       </c>
@@ -3518,7 +3530,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
-      <c r="C39" s="81"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="46" t="s">
         <v>324</v>
       </c>
@@ -3538,7 +3550,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="72"/>
       <c r="B40" s="72"/>
-      <c r="C40" s="81"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="46" t="s">
         <v>324</v>
       </c>
@@ -3558,7 +3570,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
       <c r="B41" s="72"/>
-      <c r="C41" s="81"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="46" t="s">
         <v>324</v>
       </c>
@@ -3578,7 +3590,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
       <c r="B42" s="72"/>
-      <c r="C42" s="77"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="46" t="s">
         <v>323</v>
       </c>
@@ -3712,7 +3724,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="72"/>
       <c r="B48" s="72"/>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="89" t="s">
         <v>322</v>
       </c>
       <c r="D48" s="46" t="s">
@@ -3734,7 +3746,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="72"/>
       <c r="B49" s="72"/>
-      <c r="C49" s="85"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="46" t="s">
         <v>361</v>
       </c>
@@ -3754,7 +3766,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="72"/>
       <c r="B50" s="72"/>
-      <c r="C50" s="85"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="46" t="s">
         <v>361</v>
       </c>
@@ -3774,7 +3786,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="72"/>
       <c r="B51" s="72"/>
-      <c r="C51" s="75"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="46" t="s">
         <v>361</v>
       </c>
@@ -3882,8 +3894,8 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="72"/>
       <c r="B56" s="72"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="44" t="s">
         <v>159</v>
       </c>
@@ -3900,8 +3912,8 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="72"/>
       <c r="B57" s="72"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
       <c r="E57" s="44" t="s">
         <v>164</v>
       </c>
@@ -4146,8 +4158,8 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="73"/>
       <c r="B68" s="73"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
       <c r="E68" s="46" t="s">
         <v>247</v>
       </c>
@@ -4212,8 +4224,8 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="72"/>
       <c r="B71" s="72"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
       <c r="E71" s="46" t="s">
         <v>227</v>
       </c>
@@ -4230,8 +4242,8 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="73"/>
       <c r="B72" s="73"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
       <c r="E72" s="46" t="s">
         <v>231</v>
       </c>
@@ -4300,7 +4312,7 @@
       <c r="B75" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="89" t="s">
         <v>266</v>
       </c>
       <c r="D75" s="46" t="s">
@@ -4322,7 +4334,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="72"/>
       <c r="B76" s="72"/>
-      <c r="C76" s="75"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="46"/>
       <c r="E76" s="44" t="s">
         <v>149</v>
@@ -4502,8 +4514,8 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="73"/>
       <c r="B84" s="73"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
       <c r="E84" s="44" t="s">
         <v>275</v>
       </c>
@@ -4630,8 +4642,8 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="72"/>
       <c r="B90" s="72"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
       <c r="E90" s="44" t="s">
         <v>309</v>
       </c>
@@ -4650,8 +4662,8 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="72"/>
       <c r="B91" s="72"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="81"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
       <c r="E91" s="44" t="s">
         <v>300</v>
       </c>
@@ -4670,8 +4682,8 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="72"/>
       <c r="B92" s="72"/>
-      <c r="C92" s="81"/>
-      <c r="D92" s="77"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="75"/>
       <c r="E92" s="44" t="s">
         <v>301</v>
       </c>
@@ -4690,7 +4702,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="72"/>
       <c r="B93" s="72"/>
-      <c r="C93" s="81"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="46" t="s">
         <v>307</v>
       </c>
@@ -4712,7 +4724,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="73"/>
       <c r="B94" s="73"/>
-      <c r="C94" s="77"/>
+      <c r="C94" s="75"/>
       <c r="D94" s="46" t="s">
         <v>347</v>
       </c>
@@ -4738,7 +4750,7 @@
       <c r="B95" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="74" t="s">
+      <c r="C95" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D95" s="76" t="s">
@@ -4750,7 +4762,7 @@
       <c r="F95" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="86">
+      <c r="G95" s="82">
         <v>67.959999999999994</v>
       </c>
       <c r="H95" s="46"/>
@@ -4760,15 +4772,15 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="73"/>
       <c r="B96" s="73"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="77"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="75"/>
       <c r="E96" s="46" t="s">
         <v>283</v>
       </c>
       <c r="F96" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="G96" s="87"/>
+      <c r="G96" s="84"/>
       <c r="H96" s="46"/>
       <c r="I96" s="63"/>
       <c r="J96" s="44"/>
@@ -4777,10 +4789,10 @@
       <c r="A97" s="71">
         <v>17</v>
       </c>
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="92" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="89" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="76" t="s">
@@ -4801,9 +4813,9 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="72"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="81"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="74"/>
       <c r="E98" s="49" t="s">
         <v>282</v>
       </c>
@@ -4819,9 +4831,9 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="72"/>
-      <c r="B99" s="83"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="81"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="74"/>
       <c r="E99" s="49" t="s">
         <v>280</v>
       </c>
@@ -4837,9 +4849,9 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="73"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="77"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="75"/>
       <c r="E100" s="49" t="s">
         <v>318</v>
       </c>
@@ -4883,13 +4895,13 @@
       <c r="B102" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="74" t="s">
+      <c r="C102" s="89" t="s">
         <v>376</v>
       </c>
-      <c r="D102" s="74" t="s">
+      <c r="D102" s="89" t="s">
         <v>375</v>
       </c>
-      <c r="E102" s="74" t="s">
+      <c r="E102" s="89" t="s">
         <v>377</v>
       </c>
       <c r="F102" s="45" t="s">
@@ -4905,9 +4917,9 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="72"/>
       <c r="B103" s="72"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="90"/>
       <c r="F103" s="45" t="s">
         <v>380</v>
       </c>
@@ -4921,13 +4933,13 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="72"/>
       <c r="B104" s="72"/>
-      <c r="C104" s="74" t="s">
+      <c r="C104" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="D104" s="74" t="s">
+      <c r="D104" s="89" t="s">
         <v>375</v>
       </c>
-      <c r="E104" s="74" t="s">
+      <c r="E104" s="89" t="s">
         <v>379</v>
       </c>
       <c r="F104" s="45" t="s">
@@ -4943,9 +4955,9 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="73"/>
       <c r="B105" s="73"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
       <c r="F105" s="45" t="s">
         <v>380</v>
       </c>
@@ -4983,7 +4995,7 @@
       <c r="J106" s="44"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="78">
+      <c r="A107" s="95">
         <v>21</v>
       </c>
       <c r="B107" s="71" t="s">
@@ -5009,9 +5021,9 @@
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="79"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="72"/>
-      <c r="C108" s="74" t="s">
+      <c r="C108" s="89" t="s">
         <v>390</v>
       </c>
       <c r="D108" s="76" t="s">
@@ -5031,10 +5043,10 @@
       <c r="J108" s="44"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="79"/>
+      <c r="A109" s="96"/>
       <c r="B109" s="72"/>
-      <c r="C109" s="75"/>
-      <c r="D109" s="77"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="75"/>
       <c r="E109" s="44" t="s">
         <v>393</v>
       </c>
@@ -5049,7 +5061,7 @@
       <c r="J109" s="44"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="79"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="72"/>
       <c r="C110" s="44" t="s">
         <v>395</v>
@@ -5071,7 +5083,7 @@
       <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="80"/>
+      <c r="A111" s="97"/>
       <c r="B111" s="73"/>
       <c r="C111" s="44" t="s">
         <v>397</v>
@@ -5143,8 +5155,8 @@
       <c r="J113" s="44"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="73"/>
-      <c r="B114" s="73"/>
+      <c r="A114" s="72"/>
+      <c r="B114" s="72"/>
       <c r="C114" s="44" t="s">
         <v>407</v>
       </c>
@@ -5165,13 +5177,23 @@
       <c r="J114" s="44"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="45"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="47"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="D115" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F115" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="G115" s="47">
+        <v>2684</v>
+      </c>
       <c r="H115" s="46"/>
       <c r="I115" s="63"/>
       <c r="J115" s="44"/>
@@ -5850,63 +5872,25 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="B97:B100"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="J4:J9"/>
@@ -5923,23 +5907,61 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="C89:C94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5973,19 +5995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="100" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -5995,31 +6017,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="125"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="103"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -6039,7 +6061,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="116" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -6052,7 +6074,7 @@
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="99" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6072,7 +6094,7 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
@@ -6083,10 +6105,10 @@
       <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101">
+      <c r="A5" s="98">
         <v>3</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="121" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6097,16 +6119,16 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="108"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101" t="s">
+      <c r="G5" s="98"/>
+      <c r="H5" s="98" t="s">
         <v>74</v>
       </c>
       <c r="I5" s="105"/>
-      <c r="J5" s="101"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -6115,16 +6137,16 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="102"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="107"/>
-      <c r="J6" s="103"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104">
         <v>4</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="120" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6136,25 +6158,25 @@
       <c r="E7" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="117">
+      <c r="G7" s="118">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="118">
         <v>630</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104"/>
-      <c r="B8" s="112"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
@@ -6162,19 +6184,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="117"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="117"/>
-      <c r="J8" s="103"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101">
+      <c r="A9" s="98">
         <v>5</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="119" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -6186,26 +6208,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="119" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="101" t="s">
+      <c r="H9" s="98" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="105">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="101" t="s">
+      <c r="J9" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -6215,17 +6237,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="102"/>
+      <c r="H10" s="111"/>
       <c r="I10" s="106"/>
-      <c r="J10" s="102"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -6235,17 +6257,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="102"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="106"/>
-      <c r="J11" s="102"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -6255,17 +6277,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="102"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="106"/>
-      <c r="J12" s="102"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -6275,17 +6297,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="102"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="106"/>
-      <c r="J13" s="102"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -6295,13 +6317,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="103"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="107"/>
-      <c r="J14" s="103"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -6336,10 +6358,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101">
+      <c r="A16" s="98">
         <v>7</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="123" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -6348,10 +6370,10 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="119" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="105">
@@ -6361,127 +6383,127 @@
       <c r="I16" s="105">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="101" t="s">
+      <c r="J16" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="106"/>
       <c r="H17" s="109"/>
       <c r="I17" s="106"/>
-      <c r="J17" s="102"/>
+      <c r="J17" s="111"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="100"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="106"/>
       <c r="H18" s="109"/>
       <c r="I18" s="106"/>
-      <c r="J18" s="102"/>
+      <c r="J18" s="111"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="100"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="106"/>
       <c r="H19" s="109"/>
       <c r="I19" s="106"/>
-      <c r="J19" s="102"/>
+      <c r="J19" s="111"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="100"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="106"/>
       <c r="H20" s="109"/>
       <c r="I20" s="106"/>
-      <c r="J20" s="102"/>
+      <c r="J20" s="111"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="100"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="106"/>
       <c r="H21" s="109"/>
       <c r="I21" s="106"/>
-      <c r="J21" s="102"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="100"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="106"/>
       <c r="H22" s="109"/>
       <c r="I22" s="106"/>
-      <c r="J22" s="102"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="107"/>
       <c r="H23" s="110"/>
       <c r="I23" s="107"/>
-      <c r="J23" s="103"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101">
+      <c r="A24" s="98">
         <v>8</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="119" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -6490,10 +6512,10 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="119" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="105">
@@ -6503,95 +6525,95 @@
       <c r="I24" s="105">
         <v>180.56</v>
       </c>
-      <c r="J24" s="101" t="s">
+      <c r="J24" s="98" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="100"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="106"/>
       <c r="H25" s="109"/>
       <c r="I25" s="106"/>
-      <c r="J25" s="102"/>
+      <c r="J25" s="111"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="100"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="106"/>
       <c r="H26" s="109"/>
       <c r="I26" s="106"/>
-      <c r="J26" s="102"/>
+      <c r="J26" s="111"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="100"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="106"/>
       <c r="H27" s="109"/>
       <c r="I27" s="106"/>
-      <c r="J27" s="102"/>
+      <c r="J27" s="111"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="100"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="106"/>
       <c r="H28" s="109"/>
       <c r="I28" s="106"/>
-      <c r="J28" s="102"/>
+      <c r="J28" s="111"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="117"/>
       <c r="G29" s="107"/>
       <c r="H29" s="110"/>
       <c r="I29" s="107"/>
-      <c r="J29" s="103"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="101">
+      <c r="A30" s="98">
         <v>16</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="119" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6600,10 +6622,10 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="119" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="105">
@@ -6613,28 +6635,28 @@
       <c r="I30" s="105">
         <v>180.56</v>
       </c>
-      <c r="J30" s="101" t="s">
+      <c r="J30" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="99"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="103"/>
-      <c r="F31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="117"/>
       <c r="G31" s="107"/>
       <c r="H31" s="110"/>
       <c r="I31" s="107"/>
-      <c r="J31" s="103"/>
+      <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="101">
+      <c r="A32" s="98">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -6664,7 +6686,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="103"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -6722,7 +6744,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="101">
+      <c r="A35" s="98">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -6752,8 +6774,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="119" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -6780,8 +6802,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="99"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -6806,7 +6828,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="108" t="s">
         <v>228</v>
       </c>
@@ -6832,7 +6854,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="102"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="109"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
@@ -6856,7 +6878,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="110"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
@@ -6880,7 +6902,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="102"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="108" t="s">
         <v>237</v>
       </c>
@@ -6906,7 +6928,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="109"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
@@ -6930,7 +6952,7 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="109"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
@@ -6954,7 +6976,7 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="110"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
@@ -7008,10 +7030,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="101">
+      <c r="A46" s="98">
         <v>21</v>
       </c>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="119" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -7036,8 +7058,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="102"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -7060,8 +7082,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="102"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -7084,8 +7106,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="102"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -7106,8 +7128,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -7117,7 +7139,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="98" t="s">
+      <c r="F50" s="119" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -7130,8 +7152,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -7141,7 +7163,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="100"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -7152,8 +7174,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="103"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="117"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -7163,7 +7185,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="99"/>
+      <c r="F52" s="117"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -7174,10 +7196,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="101">
+      <c r="A53" s="98">
         <v>22</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="119" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -7189,7 +7211,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="98" t="s">
+      <c r="F53" s="119" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -7202,8 +7224,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -7213,7 +7235,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="100"/>
+      <c r="F54" s="116"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -7224,8 +7246,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="102"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -7235,7 +7257,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="100"/>
+      <c r="F55" s="116"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -7246,8 +7268,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="102"/>
-      <c r="B56" s="100"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -7257,7 +7279,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="100"/>
+      <c r="F56" s="116"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -7268,8 +7290,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="102"/>
-      <c r="B57" s="100"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -7279,7 +7301,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="100"/>
+      <c r="F57" s="116"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -7290,8 +7312,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="102"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -7301,7 +7323,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="99"/>
+      <c r="F58" s="117"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -7312,10 +7334,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="101">
+      <c r="A59" s="98">
         <v>23</v>
       </c>
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="119" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -7340,8 +7362,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="102"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -7364,8 +7386,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="102"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -7388,8 +7410,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="102"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -7412,8 +7434,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="102"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="111"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -7423,17 +7445,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="98"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
       <c r="H63" s="108"/>
       <c r="I63" s="105"/>
-      <c r="J63" s="101"/>
+      <c r="J63" s="98"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="102"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="111"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -7443,17 +7465,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="100"/>
+      <c r="F64" s="116"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
       <c r="H64" s="109"/>
       <c r="I64" s="106"/>
-      <c r="J64" s="102"/>
+      <c r="J64" s="111"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="102"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -7463,17 +7485,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="100"/>
+      <c r="F65" s="116"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
       <c r="H65" s="109"/>
       <c r="I65" s="106"/>
-      <c r="J65" s="102"/>
+      <c r="J65" s="111"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="102"/>
-      <c r="B66" s="100"/>
+      <c r="A66" s="111"/>
+      <c r="B66" s="116"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -7483,17 +7505,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="99"/>
+      <c r="F66" s="117"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
       <c r="H66" s="110"/>
       <c r="I66" s="107"/>
-      <c r="J66" s="103"/>
+      <c r="J66" s="99"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="102"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="111"/>
+      <c r="B67" s="116"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -7513,13 +7535,13 @@
       <c r="I67" s="105">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="101" t="s">
+      <c r="J67" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="102"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="111"/>
+      <c r="B68" s="116"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -7533,11 +7555,11 @@
       <c r="G68" s="107"/>
       <c r="H68" s="12"/>
       <c r="I68" s="107"/>
-      <c r="J68" s="103"/>
+      <c r="J68" s="99"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="102"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="111"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -7548,8 +7570,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="102"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="111"/>
+      <c r="B70" s="116"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -7562,8 +7584,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="102"/>
-      <c r="B71" s="100"/>
+      <c r="A71" s="111"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -7582,8 +7604,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="102"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="111"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -7602,8 +7624,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="102"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="111"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -7622,8 +7644,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="102"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -7642,8 +7664,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="102"/>
-      <c r="B75" s="100"/>
+      <c r="A75" s="111"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -7662,8 +7684,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="102"/>
-      <c r="B76" s="100"/>
+      <c r="A76" s="111"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -7689,7 +7711,7 @@
       <c r="A77" s="104">
         <v>24</v>
       </c>
-      <c r="B77" s="111" t="s">
+      <c r="B77" s="125" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -7717,7 +7739,7 @@
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="104"/>
-      <c r="B78" s="111"/>
+      <c r="B78" s="125"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -7741,7 +7763,7 @@
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="104"/>
-      <c r="B79" s="111"/>
+      <c r="B79" s="125"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -7765,7 +7787,7 @@
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="104"/>
-      <c r="B80" s="111"/>
+      <c r="B80" s="125"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -7789,7 +7811,7 @@
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="104"/>
-      <c r="B81" s="111"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -7813,7 +7835,7 @@
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="104"/>
-      <c r="B82" s="111"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -7837,7 +7859,7 @@
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="104"/>
-      <c r="B83" s="111"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -7861,7 +7883,7 @@
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="104"/>
-      <c r="B84" s="111"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -7885,7 +7907,7 @@
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="104"/>
-      <c r="B85" s="111"/>
+      <c r="B85" s="125"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -7900,10 +7922,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="101">
+      <c r="A86" s="98">
         <v>25</v>
       </c>
-      <c r="B86" s="98" t="s">
+      <c r="B86" s="119" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -7928,8 +7950,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="102"/>
-      <c r="B87" s="100"/>
+      <c r="A87" s="111"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -7952,8 +7974,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="102"/>
-      <c r="B88" s="100"/>
+      <c r="A88" s="111"/>
+      <c r="B88" s="116"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -7968,8 +7990,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="102"/>
-      <c r="B89" s="100"/>
+      <c r="A89" s="111"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -7984,8 +8006,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="102"/>
-      <c r="B90" s="100"/>
+      <c r="A90" s="111"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -8000,8 +8022,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="103"/>
-      <c r="B91" s="99"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -8016,10 +8038,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="102">
+      <c r="A92" s="111">
         <v>26</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="116" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -8036,8 +8058,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="102"/>
-      <c r="B93" s="100"/>
+      <c r="A93" s="111"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -8060,8 +8082,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="102"/>
-      <c r="B94" s="100"/>
+      <c r="A94" s="111"/>
+      <c r="B94" s="116"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -8143,7 +8165,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="98" t="s">
+      <c r="B97" s="119" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -8169,7 +8191,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="99"/>
+      <c r="B98" s="117"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -8253,7 +8275,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="98" t="s">
+      <c r="B101" s="119" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -8281,7 +8303,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="99"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -8307,7 +8329,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="98" t="s">
+      <c r="B103" s="119" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -8335,7 +8357,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="100"/>
+      <c r="B104" s="116"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -8361,7 +8383,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="100"/>
+      <c r="B105" s="116"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -8385,7 +8407,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="100"/>
+      <c r="B106" s="116"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -8409,7 +8431,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="100"/>
+      <c r="B107" s="116"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -8433,7 +8455,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="100"/>
+      <c r="B108" s="116"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -8457,7 +8479,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="100"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -8479,7 +8501,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="99"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -8611,6 +8633,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -8627,75 +8718,6 @@
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DFBD3C-38B5-439C-9C98-28115E59D289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA13C03-4680-4B51-AED6-0FFCF822FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门窗表" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="422">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1656,6 +1656,42 @@
   </si>
   <si>
     <t>1车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥枪钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展宇紧固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢火钳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农家乐生活家居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏杰包装用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1只</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2259,14 +2295,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2283,137 +2361,95 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2724,8 +2760,8 @@
   <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2763,7 +2799,7 @@
       </c>
       <c r="G1" s="68">
         <f>SUM(G2:G171)</f>
-        <v>34127.340000000011</v>
+        <v>34212.94000000001</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>337</v>
@@ -2782,10 +2818,10 @@
       <c r="B2" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="81" t="s">
         <v>332</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -2800,7 +2836,7 @@
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="93">
         <f>SUM(G2:G3)</f>
         <v>2400</v>
       </c>
@@ -2809,8 +2845,8 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="46" t="s">
         <v>80</v>
       </c>
@@ -2823,7 +2859,7 @@
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="96"/>
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2848,20 +2884,20 @@
       <c r="G4" s="47">
         <v>720</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="95">
         <f>SUM(G4:G9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="44" t="s">
         <v>78</v>
       </c>
@@ -2871,15 +2907,15 @@
       <c r="G5" s="47">
         <v>720</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="44" t="s">
         <v>65</v>
       </c>
@@ -2889,15 +2925,15 @@
       <c r="G6" s="47">
         <v>468</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="91"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="44" t="s">
         <v>66</v>
       </c>
@@ -2907,15 +2943,15 @@
       <c r="G7" s="47">
         <v>432</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="91"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="44" t="s">
         <v>67</v>
       </c>
@@ -2925,15 +2961,15 @@
       <c r="G8" s="47">
         <v>365</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="91"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="73"/>
       <c r="B9" s="73"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
@@ -2943,9 +2979,9 @@
       <c r="G9" s="47">
         <v>475</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="90"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
@@ -2954,7 +2990,7 @@
       <c r="B10" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="74" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -2966,39 +3002,39 @@
       <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="94">
         <v>630</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="95">
         <v>630</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
       </c>
-      <c r="G11" s="80"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="90"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="74" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="76" t="s">
@@ -3010,131 +3046,131 @@
       <c r="F12" s="61">
         <v>1</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="86">
         <v>1387.81</v>
       </c>
       <c r="H12" s="76"/>
-      <c r="I12" s="77">
+      <c r="I12" s="91">
         <v>1387.81</v>
       </c>
-      <c r="J12" s="89"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="62" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="91"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="62" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="61">
         <v>1</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="91"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="62" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="61">
         <v>2</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="91"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="72"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="62" t="s">
         <v>128</v>
       </c>
       <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="91"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="62" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="61">
         <v>4</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="91"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="62" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="61">
         <v>5</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="91"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="62" t="s">
         <v>126</v>
       </c>
       <c r="F19" s="61">
         <v>1</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="90"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="74" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="76" t="s">
@@ -3146,104 +3182,104 @@
       <c r="F20" s="61">
         <v>1</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="86">
         <v>180.56</v>
       </c>
       <c r="H20" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="91">
         <v>180.56</v>
       </c>
-      <c r="J20" s="89"/>
+      <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="62" t="s">
         <v>133</v>
       </c>
       <c r="F21" s="61">
         <v>2</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="91"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="62" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="61">
         <v>2</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="91"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F23" s="61">
         <v>1</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="91"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="62" t="s">
         <v>136</v>
       </c>
       <c r="F24" s="61">
         <v>2</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="91"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="62" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="61">
         <v>1</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="90"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="88" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="62" t="s">
@@ -3252,7 +3288,7 @@
       <c r="F26" s="61">
         <v>1</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="86">
         <v>1950</v>
       </c>
       <c r="H26" s="46"/>
@@ -3262,15 +3298,15 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="62" t="s">
         <v>140</v>
       </c>
       <c r="F27" s="61">
         <v>1</v>
       </c>
-      <c r="G27" s="84"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="46"/>
       <c r="I27" s="63"/>
       <c r="J27" s="44"/>
@@ -3470,7 +3506,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="72"/>
       <c r="B36" s="72"/>
-      <c r="C36" s="74"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="46" t="s">
         <v>324</v>
       </c>
@@ -3490,7 +3526,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
-      <c r="C37" s="74"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="46" t="s">
         <v>324</v>
       </c>
@@ -3510,7 +3546,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="72"/>
       <c r="B38" s="72"/>
-      <c r="C38" s="74"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="46" t="s">
         <v>324</v>
       </c>
@@ -3530,7 +3566,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
-      <c r="C39" s="74"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="46" t="s">
         <v>324</v>
       </c>
@@ -3550,7 +3586,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="72"/>
       <c r="B40" s="72"/>
-      <c r="C40" s="74"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="46" t="s">
         <v>324</v>
       </c>
@@ -3570,7 +3606,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
       <c r="B41" s="72"/>
-      <c r="C41" s="74"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="46" t="s">
         <v>324</v>
       </c>
@@ -3590,7 +3626,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
       <c r="B42" s="72"/>
-      <c r="C42" s="75"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="46" t="s">
         <v>323</v>
       </c>
@@ -3724,7 +3760,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="72"/>
       <c r="B48" s="72"/>
-      <c r="C48" s="89" t="s">
+      <c r="C48" s="74" t="s">
         <v>322</v>
       </c>
       <c r="D48" s="46" t="s">
@@ -3746,7 +3782,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="72"/>
       <c r="B49" s="72"/>
-      <c r="C49" s="91"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="46" t="s">
         <v>361</v>
       </c>
@@ -3766,7 +3802,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="72"/>
       <c r="B50" s="72"/>
-      <c r="C50" s="91"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="46" t="s">
         <v>361</v>
       </c>
@@ -3786,7 +3822,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="72"/>
       <c r="B51" s="72"/>
-      <c r="C51" s="90"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="46" t="s">
         <v>361</v>
       </c>
@@ -3894,8 +3930,8 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="72"/>
       <c r="B56" s="72"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="44" t="s">
         <v>159</v>
       </c>
@@ -3912,8 +3948,8 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="72"/>
       <c r="B57" s="72"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="44" t="s">
         <v>164</v>
       </c>
@@ -4158,8 +4194,8 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="73"/>
       <c r="B68" s="73"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
       <c r="E68" s="46" t="s">
         <v>247</v>
       </c>
@@ -4224,8 +4260,8 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="72"/>
       <c r="B71" s="72"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
       <c r="E71" s="46" t="s">
         <v>227</v>
       </c>
@@ -4242,8 +4278,8 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="73"/>
       <c r="B72" s="73"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
       <c r="E72" s="46" t="s">
         <v>231</v>
       </c>
@@ -4312,7 +4348,7 @@
       <c r="B75" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="89" t="s">
+      <c r="C75" s="74" t="s">
         <v>266</v>
       </c>
       <c r="D75" s="46" t="s">
@@ -4334,7 +4370,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="72"/>
       <c r="B76" s="72"/>
-      <c r="C76" s="90"/>
+      <c r="C76" s="75"/>
       <c r="D76" s="46"/>
       <c r="E76" s="44" t="s">
         <v>149</v>
@@ -4514,8 +4550,8 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="73"/>
       <c r="B84" s="73"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
       <c r="E84" s="44" t="s">
         <v>275</v>
       </c>
@@ -4642,8 +4678,8 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="72"/>
       <c r="B90" s="72"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
       <c r="E90" s="44" t="s">
         <v>309</v>
       </c>
@@ -4662,8 +4698,8 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="72"/>
       <c r="B91" s="72"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
       <c r="E91" s="44" t="s">
         <v>300</v>
       </c>
@@ -4682,8 +4718,8 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="72"/>
       <c r="B92" s="72"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="75"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="77"/>
       <c r="E92" s="44" t="s">
         <v>301</v>
       </c>
@@ -4702,7 +4738,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="72"/>
       <c r="B93" s="72"/>
-      <c r="C93" s="74"/>
+      <c r="C93" s="81"/>
       <c r="D93" s="46" t="s">
         <v>307</v>
       </c>
@@ -4724,7 +4760,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="73"/>
       <c r="B94" s="73"/>
-      <c r="C94" s="75"/>
+      <c r="C94" s="77"/>
       <c r="D94" s="46" t="s">
         <v>347</v>
       </c>
@@ -4750,7 +4786,7 @@
       <c r="B95" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="89" t="s">
+      <c r="C95" s="74" t="s">
         <v>293</v>
       </c>
       <c r="D95" s="76" t="s">
@@ -4762,7 +4798,7 @@
       <c r="F95" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="82">
+      <c r="G95" s="86">
         <v>67.959999999999994</v>
       </c>
       <c r="H95" s="46"/>
@@ -4772,15 +4808,15 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="73"/>
       <c r="B96" s="73"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="77"/>
       <c r="E96" s="46" t="s">
         <v>283</v>
       </c>
       <c r="F96" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="G96" s="84"/>
+      <c r="G96" s="87"/>
       <c r="H96" s="46"/>
       <c r="I96" s="63"/>
       <c r="J96" s="44"/>
@@ -4789,10 +4825,10 @@
       <c r="A97" s="71">
         <v>17</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="89" t="s">
+      <c r="C97" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="76" t="s">
@@ -4813,9 +4849,9 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="72"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="74"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="81"/>
       <c r="E98" s="49" t="s">
         <v>282</v>
       </c>
@@ -4831,9 +4867,9 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="72"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="74"/>
+      <c r="B99" s="83"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="81"/>
       <c r="E99" s="49" t="s">
         <v>280</v>
       </c>
@@ -4849,9 +4885,9 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="73"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="75"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="77"/>
       <c r="E100" s="49" t="s">
         <v>318</v>
       </c>
@@ -4895,13 +4931,13 @@
       <c r="B102" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="89" t="s">
+      <c r="C102" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="D102" s="89" t="s">
+      <c r="D102" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="E102" s="89" t="s">
+      <c r="E102" s="74" t="s">
         <v>377</v>
       </c>
       <c r="F102" s="45" t="s">
@@ -4917,9 +4953,9 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="72"/>
       <c r="B103" s="72"/>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
       <c r="F103" s="45" t="s">
         <v>380</v>
       </c>
@@ -4933,13 +4969,13 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="72"/>
       <c r="B104" s="72"/>
-      <c r="C104" s="89" t="s">
+      <c r="C104" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="D104" s="89" t="s">
+      <c r="D104" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="E104" s="89" t="s">
+      <c r="E104" s="74" t="s">
         <v>379</v>
       </c>
       <c r="F104" s="45" t="s">
@@ -4955,9 +4991,9 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="73"/>
       <c r="B105" s="73"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
       <c r="F105" s="45" t="s">
         <v>380</v>
       </c>
@@ -4995,7 +5031,7 @@
       <c r="J106" s="44"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="95">
+      <c r="A107" s="78">
         <v>21</v>
       </c>
       <c r="B107" s="71" t="s">
@@ -5021,9 +5057,9 @@
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="96"/>
+      <c r="A108" s="79"/>
       <c r="B108" s="72"/>
-      <c r="C108" s="89" t="s">
+      <c r="C108" s="74" t="s">
         <v>390</v>
       </c>
       <c r="D108" s="76" t="s">
@@ -5043,10 +5079,10 @@
       <c r="J108" s="44"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="96"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="72"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="75"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="77"/>
       <c r="E109" s="44" t="s">
         <v>393</v>
       </c>
@@ -5061,7 +5097,7 @@
       <c r="J109" s="44"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="96"/>
+      <c r="A110" s="79"/>
       <c r="B110" s="72"/>
       <c r="C110" s="44" t="s">
         <v>395</v>
@@ -5083,7 +5119,7 @@
       <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="97"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="73"/>
       <c r="C111" s="44" t="s">
         <v>397</v>
@@ -5177,8 +5213,8 @@
       <c r="J114" s="44"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="73"/>
-      <c r="B115" s="73"/>
+      <c r="A115" s="72"/>
+      <c r="B115" s="72"/>
       <c r="C115" s="44" t="s">
         <v>410</v>
       </c>
@@ -5199,37 +5235,60 @@
       <c r="J115" s="44"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="45"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="46"/>
+      <c r="A116" s="72"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>413</v>
+      </c>
       <c r="E116" s="44"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="47"/>
+      <c r="F116" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="G116" s="47">
+        <v>61.2</v>
+      </c>
       <c r="H116" s="46"/>
       <c r="I116" s="63"/>
       <c r="J116" s="44"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="45"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="46"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="47"/>
+      <c r="A117" s="72"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="D117" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="F117" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="G117" s="47">
+        <v>16.399999999999999</v>
+      </c>
       <c r="H117" s="46"/>
       <c r="I117" s="63"/>
       <c r="J117" s="44"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="45"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="46"/>
+      <c r="A118" s="73"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" s="44" t="s">
+        <v>419</v>
+      </c>
       <c r="E118" s="44"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="47"/>
+      <c r="F118" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="G118" s="47">
+        <v>8</v>
+      </c>
       <c r="H118" s="46"/>
       <c r="I118" s="63"/>
       <c r="J118" s="44"/>
@@ -5872,25 +5931,63 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
     <mergeCell ref="B97:B100"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="J4:J9"/>
@@ -5907,61 +6004,23 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="G95:G96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5995,19 +6054,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -6017,31 +6076,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="124" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="103"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="125"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -6061,7 +6120,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="100" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -6074,7 +6133,7 @@
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="103" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6094,7 +6153,7 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="117"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
@@ -6105,10 +6164,10 @@
       <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98">
+      <c r="A5" s="101">
         <v>3</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="113" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6119,16 +6178,16 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="108"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98" t="s">
+      <c r="G5" s="101"/>
+      <c r="H5" s="101" t="s">
         <v>74</v>
       </c>
       <c r="I5" s="105"/>
-      <c r="J5" s="98"/>
+      <c r="J5" s="101"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="122"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -6137,16 +6196,16 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="111"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="107"/>
-      <c r="J6" s="99"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104">
         <v>4</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="112" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6158,25 +6217,25 @@
       <c r="E7" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="118">
+      <c r="G7" s="117">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="118">
+      <c r="I7" s="117">
         <v>630</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104"/>
-      <c r="B8" s="120"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
@@ -6184,19 +6243,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="118"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="117"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="99"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="98">
+      <c r="A9" s="101">
         <v>5</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="98" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -6208,26 +6267,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="F9" s="98" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="101" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="105">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -6237,17 +6296,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="111"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="106"/>
-      <c r="J10" s="111"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -6257,17 +6316,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="116"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="111"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="106"/>
-      <c r="J11" s="111"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -6277,17 +6336,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="116"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="102"/>
       <c r="I12" s="106"/>
-      <c r="J12" s="111"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="111"/>
-      <c r="B13" s="116"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -6297,17 +6356,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="116"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="111"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="106"/>
-      <c r="J13" s="111"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -6317,13 +6376,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="117"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="99"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="107"/>
-      <c r="J14" s="99"/>
+      <c r="J14" s="103"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -6358,10 +6417,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98">
+      <c r="A16" s="101">
         <v>7</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="115" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -6370,10 +6429,10 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="98" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="105">
@@ -6383,127 +6442,127 @@
       <c r="I16" s="105">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="98" t="s">
+      <c r="J16" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="116"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="106"/>
       <c r="H17" s="109"/>
       <c r="I17" s="106"/>
-      <c r="J17" s="111"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="116"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="106"/>
       <c r="H18" s="109"/>
       <c r="I18" s="106"/>
-      <c r="J18" s="111"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="111"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="116"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="100"/>
       <c r="G19" s="106"/>
       <c r="H19" s="109"/>
       <c r="I19" s="106"/>
-      <c r="J19" s="111"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="116"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="106"/>
       <c r="H20" s="109"/>
       <c r="I20" s="106"/>
-      <c r="J20" s="111"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="100"/>
       <c r="G21" s="106"/>
       <c r="H21" s="109"/>
       <c r="I21" s="106"/>
-      <c r="J21" s="111"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="116"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="106"/>
       <c r="H22" s="109"/>
       <c r="I22" s="106"/>
-      <c r="J22" s="111"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="117"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="107"/>
       <c r="H23" s="110"/>
       <c r="I23" s="107"/>
-      <c r="J23" s="99"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98">
+      <c r="A24" s="101">
         <v>8</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -6512,10 +6571,10 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="98" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="105">
@@ -6525,95 +6584,95 @@
       <c r="I24" s="105">
         <v>180.56</v>
       </c>
-      <c r="J24" s="98" t="s">
+      <c r="J24" s="101" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="116"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="106"/>
       <c r="H25" s="109"/>
       <c r="I25" s="106"/>
-      <c r="J25" s="111"/>
+      <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="116"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="116"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="106"/>
       <c r="H26" s="109"/>
       <c r="I26" s="106"/>
-      <c r="J26" s="111"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="116"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="106"/>
       <c r="H27" s="109"/>
       <c r="I27" s="106"/>
-      <c r="J27" s="111"/>
+      <c r="J27" s="102"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="116"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="116"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="100"/>
       <c r="G28" s="106"/>
       <c r="H28" s="109"/>
       <c r="I28" s="106"/>
-      <c r="J28" s="111"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="117"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="99"/>
       <c r="G29" s="107"/>
       <c r="H29" s="110"/>
       <c r="I29" s="107"/>
-      <c r="J29" s="99"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="98">
+      <c r="A30" s="101">
         <v>16</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="98" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6622,10 +6681,10 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="119" t="s">
+      <c r="F30" s="98" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="105">
@@ -6635,28 +6694,28 @@
       <c r="I30" s="105">
         <v>180.56</v>
       </c>
-      <c r="J30" s="98" t="s">
+      <c r="J30" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="117"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="99"/>
       <c r="G31" s="107"/>
       <c r="H31" s="110"/>
       <c r="I31" s="107"/>
-      <c r="J31" s="99"/>
+      <c r="J31" s="103"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="98">
+      <c r="A32" s="101">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -6686,7 +6745,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -6744,7 +6803,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="98">
+      <c r="A35" s="101">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -6774,8 +6833,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="98" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -6802,8 +6861,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -6828,7 +6887,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="108" t="s">
         <v>228</v>
       </c>
@@ -6854,7 +6913,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="111"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="109"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
@@ -6878,7 +6937,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="110"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
@@ -6902,7 +6961,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="111"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="108" t="s">
         <v>237</v>
       </c>
@@ -6928,7 +6987,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="109"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
@@ -6952,7 +7011,7 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="109"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
@@ -6976,7 +7035,7 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="110"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
@@ -7030,10 +7089,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="98">
+      <c r="A46" s="101">
         <v>21</v>
       </c>
-      <c r="B46" s="119" t="s">
+      <c r="B46" s="98" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -7058,8 +7117,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="116"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -7082,8 +7141,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="116"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -7106,8 +7165,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -7128,8 +7187,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="116"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -7139,7 +7198,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="119" t="s">
+      <c r="F50" s="98" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -7152,8 +7211,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="111"/>
-      <c r="B51" s="116"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -7163,7 +7222,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="116"/>
+      <c r="F51" s="100"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -7174,8 +7233,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="99"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -7185,7 +7244,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="117"/>
+      <c r="F52" s="99"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -7196,10 +7255,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="98">
+      <c r="A53" s="101">
         <v>22</v>
       </c>
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="98" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -7211,7 +7270,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="119" t="s">
+      <c r="F53" s="98" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -7224,8 +7283,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="116"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -7235,7 +7294,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="116"/>
+      <c r="F54" s="100"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -7246,8 +7305,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="116"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -7257,7 +7316,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="116"/>
+      <c r="F55" s="100"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -7268,8 +7327,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="111"/>
-      <c r="B56" s="116"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -7279,7 +7338,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="116"/>
+      <c r="F56" s="100"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -7290,8 +7349,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="111"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -7301,7 +7360,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="116"/>
+      <c r="F57" s="100"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -7312,8 +7371,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="111"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -7323,7 +7382,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="117"/>
+      <c r="F58" s="99"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -7334,10 +7393,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="98">
+      <c r="A59" s="101">
         <v>23</v>
       </c>
-      <c r="B59" s="119" t="s">
+      <c r="B59" s="98" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -7362,8 +7421,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="111"/>
-      <c r="B60" s="116"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -7386,8 +7445,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="111"/>
-      <c r="B61" s="116"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -7410,8 +7469,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="111"/>
-      <c r="B62" s="116"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -7434,8 +7493,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="111"/>
-      <c r="B63" s="116"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -7445,17 +7504,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="119"/>
+      <c r="F63" s="98"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
       <c r="H63" s="108"/>
       <c r="I63" s="105"/>
-      <c r="J63" s="98"/>
+      <c r="J63" s="101"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="111"/>
-      <c r="B64" s="116"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -7465,17 +7524,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="116"/>
+      <c r="F64" s="100"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
       <c r="H64" s="109"/>
       <c r="I64" s="106"/>
-      <c r="J64" s="111"/>
+      <c r="J64" s="102"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="111"/>
-      <c r="B65" s="116"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -7485,17 +7544,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="116"/>
+      <c r="F65" s="100"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
       <c r="H65" s="109"/>
       <c r="I65" s="106"/>
-      <c r="J65" s="111"/>
+      <c r="J65" s="102"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="111"/>
-      <c r="B66" s="116"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="100"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -7505,17 +7564,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="117"/>
+      <c r="F66" s="99"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
       <c r="H66" s="110"/>
       <c r="I66" s="107"/>
-      <c r="J66" s="99"/>
+      <c r="J66" s="103"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="111"/>
-      <c r="B67" s="116"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -7535,13 +7594,13 @@
       <c r="I67" s="105">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="98" t="s">
+      <c r="J67" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="111"/>
-      <c r="B68" s="116"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -7555,11 +7614,11 @@
       <c r="G68" s="107"/>
       <c r="H68" s="12"/>
       <c r="I68" s="107"/>
-      <c r="J68" s="99"/>
+      <c r="J68" s="103"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="111"/>
-      <c r="B69" s="116"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -7570,8 +7629,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="111"/>
-      <c r="B70" s="116"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="100"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -7584,8 +7643,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="111"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="102"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -7604,8 +7663,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="111"/>
-      <c r="B72" s="116"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -7624,8 +7683,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="111"/>
-      <c r="B73" s="116"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -7644,8 +7703,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="111"/>
-      <c r="B74" s="116"/>
+      <c r="A74" s="102"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -7664,8 +7723,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="111"/>
-      <c r="B75" s="116"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -7684,8 +7743,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="111"/>
-      <c r="B76" s="116"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -7711,7 +7770,7 @@
       <c r="A77" s="104">
         <v>24</v>
       </c>
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="111" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -7739,7 +7798,7 @@
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="104"/>
-      <c r="B78" s="125"/>
+      <c r="B78" s="111"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -7763,7 +7822,7 @@
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="104"/>
-      <c r="B79" s="125"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -7787,7 +7846,7 @@
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="104"/>
-      <c r="B80" s="125"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -7811,7 +7870,7 @@
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="104"/>
-      <c r="B81" s="125"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -7835,7 +7894,7 @@
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="104"/>
-      <c r="B82" s="125"/>
+      <c r="B82" s="111"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -7859,7 +7918,7 @@
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="104"/>
-      <c r="B83" s="125"/>
+      <c r="B83" s="111"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -7883,7 +7942,7 @@
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="104"/>
-      <c r="B84" s="125"/>
+      <c r="B84" s="111"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -7907,7 +7966,7 @@
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="104"/>
-      <c r="B85" s="125"/>
+      <c r="B85" s="111"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -7922,10 +7981,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="98">
+      <c r="A86" s="101">
         <v>25</v>
       </c>
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="98" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -7950,8 +8009,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="111"/>
-      <c r="B87" s="116"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="100"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -7974,8 +8033,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="111"/>
-      <c r="B88" s="116"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="100"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -7990,8 +8049,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="111"/>
-      <c r="B89" s="116"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="100"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -8006,8 +8065,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="111"/>
-      <c r="B90" s="116"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="100"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -8022,8 +8081,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="99"/>
-      <c r="B91" s="117"/>
+      <c r="A91" s="103"/>
+      <c r="B91" s="99"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -8038,10 +8097,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="111">
+      <c r="A92" s="102">
         <v>26</v>
       </c>
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="100" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -8058,8 +8117,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="111"/>
-      <c r="B93" s="116"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="100"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -8082,8 +8141,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="111"/>
-      <c r="B94" s="116"/>
+      <c r="A94" s="102"/>
+      <c r="B94" s="100"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -8165,7 +8224,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="119" t="s">
+      <c r="B97" s="98" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -8191,7 +8250,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="117"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -8275,7 +8334,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="119" t="s">
+      <c r="B101" s="98" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -8303,7 +8362,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="117"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -8329,7 +8388,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="119" t="s">
+      <c r="B103" s="98" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -8357,7 +8416,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="116"/>
+      <c r="B104" s="100"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -8383,7 +8442,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="116"/>
+      <c r="B105" s="100"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -8407,7 +8466,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="116"/>
+      <c r="B106" s="100"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -8431,7 +8490,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="116"/>
+      <c r="B107" s="100"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -8455,7 +8514,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="116"/>
+      <c r="B108" s="100"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -8479,7 +8538,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="116"/>
+      <c r="B109" s="100"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -8501,7 +8560,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="117"/>
+      <c r="B110" s="99"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -8633,6 +8692,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:B110"/>
     <mergeCell ref="J63:J66"/>
@@ -8649,75 +8777,6 @@
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="J67:J68"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I16:I23"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA13C03-4680-4B51-AED6-0FFCF822FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E9260-5F7A-4341-96B8-3CB0691E0E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="438">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1692,6 +1692,70 @@
   </si>
   <si>
     <t>1只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛两开双控开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25#x15#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老式门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛插座（带开关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1.5电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2287,6 +2351,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2298,14 +2371,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2316,140 +2431,89 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2760,16 +2824,16 @@
   <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112:A118"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.625" style="42" customWidth="1"/>
     <col min="2" max="2" width="12" style="42" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="42" customWidth="1"/>
     <col min="7" max="7" width="17.625" style="42" customWidth="1"/>
@@ -2785,11 +2849,11 @@
       <c r="B1" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>341</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>340</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>339</v>
@@ -2799,7 +2863,7 @@
       </c>
       <c r="G1" s="68">
         <f>SUM(G2:G171)</f>
-        <v>34212.94000000001</v>
+        <v>34819.659999999996</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>337</v>
@@ -2812,17 +2876,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="72">
+      <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="72" t="s">
         <v>333</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>332</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>79</v>
@@ -2836,17 +2900,17 @@
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="93">
+      <c r="I2" s="82">
         <f>SUM(G2:G3)</f>
         <v>2400</v>
       </c>
       <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="46" t="s">
         <v>80</v>
       </c>
@@ -2859,21 +2923,21 @@
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="96"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="71">
+      <c r="A4" s="74">
         <v>2</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="71" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>327</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>77</v>
@@ -2884,20 +2948,20 @@
       <c r="G4" s="47">
         <v>720</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="84">
         <f>SUM(G4:G9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="74"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="44" t="s">
         <v>78</v>
       </c>
@@ -2907,15 +2971,15 @@
       <c r="G5" s="47">
         <v>720</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="85"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="44" t="s">
         <v>65</v>
       </c>
@@ -2925,15 +2989,15 @@
       <c r="G6" s="47">
         <v>468</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="85"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="44" t="s">
         <v>66</v>
       </c>
@@ -2943,15 +3007,15 @@
       <c r="G7" s="47">
         <v>432</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="85"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="44" t="s">
         <v>67</v>
       </c>
@@ -2961,15 +3025,15 @@
       <c r="G8" s="47">
         <v>365</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="85"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
@@ -2979,22 +3043,22 @@
       <c r="G9" s="47">
         <v>475</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="75"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
+      <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="77" t="s">
         <v>328</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>327</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>72</v>
@@ -3002,43 +3066,43 @@
       <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="83">
         <v>630</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="84">
         <v>630</v>
       </c>
-      <c r="J10" s="74"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="77"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="45">
         <v>1</v>
       </c>
-      <c r="G11" s="94"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="75"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="74" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="77" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>350</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>132</v>
@@ -3046,116 +3110,116 @@
       <c r="F12" s="61">
         <v>1</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <v>1387.81</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="91">
+      <c r="H12" s="71"/>
+      <c r="I12" s="80">
         <v>1387.81</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="81"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="62" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="61">
         <v>1</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="62" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="61">
         <v>1</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="81"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="62" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="61">
         <v>2</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="81"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="62" t="s">
         <v>128</v>
       </c>
       <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="81"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="62" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="61">
         <v>4</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="62" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="61">
         <v>5</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="78"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="77"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="62" t="s">
         <v>126</v>
       </c>
@@ -3163,18 +3227,18 @@
         <v>1</v>
       </c>
       <c r="G19" s="87"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="75"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="74" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="77" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="76" t="s">
-        <v>326</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>138</v>
@@ -3182,86 +3246,86 @@
       <c r="F20" s="61">
         <v>1</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="85">
         <v>180.56</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="I20" s="91">
+      <c r="I20" s="80">
         <v>180.56</v>
       </c>
-      <c r="J20" s="74"/>
+      <c r="J20" s="77"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="62" t="s">
         <v>133</v>
       </c>
       <c r="F21" s="61">
         <v>2</v>
       </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="62" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="61">
         <v>2</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="81"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="62" t="s">
         <v>135</v>
       </c>
       <c r="F23" s="61">
         <v>1</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="81"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="62" t="s">
         <v>136</v>
       </c>
       <c r="F24" s="61">
         <v>2</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="77"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="62" t="s">
         <v>137</v>
       </c>
@@ -3269,18 +3333,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="87"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="75"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="79"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="74" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="77" t="s">
         <v>93</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>75</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>141</v>
@@ -3288,7 +3352,7 @@
       <c r="F26" s="61">
         <v>1</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="85">
         <v>1950</v>
       </c>
       <c r="H26" s="46"/>
@@ -3296,10 +3360,10 @@
       <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="89"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="62" t="s">
         <v>140</v>
       </c>
@@ -3312,13 +3376,13 @@
       <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="46" t="s">
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>81</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>82</v>
@@ -3334,13 +3398,13 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>89</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>351</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>88</v>
@@ -3358,13 +3422,13 @@
       <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>86</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>352</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>85</v>
@@ -3382,13 +3446,13 @@
       <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="46" t="s">
         <v>90</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>353</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>94</v>
@@ -3413,10 +3477,10 @@
         <v>99</v>
       </c>
       <c r="C32" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="46" t="s">
         <v>100</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>354</v>
       </c>
       <c r="E32" s="44" t="s">
         <v>98</v>
@@ -3434,17 +3498,17 @@
       <c r="J32" s="44"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="71">
+      <c r="A33" s="74">
         <v>5</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="74" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D33" s="46" t="s">
         <v>174</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>323</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>156</v>
@@ -3460,13 +3524,13 @@
       <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>166</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>323</v>
       </c>
       <c r="E34" s="44" t="s">
         <v>157</v>
@@ -3482,13 +3546,13 @@
       <c r="J34" s="44"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="76" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="71" t="s">
         <v>170</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>323</v>
       </c>
       <c r="E35" s="44" t="s">
         <v>158</v>
@@ -3504,12 +3568,12 @@
       <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="46" t="s">
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="46" t="s">
         <v>324</v>
       </c>
+      <c r="D36" s="72"/>
       <c r="E36" s="44" t="s">
         <v>160</v>
       </c>
@@ -3524,12 +3588,12 @@
       <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="46" t="s">
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="46" t="s">
         <v>324</v>
       </c>
+      <c r="D37" s="72"/>
       <c r="E37" s="44" t="s">
         <v>161</v>
       </c>
@@ -3544,12 +3608,12 @@
       <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="46" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="46" t="s">
         <v>324</v>
       </c>
+      <c r="D38" s="72"/>
       <c r="E38" s="44" t="s">
         <v>175</v>
       </c>
@@ -3564,12 +3628,12 @@
       <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="46" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="46" t="s">
         <v>324</v>
       </c>
+      <c r="D39" s="72"/>
       <c r="E39" s="44" t="s">
         <v>176</v>
       </c>
@@ -3584,12 +3648,12 @@
       <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="46" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="46" t="s">
         <v>324</v>
       </c>
+      <c r="D40" s="72"/>
       <c r="E40" s="44" t="s">
         <v>177</v>
       </c>
@@ -3604,12 +3668,12 @@
       <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="46" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="46" t="s">
         <v>324</v>
       </c>
+      <c r="D41" s="72"/>
       <c r="E41" s="44" t="s">
         <v>178</v>
       </c>
@@ -3624,12 +3688,12 @@
       <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="46" t="s">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="46" t="s">
         <v>323</v>
       </c>
+      <c r="D42" s="73"/>
       <c r="E42" s="56" t="s">
         <v>168</v>
       </c>
@@ -3644,13 +3708,13 @@
       <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>173</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>355</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>172</v>
@@ -3666,13 +3730,13 @@
       <c r="J43" s="44"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
       <c r="C44" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>179</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>356</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>197</v>
@@ -3688,17 +3752,17 @@
       <c r="J44" s="44"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="71">
+      <c r="A45" s="74">
         <v>6</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="74" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>183</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>361</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>180</v>
@@ -3714,13 +3778,13 @@
       <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="D46" s="46" t="s">
         <v>184</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>361</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>195</v>
@@ -3736,13 +3800,13 @@
       <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>187</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>361</v>
       </c>
       <c r="E47" s="44" t="s">
         <v>188</v>
@@ -3758,13 +3822,13 @@
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="74" t="s">
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" s="77" t="s">
         <v>322</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>361</v>
       </c>
       <c r="E48" s="58" t="s">
         <v>190</v>
@@ -3780,12 +3844,12 @@
       <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="46" t="s">
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="46" t="s">
         <v>361</v>
       </c>
+      <c r="D49" s="78"/>
       <c r="E49" s="56" t="s">
         <v>192</v>
       </c>
@@ -3800,12 +3864,12 @@
       <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="46" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="46" t="s">
         <v>361</v>
       </c>
+      <c r="D50" s="78"/>
       <c r="E50" s="56" t="s">
         <v>194</v>
       </c>
@@ -3820,12 +3884,12 @@
       <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="46" t="s">
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="46" t="s">
         <v>361</v>
       </c>
+      <c r="D51" s="79"/>
       <c r="E51" s="56" t="s">
         <v>278</v>
       </c>
@@ -3840,13 +3904,13 @@
       <c r="J51" s="44"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="46" t="s">
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" s="46" t="s">
         <v>202</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>357</v>
       </c>
       <c r="E52" s="46" t="s">
         <v>196</v>
@@ -3862,13 +3926,13 @@
       <c r="J52" s="44"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
       <c r="C53" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>189</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>109</v>
       </c>
       <c r="E53" s="44" t="s">
         <v>145</v>
@@ -3884,13 +3948,13 @@
       <c r="J53" s="44"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="75"/>
       <c r="C54" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="D54" s="46" t="s">
         <v>203</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>358</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>148</v>
@@ -3906,13 +3970,13 @@
       <c r="J54" s="44"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="76" t="s">
+      <c r="A55" s="75"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="D55" s="71" t="s">
         <v>185</v>
-      </c>
-      <c r="D55" s="76" t="s">
-        <v>359</v>
       </c>
       <c r="E55" s="44" t="s">
         <v>163</v>
@@ -3928,10 +3992,10 @@
       <c r="J55" s="44"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="44" t="s">
         <v>159</v>
       </c>
@@ -3946,10 +4010,10 @@
       <c r="J56" s="44"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
       <c r="E57" s="44" t="s">
         <v>164</v>
       </c>
@@ -3964,17 +4028,17 @@
       <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="71">
+      <c r="A58" s="74">
         <v>7</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="74" t="s">
         <v>208</v>
       </c>
       <c r="C58" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>214</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>204</v>
       </c>
       <c r="E58" s="44" t="s">
         <v>204</v>
@@ -3990,13 +4054,13 @@
       <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
       <c r="C59" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>215</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>204</v>
       </c>
       <c r="E59" s="44" t="s">
         <v>204</v>
@@ -4012,13 +4076,13 @@
       <c r="J59" s="44"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="46" t="s">
         <v>209</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>206</v>
       </c>
       <c r="E60" s="44" t="s">
         <v>206</v>
@@ -4034,13 +4098,13 @@
       <c r="J60" s="44"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="D61" s="46" t="s">
         <v>221</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>360</v>
       </c>
       <c r="E61" s="44" t="s">
         <v>153</v>
@@ -4056,13 +4120,13 @@
       <c r="J61" s="44"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
-      <c r="B62" s="73"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
       <c r="C62" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>211</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>362</v>
       </c>
       <c r="E62" s="44" t="s">
         <v>212</v>
@@ -4078,17 +4142,17 @@
       <c r="J62" s="44"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="71">
+      <c r="A63" s="74">
         <v>8</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="74" t="s">
         <v>217</v>
       </c>
       <c r="C63" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="D63" s="46" t="s">
         <v>218</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>363</v>
       </c>
       <c r="E63" s="44" t="s">
         <v>216</v>
@@ -4104,13 +4168,13 @@
       <c r="J63" s="44"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="46" t="s">
         <v>220</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>241</v>
       </c>
       <c r="E64" s="44" t="s">
         <v>219</v>
@@ -4126,13 +4190,13 @@
       <c r="J64" s="44"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="46" t="s">
         <v>242</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>204</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>238</v>
@@ -4148,13 +4212,13 @@
       <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
+      <c r="A66" s="75"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="46" t="s">
         <v>244</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>204</v>
       </c>
       <c r="E66" s="46" t="s">
         <v>243</v>
@@ -4170,13 +4234,13 @@
       <c r="J66" s="44"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="76" t="s">
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="D67" s="71" t="s">
         <v>246</v>
-      </c>
-      <c r="D67" s="76" t="s">
-        <v>364</v>
       </c>
       <c r="E67" s="46" t="s">
         <v>245</v>
@@ -4192,10 +4256,10 @@
       <c r="J67" s="44"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
       <c r="E68" s="46" t="s">
         <v>247</v>
       </c>
@@ -4210,17 +4274,17 @@
       <c r="J68" s="44"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="71">
+      <c r="A69" s="74">
         <v>9</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="74" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="D69" s="46" t="s">
         <v>236</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>365</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>233</v>
@@ -4236,13 +4300,13 @@
       <c r="J69" s="44"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="76" t="s">
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70" s="71" t="s">
         <v>230</v>
-      </c>
-      <c r="D70" s="76" t="s">
-        <v>366</v>
       </c>
       <c r="E70" s="46" t="s">
         <v>227</v>
@@ -4258,10 +4322,10 @@
       <c r="J70" s="44"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="72"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
       <c r="E71" s="46" t="s">
         <v>227</v>
       </c>
@@ -4276,10 +4340,10 @@
       <c r="J71" s="44"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
+      <c r="A72" s="76"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
       <c r="E72" s="46" t="s">
         <v>231</v>
       </c>
@@ -4294,17 +4358,17 @@
       <c r="J72" s="44"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="71">
+      <c r="A73" s="74">
         <v>10</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="44" t="s">
         <v>223</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>367</v>
       </c>
       <c r="E73" s="44" t="s">
         <v>146</v>
@@ -4320,13 +4384,13 @@
       <c r="J73" s="44"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73"/>
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
       <c r="C74" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="D74" s="46" t="s">
         <v>226</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>368</v>
       </c>
       <c r="E74" s="44" t="s">
         <v>224</v>
@@ -4342,17 +4406,17 @@
       <c r="J74" s="44"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="71">
+      <c r="A75" s="74">
         <v>11</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="D75" s="77" t="s">
         <v>266</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>369</v>
       </c>
       <c r="E75" s="44" t="s">
         <v>199</v>
@@ -4368,10 +4432,10 @@
       <c r="J75" s="44"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="46"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="79"/>
       <c r="E76" s="44" t="s">
         <v>149</v>
       </c>
@@ -4384,13 +4448,13 @@
       <c r="J76" s="44"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="73"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="46" t="s">
+      <c r="A77" s="76"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" s="46" t="s">
         <v>370</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>263</v>
       </c>
       <c r="E77" s="44" t="s">
         <v>263</v>
@@ -4406,17 +4470,17 @@
       <c r="J77" s="44"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="71">
+      <c r="A78" s="74">
         <v>12</v>
       </c>
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="74" t="s">
         <v>255</v>
       </c>
       <c r="C78" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="46" t="s">
         <v>256</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>253</v>
       </c>
       <c r="E78" s="44" t="s">
         <v>253</v>
@@ -4432,13 +4496,13 @@
       <c r="J78" s="44"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="72"/>
-      <c r="B79" s="72"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="75"/>
       <c r="C79" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="D79" s="46" t="s">
         <v>262</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>371</v>
       </c>
       <c r="E79" s="44" t="s">
         <v>260</v>
@@ -4454,13 +4518,13 @@
       <c r="J79" s="44"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="75"/>
       <c r="C80" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="46" t="s">
         <v>256</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>321</v>
       </c>
       <c r="E80" s="44" t="s">
         <v>321</v>
@@ -4476,13 +4540,13 @@
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="75"/>
       <c r="C81" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>269</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>268</v>
       </c>
       <c r="E81" s="44" t="s">
         <v>267</v>
@@ -4498,8 +4562,8 @@
       <c r="J81" s="44"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="73"/>
-      <c r="B82" s="73"/>
+      <c r="A82" s="76"/>
+      <c r="B82" s="76"/>
       <c r="C82" s="44" t="s">
         <v>346</v>
       </c>
@@ -4522,16 +4586,16 @@
       <c r="J82" s="44"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="71">
+      <c r="A83" s="74">
         <v>13</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="D83" s="71" t="s">
         <v>372</v>
       </c>
       <c r="E83" s="44" t="s">
@@ -4548,10 +4612,10 @@
       <c r="J83" s="44"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="73"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
       <c r="E84" s="44" t="s">
         <v>275</v>
       </c>
@@ -4572,11 +4636,11 @@
       <c r="B85" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="44" t="s">
+      <c r="C85" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D85" s="44" t="s">
         <v>344</v>
-      </c>
-      <c r="D85" s="46" t="s">
-        <v>373</v>
       </c>
       <c r="E85" s="46"/>
       <c r="F85" s="45"/>
@@ -4586,17 +4650,17 @@
       <c r="J85" s="44"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="71">
+      <c r="A86" s="74">
         <v>15</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="C86" s="46" t="s">
+      <c r="C86" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="46" t="s">
         <v>296</v>
-      </c>
-      <c r="D86" s="54" t="s">
-        <v>96</v>
       </c>
       <c r="E86" s="55" t="s">
         <v>22</v>
@@ -4611,13 +4675,13 @@
       <c r="J86" s="44"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
+      <c r="A87" s="75"/>
+      <c r="B87" s="75"/>
       <c r="C87" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" s="46" t="s">
         <v>285</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>348</v>
       </c>
       <c r="E87" s="46" t="s">
         <v>248</v>
@@ -4633,13 +4697,13 @@
       <c r="J87" s="44"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="72"/>
-      <c r="B88" s="72"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="75"/>
       <c r="C88" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" s="46" t="s">
         <v>288</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>286</v>
       </c>
       <c r="E88" s="44" t="s">
         <v>286</v>
@@ -4655,12 +4719,12 @@
       <c r="J88" s="44"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="76" t="s">
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="D89" s="76" t="s">
+      <c r="D89" s="71" t="s">
         <v>372</v>
       </c>
       <c r="E89" s="44" t="s">
@@ -4676,10 +4740,10 @@
       <c r="J89" s="44"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
       <c r="E90" s="44" t="s">
         <v>309</v>
       </c>
@@ -4696,10 +4760,10 @@
       <c r="J90" s="44"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="72"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="81"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
       <c r="E91" s="44" t="s">
         <v>300</v>
       </c>
@@ -4716,10 +4780,10 @@
       <c r="J91" s="44"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="72"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="81"/>
-      <c r="D92" s="77"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="72"/>
       <c r="E92" s="44" t="s">
         <v>301</v>
       </c>
@@ -4736,12 +4800,12 @@
       <c r="J92" s="44"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="72"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="46" t="s">
+      <c r="A93" s="75"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="46" t="s">
         <v>307</v>
       </c>
+      <c r="D93" s="72"/>
       <c r="E93" s="44" t="s">
         <v>306</v>
       </c>
@@ -4758,12 +4822,12 @@
       <c r="J93" s="44"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="73"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="46" t="s">
+      <c r="A94" s="76"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="46" t="s">
         <v>347</v>
       </c>
+      <c r="D94" s="73"/>
       <c r="E94" s="44" t="s">
         <v>310</v>
       </c>
@@ -4780,17 +4844,17 @@
       <c r="J94" s="44"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="71">
+      <c r="A95" s="74">
         <v>16</v>
       </c>
-      <c r="B95" s="71" t="s">
+      <c r="B95" s="74" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="74" t="s">
+      <c r="C95" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D95" s="77" t="s">
         <v>293</v>
-      </c>
-      <c r="D95" s="76" t="s">
-        <v>349</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>294</v>
@@ -4798,7 +4862,7 @@
       <c r="F95" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="86">
+      <c r="G95" s="85">
         <v>67.959999999999994</v>
       </c>
       <c r="H95" s="46"/>
@@ -4806,10 +4870,10 @@
       <c r="J95" s="44"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="73"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="77"/>
+      <c r="A96" s="76"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="79"/>
       <c r="E96" s="46" t="s">
         <v>283</v>
       </c>
@@ -4822,17 +4886,17 @@
       <c r="J96" s="44"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="71">
+      <c r="A97" s="74">
         <v>17</v>
       </c>
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="92" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="77" t="s">
         <v>59</v>
-      </c>
-      <c r="D97" s="76" t="s">
-        <v>63</v>
       </c>
       <c r="E97" s="51" t="s">
         <v>316</v>
@@ -4848,10 +4912,10 @@
       <c r="J97" s="44"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="72"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="81"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="78"/>
       <c r="E98" s="49" t="s">
         <v>282</v>
       </c>
@@ -4866,10 +4930,10 @@
       <c r="J98" s="44"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="72"/>
-      <c r="B99" s="83"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="81"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="78"/>
       <c r="E99" s="49" t="s">
         <v>280</v>
       </c>
@@ -4884,10 +4948,10 @@
       <c r="J99" s="44"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="73"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="77"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="79"/>
       <c r="E100" s="49" t="s">
         <v>318</v>
       </c>
@@ -4925,19 +4989,19 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="71">
+      <c r="A102" s="74">
         <v>19</v>
       </c>
-      <c r="B102" s="71" t="s">
+      <c r="B102" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="74" t="s">
+      <c r="C102" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="D102" s="74" t="s">
-        <v>375</v>
-      </c>
-      <c r="E102" s="74" t="s">
+      <c r="E102" s="77" t="s">
         <v>377</v>
       </c>
       <c r="F102" s="45" t="s">
@@ -4951,11 +5015,11 @@
       <c r="J102" s="44"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
       <c r="F103" s="45" t="s">
         <v>380</v>
       </c>
@@ -4967,15 +5031,15 @@
       <c r="J103" s="44"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="74" t="s">
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="D104" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="D104" s="74" t="s">
-        <v>375</v>
-      </c>
-      <c r="E104" s="74" t="s">
+      <c r="E104" s="77" t="s">
         <v>379</v>
       </c>
       <c r="F104" s="45" t="s">
@@ -4989,11 +5053,11 @@
       <c r="J104" s="44"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="73"/>
-      <c r="B105" s="73"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75"/>
+      <c r="A105" s="76"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
       <c r="F105" s="45" t="s">
         <v>380</v>
       </c>
@@ -5012,10 +5076,10 @@
         <v>386</v>
       </c>
       <c r="C106" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="D106" s="70" t="s">
         <v>387</v>
-      </c>
-      <c r="D106" s="70" t="s">
-        <v>388</v>
       </c>
       <c r="E106" s="70" t="s">
         <v>388</v>
@@ -5031,17 +5095,17 @@
       <c r="J106" s="44"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="78">
+      <c r="A107" s="95">
         <v>21</v>
       </c>
-      <c r="B107" s="71" t="s">
+      <c r="B107" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" s="44" t="s">
         <v>382</v>
-      </c>
-      <c r="D107" s="46" t="s">
-        <v>383</v>
       </c>
       <c r="E107" s="44" t="s">
         <v>385</v>
@@ -5057,13 +5121,13 @@
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="79"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="74" t="s">
+      <c r="A108" s="96"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="D108" s="77" t="s">
         <v>390</v>
-      </c>
-      <c r="D108" s="76" t="s">
-        <v>392</v>
       </c>
       <c r="E108" s="44" t="s">
         <v>391</v>
@@ -5079,10 +5143,10 @@
       <c r="J108" s="44"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="79"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="75"/>
-      <c r="D109" s="77"/>
+      <c r="A109" s="96"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="79"/>
       <c r="E109" s="44" t="s">
         <v>393</v>
       </c>
@@ -5097,13 +5161,13 @@
       <c r="J109" s="44"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="79"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="44" t="s">
+      <c r="A110" s="96"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="D110" s="44" t="s">
         <v>395</v>
-      </c>
-      <c r="D110" s="46" t="s">
-        <v>392</v>
       </c>
       <c r="E110" s="44" t="s">
         <v>396</v>
@@ -5119,13 +5183,13 @@
       <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="80"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="44" t="s">
+      <c r="A111" s="97"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" s="44" t="s">
         <v>397</v>
-      </c>
-      <c r="D111" s="46" t="s">
-        <v>392</v>
       </c>
       <c r="E111" s="44" t="s">
         <v>398</v>
@@ -5141,17 +5205,17 @@
       <c r="J111" s="44"/>
     </row>
     <row r="112" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="71">
+      <c r="A112" s="74">
         <v>22</v>
       </c>
-      <c r="B112" s="71" t="s">
+      <c r="B112" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="C112" s="44" t="s">
+      <c r="C112" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="D112" s="44" t="s">
         <v>89</v>
-      </c>
-      <c r="D112" s="46" t="s">
-        <v>401</v>
       </c>
       <c r="E112" s="44" t="s">
         <v>402</v>
@@ -5169,13 +5233,13 @@
       <c r="J112" s="44"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="72"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="44" t="s">
+      <c r="A113" s="75"/>
+      <c r="B113" s="75"/>
+      <c r="C113" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D113" s="44" t="s">
         <v>376</v>
-      </c>
-      <c r="D113" s="46" t="s">
-        <v>375</v>
       </c>
       <c r="E113" s="44" t="s">
         <v>405</v>
@@ -5191,13 +5255,13 @@
       <c r="J113" s="44"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="72"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="44" t="s">
+      <c r="A114" s="75"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="D114" s="44" t="s">
         <v>407</v>
-      </c>
-      <c r="D114" s="46" t="s">
-        <v>408</v>
       </c>
       <c r="E114" s="44" t="s">
         <v>408</v>
@@ -5213,13 +5277,13 @@
       <c r="J114" s="44"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="72"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="44" t="s">
+      <c r="A115" s="75"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="D115" s="44" t="s">
         <v>410</v>
-      </c>
-      <c r="D115" s="46" t="s">
-        <v>411</v>
       </c>
       <c r="E115" s="44" t="s">
         <v>411</v>
@@ -5235,13 +5299,13 @@
       <c r="J115" s="44"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="72"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="41" t="s">
+      <c r="A116" s="75"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="D116" s="41" t="s">
         <v>414</v>
-      </c>
-      <c r="D116" s="44" t="s">
-        <v>413</v>
       </c>
       <c r="E116" s="44"/>
       <c r="F116" s="45" t="s">
@@ -5255,13 +5319,13 @@
       <c r="J116" s="44"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="72"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="44" t="s">
+      <c r="A117" s="75"/>
+      <c r="B117" s="75"/>
+      <c r="C117" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="D117" s="44" t="s">
         <v>418</v>
-      </c>
-      <c r="D117" s="46" t="s">
-        <v>416</v>
       </c>
       <c r="F117" s="45" t="s">
         <v>417</v>
@@ -5274,13 +5338,13 @@
       <c r="J117" s="44"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="73"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="41" t="s">
+      <c r="A118" s="76"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D118" s="41" t="s">
         <v>420</v>
-      </c>
-      <c r="D118" s="44" t="s">
-        <v>419</v>
       </c>
       <c r="E118" s="44"/>
       <c r="F118" s="45" t="s">
@@ -5294,85 +5358,138 @@
       <c r="J118" s="44"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="46"/>
+      <c r="A119" s="74">
+        <v>23</v>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>422</v>
+      </c>
+      <c r="C119" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" s="44"/>
       <c r="E119" s="44"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="47"/>
+      <c r="F119" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G119" s="47">
+        <v>78.900000000000006</v>
+      </c>
       <c r="H119" s="46"/>
       <c r="I119" s="63"/>
       <c r="J119" s="44"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="45"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="46"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="47"/>
+      <c r="A120" s="75"/>
+      <c r="B120" s="75"/>
+      <c r="C120" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="F120" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="G120" s="47">
+        <v>160.02000000000001</v>
+      </c>
       <c r="H120" s="46"/>
       <c r="I120" s="63"/>
       <c r="J120" s="44"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
+      <c r="A121" s="75"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F121" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="G121" s="47">
+        <v>25.71</v>
+      </c>
       <c r="H121" s="46"/>
       <c r="I121" s="63"/>
       <c r="J121" s="44"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="45"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="46"/>
+      <c r="A122" s="75"/>
+      <c r="B122" s="75"/>
+      <c r="C122" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D122" s="44"/>
       <c r="E122" s="44"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
+      <c r="F122" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="G122" s="47">
+        <v>4.8099999999999996</v>
+      </c>
       <c r="H122" s="46"/>
       <c r="I122" s="63"/>
       <c r="J122" s="44"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="45"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="46"/>
+      <c r="A123" s="75"/>
+      <c r="B123" s="75"/>
+      <c r="C123" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="D123" s="44"/>
       <c r="E123" s="44"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
+      <c r="F123" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="G123" s="47">
+        <v>99.6</v>
+      </c>
       <c r="H123" s="46"/>
       <c r="I123" s="63"/>
       <c r="J123" s="44"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
+      <c r="A124" s="75"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="F124" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="G124" s="47">
+        <v>35.840000000000003</v>
+      </c>
       <c r="H124" s="46"/>
       <c r="I124" s="63"/>
       <c r="J124" s="44"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="45"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="46"/>
+      <c r="A125" s="76"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>89</v>
+      </c>
       <c r="E125" s="44"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
+      <c r="F125" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="G125" s="47">
+        <v>201.84</v>
+      </c>
       <c r="H125" s="46"/>
       <c r="I125" s="63"/>
       <c r="J125" s="44"/>
@@ -5381,10 +5498,10 @@
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="44"/>
-      <c r="D126" s="46"/>
+      <c r="D126" s="44"/>
       <c r="E126" s="44"/>
       <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
+      <c r="G126" s="47"/>
       <c r="H126" s="46"/>
       <c r="I126" s="63"/>
       <c r="J126" s="44"/>
@@ -5392,11 +5509,11 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="44"/>
       <c r="E127" s="44"/>
       <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
+      <c r="G127" s="47"/>
       <c r="H127" s="46"/>
       <c r="I127" s="63"/>
       <c r="J127" s="44"/>
@@ -5404,11 +5521,11 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="44"/>
       <c r="E128" s="44"/>
       <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
+      <c r="G128" s="47"/>
       <c r="H128" s="46"/>
       <c r="I128" s="63"/>
       <c r="J128" s="44"/>
@@ -5416,11 +5533,11 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="44"/>
       <c r="E129" s="44"/>
       <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
+      <c r="G129" s="47"/>
       <c r="H129" s="46"/>
       <c r="I129" s="63"/>
       <c r="J129" s="44"/>
@@ -5428,11 +5545,11 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="45"/>
       <c r="B130" s="45"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="44"/>
       <c r="E130" s="44"/>
       <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
+      <c r="G130" s="47"/>
       <c r="H130" s="46"/>
       <c r="I130" s="63"/>
       <c r="J130" s="44"/>
@@ -5440,11 +5557,11 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="45"/>
       <c r="B131" s="45"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="44"/>
       <c r="E131" s="44"/>
       <c r="F131" s="45"/>
-      <c r="G131" s="45"/>
+      <c r="G131" s="47"/>
       <c r="H131" s="46"/>
       <c r="I131" s="63"/>
       <c r="J131" s="44"/>
@@ -5452,11 +5569,11 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="45"/>
       <c r="B132" s="45"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="44"/>
       <c r="E132" s="44"/>
       <c r="F132" s="45"/>
-      <c r="G132" s="45"/>
+      <c r="G132" s="47"/>
       <c r="H132" s="46"/>
       <c r="I132" s="63"/>
       <c r="J132" s="44"/>
@@ -5464,11 +5581,11 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="45"/>
       <c r="B133" s="45"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="44"/>
       <c r="E133" s="44"/>
       <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
+      <c r="G133" s="47"/>
       <c r="H133" s="46"/>
       <c r="I133" s="63"/>
       <c r="J133" s="44"/>
@@ -5476,11 +5593,11 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="45"/>
       <c r="B134" s="45"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="44"/>
       <c r="E134" s="44"/>
       <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
+      <c r="G134" s="47"/>
       <c r="H134" s="46"/>
       <c r="I134" s="63"/>
       <c r="J134" s="44"/>
@@ -5488,11 +5605,11 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="45"/>
       <c r="B135" s="45"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="44"/>
       <c r="E135" s="44"/>
       <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
+      <c r="G135" s="47"/>
       <c r="H135" s="46"/>
       <c r="I135" s="63"/>
       <c r="J135" s="44"/>
@@ -5500,11 +5617,11 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="45"/>
       <c r="B136" s="45"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="44"/>
       <c r="E136" s="44"/>
       <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
+      <c r="G136" s="47"/>
       <c r="H136" s="46"/>
       <c r="I136" s="63"/>
       <c r="J136" s="44"/>
@@ -5512,11 +5629,11 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="45"/>
       <c r="B137" s="45"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="44"/>
       <c r="E137" s="44"/>
       <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
+      <c r="G137" s="47"/>
       <c r="H137" s="46"/>
       <c r="I137" s="63"/>
       <c r="J137" s="44"/>
@@ -5524,11 +5641,11 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="45"/>
       <c r="B138" s="45"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="44"/>
       <c r="E138" s="44"/>
       <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
+      <c r="G138" s="47"/>
       <c r="H138" s="46"/>
       <c r="I138" s="63"/>
       <c r="J138" s="44"/>
@@ -5536,11 +5653,11 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="45"/>
       <c r="B139" s="45"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="46"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="44"/>
       <c r="E139" s="44"/>
       <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
+      <c r="G139" s="47"/>
       <c r="H139" s="46"/>
       <c r="I139" s="63"/>
       <c r="J139" s="44"/>
@@ -5548,8 +5665,8 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="45"/>
       <c r="B140" s="45"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="44"/>
       <c r="E140" s="44"/>
       <c r="F140" s="45"/>
       <c r="G140" s="45"/>
@@ -5560,8 +5677,8 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="45"/>
       <c r="B141" s="45"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="44"/>
       <c r="E141" s="44"/>
       <c r="F141" s="45"/>
       <c r="G141" s="45"/>
@@ -5572,8 +5689,8 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="45"/>
       <c r="B142" s="45"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="44"/>
       <c r="E142" s="44"/>
       <c r="F142" s="45"/>
       <c r="G142" s="45"/>
@@ -5584,8 +5701,8 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="45"/>
       <c r="B143" s="45"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="44"/>
       <c r="E143" s="44"/>
       <c r="F143" s="45"/>
       <c r="G143" s="45"/>
@@ -5596,8 +5713,8 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="45"/>
       <c r="B144" s="45"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="44"/>
       <c r="E144" s="44"/>
       <c r="F144" s="45"/>
       <c r="G144" s="45"/>
@@ -5608,8 +5725,8 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="45"/>
       <c r="B145" s="45"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="44"/>
       <c r="E145" s="44"/>
       <c r="F145" s="45"/>
       <c r="G145" s="45"/>
@@ -5620,8 +5737,8 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="45"/>
       <c r="B146" s="45"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="46"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="44"/>
       <c r="E146" s="44"/>
       <c r="F146" s="45"/>
       <c r="G146" s="45"/>
@@ -5632,8 +5749,8 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="45"/>
       <c r="B147" s="45"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="46"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="44"/>
       <c r="E147" s="44"/>
       <c r="F147" s="45"/>
       <c r="G147" s="45"/>
@@ -5644,8 +5761,8 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="45"/>
       <c r="B148" s="45"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="46"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="44"/>
       <c r="E148" s="44"/>
       <c r="F148" s="45"/>
       <c r="G148" s="45"/>
@@ -5656,8 +5773,8 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="45"/>
       <c r="B149" s="45"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="46"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="44"/>
       <c r="E149" s="44"/>
       <c r="F149" s="45"/>
       <c r="G149" s="45"/>
@@ -5668,8 +5785,8 @@
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="45"/>
       <c r="B150" s="45"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="44"/>
       <c r="E150" s="44"/>
       <c r="F150" s="45"/>
       <c r="G150" s="45"/>
@@ -5680,8 +5797,8 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="45"/>
       <c r="B151" s="45"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="44"/>
       <c r="E151" s="44"/>
       <c r="F151" s="45"/>
       <c r="G151" s="45"/>
@@ -5692,8 +5809,8 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="45"/>
       <c r="B152" s="45"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="44"/>
       <c r="E152" s="44"/>
       <c r="F152" s="45"/>
       <c r="G152" s="45"/>
@@ -5704,8 +5821,8 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="45"/>
       <c r="B153" s="45"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="46"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="44"/>
       <c r="E153" s="44"/>
       <c r="F153" s="45"/>
       <c r="G153" s="45"/>
@@ -5716,8 +5833,8 @@
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="45"/>
       <c r="B154" s="45"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="46"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="44"/>
       <c r="E154" s="44"/>
       <c r="F154" s="45"/>
       <c r="G154" s="45"/>
@@ -5728,8 +5845,8 @@
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="45"/>
       <c r="B155" s="45"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="46"/>
+      <c r="C155" s="46"/>
+      <c r="D155" s="44"/>
       <c r="E155" s="44"/>
       <c r="F155" s="45"/>
       <c r="G155" s="45"/>
@@ -5740,8 +5857,8 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="45"/>
       <c r="B156" s="45"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="44"/>
       <c r="E156" s="44"/>
       <c r="F156" s="45"/>
       <c r="G156" s="45"/>
@@ -5752,8 +5869,8 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="45"/>
       <c r="B157" s="45"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="44"/>
       <c r="E157" s="44"/>
       <c r="F157" s="45"/>
       <c r="G157" s="45"/>
@@ -5764,8 +5881,8 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="45"/>
       <c r="B158" s="45"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="46"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="44"/>
       <c r="E158" s="44"/>
       <c r="F158" s="45"/>
       <c r="G158" s="45"/>
@@ -5776,8 +5893,8 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="45"/>
       <c r="B159" s="45"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="44"/>
       <c r="E159" s="44"/>
       <c r="F159" s="45"/>
       <c r="G159" s="45"/>
@@ -5788,8 +5905,8 @@
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="45"/>
       <c r="B160" s="45"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="44"/>
       <c r="E160" s="44"/>
       <c r="F160" s="45"/>
       <c r="G160" s="45"/>
@@ -5800,8 +5917,8 @@
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="45"/>
       <c r="B161" s="45"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="44"/>
       <c r="E161" s="44"/>
       <c r="F161" s="45"/>
       <c r="G161" s="45"/>
@@ -5812,8 +5929,8 @@
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="45"/>
       <c r="B162" s="45"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="44"/>
       <c r="E162" s="44"/>
       <c r="F162" s="45"/>
       <c r="G162" s="45"/>
@@ -5824,8 +5941,8 @@
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="45"/>
       <c r="B163" s="45"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="46"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="44"/>
       <c r="E163" s="44"/>
       <c r="F163" s="45"/>
       <c r="G163" s="45"/>
@@ -5836,8 +5953,8 @@
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="45"/>
       <c r="B164" s="45"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="46"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="44"/>
       <c r="E164" s="44"/>
       <c r="F164" s="45"/>
       <c r="G164" s="45"/>
@@ -5848,8 +5965,8 @@
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="45"/>
       <c r="B165" s="45"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="46"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="44"/>
       <c r="E165" s="44"/>
       <c r="F165" s="45"/>
       <c r="G165" s="45"/>
@@ -5860,8 +5977,8 @@
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="45"/>
       <c r="B166" s="45"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="46"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="44"/>
       <c r="E166" s="44"/>
       <c r="F166" s="45"/>
       <c r="G166" s="45"/>
@@ -5872,8 +5989,8 @@
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="45"/>
       <c r="B167" s="45"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="46"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="44"/>
       <c r="E167" s="44"/>
       <c r="F167" s="45"/>
       <c r="G167" s="45"/>
@@ -5884,8 +6001,8 @@
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="45"/>
       <c r="B168" s="45"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="46"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="44"/>
       <c r="E168" s="44"/>
       <c r="F168" s="45"/>
       <c r="G168" s="45"/>
@@ -5896,8 +6013,8 @@
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="46"/>
+      <c r="C169" s="46"/>
+      <c r="D169" s="44"/>
       <c r="E169" s="44"/>
       <c r="F169" s="45"/>
       <c r="G169" s="45"/>
@@ -5908,8 +6025,8 @@
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
       <c r="B170" s="45"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="46"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="44"/>
       <c r="E170" s="44"/>
       <c r="F170" s="45"/>
       <c r="G170" s="45"/>
@@ -5920,8 +6037,8 @@
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="45"/>
       <c r="B171" s="45"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="46"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="44"/>
       <c r="E171" s="44"/>
       <c r="F171" s="45"/>
       <c r="G171" s="45"/>
@@ -5930,30 +6047,65 @@
       <c r="J171" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="A112:A118"/>
+  <mergeCells count="92">
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C97:C100"/>
     <mergeCell ref="C55:C57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="H20:H25"/>
     <mergeCell ref="I20:I25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="G12:G19"/>
@@ -5962,65 +6114,32 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="I4:I9"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="D70:D72"/>
     <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="A75:A77"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
     <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6054,19 +6173,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="100" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -6076,31 +6195,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="125"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="103"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -6120,7 +6239,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="116" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -6133,7 +6252,7 @@
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="99" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6153,7 +6272,7 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
@@ -6164,10 +6283,10 @@
       <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101">
+      <c r="A5" s="98">
         <v>3</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="121" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6178,16 +6297,16 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="108"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101" t="s">
+      <c r="G5" s="98"/>
+      <c r="H5" s="98" t="s">
         <v>74</v>
       </c>
       <c r="I5" s="105"/>
-      <c r="J5" s="101"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -6196,16 +6315,16 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="102"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="107"/>
-      <c r="J6" s="103"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104">
         <v>4</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="120" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6217,25 +6336,25 @@
       <c r="E7" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="117">
+      <c r="G7" s="118">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="118">
         <v>630</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104"/>
-      <c r="B8" s="112"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
@@ -6243,19 +6362,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="104"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="117"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="117"/>
-      <c r="J8" s="103"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101">
+      <c r="A9" s="98">
         <v>5</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="119" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -6267,26 +6386,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="119" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="101" t="s">
+      <c r="H9" s="98" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="105">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="101" t="s">
+      <c r="J9" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -6296,17 +6415,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="102"/>
+      <c r="H10" s="111"/>
       <c r="I10" s="106"/>
-      <c r="J10" s="102"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -6316,17 +6435,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="102"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="106"/>
-      <c r="J11" s="102"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -6336,17 +6455,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="102"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="106"/>
-      <c r="J12" s="102"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -6356,17 +6475,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="102"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="106"/>
-      <c r="J13" s="102"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -6376,13 +6495,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="103"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="107"/>
-      <c r="J14" s="103"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -6417,10 +6536,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101">
+      <c r="A16" s="98">
         <v>7</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="123" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -6429,10 +6548,10 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="119" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="105">
@@ -6442,127 +6561,127 @@
       <c r="I16" s="105">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="101" t="s">
+      <c r="J16" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="106"/>
       <c r="H17" s="109"/>
       <c r="I17" s="106"/>
-      <c r="J17" s="102"/>
+      <c r="J17" s="111"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="100"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="106"/>
       <c r="H18" s="109"/>
       <c r="I18" s="106"/>
-      <c r="J18" s="102"/>
+      <c r="J18" s="111"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="100"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="106"/>
       <c r="H19" s="109"/>
       <c r="I19" s="106"/>
-      <c r="J19" s="102"/>
+      <c r="J19" s="111"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="100"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="106"/>
       <c r="H20" s="109"/>
       <c r="I20" s="106"/>
-      <c r="J20" s="102"/>
+      <c r="J20" s="111"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="100"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="106"/>
       <c r="H21" s="109"/>
       <c r="I21" s="106"/>
-      <c r="J21" s="102"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="100"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="106"/>
       <c r="H22" s="109"/>
       <c r="I22" s="106"/>
-      <c r="J22" s="102"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="107"/>
       <c r="H23" s="110"/>
       <c r="I23" s="107"/>
-      <c r="J23" s="103"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101">
+      <c r="A24" s="98">
         <v>8</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="119" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -6571,10 +6690,10 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="119" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="105">
@@ -6584,95 +6703,95 @@
       <c r="I24" s="105">
         <v>180.56</v>
       </c>
-      <c r="J24" s="101" t="s">
+      <c r="J24" s="98" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="100"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="106"/>
       <c r="H25" s="109"/>
       <c r="I25" s="106"/>
-      <c r="J25" s="102"/>
+      <c r="J25" s="111"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="100"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="106"/>
       <c r="H26" s="109"/>
       <c r="I26" s="106"/>
-      <c r="J26" s="102"/>
+      <c r="J26" s="111"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="100"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="106"/>
       <c r="H27" s="109"/>
       <c r="I27" s="106"/>
-      <c r="J27" s="102"/>
+      <c r="J27" s="111"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="100"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="106"/>
       <c r="H28" s="109"/>
       <c r="I28" s="106"/>
-      <c r="J28" s="102"/>
+      <c r="J28" s="111"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="117"/>
       <c r="G29" s="107"/>
       <c r="H29" s="110"/>
       <c r="I29" s="107"/>
-      <c r="J29" s="103"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="101">
+      <c r="A30" s="98">
         <v>16</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="119" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6681,10 +6800,10 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="119" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="105">
@@ -6694,28 +6813,28 @@
       <c r="I30" s="105">
         <v>180.56</v>
       </c>
-      <c r="J30" s="101" t="s">
+      <c r="J30" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="99"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="103"/>
-      <c r="F31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="117"/>
       <c r="G31" s="107"/>
       <c r="H31" s="110"/>
       <c r="I31" s="107"/>
-      <c r="J31" s="103"/>
+      <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="101">
+      <c r="A32" s="98">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -6745,7 +6864,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="103"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -6803,7 +6922,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="101">
+      <c r="A35" s="98">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -6833,8 +6952,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="119" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -6861,8 +6980,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="99"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -6887,7 +7006,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="108" t="s">
         <v>228</v>
       </c>
@@ -6913,7 +7032,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="102"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="109"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
@@ -6937,7 +7056,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="110"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
@@ -6961,7 +7080,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="102"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="108" t="s">
         <v>237</v>
       </c>
@@ -6987,7 +7106,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="109"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
@@ -7011,7 +7130,7 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="109"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
@@ -7035,7 +7154,7 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="110"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
@@ -7089,10 +7208,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="101">
+      <c r="A46" s="98">
         <v>21</v>
       </c>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="119" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -7117,8 +7236,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="102"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -7141,8 +7260,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="102"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -7165,8 +7284,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="102"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -7187,8 +7306,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -7198,7 +7317,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="98" t="s">
+      <c r="F50" s="119" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -7211,8 +7330,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -7222,7 +7341,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="100"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -7233,8 +7352,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="103"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="117"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -7244,7 +7363,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="99"/>
+      <c r="F52" s="117"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -7255,10 +7374,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="101">
+      <c r="A53" s="98">
         <v>22</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="119" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -7270,7 +7389,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="98" t="s">
+      <c r="F53" s="119" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -7283,8 +7402,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -7294,7 +7413,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="100"/>
+      <c r="F54" s="116"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -7305,8 +7424,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="102"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -7316,7 +7435,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="100"/>
+      <c r="F55" s="116"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -7327,8 +7446,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="102"/>
-      <c r="B56" s="100"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -7338,7 +7457,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="100"/>
+      <c r="F56" s="116"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -7349,8 +7468,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="102"/>
-      <c r="B57" s="100"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -7360,7 +7479,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="100"/>
+      <c r="F57" s="116"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -7371,8 +7490,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="102"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -7382,7 +7501,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="99"/>
+      <c r="F58" s="117"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -7393,10 +7512,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="101">
+      <c r="A59" s="98">
         <v>23</v>
       </c>
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="119" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -7421,8 +7540,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="102"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -7445,8 +7564,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="102"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -7469,8 +7588,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="102"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -7493,8 +7612,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="102"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="111"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -7504,17 +7623,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="98"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
       <c r="H63" s="108"/>
       <c r="I63" s="105"/>
-      <c r="J63" s="101"/>
+      <c r="J63" s="98"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="102"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="111"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -7524,17 +7643,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="100"/>
+      <c r="F64" s="116"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
       <c r="H64" s="109"/>
       <c r="I64" s="106"/>
-      <c r="J64" s="102"/>
+      <c r="J64" s="111"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="102"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -7544,17 +7663,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="100"/>
+      <c r="F65" s="116"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
       <c r="H65" s="109"/>
       <c r="I65" s="106"/>
-      <c r="J65" s="102"/>
+      <c r="J65" s="111"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="102"/>
-      <c r="B66" s="100"/>
+      <c r="A66" s="111"/>
+      <c r="B66" s="116"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -7564,17 +7683,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="99"/>
+      <c r="F66" s="117"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
       <c r="H66" s="110"/>
       <c r="I66" s="107"/>
-      <c r="J66" s="103"/>
+      <c r="J66" s="99"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="102"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="111"/>
+      <c r="B67" s="116"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -7594,13 +7713,13 @@
       <c r="I67" s="105">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="101" t="s">
+      <c r="J67" s="98" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="102"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="111"/>
+      <c r="B68" s="116"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -7614,11 +7733,11 @@
       <c r="G68" s="107"/>
       <c r="H68" s="12"/>
       <c r="I68" s="107"/>
-      <c r="J68" s="103"/>
+      <c r="J68" s="99"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="102"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="111"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -7629,8 +7748,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="102"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="111"/>
+      <c r="B70" s="116"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -7643,8 +7762,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="102"/>
-      <c r="B71" s="100"/>
+      <c r="A71" s="111"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -7663,8 +7782,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="102"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="111"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -7683,8 +7802,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="102"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="111"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -7703,8 +7822,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="102"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -7723,8 +7842,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="102"/>
-      <c r="B75" s="100"/>
+      <c r="A75" s="111"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -7743,8 +7862,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="102"/>
-      <c r="B76" s="100"/>
+      <c r="A76" s="111"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -7770,7 +7889,7 @@
       <c r="A77" s="104">
         <v>24</v>
       </c>
-      <c r="B77" s="111" t="s">
+      <c r="B77" s="125" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -7798,7 +7917,7 @@
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="104"/>
-      <c r="B78" s="111"/>
+      <c r="B78" s="125"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -7822,7 +7941,7 @@
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="104"/>
-      <c r="B79" s="111"/>
+      <c r="B79" s="125"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -7846,7 +7965,7 @@
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="104"/>
-      <c r="B80" s="111"/>
+      <c r="B80" s="125"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -7870,7 +7989,7 @@
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="104"/>
-      <c r="B81" s="111"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -7894,7 +8013,7 @@
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="104"/>
-      <c r="B82" s="111"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -7918,7 +8037,7 @@
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="104"/>
-      <c r="B83" s="111"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -7942,7 +8061,7 @@
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="104"/>
-      <c r="B84" s="111"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -7966,7 +8085,7 @@
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="104"/>
-      <c r="B85" s="111"/>
+      <c r="B85" s="125"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -7981,10 +8100,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="101">
+      <c r="A86" s="98">
         <v>25</v>
       </c>
-      <c r="B86" s="98" t="s">
+      <c r="B86" s="119" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -8009,8 +8128,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="102"/>
-      <c r="B87" s="100"/>
+      <c r="A87" s="111"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -8033,8 +8152,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="102"/>
-      <c r="B88" s="100"/>
+      <c r="A88" s="111"/>
+      <c r="B88" s="116"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -8049,8 +8168,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="102"/>
-      <c r="B89" s="100"/>
+      <c r="A89" s="111"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -8065,8 +8184,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="102"/>
-      <c r="B90" s="100"/>
+      <c r="A90" s="111"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -8081,8 +8200,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="103"/>
-      <c r="B91" s="99"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -8097,10 +8216,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="102">
+      <c r="A92" s="111">
         <v>26</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="116" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -8117,8 +8236,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="102"/>
-      <c r="B93" s="100"/>
+      <c r="A93" s="111"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -8141,8 +8260,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="102"/>
-      <c r="B94" s="100"/>
+      <c r="A94" s="111"/>
+      <c r="B94" s="116"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -8224,7 +8343,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="98" t="s">
+      <c r="B97" s="119" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -8250,7 +8369,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="99"/>
+      <c r="B98" s="117"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -8334,7 +8453,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="98" t="s">
+      <c r="B101" s="119" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -8362,7 +8481,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="99"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -8388,7 +8507,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="98" t="s">
+      <c r="B103" s="119" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -8416,7 +8535,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="100"/>
+      <c r="B104" s="116"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -8442,7 +8561,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="100"/>
+      <c r="B105" s="116"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -8466,7 +8585,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="100"/>
+      <c r="B106" s="116"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -8490,7 +8609,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="100"/>
+      <c r="B107" s="116"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -8514,7 +8633,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="100"/>
+      <c r="B108" s="116"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -8538,7 +8657,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="100"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -8560,7 +8679,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="99"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -8692,6 +8811,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -8708,75 +8896,6 @@
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E9260-5F7A-4341-96B8-3CB0691E0E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F988DE08-A5B9-4398-96A5-553B30F01458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="489">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,9 +1312,6 @@
     <t>PPR水管</t>
   </si>
   <si>
-    <t>PVC管配件</t>
-  </si>
-  <si>
     <t>304不锈钢进户水管</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1396,13 +1393,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>本地</t>
-  </si>
-  <si>
-    <t>线材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五金件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1411,10 +1401,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>4平方线材，100米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75#-110#热熔器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1423,14 +1409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不锈钢水槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马桶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1451,10 +1429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角阀配件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甩棍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,10 +1457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗手盆水龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>万州工人费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1615,10 +1585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6#，50米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1743,19 +1709,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1.5电线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x6#平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x1.5#平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开单控，防水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开双控，防水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x4#平方，护套线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304不锈钢瓦水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国标4平方，100米，6000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x4#平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水沟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVC配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水管五金件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀五金件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座（防水）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙头（洗手盆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x#1.5平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木工开孔器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美工凿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄鱼膨胀螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6x60mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导轨分线器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一进九出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤火器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVC#110X3.2水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工字轮绕线轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60X38X20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80x45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆水龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED工程灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W，带弯杆，厨房用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50W，楼上走廊用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双枪，墙角款，1米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小三通防水灯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干强剂，水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现浇用，25KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨胀螺丝钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材</t>
+  </si>
+  <si>
+    <t>建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正泰漏保开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电灯双控电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海金牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,7 +1968,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
@@ -1900,7 +2106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2082,26 +2288,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -2140,7 +2326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2311,9 +2497,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2326,9 +2509,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2347,40 +2527,67 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2389,132 +2596,93 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2538,6 +2706,111 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2821,11 +3094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}">
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O156" sqref="O156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2833,3256 +3106,3670 @@
     <col min="1" max="1" width="5.625" style="42" customWidth="1"/>
     <col min="2" max="2" width="12" style="42" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="35" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="41"/>
+    <col min="9" max="9" width="16" style="42" customWidth="1"/>
+    <col min="10" max="11" width="9" style="41"/>
+    <col min="12" max="12" width="10.75" style="42" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="66">
+        <f>SUM(F2:F171)</f>
+        <v>35911.71</v>
+      </c>
+      <c r="G1" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="68">
-        <f>SUM(G2:G171)</f>
-        <v>34819.659999999996</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>337</v>
+      <c r="H1" s="64" t="s">
+        <v>336</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="J1" s="69" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="75">
+      <c r="J1" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="160">
+        <f>SUM(L2:L800)</f>
+        <v>13672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="70">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="50">
+        <v>1</v>
+      </c>
+      <c r="F2" s="52">
+        <v>1200</v>
+      </c>
+      <c r="G2" s="79" t="s">
         <v>332</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="50">
-        <v>1</v>
-      </c>
-      <c r="G2" s="52">
-        <v>1200</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="82">
-        <f>SUM(G2:G3)</f>
+      <c r="I2" s="89">
+        <f>SUM(F2:F3)</f>
         <v>2400</v>
       </c>
       <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="46" t="s">
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="45">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
-      <c r="G3" s="47">
+      <c r="F3" s="47">
         <v>1200</v>
       </c>
+      <c r="G3" s="75"/>
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="88"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="74">
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="132">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="132" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="134">
+        <v>1</v>
+      </c>
+      <c r="F4" s="135">
+        <v>720</v>
+      </c>
+      <c r="G4" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="147" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="148">
+        <f>SUM(F4:F9)</f>
+        <v>3180</v>
+      </c>
+      <c r="J4" s="133"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="134">
+        <v>1</v>
+      </c>
+      <c r="F5" s="135">
+        <v>720</v>
+      </c>
+      <c r="G5" s="149"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="150"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="134">
+        <v>1</v>
+      </c>
+      <c r="F6" s="135">
+        <v>468</v>
+      </c>
+      <c r="G6" s="149"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="150"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="134">
+        <v>1</v>
+      </c>
+      <c r="F7" s="135">
+        <v>432</v>
+      </c>
+      <c r="G7" s="149"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="150"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="134">
+        <v>1</v>
+      </c>
+      <c r="F8" s="135">
+        <v>365</v>
+      </c>
+      <c r="G8" s="149"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="150"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="142"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="138" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="134">
+        <v>1</v>
+      </c>
+      <c r="F9" s="135">
+        <v>475</v>
+      </c>
+      <c r="G9" s="144"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="141"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
+        <v>3</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="90">
+        <v>630</v>
+      </c>
+      <c r="G10" s="72" t="s">
         <v>327</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="45">
-        <v>1</v>
-      </c>
-      <c r="G4" s="47">
-        <v>720</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="84">
-        <f>SUM(G4:G9)</f>
-        <v>3180</v>
-      </c>
-      <c r="J4" s="77"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="45">
-        <v>1</v>
-      </c>
-      <c r="G5" s="47">
-        <v>720</v>
-      </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="78"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="47">
-        <v>468</v>
-      </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="78"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="45">
-        <v>1</v>
-      </c>
-      <c r="G7" s="47">
-        <v>432</v>
-      </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="45">
-        <v>1</v>
-      </c>
-      <c r="G8" s="47">
-        <v>365</v>
-      </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="45">
-        <v>1</v>
-      </c>
-      <c r="G9" s="47">
-        <v>475</v>
-      </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="79"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="74">
-        <v>3</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="45">
-        <v>1</v>
-      </c>
-      <c r="G10" s="83">
-        <v>630</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
       <c r="I10" s="84">
-        <v>630</v>
-      </c>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="44" t="s">
+        <f>SUM(F10:F31)</f>
+        <v>4803.82</v>
+      </c>
+      <c r="J10" s="72"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="45">
+      <c r="E11" s="45">
         <v>1</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="79"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="77" t="s">
+      <c r="I11" s="88"/>
+      <c r="J11" s="73"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="60">
+        <v>1</v>
+      </c>
+      <c r="F12" s="84">
+        <v>1387.81</v>
+      </c>
+      <c r="G12" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="61">
+      <c r="H12" s="74"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="72"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="60">
         <v>1</v>
       </c>
-      <c r="G12" s="85">
-        <v>1387.81</v>
-      </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="80">
-        <v>1387.81</v>
-      </c>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="61">
+      <c r="F13" s="88"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="83"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="78"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="61">
+      <c r="F14" s="88"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="83"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="60">
+        <v>2</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="83"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="60">
+        <v>2</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="83"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="60">
+        <v>4</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="83"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="60">
+        <v>5</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="83"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="78"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="61">
+      <c r="F19" s="85"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="73"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="60">
+        <v>1</v>
+      </c>
+      <c r="F20" s="84">
+        <v>180.56</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="88"/>
+      <c r="J20" s="72"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="60">
         <v>2</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="78"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="61">
+      <c r="F21" s="88"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="83"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="60">
         <v>2</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="78"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="61">
-        <v>4</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="78"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="61">
-        <v>5</v>
-      </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="78"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="61">
+      <c r="F22" s="88"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="83"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="79"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="61">
+      <c r="F23" s="88"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="83"/>
+      <c r="L23" s="45"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="60">
+        <v>2</v>
+      </c>
+      <c r="F24" s="88"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="83"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="60">
         <v>1</v>
       </c>
-      <c r="G20" s="85">
-        <v>180.56</v>
-      </c>
-      <c r="H20" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="I20" s="80">
-        <v>180.56</v>
-      </c>
-      <c r="J20" s="77"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="61">
-        <v>2</v>
-      </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="78"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="61">
-        <v>2</v>
-      </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="78"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="61">
+      <c r="F25" s="85"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="73"/>
+      <c r="L25" s="45"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="60">
         <v>1</v>
       </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="78"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="61">
-        <v>2</v>
-      </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="78"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="61">
+      <c r="F26" s="84">
+        <v>1950</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="I26" s="88"/>
+      <c r="J26" s="44"/>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="60">
         <v>1</v>
       </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="79"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="61">
+      <c r="F27" s="85"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="44"/>
+      <c r="L27" s="45"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="45">
         <v>1</v>
       </c>
-      <c r="G26" s="85">
-        <v>1950</v>
-      </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="44"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="61">
+      <c r="F28" s="47">
+        <v>99.52</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="88"/>
+      <c r="J28" s="44"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="47">
+        <v>388.36</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="I29" s="88"/>
+      <c r="J29" s="44"/>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="45">
         <v>1</v>
       </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="44"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="45">
-        <v>1</v>
-      </c>
-      <c r="G28" s="47">
-        <v>99.52</v>
-      </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="44"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="G29" s="47">
-        <v>388.36</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="44"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="D30" s="46" t="s">
+      <c r="F30" s="47">
+        <v>152.41999999999999</v>
+      </c>
+      <c r="G30" s="46" t="s">
         <v>86</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="45">
-        <v>1</v>
-      </c>
-      <c r="G30" s="47">
-        <v>152.41999999999999</v>
       </c>
       <c r="H30" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="63"/>
+      <c r="I30" s="88"/>
       <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="47">
+        <v>15.15</v>
+      </c>
+      <c r="G31" s="46" t="s">
         <v>90</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="47">
-        <v>15.15</v>
       </c>
       <c r="H31" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="85"/>
       <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="45">
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="134">
         <v>4</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="D32" s="46" t="s">
+      <c r="C32" s="151" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="134">
+        <v>1</v>
+      </c>
+      <c r="F32" s="135">
+        <v>75</v>
+      </c>
+      <c r="G32" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="45">
-        <v>1</v>
-      </c>
-      <c r="G32" s="47">
+      <c r="H32" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="135">
         <v>75</v>
       </c>
-      <c r="H32" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="44"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="74">
+      <c r="J32" s="138"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="69">
         <v>5</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="69" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="45">
+        <v>40</v>
+      </c>
+      <c r="F33" s="47">
+        <v>23.43</v>
+      </c>
+      <c r="G33" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="45">
-        <v>40</v>
-      </c>
-      <c r="G33" s="47">
-        <v>23.43</v>
-      </c>
       <c r="H33" s="46"/>
-      <c r="I33" s="63"/>
+      <c r="I33" s="84">
+        <f>SUM(F33:F44)</f>
+        <v>875.06999999999994</v>
+      </c>
       <c r="J33" s="44"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="47">
+        <v>27.2</v>
+      </c>
+      <c r="G34" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="47">
-        <v>27.2</v>
-      </c>
       <c r="H34" s="46"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="44"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="45">
+        <v>10</v>
+      </c>
+      <c r="F35" s="47">
+        <v>11.89</v>
+      </c>
+      <c r="G35" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="45">
-        <v>10</v>
-      </c>
-      <c r="G35" s="47">
-        <v>11.89</v>
-      </c>
       <c r="H35" s="46"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="70"/>
       <c r="J35" s="44"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
+      <c r="L35" s="45"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="45">
+      <c r="E36" s="45">
         <v>2</v>
       </c>
-      <c r="G36" s="47">
+      <c r="F36" s="47">
         <v>65.069999999999993</v>
       </c>
+      <c r="G36" s="79"/>
       <c r="H36" s="46"/>
-      <c r="I36" s="63"/>
+      <c r="I36" s="70"/>
       <c r="J36" s="44"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
+      <c r="L36" s="45"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="45">
+      <c r="E37" s="45">
         <v>2</v>
       </c>
-      <c r="G37" s="47">
+      <c r="F37" s="47">
         <v>20.09</v>
       </c>
+      <c r="G37" s="79"/>
       <c r="H37" s="46"/>
-      <c r="I37" s="63"/>
+      <c r="I37" s="70"/>
       <c r="J37" s="44"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="45">
+      <c r="E38" s="45">
         <v>3</v>
       </c>
-      <c r="G38" s="47">
+      <c r="F38" s="47">
         <v>17.7</v>
       </c>
+      <c r="G38" s="79"/>
       <c r="H38" s="46"/>
-      <c r="I38" s="63"/>
+      <c r="I38" s="70"/>
       <c r="J38" s="44"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
+      <c r="L38" s="45"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="45">
+      <c r="E39" s="45">
         <v>3</v>
       </c>
-      <c r="G39" s="47">
+      <c r="F39" s="47">
         <v>7.57</v>
       </c>
+      <c r="G39" s="79"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="63"/>
+      <c r="I39" s="70"/>
       <c r="J39" s="44"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
+      <c r="L39" s="45"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D40" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="45">
+      <c r="E40" s="45">
         <v>2</v>
       </c>
-      <c r="G40" s="47">
+      <c r="F40" s="47">
         <v>32.619999999999997</v>
       </c>
+      <c r="G40" s="79"/>
       <c r="H40" s="46"/>
-      <c r="I40" s="63"/>
+      <c r="I40" s="70"/>
       <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
+      <c r="L40" s="45"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D41" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="45">
+      <c r="E41" s="45">
         <v>5</v>
       </c>
-      <c r="G41" s="47">
+      <c r="F41" s="47">
         <v>7.82</v>
       </c>
+      <c r="G41" s="79"/>
       <c r="H41" s="46"/>
-      <c r="I41" s="63"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="44"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
+      <c r="L41" s="45"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="56" t="s">
+      <c r="D42" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="E42" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="59">
+      <c r="F42" s="58">
         <v>128.75</v>
       </c>
+      <c r="G42" s="75"/>
       <c r="H42" s="46"/>
-      <c r="I42" s="63"/>
+      <c r="I42" s="70"/>
       <c r="J42" s="44"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="47">
+        <v>46.93</v>
+      </c>
+      <c r="G43" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="45" t="s">
+      <c r="H43" s="46"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="44"/>
+      <c r="L43" s="45"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="47">
+        <v>486</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="46"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="44"/>
+      <c r="L44" s="45"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="132">
+        <v>6</v>
+      </c>
+      <c r="B45" s="132" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="136" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="135">
+        <v>15.41</v>
+      </c>
+      <c r="G45" s="136" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45" s="136"/>
+      <c r="I45" s="145">
+        <f>SUM(F45:F57)</f>
+        <v>616.48</v>
+      </c>
+      <c r="J45" s="138"/>
+      <c r="L45" s="45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="140"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="136" t="s">
+        <v>439</v>
+      </c>
+      <c r="D46" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="135">
+        <v>15.7</v>
+      </c>
+      <c r="G46" s="136" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="136"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="138"/>
+      <c r="L46" s="45"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="140"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="136" t="s">
+        <v>439</v>
+      </c>
+      <c r="D47" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="135">
+        <v>101.2</v>
+      </c>
+      <c r="G47" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="136"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="138"/>
+      <c r="L47" s="45"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="140"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="136" t="s">
+        <v>439</v>
+      </c>
+      <c r="D48" s="152" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="153" t="s">
         <v>169</v>
       </c>
-      <c r="G43" s="47">
-        <v>46.93</v>
-      </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="44"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="F44" s="45" t="s">
+      <c r="F48" s="153">
+        <v>17.16</v>
+      </c>
+      <c r="G48" s="133" t="s">
+        <v>322</v>
+      </c>
+      <c r="H48" s="136"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="138"/>
+      <c r="L48" s="45"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="140"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="136" t="s">
+        <v>439</v>
+      </c>
+      <c r="D49" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="153">
+        <v>19.43</v>
+      </c>
+      <c r="G49" s="150"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="138"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="140"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="136" t="s">
+        <v>439</v>
+      </c>
+      <c r="D50" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="153">
+        <v>14.29</v>
+      </c>
+      <c r="G50" s="150"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="138"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="140"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="136" t="s">
+        <v>439</v>
+      </c>
+      <c r="D51" s="154" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="153">
+        <v>15.78</v>
+      </c>
+      <c r="G51" s="141"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="138"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="140"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="151" t="s">
+        <v>351</v>
+      </c>
+      <c r="D52" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="47">
-        <v>486</v>
-      </c>
-      <c r="H44" s="46"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="44"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="74">
+      <c r="F52" s="135">
+        <v>277.45999999999998</v>
+      </c>
+      <c r="G52" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="136"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="138"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="140"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="135">
+        <v>22.67</v>
+      </c>
+      <c r="G53" s="136" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="136"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="138"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="140"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="136" t="s">
+        <v>352</v>
+      </c>
+      <c r="D54" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="135">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="G54" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" s="136"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="138"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="140"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="143" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="134">
+        <v>8</v>
+      </c>
+      <c r="F55" s="135">
+        <v>12.55</v>
+      </c>
+      <c r="G55" s="143" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="136"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="138"/>
+      <c r="L55" s="45"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="140"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="134">
         <v>6</v>
       </c>
-      <c r="B45" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" s="45" t="s">
+      <c r="F56" s="135">
+        <v>8.84</v>
+      </c>
+      <c r="G56" s="149"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="138"/>
+      <c r="L56" s="45"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="140"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="134">
+        <v>8</v>
+      </c>
+      <c r="F57" s="135">
+        <v>22.7</v>
+      </c>
+      <c r="G57" s="144"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="138"/>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="69">
+        <v>7</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="45">
+        <v>60.52</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" s="46"/>
+      <c r="I58" s="69">
+        <f>SUM(F58:F62)</f>
+        <v>908.84999999999991</v>
+      </c>
+      <c r="J58" s="44"/>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="47">
-        <v>15.41</v>
-      </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="44"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="47">
-        <v>15.7</v>
-      </c>
-      <c r="H46" s="46"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G47" s="47">
-        <v>101.2</v>
-      </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="44"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="60">
-        <v>17.16</v>
-      </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="60">
-        <v>19.43</v>
-      </c>
-      <c r="H49" s="46"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="60">
-        <v>14.29</v>
-      </c>
-      <c r="H50" s="46"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="44"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="G51" s="60">
-        <v>15.78</v>
-      </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="44"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="43" t="s">
-        <v>357</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="47">
-        <v>277.45999999999998</v>
-      </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="44"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="47">
-        <v>22.67</v>
-      </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="44"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="47">
-        <v>73.290000000000006</v>
-      </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="44"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="D55" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="45">
-        <v>8</v>
-      </c>
-      <c r="G55" s="47">
-        <v>12.55</v>
-      </c>
-      <c r="H55" s="46"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="44"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="45">
-        <v>6</v>
-      </c>
-      <c r="G56" s="47">
-        <v>8.84</v>
-      </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="44"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="F57" s="45">
-        <v>8</v>
-      </c>
-      <c r="G57" s="47">
-        <v>22.7</v>
-      </c>
-      <c r="H57" s="46"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="44"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="74">
-        <v>7</v>
-      </c>
-      <c r="B58" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="F58" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" s="45">
-        <v>60.52</v>
-      </c>
-      <c r="H58" s="46"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="44"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="46" t="s">
+      <c r="F59" s="45">
+        <v>10.48</v>
+      </c>
+      <c r="G59" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="45">
-        <v>10.48</v>
-      </c>
       <c r="H59" s="46"/>
-      <c r="I59" s="63"/>
+      <c r="I59" s="70"/>
       <c r="J59" s="44"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
+      <c r="L59" s="45"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="47">
+        <v>169.79</v>
+      </c>
+      <c r="G60" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="E60" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" s="45" t="s">
+      <c r="H60" s="46"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="44"/>
+      <c r="L60" s="45"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G60" s="47">
-        <v>169.79</v>
-      </c>
-      <c r="H60" s="46"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="44"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="46" t="s">
+      <c r="F61" s="47">
+        <v>610.78</v>
+      </c>
+      <c r="G61" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" s="46"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="44"/>
+      <c r="L61" s="45"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="47">
+        <v>57.28</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H62" s="46"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="44"/>
+      <c r="L62" s="45"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="132">
+        <v>8</v>
+      </c>
+      <c r="B63" s="132" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="136" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="135">
+        <v>15.29</v>
+      </c>
+      <c r="G63" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="H63" s="136"/>
+      <c r="I63" s="145">
+        <f>SUM(F63:F68)</f>
+        <v>170.51999999999998</v>
+      </c>
+      <c r="J63" s="138"/>
+      <c r="L63" s="45"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="140"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" s="135">
+        <v>56.65</v>
+      </c>
+      <c r="G64" s="136" t="s">
+        <v>220</v>
+      </c>
+      <c r="H64" s="136"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="138"/>
+      <c r="L64" s="45"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="140"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="136" t="s">
+        <v>440</v>
+      </c>
+      <c r="D65" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" s="135">
+        <v>41.2</v>
+      </c>
+      <c r="G65" s="136" t="s">
+        <v>242</v>
+      </c>
+      <c r="H65" s="136"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="138"/>
+      <c r="L65" s="45"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="140"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="136" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="135">
+        <v>18</v>
+      </c>
+      <c r="G66" s="136" t="s">
+        <v>244</v>
+      </c>
+      <c r="H66" s="136"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="138"/>
+      <c r="L66" s="45"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="140"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="143" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="136" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="155">
+        <v>20.78</v>
+      </c>
+      <c r="G67" s="143" t="s">
+        <v>246</v>
+      </c>
+      <c r="H67" s="136"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="138"/>
+      <c r="L67" s="45"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="142"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="136" t="s">
+        <v>430</v>
+      </c>
+      <c r="E68" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="135">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G68" s="144"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="142"/>
+      <c r="J68" s="138"/>
+      <c r="L68" s="45"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="69">
+        <v>9</v>
+      </c>
+      <c r="B69" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="47">
+        <v>106.08</v>
+      </c>
+      <c r="G69" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" s="46"/>
+      <c r="I69" s="84">
+        <f>SUM(F69:F72)</f>
+        <v>161.44</v>
+      </c>
+      <c r="J69" s="44"/>
+      <c r="L69" s="45"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="47">
+        <v>4.12</v>
+      </c>
+      <c r="G70" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="H70" s="46"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="44"/>
+      <c r="L70" s="45"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="47">
+        <v>21.12</v>
+      </c>
+      <c r="G71" s="79"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="44"/>
+      <c r="L71" s="45"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="47">
+        <v>30.12</v>
+      </c>
+      <c r="G72" s="75"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="44"/>
+      <c r="L72" s="45"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="132">
+        <v>10</v>
+      </c>
+      <c r="B73" s="132" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="136" t="s">
         <v>360</v>
       </c>
-      <c r="D61" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="45" t="s">
+      <c r="D73" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="G61" s="47">
-        <v>610.78</v>
-      </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="44"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="76"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="F62" s="45" t="s">
+      <c r="F73" s="135">
+        <v>210</v>
+      </c>
+      <c r="G73" s="138" t="s">
+        <v>223</v>
+      </c>
+      <c r="H73" s="136"/>
+      <c r="I73" s="145">
+        <f>SUM(F73:F74)</f>
+        <v>487.9</v>
+      </c>
+      <c r="J73" s="138"/>
+      <c r="L73" s="45"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="142"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="136" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="138" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="G62" s="47">
-        <v>57.28</v>
-      </c>
-      <c r="H62" s="46"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="44"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="74">
-        <v>8</v>
-      </c>
-      <c r="B63" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="F63" s="45" t="s">
+      <c r="F74" s="135">
+        <v>277.89999999999998</v>
+      </c>
+      <c r="G74" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="H74" s="136"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="138"/>
+      <c r="L74" s="45"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="69">
+        <v>11</v>
+      </c>
+      <c r="B75" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G63" s="47">
-        <v>15.29</v>
-      </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="44"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="F64" s="45" t="s">
+      <c r="F75" s="47">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="G75" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="46"/>
+      <c r="I75" s="84">
+        <f>SUM(F75:F77)</f>
+        <v>285.76</v>
+      </c>
+      <c r="J75" s="44"/>
+      <c r="L75" s="45"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G64" s="47">
-        <v>56.65</v>
-      </c>
-      <c r="H64" s="46"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="44"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="G65" s="47">
-        <v>41.2</v>
-      </c>
-      <c r="H65" s="46"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="44"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="75"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="F66" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" s="47">
-        <v>18</v>
-      </c>
-      <c r="H66" s="46"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="44"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="D67" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="E67" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" s="42">
-        <v>20.78</v>
-      </c>
-      <c r="H67" s="46"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="76"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="F68" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" s="47">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H68" s="46"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="44"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="74">
-        <v>9</v>
-      </c>
-      <c r="B69" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="G69" s="47">
-        <v>106.08</v>
-      </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="44"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="75"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="D70" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="E70" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="F70" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="47">
-        <v>4.12</v>
-      </c>
-      <c r="H70" s="46"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="44"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="75"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="F71" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="47">
-        <v>21.12</v>
-      </c>
-      <c r="H71" s="46"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="44"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="76"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G72" s="47">
-        <v>30.12</v>
-      </c>
-      <c r="H72" s="46"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="44"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="74">
-        <v>10</v>
-      </c>
-      <c r="B73" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G73" s="47">
-        <v>210</v>
-      </c>
-      <c r="H73" s="46"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="44"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="76"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G74" s="47">
-        <v>277.89999999999998</v>
-      </c>
-      <c r="H74" s="46"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="44"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="74">
-        <v>11</v>
-      </c>
-      <c r="B75" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="D75" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G75" s="47">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="H75" s="46"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="44"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="75"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="46"/>
-      <c r="I76" s="63"/>
+      <c r="I76" s="70"/>
       <c r="J76" s="44"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="76"/>
-      <c r="B77" s="76"/>
+      <c r="L76" s="45"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="D77" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="E77" s="44" t="s">
+      <c r="D77" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="E77" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="G77" s="47">
+      <c r="F77" s="47">
         <v>220</v>
       </c>
+      <c r="G77" s="46" t="s">
+        <v>362</v>
+      </c>
       <c r="H77" s="46"/>
-      <c r="I77" s="63"/>
+      <c r="I77" s="71"/>
       <c r="J77" s="44"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="74">
+      <c r="L77" s="45"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="132">
         <v>12</v>
       </c>
-      <c r="B78" s="74" t="s">
+      <c r="B78" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="D78" s="46" t="s">
+      <c r="D78" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" s="135">
+        <v>2340</v>
+      </c>
+      <c r="G78" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="E78" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="F78" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="G78" s="47">
-        <v>2340</v>
-      </c>
-      <c r="H78" s="46"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="44"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="75"/>
-      <c r="B79" s="75"/>
-      <c r="C79" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="D79" s="46" t="s">
+      <c r="H78" s="136"/>
+      <c r="I78" s="145">
+        <f>SUM(F78:F82)</f>
+        <v>3766.7900000000004</v>
+      </c>
+      <c r="J78" s="138"/>
+      <c r="L78" s="45"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="140"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="136" t="s">
+        <v>363</v>
+      </c>
+      <c r="D79" s="138" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79" s="135">
+        <v>851.72</v>
+      </c>
+      <c r="G79" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="E79" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="G79" s="47">
-        <v>851.72</v>
-      </c>
-      <c r="H79" s="46"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="44"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="75"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="46" t="s">
+      <c r="H79" s="136"/>
+      <c r="I79" s="140"/>
+      <c r="J79" s="138"/>
+      <c r="L79" s="45"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="140"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="136" t="s">
         <v>321</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="D80" s="138" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" s="135">
+        <v>150</v>
+      </c>
+      <c r="G80" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="E80" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="G80" s="47">
-        <v>150</v>
-      </c>
-      <c r="H80" s="46"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="44"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="75"/>
-      <c r="B81" s="75"/>
-      <c r="C81" s="46" t="s">
+      <c r="H80" s="136"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="138"/>
+      <c r="L80" s="45"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="140"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="D81" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="E81" s="134" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="135">
+        <v>152.07</v>
+      </c>
+      <c r="G81" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="E81" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="G81" s="47">
-        <v>152.07</v>
-      </c>
-      <c r="H81" s="46"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="44"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="76"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="D82" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="E82" s="44" t="s">
+      <c r="H81" s="136"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="138"/>
+      <c r="L81" s="45"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="142"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="138" t="s">
+        <v>345</v>
+      </c>
+      <c r="D82" s="138" t="s">
         <v>270</v>
       </c>
-      <c r="F82" s="45" t="s">
+      <c r="E82" s="134" t="s">
         <v>271</v>
       </c>
-      <c r="G82" s="47">
+      <c r="F82" s="135">
         <v>273</v>
       </c>
-      <c r="H82" s="46" t="s">
+      <c r="G82" s="138" t="s">
+        <v>345</v>
+      </c>
+      <c r="H82" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="I82" s="63"/>
-      <c r="J82" s="44"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="74">
+      <c r="I82" s="142"/>
+      <c r="J82" s="138"/>
+      <c r="L82" s="45"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="69">
         <v>13</v>
       </c>
-      <c r="B83" s="74" t="s">
+      <c r="B83" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="D83" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="E83" s="44" t="s">
+      <c r="C83" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="D83" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="F83" s="45" t="s">
+      <c r="E83" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="G83" s="47">
+      <c r="F83" s="129">
         <v>2500</v>
       </c>
+      <c r="G83" s="74" t="s">
+        <v>364</v>
+      </c>
       <c r="H83" s="46"/>
-      <c r="I83" s="63"/>
+      <c r="I83" s="84">
+        <f>SUM(F83:F84)</f>
+        <v>5706</v>
+      </c>
       <c r="J83" s="44"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="76"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="44" t="s">
+      <c r="L83" s="161">
+        <f>SUM(F83:F84)</f>
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="71"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="F84" s="45" t="s">
+      <c r="E84" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="G84" s="47">
+      <c r="F84" s="129">
         <v>3206</v>
       </c>
+      <c r="G84" s="75"/>
       <c r="H84" s="46"/>
-      <c r="I84" s="63"/>
+      <c r="I84" s="71"/>
       <c r="J84" s="44"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="45">
+      <c r="L84" s="162"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="134">
         <v>14</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="44"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="74">
+      <c r="C85" s="136" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" s="136"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="H85" s="136"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="138"/>
+      <c r="L85" s="45"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="69">
         <v>15</v>
       </c>
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="69" t="s">
         <v>284</v>
       </c>
       <c r="C86" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="F86" s="47">
+        <v>598.64</v>
+      </c>
+      <c r="G86" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="E86" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="G86" s="47">
-        <v>598.64</v>
-      </c>
-      <c r="I86" s="63"/>
+      <c r="I86" s="84">
+        <f>SUM(F86:F94)</f>
+        <v>6169.67</v>
+      </c>
       <c r="J86" s="44"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="75"/>
-      <c r="B87" s="75"/>
+      <c r="L86" s="45"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="46" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D87" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F87" s="47">
+        <v>159.32</v>
+      </c>
+      <c r="G87" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="E87" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="F87" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="G87" s="47">
-        <v>159.32</v>
-      </c>
       <c r="H87" s="46"/>
-      <c r="I87" s="63"/>
+      <c r="I87" s="70"/>
       <c r="J87" s="44"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="75"/>
-      <c r="B88" s="75"/>
+      <c r="L87" s="45"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="D88" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" s="47">
+        <v>129.71</v>
+      </c>
+      <c r="G88" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="E88" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="F88" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="G88" s="47">
-        <v>129.71</v>
-      </c>
       <c r="H88" s="46"/>
-      <c r="I88" s="63"/>
+      <c r="I88" s="70"/>
       <c r="J88" s="44"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="75"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="D89" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="E89" s="44" t="s">
+      <c r="L88" s="45"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="F89" s="45" t="s">
+      <c r="E89" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="G89" s="47">
+      <c r="F89" s="129">
         <v>400</v>
       </c>
-      <c r="I89" s="63"/>
+      <c r="G89" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="I89" s="70"/>
       <c r="J89" s="44"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="75"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="44" t="s">
+      <c r="L89" s="161">
+        <f>SUM(F89:F94)</f>
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="159"/>
+      <c r="D90" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="F90" s="45" t="s">
+      <c r="E90" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="G90" s="47">
+      <c r="F90" s="129">
         <v>1700</v>
       </c>
+      <c r="G90" s="79"/>
       <c r="H90" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I90" s="63"/>
+      <c r="I90" s="70"/>
       <c r="J90" s="44"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="75"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="44" t="s">
+      <c r="L90" s="162"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="159"/>
+      <c r="D91" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="F91" s="45" t="s">
+      <c r="E91" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="G91" s="47">
+      <c r="F91" s="129">
         <v>982</v>
       </c>
+      <c r="G91" s="79"/>
       <c r="H91" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I91" s="63"/>
+      <c r="I91" s="70"/>
       <c r="J91" s="44"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="75"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="44" t="s">
+      <c r="L91" s="162"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="131"/>
+      <c r="D92" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="F92" s="45" t="s">
+      <c r="E92" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="G92" s="47">
+      <c r="F92" s="129">
         <v>500</v>
       </c>
+      <c r="G92" s="79"/>
       <c r="H92" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I92" s="63"/>
+      <c r="I92" s="70"/>
       <c r="J92" s="44"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="75"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="46" t="s">
+      <c r="L92" s="162"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="F93" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="G93" s="47">
+      <c r="F93" s="129">
         <v>1580</v>
       </c>
+      <c r="G93" s="79"/>
       <c r="H93" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="I93" s="63"/>
+      <c r="I93" s="70"/>
       <c r="J93" s="44"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="76"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="D94" s="73"/>
-      <c r="E94" s="44" t="s">
+      <c r="L93" s="162"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="128" t="s">
+        <v>482</v>
+      </c>
+      <c r="D94" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="F94" s="45" t="s">
+      <c r="E94" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="G94" s="47">
+      <c r="F94" s="129">
         <v>120</v>
       </c>
+      <c r="G94" s="75"/>
       <c r="H94" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="I94" s="63"/>
+      <c r="I94" s="71"/>
       <c r="J94" s="44"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="74">
+      <c r="L94" s="162"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="132">
         <v>16</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="132" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="D95" s="77" t="s">
+      <c r="C95" s="143" t="s">
+        <v>346</v>
+      </c>
+      <c r="D95" s="136" t="s">
+        <v>294</v>
+      </c>
+      <c r="E95" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="145">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="G95" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="E95" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="F95" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" s="85">
+      <c r="H95" s="136"/>
+      <c r="I95" s="145">
         <v>67.959999999999994</v>
       </c>
-      <c r="H95" s="46"/>
-      <c r="I95" s="63"/>
-      <c r="J95" s="44"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="76"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="46" t="s">
+      <c r="J95" s="138"/>
+      <c r="L95" s="45"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="142"/>
+      <c r="B96" s="142"/>
+      <c r="C96" s="144"/>
+      <c r="D96" s="136" t="s">
         <v>283</v>
       </c>
-      <c r="F96" s="45" t="s">
+      <c r="E96" s="134" t="s">
         <v>291</v>
       </c>
-      <c r="G96" s="87"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="63"/>
-      <c r="J96" s="44"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="74">
+      <c r="F96" s="146"/>
+      <c r="G96" s="141"/>
+      <c r="H96" s="136"/>
+      <c r="I96" s="146"/>
+      <c r="J96" s="138"/>
+      <c r="L96" s="45"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="69">
         <v>17</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="71" t="s">
+      <c r="C97" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D97" s="77" t="s">
+      <c r="D97" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F97" s="47">
+        <v>21.91</v>
+      </c>
+      <c r="G97" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E97" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="F97" s="48" t="s">
+      <c r="H97" s="46"/>
+      <c r="I97" s="84">
+        <f>SUM(F97:F100)</f>
+        <v>232.55999999999997</v>
+      </c>
+      <c r="J97" s="44"/>
+      <c r="L97" s="45"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="70"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="F98" s="47">
+        <v>132.5</v>
+      </c>
+      <c r="G98" s="83"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="44"/>
+      <c r="L98" s="45"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="70"/>
+      <c r="B99" s="81"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" s="47">
+        <v>50.8</v>
+      </c>
+      <c r="G99" s="83"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="44"/>
+      <c r="L99" s="45"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="71"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E100" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="G97" s="47">
-        <v>21.91</v>
-      </c>
-      <c r="H97" s="46"/>
-      <c r="I97" s="63"/>
-      <c r="J97" s="44"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="75"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="F98" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="G98" s="47">
-        <v>132.5</v>
-      </c>
-      <c r="H98" s="46"/>
-      <c r="I98" s="63"/>
-      <c r="J98" s="44"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="75"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="F99" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G99" s="47">
-        <v>50.8</v>
-      </c>
-      <c r="H99" s="46"/>
-      <c r="I99" s="63"/>
-      <c r="J99" s="44"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="76"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="F100" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="G100" s="47">
+      <c r="F100" s="47">
         <v>27.35</v>
       </c>
+      <c r="G100" s="73"/>
       <c r="H100" s="46"/>
-      <c r="I100" s="63"/>
+      <c r="I100" s="71"/>
       <c r="J100" s="44"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="45">
+      <c r="L100" s="45"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="134">
         <v>18</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="134" t="s">
         <v>304</v>
       </c>
-      <c r="C101" s="44" t="s">
+      <c r="C101" s="138" t="s">
         <v>303</v>
       </c>
-      <c r="D101" s="44" t="s">
+      <c r="D101" s="138"/>
+      <c r="E101" s="134"/>
+      <c r="F101" s="135">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="138" t="s">
         <v>303</v>
       </c>
-      <c r="E101" s="44"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="47">
+      <c r="H101" s="151"/>
+      <c r="I101" s="135">
         <v>1000</v>
       </c>
-      <c r="I101" s="63"/>
-      <c r="J101" s="46" t="s">
+      <c r="J101" s="136" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="74">
+      <c r="L101" s="45"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="69">
         <v>19</v>
       </c>
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="C102" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="D102" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F102" s="47">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="G102" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="H102" s="46"/>
+      <c r="I102" s="84">
+        <f>SUM(F102:F105)</f>
+        <v>84.960000000000008</v>
+      </c>
+      <c r="J102" s="44"/>
+      <c r="L102" s="45"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F103" s="47">
+        <v>19.34</v>
+      </c>
+      <c r="G103" s="73"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="44"/>
+      <c r="L103" s="45"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="E104" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F104" s="47">
+        <v>21</v>
+      </c>
+      <c r="G104" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="H104" s="46"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="44"/>
+      <c r="L104" s="45"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="71"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F105" s="47">
+        <v>27.43</v>
+      </c>
+      <c r="G105" s="73"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="44"/>
+      <c r="L105" s="45"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="134">
+        <v>20</v>
+      </c>
+      <c r="B106" s="156" t="s">
+        <v>378</v>
+      </c>
+      <c r="C106" s="157" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" s="157" t="s">
+        <v>380</v>
+      </c>
+      <c r="E106" s="134" t="s">
+        <v>381</v>
+      </c>
+      <c r="F106" s="135">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="G106" s="157" t="s">
+        <v>379</v>
+      </c>
+      <c r="H106" s="136"/>
+      <c r="I106" s="135">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J106" s="138"/>
+      <c r="L106" s="45"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="76">
+        <v>21</v>
+      </c>
+      <c r="B107" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="F107" s="47">
+        <v>21.61</v>
+      </c>
+      <c r="G107" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="D102" s="77" t="s">
-        <v>376</v>
-      </c>
-      <c r="E102" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="F102" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="G102" s="47">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="H102" s="46"/>
-      <c r="I102" s="63"/>
-      <c r="J102" s="44"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="75"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="G103" s="47">
-        <v>19.34</v>
-      </c>
-      <c r="H103" s="46"/>
-      <c r="I103" s="63"/>
-      <c r="J103" s="44"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="75"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="D104" s="77" t="s">
-        <v>378</v>
-      </c>
-      <c r="E104" s="77" t="s">
-        <v>379</v>
-      </c>
-      <c r="F104" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="G104" s="47">
-        <v>21</v>
-      </c>
-      <c r="H104" s="46"/>
-      <c r="I104" s="63"/>
-      <c r="J104" s="44"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="76"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="79"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="G105" s="47">
-        <v>27.43</v>
-      </c>
-      <c r="H105" s="46"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="44"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="45">
-        <v>20</v>
-      </c>
-      <c r="B106" s="50" t="s">
+      <c r="H107" s="46"/>
+      <c r="I107" s="84">
+        <f>SUM(F107:F111)</f>
+        <v>63.53</v>
+      </c>
+      <c r="J107" s="44"/>
+      <c r="L107" s="45"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="77"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="E108" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F108" s="47">
+        <v>12.09</v>
+      </c>
+      <c r="G108" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="H108" s="46"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="44"/>
+      <c r="L108" s="45"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="77"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="E109" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="C106" s="70" t="s">
+      <c r="F109" s="47">
+        <v>6.63</v>
+      </c>
+      <c r="G109" s="73"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="44"/>
+      <c r="L109" s="45"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="77"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D110" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="D106" s="70" t="s">
+      <c r="E110" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F110" s="47">
+        <v>7.5</v>
+      </c>
+      <c r="G110" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="E106" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="F106" s="45" t="s">
+      <c r="H110" s="46"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="44"/>
+      <c r="L110" s="45"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="78"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="E111" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="F111" s="47">
+        <v>15.7</v>
+      </c>
+      <c r="G111" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="G106" s="47">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="H106" s="46"/>
-      <c r="I106" s="63"/>
-      <c r="J106" s="44"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="95">
-        <v>21</v>
-      </c>
-      <c r="B107" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="C107" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="D107" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="E107" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="F107" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="G107" s="47">
-        <v>21.61</v>
-      </c>
-      <c r="H107" s="46"/>
-      <c r="I107" s="63"/>
-      <c r="J107" s="44"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="96"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="71" t="s">
+      <c r="H111" s="46"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="44"/>
+      <c r="L111" s="45"/>
+    </row>
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="132">
+        <v>22</v>
+      </c>
+      <c r="B112" s="132" t="s">
         <v>392</v>
       </c>
-      <c r="D108" s="77" t="s">
-        <v>390</v>
-      </c>
-      <c r="E108" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="F108" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="G108" s="47">
-        <v>12.09</v>
-      </c>
-      <c r="H108" s="46"/>
-      <c r="I108" s="63"/>
-      <c r="J108" s="44"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="96"/>
-      <c r="B109" s="75"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="44" t="s">
+      <c r="C112" s="136" t="s">
         <v>393</v>
       </c>
-      <c r="F109" s="45" t="s">
+      <c r="D112" s="138" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="134" t="s">
         <v>394</v>
       </c>
-      <c r="G109" s="47">
-        <v>6.63</v>
-      </c>
-      <c r="H109" s="46"/>
-      <c r="I109" s="63"/>
-      <c r="J109" s="44"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="96"/>
-      <c r="B110" s="75"/>
-      <c r="C110" s="46" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" s="44" t="s">
+      <c r="F112" s="135">
+        <v>315.45</v>
+      </c>
+      <c r="G112" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="H112" s="158" t="s">
         <v>395</v>
       </c>
-      <c r="E110" s="44" t="s">
+      <c r="I112" s="145">
+        <f>SUM(F112:F118)</f>
+        <v>3137.64</v>
+      </c>
+      <c r="J112" s="138"/>
+      <c r="L112" s="45"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="140"/>
+      <c r="B113" s="140"/>
+      <c r="C113" s="136" t="s">
+        <v>367</v>
+      </c>
+      <c r="D113" s="138" t="s">
         <v>396</v>
       </c>
-      <c r="F110" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="G110" s="47">
-        <v>7.5</v>
-      </c>
-      <c r="H110" s="46"/>
-      <c r="I110" s="63"/>
-      <c r="J110" s="44"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="97"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="46" t="s">
-        <v>392</v>
-      </c>
-      <c r="D111" s="44" t="s">
+      <c r="E113" s="134" t="s">
         <v>397</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="F113" s="135">
+        <v>29.48</v>
+      </c>
+      <c r="G113" s="138" t="s">
+        <v>368</v>
+      </c>
+      <c r="H113" s="136"/>
+      <c r="I113" s="140"/>
+      <c r="J113" s="138"/>
+      <c r="L113" s="45"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="140"/>
+      <c r="B114" s="140"/>
+      <c r="C114" s="136" t="s">
+        <v>399</v>
+      </c>
+      <c r="D114" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="E114" s="134" t="s">
+        <v>400</v>
+      </c>
+      <c r="F114" s="135">
+        <v>23.11</v>
+      </c>
+      <c r="G114" s="138" t="s">
         <v>398</v>
       </c>
-      <c r="F111" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="G111" s="47">
-        <v>15.7</v>
-      </c>
-      <c r="H111" s="46"/>
-      <c r="I111" s="63"/>
-      <c r="J111" s="44"/>
-    </row>
-    <row r="112" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="74">
-        <v>22</v>
-      </c>
-      <c r="B112" s="74" t="s">
-        <v>400</v>
-      </c>
-      <c r="C112" s="46" t="s">
+      <c r="H114" s="136"/>
+      <c r="I114" s="140"/>
+      <c r="J114" s="138"/>
+      <c r="L114" s="45"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="140"/>
+      <c r="B115" s="140"/>
+      <c r="C115" s="128" t="s">
+        <v>481</v>
+      </c>
+      <c r="D115" s="138" t="s">
+        <v>402</v>
+      </c>
+      <c r="E115" s="134" t="s">
+        <v>403</v>
+      </c>
+      <c r="F115" s="129">
+        <v>2684</v>
+      </c>
+      <c r="G115" s="138" t="s">
         <v>401</v>
       </c>
-      <c r="D112" s="44" t="s">
+      <c r="H115" s="136"/>
+      <c r="I115" s="140"/>
+      <c r="J115" s="138"/>
+      <c r="L115" s="129">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="140"/>
+      <c r="B116" s="140"/>
+      <c r="C116" s="138" t="s">
+        <v>404</v>
+      </c>
+      <c r="D116" s="138"/>
+      <c r="E116" s="134" t="s">
+        <v>406</v>
+      </c>
+      <c r="F116" s="135">
+        <v>61.2</v>
+      </c>
+      <c r="G116" s="139" t="s">
+        <v>405</v>
+      </c>
+      <c r="H116" s="136"/>
+      <c r="I116" s="140"/>
+      <c r="J116" s="138"/>
+      <c r="L116" s="45"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="140"/>
+      <c r="B117" s="140"/>
+      <c r="C117" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="D117" s="139"/>
+      <c r="E117" s="134" t="s">
+        <v>408</v>
+      </c>
+      <c r="F117" s="135">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G117" s="138" t="s">
+        <v>409</v>
+      </c>
+      <c r="H117" s="136"/>
+      <c r="I117" s="140"/>
+      <c r="J117" s="138"/>
+      <c r="L117" s="45"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="142"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="138" t="s">
+        <v>410</v>
+      </c>
+      <c r="D118" s="138" t="s">
+        <v>488</v>
+      </c>
+      <c r="E118" s="134" t="s">
+        <v>412</v>
+      </c>
+      <c r="F118" s="135">
+        <v>8</v>
+      </c>
+      <c r="G118" s="139" t="s">
+        <v>411</v>
+      </c>
+      <c r="H118" s="136"/>
+      <c r="I118" s="142"/>
+      <c r="J118" s="138"/>
+      <c r="L118" s="45"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="69">
+        <v>23</v>
+      </c>
+      <c r="B119" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="C119" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="D119" s="44"/>
+      <c r="E119" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="F119" s="47">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G119" s="44"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="84">
+        <f>SUM(F119:F142)</f>
+        <v>1698.7700000000002</v>
+      </c>
+      <c r="J119" s="44"/>
+      <c r="L119" s="45"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="D120" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="E120" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="F120" s="47">
+        <v>160.02000000000001</v>
+      </c>
+      <c r="G120" s="44"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="44"/>
+      <c r="L120" s="45"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E121" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="F121" s="47">
+        <v>25.71</v>
+      </c>
+      <c r="G121" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="H121" s="46"/>
+      <c r="I121" s="70"/>
+      <c r="J121" s="44"/>
+      <c r="L121" s="45"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="D122" s="44"/>
+      <c r="E122" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="F122" s="47">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G122" s="44"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="70"/>
+      <c r="J122" s="44"/>
+      <c r="L122" s="45"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="D123" s="44"/>
+      <c r="E123" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="F123" s="47">
+        <v>99.6</v>
+      </c>
+      <c r="G123" s="44"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="44"/>
+      <c r="L123" s="45"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="E124" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="F124" s="47">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="G124" s="44"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="44"/>
+      <c r="L124" s="45"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="70"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E125" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="F125" s="47">
+        <v>303.93</v>
+      </c>
+      <c r="G125" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E112" s="44" t="s">
-        <v>402</v>
-      </c>
-      <c r="F112" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="G112" s="47">
-        <v>315.45</v>
-      </c>
-      <c r="H112" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="I112" s="63"/>
-      <c r="J112" s="44"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="75"/>
-      <c r="B113" s="75"/>
-      <c r="C113" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="D113" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="E113" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="F113" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="G113" s="47">
-        <v>29.48</v>
-      </c>
-      <c r="H113" s="46"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="44"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="75"/>
-      <c r="B114" s="75"/>
-      <c r="C114" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="D114" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="E114" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="F114" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="G114" s="47">
-        <v>23.11</v>
-      </c>
-      <c r="H114" s="46"/>
-      <c r="I114" s="63"/>
-      <c r="J114" s="44"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="75"/>
-      <c r="B115" s="75"/>
-      <c r="C115" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="E115" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="F115" s="45" t="s">
-        <v>412</v>
-      </c>
-      <c r="G115" s="47">
-        <v>2684</v>
-      </c>
-      <c r="H115" s="46"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="44"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="75"/>
-      <c r="B116" s="75"/>
-      <c r="C116" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="D116" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="E116" s="44"/>
-      <c r="F116" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="G116" s="47">
-        <v>61.2</v>
-      </c>
-      <c r="H116" s="46"/>
-      <c r="I116" s="63"/>
-      <c r="J116" s="44"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="75"/>
-      <c r="B117" s="75"/>
-      <c r="C117" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="D117" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="F117" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="G117" s="47">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H117" s="46"/>
-      <c r="I117" s="63"/>
-      <c r="J117" s="44"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="76"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="E118" s="44"/>
-      <c r="F118" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="G118" s="47">
-        <v>8</v>
-      </c>
-      <c r="H118" s="46"/>
-      <c r="I118" s="63"/>
-      <c r="J118" s="44"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="74">
+      <c r="H125" s="46"/>
+      <c r="I125" s="70"/>
+      <c r="J125" s="44"/>
+      <c r="L125" s="45"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="E126" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="F126" s="47">
+        <v>5.22</v>
+      </c>
+      <c r="G126" s="44"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="70"/>
+      <c r="J126" s="44"/>
+      <c r="L126" s="45"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="70"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E127" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="F127" s="47">
+        <v>6.1</v>
+      </c>
+      <c r="G127" s="44"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="70"/>
+      <c r="J127" s="44"/>
+      <c r="L127" s="45"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="70"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="E128" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="F128" s="47">
+        <v>35.29</v>
+      </c>
+      <c r="G128" s="44"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="70"/>
+      <c r="J128" s="44"/>
+      <c r="L128" s="45"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="70"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="D129" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E129" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="F129" s="47">
+        <v>9.34</v>
+      </c>
+      <c r="G129" s="44"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="70"/>
+      <c r="J129" s="44"/>
+      <c r="L129" s="45"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="D130" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E130" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="F130" s="47">
         <v>23</v>
       </c>
-      <c r="B119" s="74" t="s">
-        <v>422</v>
-      </c>
-      <c r="C119" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="G119" s="47">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="H119" s="46"/>
-      <c r="I119" s="63"/>
-      <c r="J119" s="44"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="75"/>
-      <c r="B120" s="75"/>
-      <c r="C120" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="F120" s="45" t="s">
-        <v>426</v>
-      </c>
-      <c r="G120" s="47">
-        <v>160.02000000000001</v>
-      </c>
-      <c r="H120" s="46"/>
-      <c r="I120" s="63"/>
-      <c r="J120" s="44"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="75"/>
-      <c r="B121" s="75"/>
-      <c r="C121" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="D121" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="F121" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="G121" s="47">
-        <v>25.71</v>
-      </c>
-      <c r="H121" s="46"/>
-      <c r="I121" s="63"/>
-      <c r="J121" s="44"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="75"/>
-      <c r="B122" s="75"/>
-      <c r="C122" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="G122" s="47">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="H122" s="46"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="44"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="75"/>
-      <c r="B123" s="75"/>
-      <c r="C123" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="G123" s="47">
-        <v>99.6</v>
-      </c>
-      <c r="H123" s="46"/>
-      <c r="I123" s="63"/>
-      <c r="J123" s="44"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="75"/>
-      <c r="B124" s="75"/>
-      <c r="C124" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44" t="s">
-        <v>435</v>
-      </c>
-      <c r="F124" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="G124" s="47">
-        <v>35.840000000000003</v>
-      </c>
-      <c r="H124" s="46"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="44"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="76"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="D125" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E125" s="44"/>
-      <c r="F125" s="45" t="s">
-        <v>437</v>
-      </c>
-      <c r="G125" s="47">
-        <v>201.84</v>
-      </c>
-      <c r="H125" s="46"/>
-      <c r="I125" s="63"/>
-      <c r="J125" s="44"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="45"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="44"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="45"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="63"/>
-      <c r="J127" s="44"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="45"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="46"/>
-      <c r="I128" s="63"/>
-      <c r="J128" s="44"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="45"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="63"/>
-      <c r="J129" s="44"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="45"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="47"/>
+      <c r="G130" s="44"/>
       <c r="H130" s="46"/>
-      <c r="I130" s="63"/>
+      <c r="I130" s="70"/>
       <c r="J130" s="44"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="45"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="47"/>
+      <c r="L130" s="45"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="70"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="D131" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="E131" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="F131" s="47">
+        <v>209</v>
+      </c>
+      <c r="G131" s="44"/>
       <c r="H131" s="46"/>
-      <c r="I131" s="63"/>
+      <c r="I131" s="70"/>
       <c r="J131" s="44"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="45"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="47"/>
+      <c r="L131" s="45"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="70"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="D132" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="E132" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="F132" s="47">
+        <v>62</v>
+      </c>
+      <c r="G132" s="44"/>
       <c r="H132" s="46"/>
-      <c r="I132" s="63"/>
+      <c r="I132" s="70"/>
       <c r="J132" s="44"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="45"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="47"/>
+      <c r="L132" s="45"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="70"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="D133" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="E133" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="F133" s="47">
+        <v>64</v>
+      </c>
+      <c r="G133" s="44"/>
       <c r="H133" s="46"/>
-      <c r="I133" s="63"/>
+      <c r="I133" s="70"/>
       <c r="J133" s="44"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="45"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="47"/>
+      <c r="L133" s="45"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="70"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="D134" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="E134" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="F134" s="47">
+        <v>260.85000000000002</v>
+      </c>
+      <c r="G134" s="44"/>
       <c r="H134" s="46"/>
-      <c r="I134" s="63"/>
+      <c r="I134" s="70"/>
       <c r="J134" s="44"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="47"/>
+      <c r="L134" s="45"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="70"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="D135" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="E135" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="F135" s="47">
+        <v>75</v>
+      </c>
+      <c r="G135" s="44"/>
       <c r="H135" s="46"/>
-      <c r="I135" s="63"/>
+      <c r="I135" s="70"/>
       <c r="J135" s="44"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="47"/>
+      <c r="L135" s="45"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="70"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="D136" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="E136" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="F136" s="47">
+        <v>41.42</v>
+      </c>
+      <c r="G136" s="44"/>
       <c r="H136" s="46"/>
-      <c r="I136" s="63"/>
+      <c r="I136" s="70"/>
       <c r="J136" s="44"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="47"/>
+      <c r="L136" s="45"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="70"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="D137" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="E137" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="F137" s="47">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="G137" s="44"/>
       <c r="H137" s="46"/>
-      <c r="I137" s="63"/>
+      <c r="I137" s="70"/>
       <c r="J137" s="44"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="47"/>
+      <c r="L137" s="45"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="70"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="D138" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="E138" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="F138" s="47">
+        <v>57</v>
+      </c>
+      <c r="G138" s="44"/>
       <c r="H138" s="46"/>
-      <c r="I138" s="63"/>
+      <c r="I138" s="70"/>
       <c r="J138" s="44"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="45"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="47"/>
+      <c r="L138" s="45"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" s="70"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="D139" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="E139" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="F139" s="47">
+        <v>11.48</v>
+      </c>
+      <c r="G139" s="44"/>
       <c r="H139" s="46"/>
-      <c r="I139" s="63"/>
+      <c r="I139" s="70"/>
       <c r="J139" s="44"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
+      <c r="L139" s="45"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" s="70"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="D140" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="E140" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="F140" s="47">
+        <v>67.25</v>
+      </c>
+      <c r="G140" s="44"/>
       <c r="H140" s="46"/>
-      <c r="I140" s="63"/>
+      <c r="I140" s="70"/>
       <c r="J140" s="44"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="45"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
+      <c r="L140" s="45"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" s="70"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="D141" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="E141" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="F141" s="47">
+        <v>6.79</v>
+      </c>
+      <c r="G141" s="44"/>
       <c r="H141" s="46"/>
-      <c r="I141" s="63"/>
+      <c r="I141" s="70"/>
       <c r="J141" s="44"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="45"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="45"/>
+      <c r="L141" s="45"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" s="71"/>
+      <c r="B142" s="71"/>
+      <c r="C142" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="E142" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="F142" s="47">
+        <v>15.56</v>
+      </c>
+      <c r="G142" s="44"/>
       <c r="H142" s="46"/>
-      <c r="I142" s="63"/>
+      <c r="I142" s="71"/>
       <c r="J142" s="44"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L142" s="45"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="45"/>
       <c r="B143" s="45"/>
       <c r="C143" s="46"/>
       <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="44"/>
       <c r="H143" s="46"/>
-      <c r="I143" s="63"/>
+      <c r="I143" s="68"/>
       <c r="J143" s="44"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L143" s="45"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="45"/>
       <c r="B144" s="45"/>
       <c r="C144" s="46"/>
       <c r="D144" s="44"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="44"/>
       <c r="H144" s="46"/>
-      <c r="I144" s="63"/>
+      <c r="I144" s="68"/>
       <c r="J144" s="44"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L144" s="45"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="45"/>
       <c r="B145" s="45"/>
       <c r="C145" s="46"/>
       <c r="D145" s="44"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="44"/>
       <c r="H145" s="46"/>
-      <c r="I145" s="63"/>
+      <c r="I145" s="68"/>
       <c r="J145" s="44"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L145" s="45"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="45"/>
       <c r="B146" s="45"/>
       <c r="C146" s="46"/>
       <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="44"/>
       <c r="H146" s="46"/>
-      <c r="I146" s="63"/>
+      <c r="I146" s="68"/>
       <c r="J146" s="44"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L146" s="45"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="45"/>
       <c r="B147" s="45"/>
       <c r="C147" s="46"/>
       <c r="D147" s="44"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="45"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="44"/>
       <c r="H147" s="46"/>
-      <c r="I147" s="63"/>
+      <c r="I147" s="68"/>
       <c r="J147" s="44"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L147" s="45"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="45"/>
       <c r="B148" s="45"/>
       <c r="C148" s="46"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="44"/>
       <c r="H148" s="46"/>
-      <c r="I148" s="63"/>
+      <c r="I148" s="68"/>
       <c r="J148" s="44"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L148" s="45"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="45"/>
       <c r="B149" s="45"/>
       <c r="C149" s="46"/>
       <c r="D149" s="44"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="44"/>
       <c r="H149" s="46"/>
-      <c r="I149" s="63"/>
+      <c r="I149" s="68"/>
       <c r="J149" s="44"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L149" s="45"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="45"/>
       <c r="B150" s="45"/>
       <c r="C150" s="46"/>
       <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="44"/>
       <c r="H150" s="46"/>
-      <c r="I150" s="63"/>
+      <c r="I150" s="68"/>
       <c r="J150" s="44"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L150" s="45"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="45"/>
       <c r="B151" s="45"/>
       <c r="C151" s="46"/>
       <c r="D151" s="44"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="44"/>
       <c r="H151" s="46"/>
-      <c r="I151" s="63"/>
+      <c r="I151" s="68"/>
       <c r="J151" s="44"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L151" s="45"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="45"/>
       <c r="B152" s="45"/>
       <c r="C152" s="46"/>
       <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="45"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="44"/>
       <c r="H152" s="46"/>
-      <c r="I152" s="63"/>
+      <c r="I152" s="68"/>
       <c r="J152" s="44"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L152" s="45"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="45"/>
       <c r="B153" s="45"/>
       <c r="C153" s="46"/>
       <c r="D153" s="44"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="44"/>
       <c r="H153" s="46"/>
-      <c r="I153" s="63"/>
+      <c r="I153" s="68"/>
       <c r="J153" s="44"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L153" s="45"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="45"/>
       <c r="B154" s="45"/>
       <c r="C154" s="46"/>
       <c r="D154" s="44"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="44"/>
       <c r="H154" s="46"/>
-      <c r="I154" s="63"/>
+      <c r="I154" s="68"/>
       <c r="J154" s="44"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L154" s="45"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="45"/>
       <c r="B155" s="45"/>
       <c r="C155" s="46"/>
       <c r="D155" s="44"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="45"/>
+      <c r="E155" s="45"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="44"/>
       <c r="H155" s="46"/>
-      <c r="I155" s="63"/>
+      <c r="I155" s="68"/>
       <c r="J155" s="44"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L155" s="45"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="45"/>
       <c r="B156" s="45"/>
       <c r="C156" s="46"/>
       <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="45"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="44"/>
       <c r="H156" s="46"/>
-      <c r="I156" s="63"/>
+      <c r="I156" s="68"/>
       <c r="J156" s="44"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L156" s="45"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="45"/>
       <c r="B157" s="45"/>
       <c r="C157" s="46"/>
       <c r="D157" s="44"/>
-      <c r="E157" s="44"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="44"/>
       <c r="H157" s="46"/>
-      <c r="I157" s="63"/>
+      <c r="I157" s="68"/>
       <c r="J157" s="44"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L157" s="45"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="45"/>
       <c r="B158" s="45"/>
       <c r="C158" s="46"/>
       <c r="D158" s="44"/>
-      <c r="E158" s="44"/>
-      <c r="F158" s="45"/>
-      <c r="G158" s="45"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="44"/>
       <c r="H158" s="46"/>
-      <c r="I158" s="63"/>
+      <c r="I158" s="68"/>
       <c r="J158" s="44"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L158" s="45"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="45"/>
       <c r="B159" s="45"/>
       <c r="C159" s="46"/>
       <c r="D159" s="44"/>
-      <c r="E159" s="44"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="45"/>
+      <c r="E159" s="45"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="46"/>
-      <c r="I159" s="63"/>
+      <c r="I159" s="68"/>
       <c r="J159" s="44"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L159" s="45"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="45"/>
       <c r="B160" s="45"/>
       <c r="C160" s="46"/>
       <c r="D160" s="44"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="45"/>
-      <c r="G160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="47"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="46"/>
-      <c r="I160" s="63"/>
+      <c r="I160" s="68"/>
       <c r="J160" s="44"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L160" s="45"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="45"/>
       <c r="B161" s="45"/>
       <c r="C161" s="46"/>
       <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="44"/>
       <c r="H161" s="46"/>
-      <c r="I161" s="63"/>
+      <c r="I161" s="68"/>
       <c r="J161" s="44"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L161" s="45"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="45"/>
       <c r="B162" s="45"/>
       <c r="C162" s="46"/>
       <c r="D162" s="44"/>
-      <c r="E162" s="44"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="45"/>
+      <c r="E162" s="45"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="44"/>
       <c r="H162" s="46"/>
-      <c r="I162" s="63"/>
+      <c r="I162" s="68"/>
       <c r="J162" s="44"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L162" s="45"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="45"/>
       <c r="B163" s="45"/>
       <c r="C163" s="46"/>
       <c r="D163" s="44"/>
-      <c r="E163" s="44"/>
-      <c r="F163" s="45"/>
-      <c r="G163" s="45"/>
+      <c r="E163" s="45"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="44"/>
       <c r="H163" s="46"/>
-      <c r="I163" s="63"/>
+      <c r="I163" s="68"/>
       <c r="J163" s="44"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L163" s="45"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="45"/>
       <c r="B164" s="45"/>
       <c r="C164" s="46"/>
       <c r="D164" s="44"/>
-      <c r="E164" s="44"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="45"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="44"/>
       <c r="H164" s="46"/>
-      <c r="I164" s="63"/>
+      <c r="I164" s="68"/>
       <c r="J164" s="44"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L164" s="45"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="45"/>
       <c r="B165" s="45"/>
       <c r="C165" s="46"/>
       <c r="D165" s="44"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="44"/>
       <c r="H165" s="46"/>
-      <c r="I165" s="63"/>
+      <c r="I165" s="68"/>
       <c r="J165" s="44"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L165" s="45"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="45"/>
       <c r="B166" s="45"/>
       <c r="C166" s="46"/>
       <c r="D166" s="44"/>
-      <c r="E166" s="44"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="45"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="44"/>
       <c r="H166" s="46"/>
-      <c r="I166" s="63"/>
+      <c r="I166" s="68"/>
       <c r="J166" s="44"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L166" s="45"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="45"/>
       <c r="B167" s="45"/>
       <c r="C167" s="46"/>
       <c r="D167" s="44"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="45"/>
-      <c r="G167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="44"/>
       <c r="H167" s="46"/>
-      <c r="I167" s="63"/>
+      <c r="I167" s="68"/>
       <c r="J167" s="44"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L167" s="45"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="45"/>
       <c r="B168" s="45"/>
       <c r="C168" s="46"/>
       <c r="D168" s="44"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="45"/>
-      <c r="G168" s="45"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="44"/>
       <c r="H168" s="46"/>
-      <c r="I168" s="63"/>
+      <c r="I168" s="68"/>
       <c r="J168" s="44"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L168" s="45"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
       <c r="C169" s="46"/>
       <c r="D169" s="44"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="45"/>
-      <c r="G169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="44"/>
       <c r="H169" s="46"/>
-      <c r="I169" s="63"/>
+      <c r="I169" s="68"/>
       <c r="J169" s="44"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L169" s="45"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
       <c r="B170" s="45"/>
       <c r="C170" s="46"/>
       <c r="D170" s="44"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="45"/>
-      <c r="G170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="47"/>
+      <c r="G170" s="44"/>
       <c r="H170" s="46"/>
-      <c r="I170" s="63"/>
+      <c r="I170" s="68"/>
       <c r="J170" s="44"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L170" s="45"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="45"/>
       <c r="B171" s="45"/>
       <c r="C171" s="46"/>
       <c r="D171" s="44"/>
-      <c r="E171" s="44"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="45"/>
+      <c r="E171" s="45"/>
+      <c r="F171" s="47"/>
+      <c r="G171" s="44"/>
       <c r="H171" s="46"/>
-      <c r="I171" s="63"/>
+      <c r="I171" s="68"/>
       <c r="J171" s="44"/>
+      <c r="L171" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="G95:G96"/>
+  <mergeCells count="109">
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L89:L94"/>
+    <mergeCell ref="I86:I94"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B119:B142"/>
+    <mergeCell ref="A119:A142"/>
+    <mergeCell ref="I119:I142"/>
+    <mergeCell ref="I112:I118"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="I10:I31"/>
+    <mergeCell ref="I33:I44"/>
+    <mergeCell ref="I45:I57"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="I78:I82"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="G89:G94"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A69:A72"/>
@@ -6090,56 +6777,39 @@
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B86:B94"/>
     <mergeCell ref="A86:A94"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="C104:C105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6173,19 +6843,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="112" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -6195,31 +6865,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="118" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="103"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="119"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -6239,7 +6909,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="94" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -6248,11 +6918,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="101">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="97" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6272,21 +6942,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="117"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98">
+      <c r="A5" s="95">
         <v>3</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="107" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6296,17 +6966,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98" t="s">
+      <c r="F5" s="102"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="122"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -6314,17 +6984,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104">
+      <c r="A7" s="98">
         <v>4</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="106" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6333,48 +7003,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="118">
+      <c r="G7" s="111">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="118">
+      <c r="I7" s="111">
         <v>630</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="104"/>
-      <c r="B8" s="120"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="118"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="99"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="98">
+      <c r="A9" s="95">
         <v>5</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="92" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -6386,26 +7056,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="F9" s="92" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="105">
+      <c r="I9" s="99">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -6415,17 +7085,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="111"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -6435,17 +7105,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="116"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="111"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="96"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -6455,17 +7125,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="116"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="111"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="111"/>
-      <c r="B13" s="116"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -6475,17 +7145,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="116"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="111"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -6495,13 +7165,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="117"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="99"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="97"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -6536,10 +7206,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98">
+      <c r="A16" s="95">
         <v>7</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="109" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -6548,140 +7218,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="105">
+      <c r="G16" s="99">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="105">
+      <c r="H16" s="102"/>
+      <c r="I16" s="99">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="98" t="s">
+      <c r="J16" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="111"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="111"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="96"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="111"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="111"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="96"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="111"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="96"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="111"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="111"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="99"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="97"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98">
+      <c r="A24" s="95">
         <v>8</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="92" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -6690,108 +7360,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="105">
+      <c r="G24" s="99">
         <v>180.56</v>
       </c>
-      <c r="H24" s="108"/>
-      <c r="I24" s="105">
+      <c r="H24" s="102"/>
+      <c r="I24" s="99">
         <v>180.56</v>
       </c>
-      <c r="J24" s="98" t="s">
+      <c r="J24" s="95" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="111"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="96"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="116"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="111"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="96"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="111"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="96"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="116"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="111"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="96"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="99"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="97"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="98">
+      <c r="A30" s="95">
         <v>16</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="92" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -6800,41 +7470,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="119" t="s">
+      <c r="F30" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="105">
+      <c r="G30" s="99">
         <v>1950</v>
       </c>
-      <c r="H30" s="108"/>
-      <c r="I30" s="105">
+      <c r="H30" s="102"/>
+      <c r="I30" s="99">
         <v>180.56</v>
       </c>
-      <c r="J30" s="98" t="s">
+      <c r="J30" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="99"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="97"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="98">
+      <c r="A32" s="95">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -6864,7 +7534,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -6922,7 +7592,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="98">
+      <c r="A35" s="95">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -6952,8 +7622,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="96"/>
+      <c r="B36" s="92" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -6980,8 +7650,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -7006,8 +7676,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="108" t="s">
+      <c r="A38" s="96"/>
+      <c r="B38" s="102" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -7032,8 +7702,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="111"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -7056,8 +7726,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -7080,8 +7750,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="111"/>
-      <c r="B41" s="108" t="s">
+      <c r="A41" s="96"/>
+      <c r="B41" s="102" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -7106,8 +7776,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -7130,8 +7800,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
-      <c r="B43" s="109"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -7154,8 +7824,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -7208,10 +7878,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="98">
+      <c r="A46" s="95">
         <v>21</v>
       </c>
-      <c r="B46" s="119" t="s">
+      <c r="B46" s="92" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -7236,8 +7906,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="116"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -7260,8 +7930,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="116"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -7284,8 +7954,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -7306,8 +7976,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="116"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -7317,7 +7987,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="119" t="s">
+      <c r="F50" s="92" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -7330,8 +8000,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="111"/>
-      <c r="B51" s="116"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -7341,7 +8011,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="116"/>
+      <c r="F51" s="94"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -7352,8 +8022,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="99"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="93"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -7363,7 +8033,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="117"/>
+      <c r="F52" s="93"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -7374,10 +8044,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="98">
+      <c r="A53" s="95">
         <v>22</v>
       </c>
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="92" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -7389,7 +8059,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="119" t="s">
+      <c r="F53" s="92" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -7402,8 +8072,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="116"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="94"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -7413,7 +8083,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="116"/>
+      <c r="F54" s="94"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -7424,8 +8094,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="116"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -7435,7 +8105,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="116"/>
+      <c r="F55" s="94"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -7446,8 +8116,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="111"/>
-      <c r="B56" s="116"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -7457,7 +8127,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="116"/>
+      <c r="F56" s="94"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -7468,8 +8138,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="111"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -7479,7 +8149,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="116"/>
+      <c r="F57" s="94"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -7490,8 +8160,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="111"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -7501,7 +8171,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="117"/>
+      <c r="F58" s="93"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -7512,10 +8182,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="98">
+      <c r="A59" s="95">
         <v>23</v>
       </c>
-      <c r="B59" s="119" t="s">
+      <c r="B59" s="92" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -7540,8 +8210,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="111"/>
-      <c r="B60" s="116"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -7564,8 +8234,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="111"/>
-      <c r="B61" s="116"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -7588,8 +8258,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="111"/>
-      <c r="B62" s="116"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="94"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -7612,8 +8282,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="111"/>
-      <c r="B63" s="116"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -7623,17 +8293,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="119"/>
+      <c r="F63" s="92"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="108"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="98"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="95"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="111"/>
-      <c r="B64" s="116"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -7643,17 +8313,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="116"/>
+      <c r="F64" s="94"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="109"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="111"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="96"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="111"/>
-      <c r="B65" s="116"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="94"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -7663,17 +8333,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="116"/>
+      <c r="F65" s="94"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="109"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="111"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="96"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="111"/>
-      <c r="B66" s="116"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="94"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -7683,17 +8353,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="117"/>
+      <c r="F66" s="93"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="110"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="99"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="97"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="111"/>
-      <c r="B67" s="116"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -7703,23 +8373,23 @@
       <c r="E67" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="108" t="s">
+      <c r="F67" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="105">
+      <c r="G67" s="99">
         <v>67.959999999999994</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="105">
+      <c r="I67" s="99">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="98" t="s">
+      <c r="J67" s="95" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="111"/>
-      <c r="B68" s="116"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -7729,15 +8399,15 @@
       <c r="E68" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="110"/>
-      <c r="G68" s="107"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="101"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="99"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="97"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="111"/>
-      <c r="B69" s="116"/>
+      <c r="A69" s="96"/>
+      <c r="B69" s="94"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -7748,8 +8418,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="111"/>
-      <c r="B70" s="116"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -7762,8 +8432,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="111"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -7782,8 +8452,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="111"/>
-      <c r="B72" s="116"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -7802,8 +8472,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="111"/>
-      <c r="B73" s="116"/>
+      <c r="A73" s="96"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -7822,8 +8492,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="111"/>
-      <c r="B74" s="116"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -7842,8 +8512,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="111"/>
-      <c r="B75" s="116"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="94"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -7862,8 +8532,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="111"/>
-      <c r="B76" s="116"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -7886,10 +8556,10 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="104">
+      <c r="A77" s="98">
         <v>24</v>
       </c>
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="105" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -7916,8 +8586,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="104"/>
-      <c r="B78" s="125"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="105"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -7940,8 +8610,8 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="104"/>
-      <c r="B79" s="125"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -7964,8 +8634,8 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="104"/>
-      <c r="B80" s="125"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="105"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -7988,8 +8658,8 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="104"/>
-      <c r="B81" s="125"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -8012,8 +8682,8 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="104"/>
-      <c r="B82" s="125"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="105"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -8036,8 +8706,8 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="104"/>
-      <c r="B83" s="125"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="105"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -8060,8 +8730,8 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="104"/>
-      <c r="B84" s="125"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="105"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -8084,8 +8754,8 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="104"/>
-      <c r="B85" s="125"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -8100,10 +8770,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="98">
+      <c r="A86" s="95">
         <v>25</v>
       </c>
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="92" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -8128,8 +8798,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="111"/>
-      <c r="B87" s="116"/>
+      <c r="A87" s="96"/>
+      <c r="B87" s="94"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -8152,8 +8822,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="111"/>
-      <c r="B88" s="116"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="94"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -8168,8 +8838,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="111"/>
-      <c r="B89" s="116"/>
+      <c r="A89" s="96"/>
+      <c r="B89" s="94"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -8184,8 +8854,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="111"/>
-      <c r="B90" s="116"/>
+      <c r="A90" s="96"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -8200,8 +8870,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="99"/>
-      <c r="B91" s="117"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="93"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -8216,10 +8886,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="111">
+      <c r="A92" s="96">
         <v>26</v>
       </c>
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="94" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -8236,8 +8906,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="111"/>
-      <c r="B93" s="116"/>
+      <c r="A93" s="96"/>
+      <c r="B93" s="94"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -8260,8 +8930,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="111"/>
-      <c r="B94" s="116"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="94"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -8343,7 +9013,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="119" t="s">
+      <c r="B97" s="92" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -8369,7 +9039,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="117"/>
+      <c r="B98" s="93"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -8453,7 +9123,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="119" t="s">
+      <c r="B101" s="92" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -8481,7 +9151,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="117"/>
+      <c r="B102" s="93"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -8507,7 +9177,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="119" t="s">
+      <c r="B103" s="92" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -8535,7 +9205,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="116"/>
+      <c r="B104" s="94"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -8561,7 +9231,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="116"/>
+      <c r="B105" s="94"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -8585,7 +9255,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="116"/>
+      <c r="B106" s="94"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -8609,7 +9279,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="116"/>
+      <c r="B107" s="94"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -8633,7 +9303,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="116"/>
+      <c r="B108" s="94"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -8657,7 +9327,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="116"/>
+      <c r="B109" s="94"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -8679,7 +9349,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="117"/>
+      <c r="B110" s="93"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -8811,6 +9481,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:B110"/>
     <mergeCell ref="J63:J66"/>
@@ -8827,75 +9566,6 @@
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="J67:J68"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I16:I23"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9266,13 +9936,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -9478,28 +10148,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="129" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="127"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="130"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -9509,9 +10179,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="128"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F988DE08-A5B9-4398-96A5-553B30F01458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C5FE2-3206-4C9E-9E77-DFD0CE7295BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="514">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1961,6 +1961,106 @@
   </si>
   <si>
     <t>中通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x1#平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控摄像机电源线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕毛扫把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插板插头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插板插头插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插板电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2.5#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神火电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700mAh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房下水热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤火炉盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生料带、电胶布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2530,14 +2630,113 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
@@ -2545,10 +2744,55 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2560,129 +2804,90 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2706,111 +2911,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3094,11 +3194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O156" sqref="O156"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L220" sqref="L220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3134,8 +3234,8 @@
         <v>337</v>
       </c>
       <c r="F1" s="66">
-        <f>SUM(F2:F171)</f>
-        <v>35911.71</v>
+        <f>SUM(F2:F172)</f>
+        <v>37373.280000000006</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>340</v>
@@ -3149,19 +3249,19 @@
       <c r="J1" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="160">
-        <f>SUM(L2:L800)</f>
-        <v>13672</v>
+      <c r="L1" s="85">
+        <f>SUM(L2:L801)</f>
+        <v>13934.23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="70">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="100" t="s">
         <v>331</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -3173,13 +3273,13 @@
       <c r="F2" s="52">
         <v>1200</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="100" t="s">
         <v>332</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="89">
+      <c r="I2" s="111">
         <f>SUM(F2:F3)</f>
         <v>2400</v>
       </c>
@@ -3187,9 +3287,9 @@
       <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="75"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="46" t="s">
         <v>80</v>
       </c>
@@ -3199,149 +3299,149 @@
       <c r="F3" s="47">
         <v>1200</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="112"/>
       <c r="J3" s="44"/>
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="132">
+      <c r="A4" s="101">
         <v>2</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="102" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="134">
+      <c r="E4" s="71">
         <v>1</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="72">
         <v>720</v>
       </c>
-      <c r="G4" s="143" t="s">
+      <c r="G4" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="147" t="s">
+      <c r="H4" s="113" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="148">
+      <c r="I4" s="114">
         <f>SUM(F4:F9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="133"/>
+      <c r="J4" s="107"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="138" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="134">
+      <c r="E5" s="71">
         <v>1</v>
       </c>
-      <c r="F5" s="135">
+      <c r="F5" s="72">
         <v>720</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="150"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="108"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="138" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="71">
         <v>1</v>
       </c>
-      <c r="F6" s="135">
+      <c r="F6" s="72">
         <v>468</v>
       </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="150"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="108"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="138" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="134">
+      <c r="E7" s="71">
         <v>1</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="72">
         <v>432</v>
       </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="150"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="108"/>
       <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="138" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="71">
         <v>1</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F8" s="72">
         <v>365</v>
       </c>
-      <c r="G8" s="149"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="150"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="108"/>
       <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="138" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="71">
         <v>1</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="72">
         <v>475</v>
       </c>
-      <c r="G9" s="144"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="141"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="109"/>
       <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="69">
+      <c r="A10" s="95">
         <v>3</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="93" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -3350,45 +3450,45 @@
       <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="110">
         <v>630</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="105" t="s">
         <v>327</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="88">
         <f>SUM(F10:F31)</f>
         <v>4803.82</v>
       </c>
-      <c r="J10" s="72"/>
+      <c r="J10" s="105"/>
       <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="75"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="45">
         <v>1</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="73"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="73"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="106"/>
       <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="74" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="93" t="s">
         <v>347</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -3397,140 +3497,140 @@
       <c r="E12" s="60">
         <v>1</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="88">
         <v>1387.81</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="72"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="105"/>
       <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="61" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="60">
         <v>1</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="83"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="117"/>
       <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="79"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="61" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="83"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="117"/>
       <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="61" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="60">
         <v>2</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="83"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="117"/>
       <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="79"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="61" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="60">
         <v>2</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="83"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="117"/>
       <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="79"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="61" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="60">
         <v>4</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="83"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="117"/>
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="61" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="60">
         <v>5</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="83"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="117"/>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="75"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="61" t="s">
         <v>126</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="73"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="106"/>
       <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="74" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="93" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="61" t="s">
@@ -3539,108 +3639,108 @@
       <c r="E20" s="60">
         <v>1</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="88">
         <v>180.56</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="74" t="s">
+      <c r="H20" s="93" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="88"/>
-      <c r="J20" s="72"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="105"/>
       <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="61" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="60">
         <v>2</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="83"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="117"/>
       <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="79"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="61" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="60">
         <v>2</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="83"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="117"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="79"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="61" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="83"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="117"/>
       <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="79"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="61" t="s">
         <v>136</v>
       </c>
       <c r="E24" s="60">
         <v>2</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="83"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="117"/>
       <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="61" t="s">
         <v>137</v>
       </c>
       <c r="E25" s="60">
         <v>1</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="73"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="106"/>
       <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="86" t="s">
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="115" t="s">
         <v>436</v>
       </c>
       <c r="D26" s="61" t="s">
@@ -3649,39 +3749,39 @@
       <c r="E26" s="60">
         <v>1</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="88">
         <v>1950</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="93" t="s">
         <v>432</v>
       </c>
-      <c r="I26" s="88"/>
+      <c r="I26" s="98"/>
       <c r="J26" s="44"/>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="87"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="61" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="60">
         <v>1</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="88"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="98"/>
       <c r="J27" s="44"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="43" t="s">
         <v>433</v>
       </c>
@@ -3700,13 +3800,13 @@
       <c r="H28" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="88"/>
+      <c r="I28" s="98"/>
       <c r="J28" s="44"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="46" t="s">
         <v>358</v>
       </c>
@@ -3725,13 +3825,13 @@
       <c r="H29" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="88"/>
+      <c r="I29" s="98"/>
       <c r="J29" s="44"/>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="46" t="s">
         <v>348</v>
       </c>
@@ -3750,13 +3850,13 @@
       <c r="H30" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="88"/>
+      <c r="I30" s="98"/>
       <c r="J30" s="44"/>
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="46" t="s">
         <v>349</v>
       </c>
@@ -3775,46 +3875,46 @@
       <c r="H31" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="85"/>
+      <c r="I31" s="99"/>
       <c r="J31" s="44"/>
       <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="134">
+      <c r="A32" s="71">
         <v>4</v>
       </c>
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="D32" s="138" t="s">
+      <c r="D32" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="134">
+      <c r="E32" s="71">
         <v>1</v>
       </c>
-      <c r="F32" s="135">
+      <c r="F32" s="72">
         <v>75</v>
       </c>
-      <c r="G32" s="136" t="s">
+      <c r="G32" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="136" t="s">
+      <c r="H32" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="135">
+      <c r="I32" s="72">
         <v>75</v>
       </c>
-      <c r="J32" s="138"/>
+      <c r="J32" s="75"/>
       <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="69">
+      <c r="A33" s="95">
         <v>5</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="95" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="46" t="s">
@@ -3833,7 +3933,7 @@
         <v>174</v>
       </c>
       <c r="H33" s="46"/>
-      <c r="I33" s="84">
+      <c r="I33" s="88">
         <f>SUM(F33:F44)</f>
         <v>875.06999999999994</v>
       </c>
@@ -3841,8 +3941,8 @@
       <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="46" t="s">
         <v>323</v>
       </c>
@@ -3859,13 +3959,13 @@
         <v>166</v>
       </c>
       <c r="H34" s="46"/>
-      <c r="I34" s="70"/>
+      <c r="I34" s="89"/>
       <c r="J34" s="44"/>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="46" t="s">
         <v>323</v>
       </c>
@@ -3878,17 +3978,17 @@
       <c r="F35" s="47">
         <v>11.89</v>
       </c>
-      <c r="G35" s="74" t="s">
+      <c r="G35" s="93" t="s">
         <v>170</v>
       </c>
       <c r="H35" s="46"/>
-      <c r="I35" s="70"/>
+      <c r="I35" s="89"/>
       <c r="J35" s="44"/>
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="46" t="s">
         <v>437</v>
       </c>
@@ -3901,15 +4001,15 @@
       <c r="F36" s="47">
         <v>65.069999999999993</v>
       </c>
-      <c r="G36" s="79"/>
+      <c r="G36" s="100"/>
       <c r="H36" s="46"/>
-      <c r="I36" s="70"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="44"/>
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="46" t="s">
         <v>437</v>
       </c>
@@ -3922,15 +4022,15 @@
       <c r="F37" s="47">
         <v>20.09</v>
       </c>
-      <c r="G37" s="79"/>
+      <c r="G37" s="100"/>
       <c r="H37" s="46"/>
-      <c r="I37" s="70"/>
+      <c r="I37" s="89"/>
       <c r="J37" s="44"/>
       <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="46" t="s">
         <v>437</v>
       </c>
@@ -3943,15 +4043,15 @@
       <c r="F38" s="47">
         <v>17.7</v>
       </c>
-      <c r="G38" s="79"/>
+      <c r="G38" s="100"/>
       <c r="H38" s="46"/>
-      <c r="I38" s="70"/>
+      <c r="I38" s="89"/>
       <c r="J38" s="44"/>
       <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="46" t="s">
         <v>437</v>
       </c>
@@ -3964,15 +4064,15 @@
       <c r="F39" s="47">
         <v>7.57</v>
       </c>
-      <c r="G39" s="79"/>
+      <c r="G39" s="100"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="70"/>
+      <c r="I39" s="89"/>
       <c r="J39" s="44"/>
       <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="46" t="s">
         <v>437</v>
       </c>
@@ -3985,15 +4085,15 @@
       <c r="F40" s="47">
         <v>32.619999999999997</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="100"/>
       <c r="H40" s="46"/>
-      <c r="I40" s="70"/>
+      <c r="I40" s="89"/>
       <c r="J40" s="44"/>
       <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="46" t="s">
         <v>437</v>
       </c>
@@ -4006,15 +4106,15 @@
       <c r="F41" s="47">
         <v>7.82</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="46"/>
-      <c r="I41" s="70"/>
+      <c r="I41" s="89"/>
       <c r="J41" s="44"/>
       <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="46" t="s">
         <v>323</v>
       </c>
@@ -4027,15 +4127,15 @@
       <c r="F42" s="58">
         <v>128.75</v>
       </c>
-      <c r="G42" s="75"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="46"/>
-      <c r="I42" s="70"/>
+      <c r="I42" s="89"/>
       <c r="J42" s="44"/>
       <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="46" t="s">
         <v>438</v>
       </c>
@@ -4052,13 +4152,13 @@
         <v>173</v>
       </c>
       <c r="H43" s="46"/>
-      <c r="I43" s="70"/>
+      <c r="I43" s="89"/>
       <c r="J43" s="44"/>
       <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="46" t="s">
         <v>350</v>
       </c>
@@ -4075,307 +4175,307 @@
         <v>179</v>
       </c>
       <c r="H44" s="46"/>
-      <c r="I44" s="71"/>
+      <c r="I44" s="90"/>
       <c r="J44" s="44"/>
       <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="132">
+      <c r="A45" s="101">
         <v>6</v>
       </c>
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="136" t="s">
+      <c r="C45" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="D45" s="138" t="s">
+      <c r="D45" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="134" t="s">
+      <c r="E45" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="135">
+      <c r="F45" s="72">
         <v>15.41</v>
       </c>
-      <c r="G45" s="136" t="s">
+      <c r="G45" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="H45" s="136"/>
-      <c r="I45" s="145">
+      <c r="H45" s="73"/>
+      <c r="I45" s="91">
         <f>SUM(F45:F57)</f>
         <v>616.48</v>
       </c>
-      <c r="J45" s="138"/>
+      <c r="J45" s="75"/>
       <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="140"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="136" t="s">
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="D46" s="138" t="s">
+      <c r="D46" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="134" t="s">
+      <c r="E46" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="135">
+      <c r="F46" s="72">
         <v>15.7</v>
       </c>
-      <c r="G46" s="136" t="s">
+      <c r="G46" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="H46" s="136"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="138"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="75"/>
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="140"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="136" t="s">
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="D47" s="138" t="s">
+      <c r="D47" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="134" t="s">
+      <c r="E47" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="135">
+      <c r="F47" s="72">
         <v>101.2</v>
       </c>
-      <c r="G47" s="136" t="s">
+      <c r="G47" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="H47" s="136"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="138"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="75"/>
       <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="140"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="136" t="s">
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="D48" s="152" t="s">
+      <c r="D48" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="153" t="s">
+      <c r="E48" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="153">
+      <c r="F48" s="82">
         <v>17.16</v>
       </c>
-      <c r="G48" s="133" t="s">
+      <c r="G48" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="H48" s="136"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="138"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="75"/>
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="140"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="136" t="s">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="D49" s="154" t="s">
+      <c r="D49" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="153" t="s">
+      <c r="E49" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="153">
+      <c r="F49" s="82">
         <v>19.43</v>
       </c>
-      <c r="G49" s="150"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="138"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="75"/>
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="140"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="136" t="s">
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="D50" s="154" t="s">
+      <c r="D50" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="153" t="s">
+      <c r="E50" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="153">
+      <c r="F50" s="82">
         <v>14.29</v>
       </c>
-      <c r="G50" s="150"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="138"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="75"/>
       <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="140"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="136" t="s">
+      <c r="A51" s="96"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="D51" s="154" t="s">
+      <c r="D51" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="E51" s="153" t="s">
+      <c r="E51" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="82">
         <v>15.78</v>
       </c>
-      <c r="G51" s="141"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="138"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="75"/>
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="140"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="151" t="s">
+      <c r="A52" s="96"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="D52" s="136" t="s">
+      <c r="D52" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="134" t="s">
+      <c r="E52" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="135">
+      <c r="F52" s="72">
         <v>277.45999999999998</v>
       </c>
-      <c r="G52" s="136" t="s">
+      <c r="G52" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="H52" s="136"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="138"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="75"/>
       <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="140"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="136" t="s">
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="138" t="s">
+      <c r="D53" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="134" t="s">
+      <c r="E53" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="135">
+      <c r="F53" s="72">
         <v>22.67</v>
       </c>
-      <c r="G53" s="136" t="s">
+      <c r="G53" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="136"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="138"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="75"/>
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="140"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="136" t="s">
+      <c r="A54" s="96"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="D54" s="138" t="s">
+      <c r="D54" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="134" t="s">
+      <c r="E54" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="135">
+      <c r="F54" s="72">
         <v>73.290000000000006</v>
       </c>
-      <c r="G54" s="136" t="s">
+      <c r="G54" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="H54" s="136"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="138"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="75"/>
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="140"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="143" t="s">
+      <c r="A55" s="96"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="102" t="s">
         <v>353</v>
       </c>
-      <c r="D55" s="138" t="s">
+      <c r="D55" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="134">
+      <c r="E55" s="71">
         <v>8</v>
       </c>
-      <c r="F55" s="135">
+      <c r="F55" s="72">
         <v>12.55</v>
       </c>
-      <c r="G55" s="143" t="s">
+      <c r="G55" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="H55" s="136"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="138"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="75"/>
       <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="140"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="138" t="s">
+      <c r="A56" s="96"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="134">
+      <c r="E56" s="71">
         <v>6</v>
       </c>
-      <c r="F56" s="135">
+      <c r="F56" s="72">
         <v>8.84</v>
       </c>
-      <c r="G56" s="149"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="138"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="75"/>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="140"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="138" t="s">
+      <c r="A57" s="96"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="134">
+      <c r="E57" s="71">
         <v>8</v>
       </c>
-      <c r="F57" s="135">
+      <c r="F57" s="72">
         <v>22.7</v>
       </c>
-      <c r="G57" s="144"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="138"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="75"/>
       <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="69">
+      <c r="A58" s="95">
         <v>7</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="95" t="s">
         <v>208</v>
       </c>
       <c r="C58" s="46" t="s">
@@ -4394,7 +4494,7 @@
         <v>214</v>
       </c>
       <c r="H58" s="46"/>
-      <c r="I58" s="69">
+      <c r="I58" s="95">
         <f>SUM(F58:F62)</f>
         <v>908.84999999999991</v>
       </c>
@@ -4402,8 +4502,8 @@
       <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="89"/>
       <c r="C59" s="46" t="s">
         <v>440</v>
       </c>
@@ -4420,13 +4520,13 @@
         <v>215</v>
       </c>
       <c r="H59" s="46"/>
-      <c r="I59" s="70"/>
+      <c r="I59" s="89"/>
       <c r="J59" s="44"/>
       <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="89"/>
       <c r="C60" s="46" t="s">
         <v>206</v>
       </c>
@@ -4443,13 +4543,13 @@
         <v>209</v>
       </c>
       <c r="H60" s="46"/>
-      <c r="I60" s="70"/>
+      <c r="I60" s="89"/>
       <c r="J60" s="44"/>
       <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="46" t="s">
         <v>354</v>
       </c>
@@ -4466,13 +4566,13 @@
         <v>221</v>
       </c>
       <c r="H61" s="46"/>
-      <c r="I61" s="70"/>
+      <c r="I61" s="89"/>
       <c r="J61" s="44"/>
       <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="46" t="s">
         <v>355</v>
       </c>
@@ -4489,156 +4589,156 @@
         <v>211</v>
       </c>
       <c r="H62" s="46"/>
-      <c r="I62" s="71"/>
+      <c r="I62" s="90"/>
       <c r="J62" s="44"/>
       <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="132">
+      <c r="A63" s="101">
         <v>8</v>
       </c>
-      <c r="B63" s="132" t="s">
+      <c r="B63" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="136" t="s">
+      <c r="C63" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="D63" s="138" t="s">
+      <c r="D63" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="E63" s="134" t="s">
+      <c r="E63" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F63" s="135">
+      <c r="F63" s="72">
         <v>15.29</v>
       </c>
-      <c r="G63" s="136" t="s">
+      <c r="G63" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="H63" s="136"/>
-      <c r="I63" s="145">
+      <c r="H63" s="73"/>
+      <c r="I63" s="91">
         <f>SUM(F63:F68)</f>
         <v>170.51999999999998</v>
       </c>
-      <c r="J63" s="138"/>
+      <c r="J63" s="75"/>
       <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="140"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="136" t="s">
+      <c r="A64" s="96"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="138" t="s">
+      <c r="D64" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="E64" s="134" t="s">
+      <c r="E64" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="135">
+      <c r="F64" s="72">
         <v>56.65</v>
       </c>
-      <c r="G64" s="136" t="s">
+      <c r="G64" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="H64" s="136"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="138"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="75"/>
       <c r="L64" s="45"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="140"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="136" t="s">
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="D65" s="136" t="s">
+      <c r="D65" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="E65" s="134" t="s">
+      <c r="E65" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="F65" s="135">
+      <c r="F65" s="72">
         <v>41.2</v>
       </c>
-      <c r="G65" s="136" t="s">
+      <c r="G65" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="H65" s="136"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="138"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="75"/>
       <c r="L65" s="45"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="140"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="136" t="s">
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="D66" s="136" t="s">
+      <c r="D66" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="E66" s="134" t="s">
+      <c r="E66" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="135">
+      <c r="F66" s="72">
         <v>18</v>
       </c>
-      <c r="G66" s="136" t="s">
+      <c r="G66" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="H66" s="136"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="138"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="75"/>
       <c r="L66" s="45"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="140"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="143" t="s">
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="D67" s="136" t="s">
+      <c r="D67" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="E67" s="134" t="s">
+      <c r="E67" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="155">
+      <c r="F67" s="84">
         <v>20.78</v>
       </c>
-      <c r="G67" s="143" t="s">
+      <c r="G67" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="H67" s="136"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="138"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="75"/>
       <c r="L67" s="45"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="142"/>
-      <c r="B68" s="142"/>
-      <c r="C68" s="144"/>
-      <c r="D68" s="136" t="s">
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="E68" s="134" t="s">
+      <c r="E68" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F68" s="135">
+      <c r="F68" s="72">
         <v>18.600000000000001</v>
       </c>
-      <c r="G68" s="144"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="142"/>
-      <c r="J68" s="138"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="75"/>
       <c r="L68" s="45"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="69">
+      <c r="A69" s="95">
         <v>9</v>
       </c>
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="95" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4657,7 +4757,7 @@
         <v>236</v>
       </c>
       <c r="H69" s="46"/>
-      <c r="I69" s="84">
+      <c r="I69" s="88">
         <f>SUM(F69:F72)</f>
         <v>161.44</v>
       </c>
@@ -4665,9 +4765,9 @@
       <c r="L69" s="45"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="74" t="s">
+      <c r="A70" s="89"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="93" t="s">
         <v>359</v>
       </c>
       <c r="D70" s="46" t="s">
@@ -4679,18 +4779,18 @@
       <c r="F70" s="47">
         <v>4.12</v>
       </c>
-      <c r="G70" s="74" t="s">
+      <c r="G70" s="93" t="s">
         <v>230</v>
       </c>
       <c r="H70" s="46"/>
-      <c r="I70" s="70"/>
+      <c r="I70" s="89"/>
       <c r="J70" s="44"/>
       <c r="L70" s="45"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="79"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="100"/>
       <c r="D71" s="46" t="s">
         <v>227</v>
       </c>
@@ -4700,16 +4800,16 @@
       <c r="F71" s="47">
         <v>21.12</v>
       </c>
-      <c r="G71" s="79"/>
+      <c r="G71" s="100"/>
       <c r="H71" s="46"/>
-      <c r="I71" s="70"/>
+      <c r="I71" s="89"/>
       <c r="J71" s="44"/>
       <c r="L71" s="45"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="75"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="46" t="s">
         <v>231</v>
       </c>
@@ -4719,70 +4819,70 @@
       <c r="F72" s="47">
         <v>30.12</v>
       </c>
-      <c r="G72" s="75"/>
+      <c r="G72" s="94"/>
       <c r="H72" s="46"/>
-      <c r="I72" s="71"/>
+      <c r="I72" s="90"/>
       <c r="J72" s="44"/>
       <c r="L72" s="45"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="132">
+      <c r="A73" s="101">
         <v>10</v>
       </c>
-      <c r="B73" s="132" t="s">
+      <c r="B73" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="136" t="s">
+      <c r="C73" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="D73" s="138" t="s">
+      <c r="D73" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="134" t="s">
+      <c r="E73" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="135">
+      <c r="F73" s="72">
         <v>210</v>
       </c>
-      <c r="G73" s="138" t="s">
+      <c r="G73" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="H73" s="136"/>
-      <c r="I73" s="145">
+      <c r="H73" s="73"/>
+      <c r="I73" s="91">
         <f>SUM(F73:F74)</f>
         <v>487.9</v>
       </c>
-      <c r="J73" s="138"/>
+      <c r="J73" s="75"/>
       <c r="L73" s="45"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="142"/>
-      <c r="B74" s="142"/>
-      <c r="C74" s="136" t="s">
+      <c r="A74" s="97"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="73" t="s">
         <v>361</v>
       </c>
-      <c r="D74" s="138" t="s">
+      <c r="D74" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="E74" s="134" t="s">
+      <c r="E74" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="135">
+      <c r="F74" s="72">
         <v>277.89999999999998</v>
       </c>
-      <c r="G74" s="136" t="s">
+      <c r="G74" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H74" s="136"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="138"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="75"/>
       <c r="L74" s="45"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="69">
+      <c r="A75" s="95">
         <v>11</v>
       </c>
-      <c r="B75" s="69" t="s">
+      <c r="B75" s="95" t="s">
         <v>265</v>
       </c>
       <c r="C75" s="46" t="s">
@@ -4797,11 +4897,11 @@
       <c r="F75" s="47">
         <v>65.760000000000005</v>
       </c>
-      <c r="G75" s="72" t="s">
+      <c r="G75" s="105" t="s">
         <v>266</v>
       </c>
       <c r="H75" s="46"/>
-      <c r="I75" s="84">
+      <c r="I75" s="88">
         <f>SUM(F75:F77)</f>
         <v>285.76</v>
       </c>
@@ -4809,8 +4909,8 @@
       <c r="L75" s="45"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="89"/>
       <c r="C76" s="46"/>
       <c r="D76" s="44" t="s">
         <v>149</v>
@@ -4819,15 +4919,15 @@
         <v>119</v>
       </c>
       <c r="F76" s="45"/>
-      <c r="G76" s="73"/>
+      <c r="G76" s="106"/>
       <c r="H76" s="46"/>
-      <c r="I76" s="70"/>
+      <c r="I76" s="89"/>
       <c r="J76" s="44"/>
       <c r="L76" s="45"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="44" t="s">
         <v>263</v>
       </c>
@@ -4844,142 +4944,142 @@
         <v>362</v>
       </c>
       <c r="H77" s="46"/>
-      <c r="I77" s="71"/>
+      <c r="I77" s="90"/>
       <c r="J77" s="44"/>
       <c r="L77" s="45"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="132">
+      <c r="A78" s="101">
         <v>12</v>
       </c>
-      <c r="B78" s="132" t="s">
+      <c r="B78" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="C78" s="136" t="s">
+      <c r="C78" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D78" s="138" t="s">
+      <c r="D78" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="E78" s="134" t="s">
+      <c r="E78" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="F78" s="135">
+      <c r="F78" s="72">
         <v>2340</v>
       </c>
-      <c r="G78" s="136" t="s">
+      <c r="G78" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="H78" s="136"/>
-      <c r="I78" s="145">
+      <c r="H78" s="73"/>
+      <c r="I78" s="91">
         <f>SUM(F78:F82)</f>
         <v>3766.7900000000004</v>
       </c>
-      <c r="J78" s="138"/>
+      <c r="J78" s="75"/>
       <c r="L78" s="45"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="140"/>
-      <c r="B79" s="140"/>
-      <c r="C79" s="136" t="s">
+      <c r="A79" s="96"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="73" t="s">
         <v>363</v>
       </c>
-      <c r="D79" s="138" t="s">
+      <c r="D79" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="E79" s="134" t="s">
+      <c r="E79" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="F79" s="135">
+      <c r="F79" s="72">
         <v>851.72</v>
       </c>
-      <c r="G79" s="136" t="s">
+      <c r="G79" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="H79" s="136"/>
-      <c r="I79" s="140"/>
-      <c r="J79" s="138"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="96"/>
+      <c r="J79" s="75"/>
       <c r="L79" s="45"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="140"/>
-      <c r="B80" s="140"/>
-      <c r="C80" s="136" t="s">
+      <c r="A80" s="96"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="D80" s="138" t="s">
+      <c r="D80" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="E80" s="134" t="s">
+      <c r="E80" s="71" t="s">
         <v>311</v>
       </c>
-      <c r="F80" s="135">
+      <c r="F80" s="72">
         <v>150</v>
       </c>
-      <c r="G80" s="136" t="s">
+      <c r="G80" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="H80" s="136"/>
-      <c r="I80" s="140"/>
-      <c r="J80" s="138"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="96"/>
+      <c r="J80" s="75"/>
       <c r="L80" s="45"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="140"/>
-      <c r="B81" s="140"/>
-      <c r="C81" s="136" t="s">
+      <c r="A81" s="96"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="D81" s="138" t="s">
+      <c r="D81" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="E81" s="134" t="s">
+      <c r="E81" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="F81" s="135">
+      <c r="F81" s="72">
         <v>152.07</v>
       </c>
-      <c r="G81" s="136" t="s">
+      <c r="G81" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="H81" s="136"/>
-      <c r="I81" s="140"/>
-      <c r="J81" s="138"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="75"/>
       <c r="L81" s="45"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="142"/>
-      <c r="B82" s="142"/>
-      <c r="C82" s="138" t="s">
+      <c r="A82" s="97"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="D82" s="138" t="s">
+      <c r="D82" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="E82" s="134" t="s">
+      <c r="E82" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="F82" s="135">
+      <c r="F82" s="72">
         <v>273</v>
       </c>
-      <c r="G82" s="138" t="s">
+      <c r="G82" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="H82" s="136" t="s">
+      <c r="H82" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="I82" s="142"/>
-      <c r="J82" s="138"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="75"/>
       <c r="L82" s="45"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="69">
+      <c r="A83" s="95">
         <v>13</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="130" t="s">
+      <c r="C83" s="121" t="s">
         <v>273</v>
       </c>
       <c r="D83" s="44" t="s">
@@ -4988,68 +5088,68 @@
       <c r="E83" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F83" s="129">
+      <c r="F83" s="70">
         <v>2500</v>
       </c>
-      <c r="G83" s="74" t="s">
+      <c r="G83" s="93" t="s">
         <v>364</v>
       </c>
       <c r="H83" s="46"/>
-      <c r="I83" s="84">
+      <c r="I83" s="88">
         <f>SUM(F83:F84)</f>
         <v>5706</v>
       </c>
       <c r="J83" s="44"/>
-      <c r="L83" s="161">
+      <c r="L83" s="86">
         <f>SUM(F83:F84)</f>
         <v>5706</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="131"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="123"/>
       <c r="D84" s="44" t="s">
         <v>275</v>
       </c>
       <c r="E84" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F84" s="129">
+      <c r="F84" s="70">
         <v>3206</v>
       </c>
-      <c r="G84" s="75"/>
+      <c r="G84" s="94"/>
       <c r="H84" s="46"/>
-      <c r="I84" s="71"/>
+      <c r="I84" s="90"/>
       <c r="J84" s="44"/>
-      <c r="L84" s="162"/>
+      <c r="L84" s="87"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="134">
+      <c r="A85" s="71">
         <v>14</v>
       </c>
-      <c r="B85" s="134" t="s">
+      <c r="B85" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="136" t="s">
+      <c r="C85" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="D85" s="136"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="135"/>
-      <c r="G85" s="138" t="s">
+      <c r="D85" s="73"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="H85" s="136"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="138"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="75"/>
       <c r="L85" s="45"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="69">
+      <c r="A86" s="95">
         <v>15</v>
       </c>
-      <c r="B86" s="69" t="s">
+      <c r="B86" s="95" t="s">
         <v>284</v>
       </c>
       <c r="C86" s="54" t="s">
@@ -5067,7 +5167,7 @@
       <c r="G86" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="I86" s="84">
+      <c r="I86" s="88">
         <f>SUM(F86:F94)</f>
         <v>6169.67</v>
       </c>
@@ -5075,8 +5175,8 @@
       <c r="L86" s="45"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="89"/>
       <c r="C87" s="46" t="s">
         <v>358</v>
       </c>
@@ -5093,13 +5193,13 @@
         <v>285</v>
       </c>
       <c r="H87" s="46"/>
-      <c r="I87" s="70"/>
+      <c r="I87" s="89"/>
       <c r="J87" s="44"/>
       <c r="L87" s="45"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="89"/>
       <c r="C88" s="46" t="s">
         <v>286</v>
       </c>
@@ -5116,14 +5216,14 @@
         <v>288</v>
       </c>
       <c r="H88" s="46"/>
-      <c r="I88" s="70"/>
+      <c r="I88" s="89"/>
       <c r="J88" s="44"/>
       <c r="L88" s="45"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="130" t="s">
+      <c r="A89" s="89"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="121" t="s">
         <v>273</v>
       </c>
       <c r="D89" s="44" t="s">
@@ -5132,86 +5232,86 @@
       <c r="E89" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F89" s="129">
+      <c r="F89" s="70">
         <v>400</v>
       </c>
-      <c r="G89" s="74" t="s">
+      <c r="G89" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="I89" s="70"/>
+      <c r="I89" s="89"/>
       <c r="J89" s="44"/>
-      <c r="L89" s="161">
+      <c r="L89" s="86">
         <f>SUM(F89:F94)</f>
         <v>5282</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="159"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="122"/>
       <c r="D90" s="44" t="s">
         <v>309</v>
       </c>
       <c r="E90" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F90" s="129">
+      <c r="F90" s="70">
         <v>1700</v>
       </c>
-      <c r="G90" s="79"/>
+      <c r="G90" s="100"/>
       <c r="H90" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I90" s="70"/>
+      <c r="I90" s="89"/>
       <c r="J90" s="44"/>
-      <c r="L90" s="162"/>
+      <c r="L90" s="87"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="159"/>
+      <c r="A91" s="89"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="122"/>
       <c r="D91" s="44" t="s">
         <v>300</v>
       </c>
       <c r="E91" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F91" s="129">
+      <c r="F91" s="70">
         <v>982</v>
       </c>
-      <c r="G91" s="79"/>
+      <c r="G91" s="100"/>
       <c r="H91" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I91" s="70"/>
+      <c r="I91" s="89"/>
       <c r="J91" s="44"/>
-      <c r="L91" s="162"/>
+      <c r="L91" s="87"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="131"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="44" t="s">
         <v>301</v>
       </c>
       <c r="E92" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F92" s="129">
+      <c r="F92" s="70">
         <v>500</v>
       </c>
-      <c r="G92" s="79"/>
+      <c r="G92" s="100"/>
       <c r="H92" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I92" s="70"/>
+      <c r="I92" s="89"/>
       <c r="J92" s="44"/>
-      <c r="L92" s="162"/>
+      <c r="L92" s="87"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="128" t="s">
+      <c r="A93" s="89"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="69" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="44" t="s">
@@ -5220,21 +5320,21 @@
       <c r="E93" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="F93" s="129">
+      <c r="F93" s="70">
         <v>1580</v>
       </c>
-      <c r="G93" s="79"/>
+      <c r="G93" s="100"/>
       <c r="H93" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="I93" s="70"/>
+      <c r="I93" s="89"/>
       <c r="J93" s="44"/>
-      <c r="L93" s="162"/>
+      <c r="L93" s="87"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="128" t="s">
+      <c r="A94" s="90"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="69" t="s">
         <v>482</v>
       </c>
       <c r="D94" s="44" t="s">
@@ -5243,71 +5343,71 @@
       <c r="E94" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="F94" s="129">
+      <c r="F94" s="70">
         <v>120</v>
       </c>
-      <c r="G94" s="75"/>
+      <c r="G94" s="94"/>
       <c r="H94" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="I94" s="71"/>
+      <c r="I94" s="90"/>
       <c r="J94" s="44"/>
-      <c r="L94" s="162"/>
+      <c r="L94" s="87"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="132">
+      <c r="A95" s="101">
         <v>16</v>
       </c>
-      <c r="B95" s="132" t="s">
+      <c r="B95" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="143" t="s">
+      <c r="C95" s="102" t="s">
         <v>346</v>
       </c>
-      <c r="D95" s="136" t="s">
+      <c r="D95" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="E95" s="134" t="s">
+      <c r="E95" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="F95" s="145">
+      <c r="F95" s="91">
         <v>67.959999999999994</v>
       </c>
-      <c r="G95" s="133" t="s">
+      <c r="G95" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="H95" s="136"/>
-      <c r="I95" s="145">
+      <c r="H95" s="73"/>
+      <c r="I95" s="91">
         <v>67.959999999999994</v>
       </c>
-      <c r="J95" s="138"/>
+      <c r="J95" s="75"/>
       <c r="L95" s="45"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="142"/>
-      <c r="B96" s="142"/>
-      <c r="C96" s="144"/>
-      <c r="D96" s="136" t="s">
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="E96" s="134" t="s">
+      <c r="E96" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="F96" s="146"/>
-      <c r="G96" s="141"/>
-      <c r="H96" s="136"/>
-      <c r="I96" s="146"/>
-      <c r="J96" s="138"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="109"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="92"/>
+      <c r="J96" s="75"/>
       <c r="L96" s="45"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="69">
+      <c r="A97" s="95">
         <v>17</v>
       </c>
-      <c r="B97" s="80" t="s">
+      <c r="B97" s="118" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="93" t="s">
         <v>63</v>
       </c>
       <c r="D97" s="51" t="s">
@@ -5319,11 +5419,11 @@
       <c r="F97" s="47">
         <v>21.91</v>
       </c>
-      <c r="G97" s="72" t="s">
+      <c r="G97" s="105" t="s">
         <v>59</v>
       </c>
       <c r="H97" s="46"/>
-      <c r="I97" s="84">
+      <c r="I97" s="88">
         <f>SUM(F97:F100)</f>
         <v>232.55999999999997</v>
       </c>
@@ -5331,9 +5431,9 @@
       <c r="L97" s="45"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="70"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="79"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="119"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="49" t="s">
         <v>282</v>
       </c>
@@ -5343,16 +5443,16 @@
       <c r="F98" s="47">
         <v>132.5</v>
       </c>
-      <c r="G98" s="83"/>
+      <c r="G98" s="117"/>
       <c r="H98" s="46"/>
-      <c r="I98" s="70"/>
+      <c r="I98" s="89"/>
       <c r="J98" s="44"/>
       <c r="L98" s="45"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="70"/>
-      <c r="B99" s="81"/>
-      <c r="C99" s="79"/>
+      <c r="A99" s="89"/>
+      <c r="B99" s="119"/>
+      <c r="C99" s="100"/>
       <c r="D99" s="49" t="s">
         <v>280</v>
       </c>
@@ -5362,16 +5462,16 @@
       <c r="F99" s="47">
         <v>50.8</v>
       </c>
-      <c r="G99" s="83"/>
+      <c r="G99" s="117"/>
       <c r="H99" s="46"/>
-      <c r="I99" s="70"/>
+      <c r="I99" s="89"/>
       <c r="J99" s="44"/>
       <c r="L99" s="45"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="71"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="75"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="94"/>
       <c r="D100" s="49" t="s">
         <v>318</v>
       </c>
@@ -5381,50 +5481,50 @@
       <c r="F100" s="47">
         <v>27.35</v>
       </c>
-      <c r="G100" s="73"/>
+      <c r="G100" s="106"/>
       <c r="H100" s="46"/>
-      <c r="I100" s="71"/>
+      <c r="I100" s="90"/>
       <c r="J100" s="44"/>
       <c r="L100" s="45"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="134">
+      <c r="A101" s="71">
         <v>18</v>
       </c>
-      <c r="B101" s="134" t="s">
+      <c r="B101" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="C101" s="138" t="s">
+      <c r="C101" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="D101" s="138"/>
-      <c r="E101" s="134"/>
-      <c r="F101" s="135">
+      <c r="D101" s="75"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="72">
         <v>1000</v>
       </c>
-      <c r="G101" s="138" t="s">
+      <c r="G101" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="151"/>
-      <c r="I101" s="135">
+      <c r="H101" s="80"/>
+      <c r="I101" s="72">
         <v>1000</v>
       </c>
-      <c r="J101" s="136" t="s">
+      <c r="J101" s="73" t="s">
         <v>319</v>
       </c>
       <c r="L101" s="45"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="69">
+      <c r="A102" s="95">
         <v>19</v>
       </c>
-      <c r="B102" s="69" t="s">
+      <c r="B102" s="95" t="s">
         <v>366</v>
       </c>
-      <c r="C102" s="72" t="s">
+      <c r="C102" s="105" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="72" t="s">
+      <c r="D102" s="105" t="s">
         <v>369</v>
       </c>
       <c r="E102" s="45" t="s">
@@ -5433,11 +5533,11 @@
       <c r="F102" s="47">
         <v>17.190000000000001</v>
       </c>
-      <c r="G102" s="72" t="s">
+      <c r="G102" s="105" t="s">
         <v>368</v>
       </c>
       <c r="H102" s="46"/>
-      <c r="I102" s="84">
+      <c r="I102" s="88">
         <f>SUM(F102:F105)</f>
         <v>84.960000000000008</v>
       </c>
@@ -5445,29 +5545,29 @@
       <c r="L102" s="45"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="70"/>
-      <c r="B103" s="70"/>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
+      <c r="A103" s="89"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="106"/>
       <c r="E103" s="45" t="s">
         <v>372</v>
       </c>
       <c r="F103" s="47">
         <v>19.34</v>
       </c>
-      <c r="G103" s="73"/>
+      <c r="G103" s="106"/>
       <c r="H103" s="46"/>
-      <c r="I103" s="70"/>
+      <c r="I103" s="89"/>
       <c r="J103" s="44"/>
       <c r="L103" s="45"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="70"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="72" t="s">
+      <c r="A104" s="89"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="105" t="s">
         <v>367</v>
       </c>
-      <c r="D104" s="72" t="s">
+      <c r="D104" s="105" t="s">
         <v>371</v>
       </c>
       <c r="E104" s="45" t="s">
@@ -5476,65 +5576,65 @@
       <c r="F104" s="47">
         <v>21</v>
       </c>
-      <c r="G104" s="72" t="s">
+      <c r="G104" s="105" t="s">
         <v>370</v>
       </c>
       <c r="H104" s="46"/>
-      <c r="I104" s="70"/>
+      <c r="I104" s="89"/>
       <c r="J104" s="44"/>
       <c r="L104" s="45"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="71"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
+      <c r="A105" s="90"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="106"/>
       <c r="E105" s="45" t="s">
         <v>372</v>
       </c>
       <c r="F105" s="47">
         <v>27.43</v>
       </c>
-      <c r="G105" s="73"/>
+      <c r="G105" s="106"/>
       <c r="H105" s="46"/>
-      <c r="I105" s="71"/>
+      <c r="I105" s="90"/>
       <c r="J105" s="44"/>
       <c r="L105" s="45"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="134">
+      <c r="A106" s="71">
         <v>20</v>
       </c>
-      <c r="B106" s="156" t="s">
+      <c r="B106" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="C106" s="157" t="s">
+      <c r="C106" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="D106" s="157" t="s">
+      <c r="D106" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="E106" s="134" t="s">
+      <c r="E106" s="71" t="s">
         <v>381</v>
       </c>
-      <c r="F106" s="135">
+      <c r="F106" s="72">
         <v>18.989999999999998</v>
       </c>
-      <c r="G106" s="157" t="s">
+      <c r="G106" s="77" t="s">
         <v>379</v>
       </c>
-      <c r="H106" s="136"/>
-      <c r="I106" s="135">
+      <c r="H106" s="73"/>
+      <c r="I106" s="72">
         <v>18.989999999999998</v>
       </c>
-      <c r="J106" s="138"/>
+      <c r="J106" s="75"/>
       <c r="L106" s="45"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="76">
+      <c r="A107" s="124">
         <v>21</v>
       </c>
-      <c r="B107" s="69" t="s">
+      <c r="B107" s="95" t="s">
         <v>373</v>
       </c>
       <c r="C107" s="46" t="s">
@@ -5553,7 +5653,7 @@
         <v>374</v>
       </c>
       <c r="H107" s="46"/>
-      <c r="I107" s="84">
+      <c r="I107" s="88">
         <f>SUM(F107:F111)</f>
         <v>63.53</v>
       </c>
@@ -5561,9 +5661,9 @@
       <c r="L107" s="45"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="77"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="74" t="s">
+      <c r="A108" s="125"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="93" t="s">
         <v>384</v>
       </c>
       <c r="D108" s="44" t="s">
@@ -5575,18 +5675,18 @@
       <c r="F108" s="47">
         <v>12.09</v>
       </c>
-      <c r="G108" s="72" t="s">
+      <c r="G108" s="105" t="s">
         <v>382</v>
       </c>
       <c r="H108" s="46"/>
-      <c r="I108" s="70"/>
+      <c r="I108" s="89"/>
       <c r="J108" s="44"/>
       <c r="L108" s="45"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="77"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="75"/>
+      <c r="A109" s="125"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="94"/>
       <c r="D109" s="44" t="s">
         <v>385</v>
       </c>
@@ -5596,15 +5696,15 @@
       <c r="F109" s="47">
         <v>6.63</v>
       </c>
-      <c r="G109" s="73"/>
+      <c r="G109" s="106"/>
       <c r="H109" s="46"/>
-      <c r="I109" s="70"/>
+      <c r="I109" s="89"/>
       <c r="J109" s="44"/>
       <c r="L109" s="45"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="77"/>
-      <c r="B110" s="70"/>
+      <c r="A110" s="125"/>
+      <c r="B110" s="89"/>
       <c r="C110" s="46" t="s">
         <v>384</v>
       </c>
@@ -5621,13 +5721,13 @@
         <v>387</v>
       </c>
       <c r="H110" s="46"/>
-      <c r="I110" s="70"/>
+      <c r="I110" s="89"/>
       <c r="J110" s="44"/>
       <c r="L110" s="45"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="78"/>
-      <c r="B111" s="71"/>
+      <c r="A111" s="126"/>
+      <c r="B111" s="90"/>
       <c r="C111" s="46" t="s">
         <v>384</v>
       </c>
@@ -5644,183 +5744,183 @@
         <v>389</v>
       </c>
       <c r="H111" s="46"/>
-      <c r="I111" s="71"/>
+      <c r="I111" s="90"/>
       <c r="J111" s="44"/>
       <c r="L111" s="45"/>
     </row>
     <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="132">
+      <c r="A112" s="101">
         <v>22</v>
       </c>
-      <c r="B112" s="132" t="s">
+      <c r="B112" s="101" t="s">
         <v>392</v>
       </c>
-      <c r="C112" s="136" t="s">
+      <c r="C112" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="D112" s="138" t="s">
+      <c r="D112" s="75" t="s">
         <v>427</v>
       </c>
-      <c r="E112" s="134" t="s">
+      <c r="E112" s="71" t="s">
         <v>394</v>
       </c>
-      <c r="F112" s="135">
+      <c r="F112" s="72">
         <v>315.45</v>
       </c>
-      <c r="G112" s="138" t="s">
+      <c r="G112" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="H112" s="158" t="s">
+      <c r="H112" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="I112" s="145">
+      <c r="I112" s="91">
         <f>SUM(F112:F118)</f>
         <v>3137.64</v>
       </c>
-      <c r="J112" s="138"/>
+      <c r="J112" s="75"/>
       <c r="L112" s="45"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="140"/>
-      <c r="B113" s="140"/>
-      <c r="C113" s="136" t="s">
+      <c r="A113" s="96"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="D113" s="138" t="s">
+      <c r="D113" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="E113" s="134" t="s">
+      <c r="E113" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="F113" s="135">
+      <c r="F113" s="72">
         <v>29.48</v>
       </c>
-      <c r="G113" s="138" t="s">
+      <c r="G113" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="H113" s="136"/>
-      <c r="I113" s="140"/>
-      <c r="J113" s="138"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="96"/>
+      <c r="J113" s="75"/>
       <c r="L113" s="45"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="140"/>
-      <c r="B114" s="140"/>
-      <c r="C114" s="136" t="s">
+      <c r="A114" s="96"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="D114" s="138" t="s">
+      <c r="D114" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="E114" s="134" t="s">
+      <c r="E114" s="71" t="s">
         <v>400</v>
       </c>
-      <c r="F114" s="135">
+      <c r="F114" s="72">
         <v>23.11</v>
       </c>
-      <c r="G114" s="138" t="s">
+      <c r="G114" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="H114" s="136"/>
-      <c r="I114" s="140"/>
-      <c r="J114" s="138"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="96"/>
+      <c r="J114" s="75"/>
       <c r="L114" s="45"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="140"/>
-      <c r="B115" s="140"/>
-      <c r="C115" s="128" t="s">
+      <c r="A115" s="96"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="D115" s="138" t="s">
+      <c r="D115" s="75" t="s">
         <v>402</v>
       </c>
-      <c r="E115" s="134" t="s">
+      <c r="E115" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="F115" s="129">
+      <c r="F115" s="70">
         <v>2684</v>
       </c>
-      <c r="G115" s="138" t="s">
+      <c r="G115" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="H115" s="136"/>
-      <c r="I115" s="140"/>
-      <c r="J115" s="138"/>
-      <c r="L115" s="129">
+      <c r="H115" s="73"/>
+      <c r="I115" s="96"/>
+      <c r="J115" s="75"/>
+      <c r="L115" s="70">
         <v>2684</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="140"/>
-      <c r="B116" s="140"/>
-      <c r="C116" s="138" t="s">
+      <c r="A116" s="96"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="D116" s="138"/>
-      <c r="E116" s="134" t="s">
+      <c r="D116" s="75"/>
+      <c r="E116" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="F116" s="135">
+      <c r="F116" s="72">
         <v>61.2</v>
       </c>
-      <c r="G116" s="139" t="s">
+      <c r="G116" s="76" t="s">
         <v>405</v>
       </c>
-      <c r="H116" s="136"/>
-      <c r="I116" s="140"/>
-      <c r="J116" s="138"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="96"/>
+      <c r="J116" s="75"/>
       <c r="L116" s="45"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="140"/>
-      <c r="B117" s="140"/>
-      <c r="C117" s="136" t="s">
+      <c r="A117" s="96"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="73" t="s">
         <v>407</v>
       </c>
-      <c r="D117" s="139"/>
-      <c r="E117" s="134" t="s">
+      <c r="D117" s="76"/>
+      <c r="E117" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="F117" s="135">
+      <c r="F117" s="72">
         <v>16.399999999999999</v>
       </c>
-      <c r="G117" s="138" t="s">
+      <c r="G117" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="H117" s="136"/>
-      <c r="I117" s="140"/>
-      <c r="J117" s="138"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="96"/>
+      <c r="J117" s="75"/>
       <c r="L117" s="45"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="142"/>
-      <c r="B118" s="142"/>
-      <c r="C118" s="138" t="s">
+      <c r="A118" s="97"/>
+      <c r="B118" s="97"/>
+      <c r="C118" s="75" t="s">
         <v>410</v>
       </c>
-      <c r="D118" s="138" t="s">
+      <c r="D118" s="75" t="s">
         <v>488</v>
       </c>
-      <c r="E118" s="134" t="s">
+      <c r="E118" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="F118" s="135">
+      <c r="F118" s="72">
         <v>8</v>
       </c>
-      <c r="G118" s="139" t="s">
+      <c r="G118" s="76" t="s">
         <v>411</v>
       </c>
-      <c r="H118" s="136"/>
-      <c r="I118" s="142"/>
-      <c r="J118" s="138"/>
+      <c r="H118" s="73"/>
+      <c r="I118" s="97"/>
+      <c r="J118" s="75"/>
       <c r="L118" s="45"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="69">
+      <c r="A119" s="95">
         <v>23</v>
       </c>
-      <c r="B119" s="69" t="s">
+      <c r="B119" s="95" t="s">
         <v>413</v>
       </c>
       <c r="C119" s="44" t="s">
@@ -5835,7 +5935,7 @@
       </c>
       <c r="G119" s="44"/>
       <c r="H119" s="46"/>
-      <c r="I119" s="84">
+      <c r="I119" s="88">
         <f>SUM(F119:F142)</f>
         <v>1698.7700000000002</v>
       </c>
@@ -5843,8 +5943,8 @@
       <c r="L119" s="45"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
+      <c r="A120" s="89"/>
+      <c r="B120" s="89"/>
       <c r="C120" s="44" t="s">
         <v>416</v>
       </c>
@@ -5859,13 +5959,13 @@
       </c>
       <c r="G120" s="44"/>
       <c r="H120" s="46"/>
-      <c r="I120" s="70"/>
+      <c r="I120" s="89"/>
       <c r="J120" s="44"/>
       <c r="L120" s="45"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
+      <c r="A121" s="89"/>
+      <c r="B121" s="89"/>
       <c r="C121" s="44" t="s">
         <v>419</v>
       </c>
@@ -5879,13 +5979,13 @@
         <v>398</v>
       </c>
       <c r="H121" s="46"/>
-      <c r="I121" s="70"/>
+      <c r="I121" s="89"/>
       <c r="J121" s="44"/>
       <c r="L121" s="45"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
+      <c r="A122" s="89"/>
+      <c r="B122" s="89"/>
       <c r="C122" s="44" t="s">
         <v>421</v>
       </c>
@@ -5898,13 +5998,13 @@
       </c>
       <c r="G122" s="44"/>
       <c r="H122" s="46"/>
-      <c r="I122" s="70"/>
+      <c r="I122" s="89"/>
       <c r="J122" s="44"/>
       <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70"/>
+      <c r="A123" s="89"/>
+      <c r="B123" s="89"/>
       <c r="C123" s="44" t="s">
         <v>424</v>
       </c>
@@ -5917,13 +6017,13 @@
       </c>
       <c r="G123" s="44"/>
       <c r="H123" s="46"/>
-      <c r="I123" s="70"/>
+      <c r="I123" s="89"/>
       <c r="J123" s="44"/>
       <c r="L123" s="45"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
+      <c r="A124" s="89"/>
+      <c r="B124" s="89"/>
       <c r="C124" s="44" t="s">
         <v>483</v>
       </c>
@@ -5938,13 +6038,13 @@
       </c>
       <c r="G124" s="44"/>
       <c r="H124" s="46"/>
-      <c r="I124" s="70"/>
+      <c r="I124" s="89"/>
       <c r="J124" s="44"/>
       <c r="L124" s="45"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
+      <c r="A125" s="89"/>
+      <c r="B125" s="89"/>
       <c r="C125" s="44" t="s">
         <v>484</v>
       </c>
@@ -5961,13 +6061,13 @@
         <v>89</v>
       </c>
       <c r="H125" s="46"/>
-      <c r="I125" s="70"/>
+      <c r="I125" s="89"/>
       <c r="J125" s="44"/>
       <c r="L125" s="45"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70"/>
+      <c r="A126" s="89"/>
+      <c r="B126" s="89"/>
       <c r="C126" s="44" t="s">
         <v>443</v>
       </c>
@@ -5982,13 +6082,13 @@
       </c>
       <c r="G126" s="44"/>
       <c r="H126" s="46"/>
-      <c r="I126" s="70"/>
+      <c r="I126" s="89"/>
       <c r="J126" s="44"/>
       <c r="L126" s="45"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="70"/>
-      <c r="B127" s="70"/>
+      <c r="A127" s="89"/>
+      <c r="B127" s="89"/>
       <c r="C127" s="46" t="s">
         <v>446</v>
       </c>
@@ -6003,13 +6103,13 @@
       </c>
       <c r="G127" s="44"/>
       <c r="H127" s="46"/>
-      <c r="I127" s="70"/>
+      <c r="I127" s="89"/>
       <c r="J127" s="44"/>
       <c r="L127" s="45"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="70"/>
-      <c r="B128" s="70"/>
+      <c r="A128" s="89"/>
+      <c r="B128" s="89"/>
       <c r="C128" s="46" t="s">
         <v>449</v>
       </c>
@@ -6024,13 +6124,13 @@
       </c>
       <c r="G128" s="44"/>
       <c r="H128" s="46"/>
-      <c r="I128" s="70"/>
+      <c r="I128" s="89"/>
       <c r="J128" s="44"/>
       <c r="L128" s="45"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70"/>
+      <c r="A129" s="89"/>
+      <c r="B129" s="89"/>
       <c r="C129" s="46" t="s">
         <v>450</v>
       </c>
@@ -6045,13 +6145,13 @@
       </c>
       <c r="G129" s="44"/>
       <c r="H129" s="46"/>
-      <c r="I129" s="70"/>
+      <c r="I129" s="89"/>
       <c r="J129" s="44"/>
       <c r="L129" s="45"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
+      <c r="A130" s="89"/>
+      <c r="B130" s="89"/>
       <c r="C130" s="46" t="s">
         <v>453</v>
       </c>
@@ -6066,13 +6166,13 @@
       </c>
       <c r="G130" s="44"/>
       <c r="H130" s="46"/>
-      <c r="I130" s="70"/>
+      <c r="I130" s="89"/>
       <c r="J130" s="44"/>
       <c r="L130" s="45"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
+      <c r="A131" s="89"/>
+      <c r="B131" s="89"/>
       <c r="C131" s="46" t="s">
         <v>456</v>
       </c>
@@ -6087,13 +6187,13 @@
       </c>
       <c r="G131" s="44"/>
       <c r="H131" s="46"/>
-      <c r="I131" s="70"/>
+      <c r="I131" s="89"/>
       <c r="J131" s="44"/>
       <c r="L131" s="45"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
+      <c r="A132" s="89"/>
+      <c r="B132" s="89"/>
       <c r="C132" s="46" t="s">
         <v>459</v>
       </c>
@@ -6108,13 +6208,13 @@
       </c>
       <c r="G132" s="44"/>
       <c r="H132" s="46"/>
-      <c r="I132" s="70"/>
+      <c r="I132" s="89"/>
       <c r="J132" s="44"/>
       <c r="L132" s="45"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
+      <c r="A133" s="89"/>
+      <c r="B133" s="89"/>
       <c r="C133" s="46" t="s">
         <v>460</v>
       </c>
@@ -6129,13 +6229,13 @@
       </c>
       <c r="G133" s="44"/>
       <c r="H133" s="46"/>
-      <c r="I133" s="70"/>
+      <c r="I133" s="89"/>
       <c r="J133" s="44"/>
       <c r="L133" s="45"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
+      <c r="A134" s="89"/>
+      <c r="B134" s="89"/>
       <c r="C134" s="46" t="s">
         <v>462</v>
       </c>
@@ -6150,13 +6250,13 @@
       </c>
       <c r="G134" s="44"/>
       <c r="H134" s="46"/>
-      <c r="I134" s="70"/>
+      <c r="I134" s="89"/>
       <c r="J134" s="44"/>
       <c r="L134" s="45"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
+      <c r="A135" s="89"/>
+      <c r="B135" s="89"/>
       <c r="C135" s="46" t="s">
         <v>464</v>
       </c>
@@ -6171,13 +6271,13 @@
       </c>
       <c r="G135" s="44"/>
       <c r="H135" s="46"/>
-      <c r="I135" s="70"/>
+      <c r="I135" s="89"/>
       <c r="J135" s="44"/>
       <c r="L135" s="45"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
+      <c r="A136" s="89"/>
+      <c r="B136" s="89"/>
       <c r="C136" s="46" t="s">
         <v>465</v>
       </c>
@@ -6192,13 +6292,13 @@
       </c>
       <c r="G136" s="44"/>
       <c r="H136" s="46"/>
-      <c r="I136" s="70"/>
+      <c r="I136" s="89"/>
       <c r="J136" s="44"/>
       <c r="L136" s="45"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
+      <c r="A137" s="89"/>
+      <c r="B137" s="89"/>
       <c r="C137" s="46" t="s">
         <v>465</v>
       </c>
@@ -6213,13 +6313,13 @@
       </c>
       <c r="G137" s="44"/>
       <c r="H137" s="46"/>
-      <c r="I137" s="70"/>
+      <c r="I137" s="89"/>
       <c r="J137" s="44"/>
       <c r="L137" s="45"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
+      <c r="A138" s="89"/>
+      <c r="B138" s="89"/>
       <c r="C138" s="46" t="s">
         <v>469</v>
       </c>
@@ -6234,13 +6334,13 @@
       </c>
       <c r="G138" s="44"/>
       <c r="H138" s="46"/>
-      <c r="I138" s="70"/>
+      <c r="I138" s="89"/>
       <c r="J138" s="44"/>
       <c r="L138" s="45"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
+      <c r="A139" s="89"/>
+      <c r="B139" s="89"/>
       <c r="C139" s="46" t="s">
         <v>472</v>
       </c>
@@ -6255,13 +6355,13 @@
       </c>
       <c r="G139" s="44"/>
       <c r="H139" s="46"/>
-      <c r="I139" s="70"/>
+      <c r="I139" s="89"/>
       <c r="J139" s="44"/>
       <c r="L139" s="45"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
+      <c r="A140" s="89"/>
+      <c r="B140" s="89"/>
       <c r="C140" s="46" t="s">
         <v>474</v>
       </c>
@@ -6276,13 +6376,13 @@
       </c>
       <c r="G140" s="44"/>
       <c r="H140" s="46"/>
-      <c r="I140" s="70"/>
+      <c r="I140" s="89"/>
       <c r="J140" s="44"/>
       <c r="L140" s="45"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
+      <c r="A141" s="89"/>
+      <c r="B141" s="89"/>
       <c r="C141" s="46" t="s">
         <v>477</v>
       </c>
@@ -6297,13 +6397,13 @@
       </c>
       <c r="G141" s="44"/>
       <c r="H141" s="46"/>
-      <c r="I141" s="70"/>
+      <c r="I141" s="89"/>
       <c r="J141" s="44"/>
       <c r="L141" s="45"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="71"/>
-      <c r="B142" s="71"/>
+      <c r="A142" s="90"/>
+      <c r="B142" s="90"/>
       <c r="C142" s="46" t="s">
         <v>477</v>
       </c>
@@ -6318,17 +6418,29 @@
       </c>
       <c r="G142" s="44"/>
       <c r="H142" s="46"/>
-      <c r="I142" s="71"/>
+      <c r="I142" s="90"/>
       <c r="J142" s="44"/>
       <c r="L142" s="45"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="45"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="47"/>
+      <c r="A143" s="95">
+        <v>24</v>
+      </c>
+      <c r="B143" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="D143" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="E143" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="F143" s="47">
+        <v>49.94</v>
+      </c>
       <c r="G143" s="44"/>
       <c r="H143" s="46"/>
       <c r="I143" s="68"/>
@@ -6336,12 +6448,18 @@
       <c r="L143" s="45"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="45"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="46"/>
+      <c r="A144" s="89"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="46" t="s">
+        <v>493</v>
+      </c>
       <c r="D144" s="44"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="47"/>
+      <c r="E144" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="F144" s="47">
+        <v>16.170000000000002</v>
+      </c>
       <c r="G144" s="44"/>
       <c r="H144" s="46"/>
       <c r="I144" s="68"/>
@@ -6349,12 +6467,18 @@
       <c r="L144" s="45"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="46"/>
+      <c r="A145" s="89"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="46" t="s">
+        <v>495</v>
+      </c>
       <c r="D145" s="44"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="47"/>
+      <c r="E145" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="F145" s="47">
+        <v>7.53</v>
+      </c>
       <c r="G145" s="44"/>
       <c r="H145" s="46"/>
       <c r="I145" s="68"/>
@@ -6362,12 +6486,14 @@
       <c r="L145" s="45"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
+      <c r="A146" s="89"/>
+      <c r="B146" s="89"/>
       <c r="C146" s="46"/>
       <c r="D146" s="44"/>
       <c r="E146" s="45"/>
-      <c r="F146" s="47"/>
+      <c r="F146" s="47">
+        <v>34.44</v>
+      </c>
       <c r="G146" s="44"/>
       <c r="H146" s="46"/>
       <c r="I146" s="68"/>
@@ -6375,12 +6501,14 @@
       <c r="L146" s="45"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" s="45"/>
-      <c r="B147" s="45"/>
+      <c r="A147" s="90"/>
+      <c r="B147" s="90"/>
       <c r="C147" s="46"/>
       <c r="D147" s="44"/>
       <c r="E147" s="45"/>
-      <c r="F147" s="47"/>
+      <c r="F147" s="47">
+        <v>28.65</v>
+      </c>
       <c r="G147" s="44"/>
       <c r="H147" s="46"/>
       <c r="I147" s="68"/>
@@ -6388,12 +6516,24 @@
       <c r="L147" s="45"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="47"/>
+      <c r="A148" s="95">
+        <v>25</v>
+      </c>
+      <c r="B148" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="C148" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="D148" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="E148" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="F148" s="47">
+        <v>4.95</v>
+      </c>
       <c r="G148" s="44"/>
       <c r="H148" s="46"/>
       <c r="I148" s="68"/>
@@ -6401,12 +6541,18 @@
       <c r="L148" s="45"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="45"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="46"/>
+      <c r="A149" s="89"/>
+      <c r="B149" s="89"/>
+      <c r="C149" s="46" t="s">
+        <v>500</v>
+      </c>
       <c r="D149" s="44"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="47"/>
+      <c r="E149" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="F149" s="47">
+        <v>9.77</v>
+      </c>
       <c r="G149" s="44"/>
       <c r="H149" s="46"/>
       <c r="I149" s="68"/>
@@ -6414,12 +6560,20 @@
       <c r="L149" s="45"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="45"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="47"/>
+      <c r="A150" s="89"/>
+      <c r="B150" s="89"/>
+      <c r="C150" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="D150" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="E150" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="F150" s="47">
+        <v>21.75</v>
+      </c>
       <c r="G150" s="44"/>
       <c r="H150" s="46"/>
       <c r="I150" s="68"/>
@@ -6427,12 +6581,20 @@
       <c r="L150" s="45"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A151" s="45"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="46"/>
-      <c r="D151" s="44"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="47"/>
+      <c r="A151" s="89"/>
+      <c r="B151" s="89"/>
+      <c r="C151" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="D151" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="E151" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="F151" s="47">
+        <v>8.2200000000000006</v>
+      </c>
       <c r="G151" s="44"/>
       <c r="H151" s="46"/>
       <c r="I151" s="68"/>
@@ -6440,12 +6602,20 @@
       <c r="L151" s="45"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" s="45"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="47"/>
+      <c r="A152" s="89"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="D152" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="E152" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="F152" s="47">
+        <v>284</v>
+      </c>
       <c r="G152" s="44"/>
       <c r="H152" s="46"/>
       <c r="I152" s="68"/>
@@ -6453,12 +6623,16 @@
       <c r="L152" s="45"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" s="45"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="46"/>
+      <c r="A153" s="89"/>
+      <c r="B153" s="89"/>
+      <c r="C153" s="46" t="s">
+        <v>509</v>
+      </c>
       <c r="D153" s="44"/>
       <c r="E153" s="45"/>
-      <c r="F153" s="47"/>
+      <c r="F153" s="47">
+        <v>63.96</v>
+      </c>
       <c r="G153" s="44"/>
       <c r="H153" s="46"/>
       <c r="I153" s="68"/>
@@ -6466,12 +6640,16 @@
       <c r="L153" s="45"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" s="45"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="46"/>
+      <c r="A154" s="89"/>
+      <c r="B154" s="89"/>
+      <c r="C154" s="93" t="s">
+        <v>510</v>
+      </c>
       <c r="D154" s="44"/>
       <c r="E154" s="45"/>
-      <c r="F154" s="47"/>
+      <c r="F154" s="47">
+        <v>40.229999999999997</v>
+      </c>
       <c r="G154" s="44"/>
       <c r="H154" s="46"/>
       <c r="I154" s="68"/>
@@ -6479,12 +6657,14 @@
       <c r="L154" s="45"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="45"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="46"/>
+      <c r="A155" s="89"/>
+      <c r="B155" s="89"/>
+      <c r="C155" s="94"/>
       <c r="D155" s="44"/>
       <c r="E155" s="45"/>
-      <c r="F155" s="47"/>
+      <c r="F155" s="47">
+        <v>22.2</v>
+      </c>
       <c r="G155" s="44"/>
       <c r="H155" s="46"/>
       <c r="I155" s="68"/>
@@ -6492,12 +6672,16 @@
       <c r="L155" s="45"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="45"/>
-      <c r="B156" s="45"/>
-      <c r="C156" s="46"/>
+      <c r="A156" s="89"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="93" t="s">
+        <v>511</v>
+      </c>
       <c r="D156" s="44"/>
       <c r="E156" s="45"/>
-      <c r="F156" s="47"/>
+      <c r="F156" s="47">
+        <v>7.98</v>
+      </c>
       <c r="G156" s="44"/>
       <c r="H156" s="46"/>
       <c r="I156" s="68"/>
@@ -6505,12 +6689,14 @@
       <c r="L156" s="45"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="45"/>
-      <c r="B157" s="45"/>
-      <c r="C157" s="46"/>
+      <c r="A157" s="89"/>
+      <c r="B157" s="89"/>
+      <c r="C157" s="100"/>
       <c r="D157" s="44"/>
       <c r="E157" s="45"/>
-      <c r="F157" s="47"/>
+      <c r="F157" s="47">
+        <v>2.97</v>
+      </c>
       <c r="G157" s="44"/>
       <c r="H157" s="46"/>
       <c r="I157" s="68"/>
@@ -6518,12 +6704,14 @@
       <c r="L157" s="45"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="45"/>
-      <c r="B158" s="45"/>
-      <c r="C158" s="46"/>
+      <c r="A158" s="89"/>
+      <c r="B158" s="89"/>
+      <c r="C158" s="94"/>
       <c r="D158" s="44"/>
       <c r="E158" s="45"/>
-      <c r="F158" s="47"/>
+      <c r="F158" s="47">
+        <v>2.97</v>
+      </c>
       <c r="G158" s="44"/>
       <c r="H158" s="46"/>
       <c r="I158" s="68"/>
@@ -6531,12 +6719,14 @@
       <c r="L158" s="45"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="45"/>
-      <c r="B159" s="45"/>
+      <c r="A159" s="89"/>
+      <c r="B159" s="89"/>
       <c r="C159" s="46"/>
       <c r="D159" s="44"/>
       <c r="E159" s="45"/>
-      <c r="F159" s="47"/>
+      <c r="F159" s="47">
+        <v>38.9</v>
+      </c>
       <c r="G159" s="44"/>
       <c r="H159" s="46"/>
       <c r="I159" s="68"/>
@@ -6544,12 +6734,14 @@
       <c r="L159" s="45"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="45"/>
-      <c r="B160" s="45"/>
+      <c r="A160" s="89"/>
+      <c r="B160" s="89"/>
       <c r="C160" s="46"/>
       <c r="D160" s="44"/>
       <c r="E160" s="45"/>
-      <c r="F160" s="47"/>
+      <c r="F160" s="47">
+        <v>14.7</v>
+      </c>
       <c r="G160" s="44"/>
       <c r="H160" s="46"/>
       <c r="I160" s="68"/>
@@ -6557,12 +6749,14 @@
       <c r="L160" s="45"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="45"/>
-      <c r="B161" s="45"/>
+      <c r="A161" s="89"/>
+      <c r="B161" s="89"/>
       <c r="C161" s="46"/>
       <c r="D161" s="44"/>
       <c r="E161" s="45"/>
-      <c r="F161" s="47"/>
+      <c r="F161" s="47">
+        <v>4.87</v>
+      </c>
       <c r="G161" s="44"/>
       <c r="H161" s="46"/>
       <c r="I161" s="68"/>
@@ -6570,12 +6764,14 @@
       <c r="L161" s="45"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" s="45"/>
-      <c r="B162" s="45"/>
+      <c r="A162" s="89"/>
+      <c r="B162" s="89"/>
       <c r="C162" s="46"/>
       <c r="D162" s="44"/>
       <c r="E162" s="45"/>
-      <c r="F162" s="47"/>
+      <c r="F162" s="47">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="G162" s="44"/>
       <c r="H162" s="46"/>
       <c r="I162" s="68"/>
@@ -6583,12 +6779,14 @@
       <c r="L162" s="45"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" s="45"/>
-      <c r="B163" s="45"/>
+      <c r="A163" s="89"/>
+      <c r="B163" s="89"/>
       <c r="C163" s="46"/>
       <c r="D163" s="44"/>
       <c r="E163" s="45"/>
-      <c r="F163" s="47"/>
+      <c r="F163" s="47">
+        <v>51.99</v>
+      </c>
       <c r="G163" s="44"/>
       <c r="H163" s="46"/>
       <c r="I163" s="68"/>
@@ -6596,51 +6794,66 @@
       <c r="L163" s="45"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="45"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="46"/>
+      <c r="A164" s="89"/>
+      <c r="B164" s="89"/>
+      <c r="C164" s="121" t="s">
+        <v>512</v>
+      </c>
       <c r="D164" s="44"/>
       <c r="E164" s="45"/>
-      <c r="F164" s="47"/>
+      <c r="F164" s="70">
+        <v>28.23</v>
+      </c>
       <c r="G164" s="44"/>
       <c r="H164" s="46"/>
       <c r="I164" s="68"/>
       <c r="J164" s="44"/>
-      <c r="L164" s="45"/>
+      <c r="L164" s="88">
+        <f>SUM(F164:F166)</f>
+        <v>262.23</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" s="45"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="46"/>
+      <c r="A165" s="89"/>
+      <c r="B165" s="89"/>
+      <c r="C165" s="122"/>
       <c r="D165" s="44"/>
       <c r="E165" s="45"/>
-      <c r="F165" s="47"/>
+      <c r="F165" s="70">
+        <v>94</v>
+      </c>
       <c r="G165" s="44"/>
       <c r="H165" s="46"/>
       <c r="I165" s="68"/>
       <c r="J165" s="44"/>
-      <c r="L165" s="45"/>
+      <c r="L165" s="89"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="46"/>
+      <c r="A166" s="89"/>
+      <c r="B166" s="89"/>
+      <c r="C166" s="123"/>
       <c r="D166" s="44"/>
       <c r="E166" s="45"/>
-      <c r="F166" s="47"/>
+      <c r="F166" s="70">
+        <v>140</v>
+      </c>
       <c r="G166" s="44"/>
       <c r="H166" s="46"/>
       <c r="I166" s="68"/>
       <c r="J166" s="44"/>
-      <c r="L166" s="45"/>
+      <c r="L166" s="90"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" s="45"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="46"/>
+      <c r="A167" s="90"/>
+      <c r="B167" s="90"/>
+      <c r="C167" s="46" t="s">
+        <v>513</v>
+      </c>
       <c r="D167" s="44"/>
       <c r="E167" s="45"/>
-      <c r="F167" s="47"/>
+      <c r="F167" s="47">
+        <v>479</v>
+      </c>
       <c r="G167" s="44"/>
       <c r="H167" s="46"/>
       <c r="I167" s="68"/>
@@ -6699,8 +6912,764 @@
       <c r="J171" s="44"/>
       <c r="L171" s="45"/>
     </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="68"/>
+      <c r="J172" s="44"/>
+      <c r="L172" s="45"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" s="45"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="68"/>
+      <c r="J173" s="44"/>
+      <c r="L173" s="45"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="45"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="68"/>
+      <c r="J174" s="44"/>
+      <c r="L174" s="45"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="45"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="44"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="68"/>
+      <c r="J175" s="44"/>
+      <c r="L175" s="45"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" s="45"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="45"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="46"/>
+      <c r="I176" s="68"/>
+      <c r="J176" s="44"/>
+      <c r="L176" s="45"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="44"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="46"/>
+      <c r="I177" s="68"/>
+      <c r="J177" s="44"/>
+      <c r="L177" s="45"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="46"/>
+      <c r="I178" s="68"/>
+      <c r="J178" s="44"/>
+      <c r="L178" s="45"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" s="45"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="68"/>
+      <c r="J179" s="44"/>
+      <c r="L179" s="45"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" s="45"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="46"/>
+      <c r="I180" s="68"/>
+      <c r="J180" s="44"/>
+      <c r="L180" s="45"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" s="45"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="46"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="47"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="46"/>
+      <c r="I181" s="68"/>
+      <c r="J181" s="44"/>
+      <c r="L181" s="45"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" s="45"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="46"/>
+      <c r="I182" s="68"/>
+      <c r="J182" s="44"/>
+      <c r="L182" s="45"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="44"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="46"/>
+      <c r="I183" s="68"/>
+      <c r="J183" s="44"/>
+      <c r="L183" s="45"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" s="45"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="47"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="68"/>
+      <c r="J184" s="44"/>
+      <c r="L184" s="45"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" s="45"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="44"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="44"/>
+      <c r="H185" s="46"/>
+      <c r="I185" s="68"/>
+      <c r="J185" s="44"/>
+      <c r="L185" s="45"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" s="45"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="44"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="46"/>
+      <c r="I186" s="68"/>
+      <c r="J186" s="44"/>
+      <c r="L186" s="45"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="47"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="46"/>
+      <c r="I187" s="68"/>
+      <c r="J187" s="44"/>
+      <c r="L187" s="45"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="44"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="68"/>
+      <c r="J188" s="44"/>
+      <c r="L188" s="45"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="44"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="47"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="46"/>
+      <c r="I189" s="68"/>
+      <c r="J189" s="44"/>
+      <c r="L189" s="45"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" s="45"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="44"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="47"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="68"/>
+      <c r="J190" s="44"/>
+      <c r="L190" s="45"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="45"/>
+      <c r="F191" s="47"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="68"/>
+      <c r="J191" s="44"/>
+      <c r="L191" s="45"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="44"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="68"/>
+      <c r="J192" s="44"/>
+      <c r="L192" s="45"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" s="45"/>
+      <c r="B193" s="45"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="44"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="44"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="68"/>
+      <c r="J193" s="44"/>
+      <c r="L193" s="45"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" s="45"/>
+      <c r="B194" s="45"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="47"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="68"/>
+      <c r="J194" s="44"/>
+      <c r="L194" s="45"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="44"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="47"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="68"/>
+      <c r="J195" s="44"/>
+      <c r="L195" s="45"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="44"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="44"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="68"/>
+      <c r="J196" s="44"/>
+      <c r="L196" s="45"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="44"/>
+      <c r="E197" s="45"/>
+      <c r="F197" s="47"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="68"/>
+      <c r="J197" s="44"/>
+      <c r="L197" s="45"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="46"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="47"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="46"/>
+      <c r="I198" s="68"/>
+      <c r="J198" s="44"/>
+      <c r="L198" s="45"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="46"/>
+      <c r="D199" s="44"/>
+      <c r="E199" s="45"/>
+      <c r="F199" s="47"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="46"/>
+      <c r="I199" s="68"/>
+      <c r="J199" s="44"/>
+      <c r="L199" s="45"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" s="45"/>
+      <c r="B200" s="45"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="44"/>
+      <c r="E200" s="45"/>
+      <c r="F200" s="47"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="68"/>
+      <c r="J200" s="44"/>
+      <c r="L200" s="45"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" s="45"/>
+      <c r="B201" s="45"/>
+      <c r="C201" s="46"/>
+      <c r="D201" s="44"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="47"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="46"/>
+      <c r="I201" s="68"/>
+      <c r="J201" s="44"/>
+      <c r="L201" s="45"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" s="45"/>
+      <c r="B202" s="45"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="44"/>
+      <c r="E202" s="45"/>
+      <c r="F202" s="47"/>
+      <c r="G202" s="44"/>
+      <c r="H202" s="46"/>
+      <c r="I202" s="68"/>
+      <c r="J202" s="44"/>
+      <c r="L202" s="45"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" s="45"/>
+      <c r="B203" s="45"/>
+      <c r="C203" s="46"/>
+      <c r="D203" s="44"/>
+      <c r="E203" s="45"/>
+      <c r="F203" s="47"/>
+      <c r="G203" s="44"/>
+      <c r="H203" s="46"/>
+      <c r="I203" s="68"/>
+      <c r="J203" s="44"/>
+      <c r="L203" s="45"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" s="45"/>
+      <c r="B204" s="45"/>
+      <c r="C204" s="46"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="45"/>
+      <c r="F204" s="47"/>
+      <c r="G204" s="44"/>
+      <c r="H204" s="46"/>
+      <c r="I204" s="68"/>
+      <c r="J204" s="44"/>
+      <c r="L204" s="45"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" s="45"/>
+      <c r="B205" s="45"/>
+      <c r="C205" s="46"/>
+      <c r="D205" s="44"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="47"/>
+      <c r="G205" s="44"/>
+      <c r="H205" s="46"/>
+      <c r="I205" s="68"/>
+      <c r="J205" s="44"/>
+      <c r="L205" s="45"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" s="45"/>
+      <c r="B206" s="45"/>
+      <c r="C206" s="46"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="45"/>
+      <c r="F206" s="47"/>
+      <c r="G206" s="44"/>
+      <c r="H206" s="46"/>
+      <c r="I206" s="68"/>
+      <c r="J206" s="44"/>
+      <c r="L206" s="45"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" s="45"/>
+      <c r="B207" s="45"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="44"/>
+      <c r="E207" s="45"/>
+      <c r="F207" s="47"/>
+      <c r="G207" s="44"/>
+      <c r="H207" s="46"/>
+      <c r="I207" s="68"/>
+      <c r="J207" s="44"/>
+      <c r="L207" s="45"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" s="45"/>
+      <c r="B208" s="45"/>
+      <c r="C208" s="46"/>
+      <c r="D208" s="44"/>
+      <c r="E208" s="45"/>
+      <c r="F208" s="47"/>
+      <c r="G208" s="44"/>
+      <c r="H208" s="46"/>
+      <c r="I208" s="68"/>
+      <c r="J208" s="44"/>
+      <c r="L208" s="45"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" s="45"/>
+      <c r="B209" s="45"/>
+      <c r="C209" s="46"/>
+      <c r="D209" s="44"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="47"/>
+      <c r="G209" s="44"/>
+      <c r="H209" s="46"/>
+      <c r="I209" s="68"/>
+      <c r="J209" s="44"/>
+      <c r="L209" s="45"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" s="45"/>
+      <c r="B210" s="45"/>
+      <c r="C210" s="46"/>
+      <c r="D210" s="44"/>
+      <c r="E210" s="45"/>
+      <c r="F210" s="47"/>
+      <c r="G210" s="44"/>
+      <c r="H210" s="46"/>
+      <c r="I210" s="68"/>
+      <c r="J210" s="44"/>
+      <c r="L210" s="45"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="45"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="44"/>
+      <c r="E211" s="45"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="44"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="68"/>
+      <c r="J211" s="44"/>
+      <c r="L211" s="45"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" s="45"/>
+      <c r="B212" s="45"/>
+      <c r="C212" s="46"/>
+      <c r="D212" s="44"/>
+      <c r="E212" s="45"/>
+      <c r="F212" s="47"/>
+      <c r="G212" s="44"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="68"/>
+      <c r="J212" s="44"/>
+      <c r="L212" s="45"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213" s="45"/>
+      <c r="B213" s="45"/>
+      <c r="C213" s="46"/>
+      <c r="D213" s="44"/>
+      <c r="E213" s="45"/>
+      <c r="F213" s="47"/>
+      <c r="G213" s="44"/>
+      <c r="H213" s="46"/>
+      <c r="I213" s="68"/>
+      <c r="J213" s="44"/>
+      <c r="L213" s="45"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" s="45"/>
+      <c r="B214" s="45"/>
+      <c r="C214" s="46"/>
+      <c r="D214" s="44"/>
+      <c r="E214" s="45"/>
+      <c r="F214" s="47"/>
+      <c r="G214" s="44"/>
+      <c r="H214" s="46"/>
+      <c r="I214" s="68"/>
+      <c r="J214" s="44"/>
+      <c r="L214" s="45"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" s="45"/>
+      <c r="B215" s="45"/>
+      <c r="C215" s="46"/>
+      <c r="D215" s="44"/>
+      <c r="E215" s="45"/>
+      <c r="F215" s="47"/>
+      <c r="G215" s="44"/>
+      <c r="H215" s="46"/>
+      <c r="I215" s="68"/>
+      <c r="J215" s="44"/>
+      <c r="L215" s="45"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" s="45"/>
+      <c r="B216" s="45"/>
+      <c r="C216" s="46"/>
+      <c r="D216" s="44"/>
+      <c r="E216" s="45"/>
+      <c r="F216" s="47"/>
+      <c r="G216" s="44"/>
+      <c r="H216" s="46"/>
+      <c r="I216" s="68"/>
+      <c r="J216" s="44"/>
+      <c r="L216" s="45"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" s="45"/>
+      <c r="B217" s="45"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="44"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="47"/>
+      <c r="G217" s="44"/>
+      <c r="H217" s="46"/>
+      <c r="I217" s="68"/>
+      <c r="J217" s="44"/>
+      <c r="L217" s="45"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" s="45"/>
+      <c r="B218" s="45"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="44"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="44"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="68"/>
+      <c r="J218" s="44"/>
+      <c r="L218" s="45"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" s="45"/>
+      <c r="B219" s="45"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="44"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="47"/>
+      <c r="G219" s="44"/>
+      <c r="H219" s="46"/>
+      <c r="I219" s="68"/>
+      <c r="J219" s="44"/>
+      <c r="L219" s="45"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220" s="45"/>
+      <c r="B220" s="45"/>
+      <c r="C220" s="46"/>
+      <c r="D220" s="44"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="47"/>
+      <c r="G220" s="44"/>
+      <c r="H220" s="46"/>
+      <c r="I220" s="68"/>
+      <c r="J220" s="44"/>
+      <c r="L220" s="45"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221" s="45"/>
+      <c r="B221" s="45"/>
+      <c r="C221" s="46"/>
+      <c r="D221" s="44"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="44"/>
+      <c r="H221" s="46"/>
+      <c r="I221" s="68"/>
+      <c r="J221" s="44"/>
+      <c r="L221" s="45"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222" s="45"/>
+      <c r="B222" s="45"/>
+      <c r="C222" s="46"/>
+      <c r="D222" s="44"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="47"/>
+      <c r="G222" s="44"/>
+      <c r="H222" s="46"/>
+      <c r="I222" s="68"/>
+      <c r="J222" s="44"/>
+      <c r="L222" s="45"/>
+    </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="117">
+    <mergeCell ref="L164:L166"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="B148:B167"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A167"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A78:A82"/>
     <mergeCell ref="L83:L84"/>
     <mergeCell ref="L89:L94"/>
     <mergeCell ref="I86:I94"/>
@@ -6725,91 +7694,6 @@
     <mergeCell ref="I83:I84"/>
     <mergeCell ref="G89:G94"/>
     <mergeCell ref="B112:B118"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G97:G100"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="C104:C105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6843,19 +7727,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="129" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -6865,31 +7749,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="131" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="119"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="132"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -6909,7 +7793,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="145" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -6918,11 +7802,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="101">
+      <c r="I3" s="136">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="128" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6942,21 +7826,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="93"/>
+      <c r="F4" s="146"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95">
+      <c r="A5" s="127">
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="150" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6966,17 +7850,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95" t="s">
+      <c r="F5" s="137"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="J5" s="95"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="127"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -6984,17 +7868,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="97"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="128"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98">
+      <c r="A7" s="133">
         <v>4</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="149" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -7003,48 +7887,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="147">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="147">
         <v>630</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="127" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="106"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="111"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="147"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="97"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="128"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95">
+      <c r="A9" s="127">
         <v>5</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="148" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -7056,26 +7940,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="148" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="134">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="127" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -7085,17 +7969,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="96"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -7105,17 +7989,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="96"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="96"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -7125,17 +8009,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="145"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="96"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -7145,17 +8029,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="94"/>
+      <c r="F13" s="145"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="96"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -7165,13 +8049,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="97"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="128"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -7206,10 +8090,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95">
+      <c r="A16" s="127">
         <v>7</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="152" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -7218,140 +8102,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="134">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="99">
+      <c r="H16" s="137"/>
+      <c r="I16" s="134">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="95" t="s">
+      <c r="J16" s="127" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="96"/>
-      <c r="B17" s="110"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="96"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="140"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
-      <c r="B18" s="110"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="96"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="140"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="96"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="96"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="96"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="96"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="96"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="96"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="96"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="97"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="128"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="95">
+      <c r="A24" s="127">
         <v>8</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="148" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -7360,108 +8244,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="134">
         <v>180.56</v>
       </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="99">
+      <c r="H24" s="137"/>
+      <c r="I24" s="134">
         <v>180.56</v>
       </c>
-      <c r="J24" s="95" t="s">
+      <c r="J24" s="127" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="96"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="96"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="96"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="96"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="96"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="140"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="96"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="96"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="140"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="97"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="97"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="128"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="95">
+      <c r="A30" s="127">
         <v>16</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="148" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -7470,41 +8354,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="99">
+      <c r="G30" s="134">
         <v>1950</v>
       </c>
-      <c r="H30" s="102"/>
-      <c r="I30" s="99">
+      <c r="H30" s="137"/>
+      <c r="I30" s="134">
         <v>180.56</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="127" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="97"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="95">
+      <c r="A32" s="127">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -7534,7 +8418,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -7592,7 +8476,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95">
+      <c r="A35" s="127">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -7622,8 +8506,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="96"/>
-      <c r="B36" s="92" t="s">
+      <c r="A36" s="140"/>
+      <c r="B36" s="148" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -7650,8 +8534,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="96"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -7676,8 +8560,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="96"/>
-      <c r="B38" s="102" t="s">
+      <c r="A38" s="140"/>
+      <c r="B38" s="137" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -7702,8 +8586,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="96"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="138"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -7726,8 +8610,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="96"/>
-      <c r="B40" s="104"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -7750,8 +8634,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="96"/>
-      <c r="B41" s="102" t="s">
+      <c r="A41" s="140"/>
+      <c r="B41" s="137" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -7776,8 +8660,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="96"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="138"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -7800,8 +8684,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="96"/>
-      <c r="B43" s="103"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="138"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -7824,8 +8708,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="97"/>
-      <c r="B44" s="104"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -7878,10 +8762,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="95">
+      <c r="A46" s="127">
         <v>21</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="148" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -7906,8 +8790,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="96"/>
-      <c r="B47" s="94"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -7930,8 +8814,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="96"/>
-      <c r="B48" s="94"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -7954,8 +8838,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="96"/>
-      <c r="B49" s="94"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="145"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -7976,8 +8860,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="96"/>
-      <c r="B50" s="94"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -7987,7 +8871,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="92" t="s">
+      <c r="F50" s="148" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -8000,8 +8884,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="96"/>
-      <c r="B51" s="94"/>
+      <c r="A51" s="140"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -8011,7 +8895,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="94"/>
+      <c r="F51" s="145"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -8022,8 +8906,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="97"/>
-      <c r="B52" s="93"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -8033,7 +8917,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="93"/>
+      <c r="F52" s="146"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -8044,10 +8928,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="95">
+      <c r="A53" s="127">
         <v>22</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="148" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -8059,7 +8943,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="92" t="s">
+      <c r="F53" s="148" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -8072,8 +8956,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="96"/>
-      <c r="B54" s="94"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -8083,7 +8967,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="94"/>
+      <c r="F54" s="145"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -8094,8 +8978,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="96"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -8105,7 +8989,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="94"/>
+      <c r="F55" s="145"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -8116,8 +9000,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="96"/>
-      <c r="B56" s="94"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="145"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -8127,7 +9011,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="94"/>
+      <c r="F56" s="145"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -8138,8 +9022,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="96"/>
-      <c r="B57" s="94"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="145"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -8149,7 +9033,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="94"/>
+      <c r="F57" s="145"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -8160,8 +9044,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="96"/>
-      <c r="B58" s="94"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -8171,7 +9055,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="93"/>
+      <c r="F58" s="146"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -8182,10 +9066,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="95">
+      <c r="A59" s="127">
         <v>23</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="148" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -8210,8 +9094,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="96"/>
-      <c r="B60" s="94"/>
+      <c r="A60" s="140"/>
+      <c r="B60" s="145"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -8234,8 +9118,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="96"/>
-      <c r="B61" s="94"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="145"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -8258,8 +9142,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="96"/>
-      <c r="B62" s="94"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="145"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -8282,8 +9166,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="96"/>
-      <c r="B63" s="94"/>
+      <c r="A63" s="140"/>
+      <c r="B63" s="145"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -8293,17 +9177,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="92"/>
+      <c r="F63" s="148"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="102"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="95"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="127"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="96"/>
-      <c r="B64" s="94"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="145"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -8313,17 +9197,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="94"/>
+      <c r="F64" s="145"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="103"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="96"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="135"/>
+      <c r="J64" s="140"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="96"/>
-      <c r="B65" s="94"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="145"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -8333,17 +9217,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="94"/>
+      <c r="F65" s="145"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="103"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="96"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="135"/>
+      <c r="J65" s="140"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="96"/>
-      <c r="B66" s="94"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="145"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -8353,17 +9237,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="93"/>
+      <c r="F66" s="146"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="104"/>
-      <c r="I66" s="101"/>
-      <c r="J66" s="97"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="128"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="96"/>
-      <c r="B67" s="94"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="145"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -8373,23 +9257,23 @@
       <c r="E67" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="102" t="s">
+      <c r="F67" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="99">
+      <c r="G67" s="134">
         <v>67.959999999999994</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="99">
+      <c r="I67" s="134">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="95" t="s">
+      <c r="J67" s="127" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="96"/>
-      <c r="B68" s="94"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="145"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -8399,15 +9283,15 @@
       <c r="E68" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="104"/>
-      <c r="G68" s="101"/>
+      <c r="F68" s="139"/>
+      <c r="G68" s="136"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="101"/>
-      <c r="J68" s="97"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="128"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="96"/>
-      <c r="B69" s="94"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="145"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -8418,8 +9302,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="96"/>
-      <c r="B70" s="94"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="145"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -8432,8 +9316,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="96"/>
-      <c r="B71" s="94"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="145"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -8452,8 +9336,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="96"/>
-      <c r="B72" s="94"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="145"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -8472,8 +9356,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="96"/>
-      <c r="B73" s="94"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="145"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -8492,8 +9376,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="96"/>
-      <c r="B74" s="94"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="145"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -8512,8 +9396,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="96"/>
-      <c r="B75" s="94"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -8532,8 +9416,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="96"/>
-      <c r="B76" s="94"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -8556,10 +9440,10 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="98">
+      <c r="A77" s="133">
         <v>24</v>
       </c>
-      <c r="B77" s="105" t="s">
+      <c r="B77" s="154" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -8586,8 +9470,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="98"/>
-      <c r="B78" s="105"/>
+      <c r="A78" s="133"/>
+      <c r="B78" s="154"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -8610,8 +9494,8 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="98"/>
-      <c r="B79" s="105"/>
+      <c r="A79" s="133"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -8634,8 +9518,8 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="98"/>
-      <c r="B80" s="105"/>
+      <c r="A80" s="133"/>
+      <c r="B80" s="154"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -8658,8 +9542,8 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="98"/>
-      <c r="B81" s="105"/>
+      <c r="A81" s="133"/>
+      <c r="B81" s="154"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -8682,8 +9566,8 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="98"/>
-      <c r="B82" s="105"/>
+      <c r="A82" s="133"/>
+      <c r="B82" s="154"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -8706,8 +9590,8 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="98"/>
-      <c r="B83" s="105"/>
+      <c r="A83" s="133"/>
+      <c r="B83" s="154"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -8730,8 +9614,8 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="98"/>
-      <c r="B84" s="105"/>
+      <c r="A84" s="133"/>
+      <c r="B84" s="154"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -8754,8 +9638,8 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="98"/>
-      <c r="B85" s="105"/>
+      <c r="A85" s="133"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -8770,10 +9654,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="95">
+      <c r="A86" s="127">
         <v>25</v>
       </c>
-      <c r="B86" s="92" t="s">
+      <c r="B86" s="148" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -8798,8 +9682,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="96"/>
-      <c r="B87" s="94"/>
+      <c r="A87" s="140"/>
+      <c r="B87" s="145"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -8822,8 +9706,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="96"/>
-      <c r="B88" s="94"/>
+      <c r="A88" s="140"/>
+      <c r="B88" s="145"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -8838,8 +9722,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="96"/>
-      <c r="B89" s="94"/>
+      <c r="A89" s="140"/>
+      <c r="B89" s="145"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -8854,8 +9738,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="96"/>
-      <c r="B90" s="94"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="145"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -8870,8 +9754,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="97"/>
-      <c r="B91" s="93"/>
+      <c r="A91" s="128"/>
+      <c r="B91" s="146"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -8886,10 +9770,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="96">
+      <c r="A92" s="140">
         <v>26</v>
       </c>
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="145" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -8906,8 +9790,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="96"/>
-      <c r="B93" s="94"/>
+      <c r="A93" s="140"/>
+      <c r="B93" s="145"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -8930,8 +9814,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="96"/>
-      <c r="B94" s="94"/>
+      <c r="A94" s="140"/>
+      <c r="B94" s="145"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -9013,7 +9897,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="148" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -9039,7 +9923,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="93"/>
+      <c r="B98" s="146"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -9123,7 +10007,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="148" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -9151,7 +10035,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="93"/>
+      <c r="B102" s="146"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -9177,7 +10061,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="92" t="s">
+      <c r="B103" s="148" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -9205,7 +10089,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="94"/>
+      <c r="B104" s="145"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -9231,7 +10115,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="94"/>
+      <c r="B105" s="145"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -9255,7 +10139,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="94"/>
+      <c r="B106" s="145"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -9279,7 +10163,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="94"/>
+      <c r="B107" s="145"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -9303,7 +10187,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="94"/>
+      <c r="B108" s="145"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -9327,7 +10211,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="94"/>
+      <c r="B109" s="145"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -9349,7 +10233,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="93"/>
+      <c r="B110" s="146"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -9481,6 +10365,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -9497,75 +10450,6 @@
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9936,13 +10820,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -10148,28 +11032,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="123" t="s">
+      <c r="D1" s="161"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="121"/>
+      <c r="H1" s="156"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="124"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -10179,9 +11063,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="122"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C5FE2-3206-4C9E-9E77-DFD0CE7295BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FDA0D5-7E3D-483C-B4F2-EA8D6A7DA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="520">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2060,7 +2060,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>监控</t>
+    <t>2023.12.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石匠工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早墙剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗冻膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视监控摄像机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2426,7 +2450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2681,213 +2705,213 @@
     <xf numFmtId="7" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2911,6 +2935,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3194,11 +3230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L220" sqref="L220"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3234,8 +3270,8 @@
         <v>337</v>
       </c>
       <c r="F1" s="66">
-        <f>SUM(F2:F172)</f>
-        <v>37373.280000000006</v>
+        <f>SUM(F2:F167)</f>
+        <v>39858.670000000006</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>340</v>
@@ -3250,18 +3286,18 @@
         <v>334</v>
       </c>
       <c r="L1" s="85">
-        <f>SUM(L2:L801)</f>
-        <v>13934.23</v>
+        <f>SUM(L2:L796)</f>
+        <v>17534.23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="89">
+      <c r="A2" s="87">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="91" t="s">
         <v>331</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -3273,13 +3309,13 @@
       <c r="F2" s="52">
         <v>1200</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="91" t="s">
         <v>332</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="113">
         <f>SUM(F2:F3)</f>
         <v>2400</v>
       </c>
@@ -3287,9 +3323,9 @@
       <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="94"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="90"/>
       <c r="D3" s="46" t="s">
         <v>80</v>
       </c>
@@ -3299,22 +3335,22 @@
       <c r="F3" s="47">
         <v>1200</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="112"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="44"/>
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="101">
+      <c r="A4" s="110">
         <v>2</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="103" t="s">
         <v>326</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -3326,23 +3362,23 @@
       <c r="F4" s="72">
         <v>720</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="115" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="114">
+      <c r="I4" s="116">
         <f>SUM(F4:F9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="107"/>
+      <c r="J4" s="106"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="103"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="75" t="s">
         <v>78</v>
       </c>
@@ -3352,16 +3388,16 @@
       <c r="F5" s="72">
         <v>720</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="108"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="107"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="103"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="75" t="s">
         <v>65</v>
       </c>
@@ -3371,16 +3407,16 @@
       <c r="F6" s="72">
         <v>468</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="108"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="107"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="103"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="75" t="s">
         <v>66</v>
       </c>
@@ -3390,16 +3426,16 @@
       <c r="F7" s="72">
         <v>432</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="108"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="107"/>
       <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="75" t="s">
         <v>67</v>
       </c>
@@ -3409,16 +3445,16 @@
       <c r="F8" s="72">
         <v>365</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="108"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="107"/>
       <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="104"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="75" t="s">
         <v>68</v>
       </c>
@@ -3428,10 +3464,10 @@
       <c r="F9" s="72">
         <v>475</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="109"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="108"/>
       <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3441,7 +3477,7 @@
       <c r="B10" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="89" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -3450,45 +3486,45 @@
       <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="121">
         <v>630</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="96" t="s">
         <v>327</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="86">
         <f>SUM(F10:F31)</f>
         <v>4803.82</v>
       </c>
-      <c r="J10" s="105"/>
+      <c r="J10" s="96"/>
       <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="94"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="45">
         <v>1</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="98"/>
-      <c r="J11" s="106"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="97"/>
       <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="93" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89" t="s">
         <v>347</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -3497,140 +3533,140 @@
       <c r="E12" s="60">
         <v>1</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="86">
         <v>1387.81</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="105"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="96"/>
       <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="100"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="61" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="60">
         <v>1</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="117"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="109"/>
       <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="100"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="61" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="117"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="109"/>
       <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="61" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="60">
         <v>2</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="117"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="109"/>
       <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="100"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="61" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="60">
         <v>2</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="117"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="109"/>
       <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="100"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="61" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="60">
         <v>4</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="117"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="109"/>
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="100"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="61" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="60">
         <v>5</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="117"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="109"/>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="94"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="61" t="s">
         <v>126</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="106"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="97"/>
       <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="93" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="89" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="61" t="s">
@@ -3639,108 +3675,108 @@
       <c r="E20" s="60">
         <v>1</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="86">
         <v>180.56</v>
       </c>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="93" t="s">
+      <c r="H20" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="98"/>
-      <c r="J20" s="105"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="96"/>
       <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="100"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="61" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="60">
         <v>2</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="117"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="109"/>
       <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="100"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="61" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="60">
         <v>2</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="117"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="109"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="61" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="117"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="109"/>
       <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="100"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="61" t="s">
         <v>136</v>
       </c>
       <c r="E24" s="60">
         <v>2</v>
       </c>
-      <c r="F24" s="98"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="117"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="109"/>
       <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="94"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="61" t="s">
         <v>137</v>
       </c>
       <c r="E25" s="60">
         <v>1</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="106"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="97"/>
       <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="115" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="117" t="s">
         <v>436</v>
       </c>
       <c r="D26" s="61" t="s">
@@ -3749,39 +3785,39 @@
       <c r="E26" s="60">
         <v>1</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="86">
         <v>1950</v>
       </c>
-      <c r="G26" s="105" t="s">
+      <c r="G26" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="89" t="s">
         <v>432</v>
       </c>
-      <c r="I26" s="98"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="44"/>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="61" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="60">
         <v>1</v>
       </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="98"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="44"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="43" t="s">
         <v>433</v>
       </c>
@@ -3800,13 +3836,13 @@
       <c r="H28" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="98"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="44"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="46" t="s">
         <v>358</v>
       </c>
@@ -3825,13 +3861,13 @@
       <c r="H29" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="98"/>
+      <c r="I29" s="119"/>
       <c r="J29" s="44"/>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="46" t="s">
         <v>348</v>
       </c>
@@ -3850,13 +3886,13 @@
       <c r="H30" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="98"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="44"/>
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="46" t="s">
         <v>349</v>
       </c>
@@ -3875,7 +3911,7 @@
       <c r="H31" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="99"/>
+      <c r="I31" s="120"/>
       <c r="J31" s="44"/>
       <c r="L31" s="45"/>
     </row>
@@ -3933,7 +3969,7 @@
         <v>174</v>
       </c>
       <c r="H33" s="46"/>
-      <c r="I33" s="88">
+      <c r="I33" s="86">
         <f>SUM(F33:F44)</f>
         <v>875.06999999999994</v>
       </c>
@@ -3941,8 +3977,8 @@
       <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="46" t="s">
         <v>323</v>
       </c>
@@ -3959,13 +3995,13 @@
         <v>166</v>
       </c>
       <c r="H34" s="46"/>
-      <c r="I34" s="89"/>
+      <c r="I34" s="87"/>
       <c r="J34" s="44"/>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="46" t="s">
         <v>323</v>
       </c>
@@ -3978,17 +4014,17 @@
       <c r="F35" s="47">
         <v>11.89</v>
       </c>
-      <c r="G35" s="93" t="s">
+      <c r="G35" s="89" t="s">
         <v>170</v>
       </c>
       <c r="H35" s="46"/>
-      <c r="I35" s="89"/>
+      <c r="I35" s="87"/>
       <c r="J35" s="44"/>
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="46" t="s">
         <v>437</v>
       </c>
@@ -4001,15 +4037,15 @@
       <c r="F36" s="47">
         <v>65.069999999999993</v>
       </c>
-      <c r="G36" s="100"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="46"/>
-      <c r="I36" s="89"/>
+      <c r="I36" s="87"/>
       <c r="J36" s="44"/>
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="46" t="s">
         <v>437</v>
       </c>
@@ -4022,15 +4058,15 @@
       <c r="F37" s="47">
         <v>20.09</v>
       </c>
-      <c r="G37" s="100"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="46"/>
-      <c r="I37" s="89"/>
+      <c r="I37" s="87"/>
       <c r="J37" s="44"/>
       <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="46" t="s">
         <v>437</v>
       </c>
@@ -4043,15 +4079,15 @@
       <c r="F38" s="47">
         <v>17.7</v>
       </c>
-      <c r="G38" s="100"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="46"/>
-      <c r="I38" s="89"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="44"/>
       <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="46" t="s">
         <v>437</v>
       </c>
@@ -4064,15 +4100,15 @@
       <c r="F39" s="47">
         <v>7.57</v>
       </c>
-      <c r="G39" s="100"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="89"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="44"/>
       <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="46" t="s">
         <v>437</v>
       </c>
@@ -4085,15 +4121,15 @@
       <c r="F40" s="47">
         <v>32.619999999999997</v>
       </c>
-      <c r="G40" s="100"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="46"/>
-      <c r="I40" s="89"/>
+      <c r="I40" s="87"/>
       <c r="J40" s="44"/>
       <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
       <c r="C41" s="46" t="s">
         <v>437</v>
       </c>
@@ -4106,15 +4142,15 @@
       <c r="F41" s="47">
         <v>7.82</v>
       </c>
-      <c r="G41" s="100"/>
+      <c r="G41" s="91"/>
       <c r="H41" s="46"/>
-      <c r="I41" s="89"/>
+      <c r="I41" s="87"/>
       <c r="J41" s="44"/>
       <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="46" t="s">
         <v>323</v>
       </c>
@@ -4127,15 +4163,15 @@
       <c r="F42" s="58">
         <v>128.75</v>
       </c>
-      <c r="G42" s="94"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="46"/>
-      <c r="I42" s="89"/>
+      <c r="I42" s="87"/>
       <c r="J42" s="44"/>
       <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="46" t="s">
         <v>438</v>
       </c>
@@ -4152,13 +4188,13 @@
         <v>173</v>
       </c>
       <c r="H43" s="46"/>
-      <c r="I43" s="89"/>
+      <c r="I43" s="87"/>
       <c r="J43" s="44"/>
       <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="46" t="s">
         <v>350</v>
       </c>
@@ -4175,15 +4211,15 @@
         <v>179</v>
       </c>
       <c r="H44" s="46"/>
-      <c r="I44" s="90"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="44"/>
       <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="101">
+      <c r="A45" s="110">
         <v>6</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="110" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="73" t="s">
@@ -4202,7 +4238,7 @@
         <v>183</v>
       </c>
       <c r="H45" s="73"/>
-      <c r="I45" s="91">
+      <c r="I45" s="101">
         <f>SUM(F45:F57)</f>
         <v>616.48</v>
       </c>
@@ -4210,8 +4246,8 @@
       <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="73" t="s">
         <v>439</v>
       </c>
@@ -4228,13 +4264,13 @@
         <v>184</v>
       </c>
       <c r="H46" s="73"/>
-      <c r="I46" s="96"/>
+      <c r="I46" s="111"/>
       <c r="J46" s="75"/>
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="73" t="s">
         <v>439</v>
       </c>
@@ -4251,13 +4287,13 @@
         <v>187</v>
       </c>
       <c r="H47" s="73"/>
-      <c r="I47" s="96"/>
+      <c r="I47" s="111"/>
       <c r="J47" s="75"/>
       <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="96"/>
-      <c r="B48" s="96"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="73" t="s">
         <v>439</v>
       </c>
@@ -4270,17 +4306,17 @@
       <c r="F48" s="82">
         <v>17.16</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="106" t="s">
         <v>322</v>
       </c>
       <c r="H48" s="73"/>
-      <c r="I48" s="96"/>
+      <c r="I48" s="111"/>
       <c r="J48" s="75"/>
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="73" t="s">
         <v>439</v>
       </c>
@@ -4293,15 +4329,15 @@
       <c r="F49" s="82">
         <v>19.43</v>
       </c>
-      <c r="G49" s="108"/>
+      <c r="G49" s="107"/>
       <c r="H49" s="73"/>
-      <c r="I49" s="96"/>
+      <c r="I49" s="111"/>
       <c r="J49" s="75"/>
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="73" t="s">
         <v>439</v>
       </c>
@@ -4314,15 +4350,15 @@
       <c r="F50" s="82">
         <v>14.29</v>
       </c>
-      <c r="G50" s="108"/>
+      <c r="G50" s="107"/>
       <c r="H50" s="73"/>
-      <c r="I50" s="96"/>
+      <c r="I50" s="111"/>
       <c r="J50" s="75"/>
       <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="73" t="s">
         <v>439</v>
       </c>
@@ -4335,15 +4371,15 @@
       <c r="F51" s="82">
         <v>15.78</v>
       </c>
-      <c r="G51" s="109"/>
+      <c r="G51" s="108"/>
       <c r="H51" s="73"/>
-      <c r="I51" s="96"/>
+      <c r="I51" s="111"/>
       <c r="J51" s="75"/>
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="80" t="s">
         <v>351</v>
       </c>
@@ -4360,13 +4396,13 @@
         <v>202</v>
       </c>
       <c r="H52" s="73"/>
-      <c r="I52" s="96"/>
+      <c r="I52" s="111"/>
       <c r="J52" s="75"/>
       <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="96"/>
-      <c r="B53" s="96"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="73" t="s">
         <v>109</v>
       </c>
@@ -4383,13 +4419,13 @@
         <v>189</v>
       </c>
       <c r="H53" s="73"/>
-      <c r="I53" s="96"/>
+      <c r="I53" s="111"/>
       <c r="J53" s="75"/>
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="73" t="s">
         <v>352</v>
       </c>
@@ -4406,14 +4442,14 @@
         <v>203</v>
       </c>
       <c r="H54" s="73"/>
-      <c r="I54" s="96"/>
+      <c r="I54" s="111"/>
       <c r="J54" s="75"/>
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="96"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="102" t="s">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="103" t="s">
         <v>353</v>
       </c>
       <c r="D55" s="75" t="s">
@@ -4425,18 +4461,18 @@
       <c r="F55" s="72">
         <v>12.55</v>
       </c>
-      <c r="G55" s="102" t="s">
+      <c r="G55" s="103" t="s">
         <v>185</v>
       </c>
       <c r="H55" s="73"/>
-      <c r="I55" s="96"/>
+      <c r="I55" s="111"/>
       <c r="J55" s="75"/>
       <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="96"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="103"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="104"/>
       <c r="D56" s="75" t="s">
         <v>159</v>
       </c>
@@ -4446,16 +4482,16 @@
       <c r="F56" s="72">
         <v>8.84</v>
       </c>
-      <c r="G56" s="103"/>
+      <c r="G56" s="104"/>
       <c r="H56" s="73"/>
-      <c r="I56" s="96"/>
+      <c r="I56" s="111"/>
       <c r="J56" s="75"/>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="96"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="104"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="105"/>
       <c r="D57" s="75" t="s">
         <v>164</v>
       </c>
@@ -4465,9 +4501,9 @@
       <c r="F57" s="72">
         <v>22.7</v>
       </c>
-      <c r="G57" s="104"/>
+      <c r="G57" s="105"/>
       <c r="H57" s="73"/>
-      <c r="I57" s="97"/>
+      <c r="I57" s="112"/>
       <c r="J57" s="75"/>
       <c r="L57" s="45"/>
     </row>
@@ -4502,8 +4538,8 @@
       <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="87"/>
       <c r="C59" s="46" t="s">
         <v>440</v>
       </c>
@@ -4520,13 +4556,13 @@
         <v>215</v>
       </c>
       <c r="H59" s="46"/>
-      <c r="I59" s="89"/>
+      <c r="I59" s="87"/>
       <c r="J59" s="44"/>
       <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="46" t="s">
         <v>206</v>
       </c>
@@ -4543,13 +4579,13 @@
         <v>209</v>
       </c>
       <c r="H60" s="46"/>
-      <c r="I60" s="89"/>
+      <c r="I60" s="87"/>
       <c r="J60" s="44"/>
       <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="46" t="s">
         <v>354</v>
       </c>
@@ -4566,13 +4602,13 @@
         <v>221</v>
       </c>
       <c r="H61" s="46"/>
-      <c r="I61" s="89"/>
+      <c r="I61" s="87"/>
       <c r="J61" s="44"/>
       <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="90"/>
-      <c r="B62" s="90"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="46" t="s">
         <v>355</v>
       </c>
@@ -4589,15 +4625,15 @@
         <v>211</v>
       </c>
       <c r="H62" s="46"/>
-      <c r="I62" s="90"/>
+      <c r="I62" s="88"/>
       <c r="J62" s="44"/>
       <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="101">
+      <c r="A63" s="110">
         <v>8</v>
       </c>
-      <c r="B63" s="101" t="s">
+      <c r="B63" s="110" t="s">
         <v>217</v>
       </c>
       <c r="C63" s="73" t="s">
@@ -4616,7 +4652,7 @@
         <v>218</v>
       </c>
       <c r="H63" s="73"/>
-      <c r="I63" s="91">
+      <c r="I63" s="101">
         <f>SUM(F63:F68)</f>
         <v>170.51999999999998</v>
       </c>
@@ -4624,8 +4660,8 @@
       <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="96"/>
-      <c r="B64" s="96"/>
+      <c r="A64" s="111"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="73" t="s">
         <v>241</v>
       </c>
@@ -4642,13 +4678,13 @@
         <v>220</v>
       </c>
       <c r="H64" s="73"/>
-      <c r="I64" s="96"/>
+      <c r="I64" s="111"/>
       <c r="J64" s="75"/>
       <c r="L64" s="45"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="96"/>
-      <c r="B65" s="96"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
       <c r="C65" s="73" t="s">
         <v>440</v>
       </c>
@@ -4665,13 +4701,13 @@
         <v>242</v>
       </c>
       <c r="H65" s="73"/>
-      <c r="I65" s="96"/>
+      <c r="I65" s="111"/>
       <c r="J65" s="75"/>
       <c r="L65" s="45"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="96"/>
-      <c r="B66" s="96"/>
+      <c r="A66" s="111"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="73" t="s">
         <v>440</v>
       </c>
@@ -4688,14 +4724,14 @@
         <v>244</v>
       </c>
       <c r="H66" s="73"/>
-      <c r="I66" s="96"/>
+      <c r="I66" s="111"/>
       <c r="J66" s="75"/>
       <c r="L66" s="45"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="96"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="102" t="s">
+      <c r="A67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="103" t="s">
         <v>357</v>
       </c>
       <c r="D67" s="73" t="s">
@@ -4707,18 +4743,18 @@
       <c r="F67" s="84">
         <v>20.78</v>
       </c>
-      <c r="G67" s="102" t="s">
+      <c r="G67" s="103" t="s">
         <v>246</v>
       </c>
       <c r="H67" s="73"/>
-      <c r="I67" s="96"/>
+      <c r="I67" s="111"/>
       <c r="J67" s="75"/>
       <c r="L67" s="45"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="97"/>
-      <c r="B68" s="97"/>
-      <c r="C68" s="104"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="105"/>
       <c r="D68" s="73" t="s">
         <v>430</v>
       </c>
@@ -4728,9 +4764,9 @@
       <c r="F68" s="72">
         <v>18.600000000000001</v>
       </c>
-      <c r="G68" s="104"/>
+      <c r="G68" s="105"/>
       <c r="H68" s="73"/>
-      <c r="I68" s="97"/>
+      <c r="I68" s="112"/>
       <c r="J68" s="75"/>
       <c r="L68" s="45"/>
     </row>
@@ -4757,7 +4793,7 @@
         <v>236</v>
       </c>
       <c r="H69" s="46"/>
-      <c r="I69" s="88">
+      <c r="I69" s="86">
         <f>SUM(F69:F72)</f>
         <v>161.44</v>
       </c>
@@ -4765,9 +4801,9 @@
       <c r="L69" s="45"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="89"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="93" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="89" t="s">
         <v>359</v>
       </c>
       <c r="D70" s="46" t="s">
@@ -4779,18 +4815,18 @@
       <c r="F70" s="47">
         <v>4.12</v>
       </c>
-      <c r="G70" s="93" t="s">
+      <c r="G70" s="89" t="s">
         <v>230</v>
       </c>
       <c r="H70" s="46"/>
-      <c r="I70" s="89"/>
+      <c r="I70" s="87"/>
       <c r="J70" s="44"/>
       <c r="L70" s="45"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="89"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="100"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="46" t="s">
         <v>227</v>
       </c>
@@ -4800,16 +4836,16 @@
       <c r="F71" s="47">
         <v>21.12</v>
       </c>
-      <c r="G71" s="100"/>
+      <c r="G71" s="91"/>
       <c r="H71" s="46"/>
-      <c r="I71" s="89"/>
+      <c r="I71" s="87"/>
       <c r="J71" s="44"/>
       <c r="L71" s="45"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="94"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="46" t="s">
         <v>231</v>
       </c>
@@ -4819,17 +4855,17 @@
       <c r="F72" s="47">
         <v>30.12</v>
       </c>
-      <c r="G72" s="94"/>
+      <c r="G72" s="90"/>
       <c r="H72" s="46"/>
-      <c r="I72" s="90"/>
+      <c r="I72" s="88"/>
       <c r="J72" s="44"/>
       <c r="L72" s="45"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="101">
+      <c r="A73" s="110">
         <v>10</v>
       </c>
-      <c r="B73" s="101" t="s">
+      <c r="B73" s="110" t="s">
         <v>222</v>
       </c>
       <c r="C73" s="73" t="s">
@@ -4848,7 +4884,7 @@
         <v>223</v>
       </c>
       <c r="H73" s="73"/>
-      <c r="I73" s="91">
+      <c r="I73" s="101">
         <f>SUM(F73:F74)</f>
         <v>487.9</v>
       </c>
@@ -4856,8 +4892,8 @@
       <c r="L73" s="45"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="97"/>
-      <c r="B74" s="97"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="73" t="s">
         <v>361</v>
       </c>
@@ -4874,7 +4910,7 @@
         <v>226</v>
       </c>
       <c r="H74" s="73"/>
-      <c r="I74" s="97"/>
+      <c r="I74" s="112"/>
       <c r="J74" s="75"/>
       <c r="L74" s="45"/>
     </row>
@@ -4897,11 +4933,11 @@
       <c r="F75" s="47">
         <v>65.760000000000005</v>
       </c>
-      <c r="G75" s="105" t="s">
+      <c r="G75" s="96" t="s">
         <v>266</v>
       </c>
       <c r="H75" s="46"/>
-      <c r="I75" s="88">
+      <c r="I75" s="86">
         <f>SUM(F75:F77)</f>
         <v>285.76</v>
       </c>
@@ -4909,8 +4945,8 @@
       <c r="L75" s="45"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="89"/>
-      <c r="B76" s="89"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="46"/>
       <c r="D76" s="44" t="s">
         <v>149</v>
@@ -4919,15 +4955,15 @@
         <v>119</v>
       </c>
       <c r="F76" s="45"/>
-      <c r="G76" s="106"/>
+      <c r="G76" s="97"/>
       <c r="H76" s="46"/>
-      <c r="I76" s="89"/>
+      <c r="I76" s="87"/>
       <c r="J76" s="44"/>
       <c r="L76" s="45"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="90"/>
-      <c r="B77" s="90"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="44" t="s">
         <v>263</v>
       </c>
@@ -4944,15 +4980,15 @@
         <v>362</v>
       </c>
       <c r="H77" s="46"/>
-      <c r="I77" s="90"/>
+      <c r="I77" s="88"/>
       <c r="J77" s="44"/>
       <c r="L77" s="45"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="101">
+      <c r="A78" s="110">
         <v>12</v>
       </c>
-      <c r="B78" s="101" t="s">
+      <c r="B78" s="110" t="s">
         <v>255</v>
       </c>
       <c r="C78" s="73" t="s">
@@ -4971,7 +5007,7 @@
         <v>256</v>
       </c>
       <c r="H78" s="73"/>
-      <c r="I78" s="91">
+      <c r="I78" s="101">
         <f>SUM(F78:F82)</f>
         <v>3766.7900000000004</v>
       </c>
@@ -4979,8 +5015,8 @@
       <c r="L78" s="45"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="96"/>
-      <c r="B79" s="96"/>
+      <c r="A79" s="111"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="73" t="s">
         <v>363</v>
       </c>
@@ -4997,13 +5033,13 @@
         <v>262</v>
       </c>
       <c r="H79" s="73"/>
-      <c r="I79" s="96"/>
+      <c r="I79" s="111"/>
       <c r="J79" s="75"/>
       <c r="L79" s="45"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="96"/>
-      <c r="B80" s="96"/>
+      <c r="A80" s="111"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="73" t="s">
         <v>321</v>
       </c>
@@ -5020,13 +5056,13 @@
         <v>256</v>
       </c>
       <c r="H80" s="73"/>
-      <c r="I80" s="96"/>
+      <c r="I80" s="111"/>
       <c r="J80" s="75"/>
       <c r="L80" s="45"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="96"/>
-      <c r="B81" s="96"/>
+      <c r="A81" s="111"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="73" t="s">
         <v>268</v>
       </c>
@@ -5043,13 +5079,13 @@
         <v>269</v>
       </c>
       <c r="H81" s="73"/>
-      <c r="I81" s="96"/>
+      <c r="I81" s="111"/>
       <c r="J81" s="75"/>
       <c r="L81" s="45"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="97"/>
-      <c r="B82" s="97"/>
+      <c r="A82" s="112"/>
+      <c r="B82" s="112"/>
       <c r="C82" s="75" t="s">
         <v>345</v>
       </c>
@@ -5068,7 +5104,7 @@
       <c r="H82" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="I82" s="97"/>
+      <c r="I82" s="112"/>
       <c r="J82" s="75"/>
       <c r="L82" s="45"/>
     </row>
@@ -5079,7 +5115,7 @@
       <c r="B83" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="121" t="s">
+      <c r="C83" s="92" t="s">
         <v>273</v>
       </c>
       <c r="D83" s="44" t="s">
@@ -5091,24 +5127,24 @@
       <c r="F83" s="70">
         <v>2500</v>
       </c>
-      <c r="G83" s="93" t="s">
+      <c r="G83" s="89" t="s">
         <v>364</v>
       </c>
       <c r="H83" s="46"/>
-      <c r="I83" s="88">
+      <c r="I83" s="86">
         <f>SUM(F83:F84)</f>
         <v>5706</v>
       </c>
       <c r="J83" s="44"/>
-      <c r="L83" s="86">
+      <c r="L83" s="125">
         <f>SUM(F83:F84)</f>
         <v>5706</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="90"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="123"/>
+      <c r="A84" s="88"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="44" t="s">
         <v>275</v>
       </c>
@@ -5118,11 +5154,11 @@
       <c r="F84" s="70">
         <v>3206</v>
       </c>
-      <c r="G84" s="94"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="46"/>
-      <c r="I84" s="90"/>
+      <c r="I84" s="88"/>
       <c r="J84" s="44"/>
-      <c r="L84" s="87"/>
+      <c r="L84" s="126"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="71">
@@ -5167,7 +5203,7 @@
       <c r="G86" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="I86" s="88">
+      <c r="I86" s="86">
         <f>SUM(F86:F94)</f>
         <v>6169.67</v>
       </c>
@@ -5175,8 +5211,8 @@
       <c r="L86" s="45"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
+      <c r="A87" s="87"/>
+      <c r="B87" s="87"/>
       <c r="C87" s="46" t="s">
         <v>358</v>
       </c>
@@ -5193,13 +5229,13 @@
         <v>285</v>
       </c>
       <c r="H87" s="46"/>
-      <c r="I87" s="89"/>
+      <c r="I87" s="87"/>
       <c r="J87" s="44"/>
       <c r="L87" s="45"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="87"/>
       <c r="C88" s="46" t="s">
         <v>286</v>
       </c>
@@ -5216,14 +5252,14 @@
         <v>288</v>
       </c>
       <c r="H88" s="46"/>
-      <c r="I88" s="89"/>
+      <c r="I88" s="87"/>
       <c r="J88" s="44"/>
       <c r="L88" s="45"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="89"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="121" t="s">
+      <c r="A89" s="87"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="92" t="s">
         <v>273</v>
       </c>
       <c r="D89" s="44" t="s">
@@ -5235,20 +5271,20 @@
       <c r="F89" s="70">
         <v>400</v>
       </c>
-      <c r="G89" s="93" t="s">
+      <c r="G89" s="89" t="s">
         <v>364</v>
       </c>
-      <c r="I89" s="89"/>
+      <c r="I89" s="87"/>
       <c r="J89" s="44"/>
-      <c r="L89" s="86">
+      <c r="L89" s="125">
         <f>SUM(F89:F94)</f>
         <v>5282</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="89"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="122"/>
+      <c r="A90" s="87"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="93"/>
       <c r="D90" s="44" t="s">
         <v>309</v>
       </c>
@@ -5258,18 +5294,18 @@
       <c r="F90" s="70">
         <v>1700</v>
       </c>
-      <c r="G90" s="100"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I90" s="89"/>
+      <c r="I90" s="87"/>
       <c r="J90" s="44"/>
-      <c r="L90" s="87"/>
+      <c r="L90" s="126"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="122"/>
+      <c r="A91" s="87"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="93"/>
       <c r="D91" s="44" t="s">
         <v>300</v>
       </c>
@@ -5279,18 +5315,18 @@
       <c r="F91" s="70">
         <v>982</v>
       </c>
-      <c r="G91" s="100"/>
+      <c r="G91" s="91"/>
       <c r="H91" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I91" s="89"/>
+      <c r="I91" s="87"/>
       <c r="J91" s="44"/>
-      <c r="L91" s="87"/>
+      <c r="L91" s="126"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="89"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="123"/>
+      <c r="A92" s="87"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="94"/>
       <c r="D92" s="44" t="s">
         <v>301</v>
       </c>
@@ -5300,17 +5336,17 @@
       <c r="F92" s="70">
         <v>500</v>
       </c>
-      <c r="G92" s="100"/>
+      <c r="G92" s="91"/>
       <c r="H92" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I92" s="89"/>
+      <c r="I92" s="87"/>
       <c r="J92" s="44"/>
-      <c r="L92" s="87"/>
+      <c r="L92" s="126"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="89"/>
-      <c r="B93" s="89"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="87"/>
       <c r="C93" s="69" t="s">
         <v>273</v>
       </c>
@@ -5323,17 +5359,17 @@
       <c r="F93" s="70">
         <v>1580</v>
       </c>
-      <c r="G93" s="100"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="I93" s="89"/>
+      <c r="I93" s="87"/>
       <c r="J93" s="44"/>
-      <c r="L93" s="87"/>
+      <c r="L93" s="126"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="90"/>
-      <c r="B94" s="90"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="88"/>
       <c r="C94" s="69" t="s">
         <v>482</v>
       </c>
@@ -5346,22 +5382,22 @@
       <c r="F94" s="70">
         <v>120</v>
       </c>
-      <c r="G94" s="94"/>
+      <c r="G94" s="90"/>
       <c r="H94" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="I94" s="90"/>
+      <c r="I94" s="88"/>
       <c r="J94" s="44"/>
-      <c r="L94" s="87"/>
+      <c r="L94" s="126"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="101">
+      <c r="A95" s="110">
         <v>16</v>
       </c>
-      <c r="B95" s="101" t="s">
+      <c r="B95" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="102" t="s">
+      <c r="C95" s="103" t="s">
         <v>346</v>
       </c>
       <c r="D95" s="73" t="s">
@@ -5370,33 +5406,33 @@
       <c r="E95" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="F95" s="91">
+      <c r="F95" s="101">
         <v>67.959999999999994</v>
       </c>
-      <c r="G95" s="107" t="s">
+      <c r="G95" s="106" t="s">
         <v>293</v>
       </c>
       <c r="H95" s="73"/>
-      <c r="I95" s="91">
+      <c r="I95" s="101">
         <v>67.959999999999994</v>
       </c>
       <c r="J95" s="75"/>
       <c r="L95" s="45"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="97"/>
-      <c r="B96" s="97"/>
-      <c r="C96" s="104"/>
+      <c r="A96" s="112"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="73" t="s">
         <v>283</v>
       </c>
       <c r="E96" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="F96" s="92"/>
-      <c r="G96" s="109"/>
+      <c r="F96" s="102"/>
+      <c r="G96" s="108"/>
       <c r="H96" s="73"/>
-      <c r="I96" s="92"/>
+      <c r="I96" s="102"/>
       <c r="J96" s="75"/>
       <c r="L96" s="45"/>
     </row>
@@ -5404,10 +5440,10 @@
       <c r="A97" s="95">
         <v>17</v>
       </c>
-      <c r="B97" s="118" t="s">
+      <c r="B97" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="93" t="s">
+      <c r="C97" s="89" t="s">
         <v>63</v>
       </c>
       <c r="D97" s="51" t="s">
@@ -5419,11 +5455,11 @@
       <c r="F97" s="47">
         <v>21.91</v>
       </c>
-      <c r="G97" s="105" t="s">
+      <c r="G97" s="96" t="s">
         <v>59</v>
       </c>
       <c r="H97" s="46"/>
-      <c r="I97" s="88">
+      <c r="I97" s="86">
         <f>SUM(F97:F100)</f>
         <v>232.55999999999997</v>
       </c>
@@ -5431,9 +5467,9 @@
       <c r="L97" s="45"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="89"/>
-      <c r="B98" s="119"/>
-      <c r="C98" s="100"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="123"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="49" t="s">
         <v>282</v>
       </c>
@@ -5443,16 +5479,16 @@
       <c r="F98" s="47">
         <v>132.5</v>
       </c>
-      <c r="G98" s="117"/>
+      <c r="G98" s="109"/>
       <c r="H98" s="46"/>
-      <c r="I98" s="89"/>
+      <c r="I98" s="87"/>
       <c r="J98" s="44"/>
       <c r="L98" s="45"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="89"/>
-      <c r="B99" s="119"/>
-      <c r="C99" s="100"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="49" t="s">
         <v>280</v>
       </c>
@@ -5462,16 +5498,16 @@
       <c r="F99" s="47">
         <v>50.8</v>
       </c>
-      <c r="G99" s="117"/>
+      <c r="G99" s="109"/>
       <c r="H99" s="46"/>
-      <c r="I99" s="89"/>
+      <c r="I99" s="87"/>
       <c r="J99" s="44"/>
       <c r="L99" s="45"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="90"/>
-      <c r="B100" s="120"/>
-      <c r="C100" s="94"/>
+      <c r="A100" s="88"/>
+      <c r="B100" s="124"/>
+      <c r="C100" s="90"/>
       <c r="D100" s="49" t="s">
         <v>318</v>
       </c>
@@ -5481,9 +5517,9 @@
       <c r="F100" s="47">
         <v>27.35</v>
       </c>
-      <c r="G100" s="106"/>
+      <c r="G100" s="97"/>
       <c r="H100" s="46"/>
-      <c r="I100" s="90"/>
+      <c r="I100" s="88"/>
       <c r="J100" s="44"/>
       <c r="L100" s="45"/>
     </row>
@@ -5494,12 +5530,12 @@
       <c r="B101" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="C101" s="75" t="s">
+      <c r="C101" s="166" t="s">
         <v>303</v>
       </c>
       <c r="D101" s="75"/>
       <c r="E101" s="71"/>
-      <c r="F101" s="72">
+      <c r="F101" s="70">
         <v>1000</v>
       </c>
       <c r="G101" s="75" t="s">
@@ -5512,7 +5548,9 @@
       <c r="J101" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="L101" s="45"/>
+      <c r="L101" s="70">
+        <v>1000</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="95">
@@ -5521,10 +5559,10 @@
       <c r="B102" s="95" t="s">
         <v>366</v>
       </c>
-      <c r="C102" s="105" t="s">
+      <c r="C102" s="96" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="105" t="s">
+      <c r="D102" s="96" t="s">
         <v>369</v>
       </c>
       <c r="E102" s="45" t="s">
@@ -5533,11 +5571,11 @@
       <c r="F102" s="47">
         <v>17.190000000000001</v>
       </c>
-      <c r="G102" s="105" t="s">
+      <c r="G102" s="96" t="s">
         <v>368</v>
       </c>
       <c r="H102" s="46"/>
-      <c r="I102" s="88">
+      <c r="I102" s="86">
         <f>SUM(F102:F105)</f>
         <v>84.960000000000008</v>
       </c>
@@ -5545,29 +5583,29 @@
       <c r="L102" s="45"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="89"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="106"/>
-      <c r="D103" s="106"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="97"/>
       <c r="E103" s="45" t="s">
         <v>372</v>
       </c>
       <c r="F103" s="47">
         <v>19.34</v>
       </c>
-      <c r="G103" s="106"/>
+      <c r="G103" s="97"/>
       <c r="H103" s="46"/>
-      <c r="I103" s="89"/>
+      <c r="I103" s="87"/>
       <c r="J103" s="44"/>
       <c r="L103" s="45"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="89"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="105" t="s">
+      <c r="A104" s="87"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="96" t="s">
         <v>367</v>
       </c>
-      <c r="D104" s="105" t="s">
+      <c r="D104" s="96" t="s">
         <v>371</v>
       </c>
       <c r="E104" s="45" t="s">
@@ -5576,28 +5614,28 @@
       <c r="F104" s="47">
         <v>21</v>
       </c>
-      <c r="G104" s="105" t="s">
+      <c r="G104" s="96" t="s">
         <v>370</v>
       </c>
       <c r="H104" s="46"/>
-      <c r="I104" s="89"/>
+      <c r="I104" s="87"/>
       <c r="J104" s="44"/>
       <c r="L104" s="45"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="90"/>
-      <c r="B105" s="90"/>
-      <c r="C105" s="106"/>
-      <c r="D105" s="106"/>
+      <c r="A105" s="88"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="97"/>
       <c r="E105" s="45" t="s">
         <v>372</v>
       </c>
       <c r="F105" s="47">
         <v>27.43</v>
       </c>
-      <c r="G105" s="106"/>
+      <c r="G105" s="97"/>
       <c r="H105" s="46"/>
-      <c r="I105" s="90"/>
+      <c r="I105" s="88"/>
       <c r="J105" s="44"/>
       <c r="L105" s="45"/>
     </row>
@@ -5631,7 +5669,7 @@
       <c r="L106" s="45"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="124">
+      <c r="A107" s="98">
         <v>21</v>
       </c>
       <c r="B107" s="95" t="s">
@@ -5653,7 +5691,7 @@
         <v>374</v>
       </c>
       <c r="H107" s="46"/>
-      <c r="I107" s="88">
+      <c r="I107" s="86">
         <f>SUM(F107:F111)</f>
         <v>63.53</v>
       </c>
@@ -5661,9 +5699,9 @@
       <c r="L107" s="45"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="125"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="93" t="s">
+      <c r="A108" s="99"/>
+      <c r="B108" s="87"/>
+      <c r="C108" s="89" t="s">
         <v>384</v>
       </c>
       <c r="D108" s="44" t="s">
@@ -5675,18 +5713,18 @@
       <c r="F108" s="47">
         <v>12.09</v>
       </c>
-      <c r="G108" s="105" t="s">
+      <c r="G108" s="96" t="s">
         <v>382</v>
       </c>
       <c r="H108" s="46"/>
-      <c r="I108" s="89"/>
+      <c r="I108" s="87"/>
       <c r="J108" s="44"/>
       <c r="L108" s="45"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="125"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="94"/>
+      <c r="A109" s="99"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="44" t="s">
         <v>385</v>
       </c>
@@ -5696,15 +5734,15 @@
       <c r="F109" s="47">
         <v>6.63</v>
       </c>
-      <c r="G109" s="106"/>
+      <c r="G109" s="97"/>
       <c r="H109" s="46"/>
-      <c r="I109" s="89"/>
+      <c r="I109" s="87"/>
       <c r="J109" s="44"/>
       <c r="L109" s="45"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="125"/>
-      <c r="B110" s="89"/>
+      <c r="A110" s="99"/>
+      <c r="B110" s="87"/>
       <c r="C110" s="46" t="s">
         <v>384</v>
       </c>
@@ -5721,13 +5759,13 @@
         <v>387</v>
       </c>
       <c r="H110" s="46"/>
-      <c r="I110" s="89"/>
+      <c r="I110" s="87"/>
       <c r="J110" s="44"/>
       <c r="L110" s="45"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="126"/>
-      <c r="B111" s="90"/>
+      <c r="A111" s="100"/>
+      <c r="B111" s="88"/>
       <c r="C111" s="46" t="s">
         <v>384</v>
       </c>
@@ -5744,15 +5782,15 @@
         <v>389</v>
       </c>
       <c r="H111" s="46"/>
-      <c r="I111" s="90"/>
+      <c r="I111" s="88"/>
       <c r="J111" s="44"/>
       <c r="L111" s="45"/>
     </row>
     <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="101">
+      <c r="A112" s="110">
         <v>22</v>
       </c>
-      <c r="B112" s="101" t="s">
+      <c r="B112" s="110" t="s">
         <v>392</v>
       </c>
       <c r="C112" s="73" t="s">
@@ -5773,7 +5811,7 @@
       <c r="H112" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="I112" s="91">
+      <c r="I112" s="101">
         <f>SUM(F112:F118)</f>
         <v>3137.64</v>
       </c>
@@ -5781,8 +5819,8 @@
       <c r="L112" s="45"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="96"/>
-      <c r="B113" s="96"/>
+      <c r="A113" s="111"/>
+      <c r="B113" s="111"/>
       <c r="C113" s="73" t="s">
         <v>367</v>
       </c>
@@ -5799,13 +5837,13 @@
         <v>368</v>
       </c>
       <c r="H113" s="73"/>
-      <c r="I113" s="96"/>
+      <c r="I113" s="111"/>
       <c r="J113" s="75"/>
       <c r="L113" s="45"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="96"/>
-      <c r="B114" s="96"/>
+      <c r="A114" s="111"/>
+      <c r="B114" s="111"/>
       <c r="C114" s="73" t="s">
         <v>399</v>
       </c>
@@ -5822,13 +5860,13 @@
         <v>398</v>
       </c>
       <c r="H114" s="73"/>
-      <c r="I114" s="96"/>
+      <c r="I114" s="111"/>
       <c r="J114" s="75"/>
       <c r="L114" s="45"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="96"/>
-      <c r="B115" s="96"/>
+      <c r="A115" s="111"/>
+      <c r="B115" s="111"/>
       <c r="C115" s="69" t="s">
         <v>481</v>
       </c>
@@ -5845,15 +5883,15 @@
         <v>401</v>
       </c>
       <c r="H115" s="73"/>
-      <c r="I115" s="96"/>
+      <c r="I115" s="111"/>
       <c r="J115" s="75"/>
       <c r="L115" s="70">
         <v>2684</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="96"/>
-      <c r="B116" s="96"/>
+      <c r="A116" s="111"/>
+      <c r="B116" s="111"/>
       <c r="C116" s="75" t="s">
         <v>404</v>
       </c>
@@ -5868,13 +5906,13 @@
         <v>405</v>
       </c>
       <c r="H116" s="73"/>
-      <c r="I116" s="96"/>
+      <c r="I116" s="111"/>
       <c r="J116" s="75"/>
       <c r="L116" s="45"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="96"/>
-      <c r="B117" s="96"/>
+      <c r="A117" s="111"/>
+      <c r="B117" s="111"/>
       <c r="C117" s="73" t="s">
         <v>407</v>
       </c>
@@ -5889,13 +5927,13 @@
         <v>409</v>
       </c>
       <c r="H117" s="73"/>
-      <c r="I117" s="96"/>
+      <c r="I117" s="111"/>
       <c r="J117" s="75"/>
       <c r="L117" s="45"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="97"/>
-      <c r="B118" s="97"/>
+      <c r="A118" s="112"/>
+      <c r="B118" s="112"/>
       <c r="C118" s="75" t="s">
         <v>410</v>
       </c>
@@ -5912,7 +5950,7 @@
         <v>411</v>
       </c>
       <c r="H118" s="73"/>
-      <c r="I118" s="97"/>
+      <c r="I118" s="112"/>
       <c r="J118" s="75"/>
       <c r="L118" s="45"/>
     </row>
@@ -5935,7 +5973,7 @@
       </c>
       <c r="G119" s="44"/>
       <c r="H119" s="46"/>
-      <c r="I119" s="88">
+      <c r="I119" s="86">
         <f>SUM(F119:F142)</f>
         <v>1698.7700000000002</v>
       </c>
@@ -5943,8 +5981,8 @@
       <c r="L119" s="45"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="89"/>
-      <c r="B120" s="89"/>
+      <c r="A120" s="87"/>
+      <c r="B120" s="87"/>
       <c r="C120" s="44" t="s">
         <v>416</v>
       </c>
@@ -5959,13 +5997,13 @@
       </c>
       <c r="G120" s="44"/>
       <c r="H120" s="46"/>
-      <c r="I120" s="89"/>
+      <c r="I120" s="87"/>
       <c r="J120" s="44"/>
       <c r="L120" s="45"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="89"/>
-      <c r="B121" s="89"/>
+      <c r="A121" s="87"/>
+      <c r="B121" s="87"/>
       <c r="C121" s="44" t="s">
         <v>419</v>
       </c>
@@ -5979,13 +6017,13 @@
         <v>398</v>
       </c>
       <c r="H121" s="46"/>
-      <c r="I121" s="89"/>
+      <c r="I121" s="87"/>
       <c r="J121" s="44"/>
       <c r="L121" s="45"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="89"/>
-      <c r="B122" s="89"/>
+      <c r="A122" s="87"/>
+      <c r="B122" s="87"/>
       <c r="C122" s="44" t="s">
         <v>421</v>
       </c>
@@ -5998,13 +6036,13 @@
       </c>
       <c r="G122" s="44"/>
       <c r="H122" s="46"/>
-      <c r="I122" s="89"/>
+      <c r="I122" s="87"/>
       <c r="J122" s="44"/>
       <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="89"/>
-      <c r="B123" s="89"/>
+      <c r="A123" s="87"/>
+      <c r="B123" s="87"/>
       <c r="C123" s="44" t="s">
         <v>424</v>
       </c>
@@ -6017,13 +6055,13 @@
       </c>
       <c r="G123" s="44"/>
       <c r="H123" s="46"/>
-      <c r="I123" s="89"/>
+      <c r="I123" s="87"/>
       <c r="J123" s="44"/>
       <c r="L123" s="45"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="89"/>
-      <c r="B124" s="89"/>
+      <c r="A124" s="87"/>
+      <c r="B124" s="87"/>
       <c r="C124" s="44" t="s">
         <v>483</v>
       </c>
@@ -6038,13 +6076,13 @@
       </c>
       <c r="G124" s="44"/>
       <c r="H124" s="46"/>
-      <c r="I124" s="89"/>
+      <c r="I124" s="87"/>
       <c r="J124" s="44"/>
       <c r="L124" s="45"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="89"/>
-      <c r="B125" s="89"/>
+      <c r="A125" s="87"/>
+      <c r="B125" s="87"/>
       <c r="C125" s="44" t="s">
         <v>484</v>
       </c>
@@ -6061,13 +6099,13 @@
         <v>89</v>
       </c>
       <c r="H125" s="46"/>
-      <c r="I125" s="89"/>
+      <c r="I125" s="87"/>
       <c r="J125" s="44"/>
       <c r="L125" s="45"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="89"/>
-      <c r="B126" s="89"/>
+      <c r="A126" s="87"/>
+      <c r="B126" s="87"/>
       <c r="C126" s="44" t="s">
         <v>443</v>
       </c>
@@ -6082,13 +6120,13 @@
       </c>
       <c r="G126" s="44"/>
       <c r="H126" s="46"/>
-      <c r="I126" s="89"/>
+      <c r="I126" s="87"/>
       <c r="J126" s="44"/>
       <c r="L126" s="45"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="89"/>
-      <c r="B127" s="89"/>
+      <c r="A127" s="87"/>
+      <c r="B127" s="87"/>
       <c r="C127" s="46" t="s">
         <v>446</v>
       </c>
@@ -6103,13 +6141,13 @@
       </c>
       <c r="G127" s="44"/>
       <c r="H127" s="46"/>
-      <c r="I127" s="89"/>
+      <c r="I127" s="87"/>
       <c r="J127" s="44"/>
       <c r="L127" s="45"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="89"/>
-      <c r="B128" s="89"/>
+      <c r="A128" s="87"/>
+      <c r="B128" s="87"/>
       <c r="C128" s="46" t="s">
         <v>449</v>
       </c>
@@ -6124,13 +6162,13 @@
       </c>
       <c r="G128" s="44"/>
       <c r="H128" s="46"/>
-      <c r="I128" s="89"/>
+      <c r="I128" s="87"/>
       <c r="J128" s="44"/>
       <c r="L128" s="45"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="89"/>
-      <c r="B129" s="89"/>
+      <c r="A129" s="87"/>
+      <c r="B129" s="87"/>
       <c r="C129" s="46" t="s">
         <v>450</v>
       </c>
@@ -6145,13 +6183,13 @@
       </c>
       <c r="G129" s="44"/>
       <c r="H129" s="46"/>
-      <c r="I129" s="89"/>
+      <c r="I129" s="87"/>
       <c r="J129" s="44"/>
       <c r="L129" s="45"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="89"/>
-      <c r="B130" s="89"/>
+      <c r="A130" s="87"/>
+      <c r="B130" s="87"/>
       <c r="C130" s="46" t="s">
         <v>453</v>
       </c>
@@ -6166,13 +6204,13 @@
       </c>
       <c r="G130" s="44"/>
       <c r="H130" s="46"/>
-      <c r="I130" s="89"/>
+      <c r="I130" s="87"/>
       <c r="J130" s="44"/>
       <c r="L130" s="45"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="89"/>
-      <c r="B131" s="89"/>
+      <c r="A131" s="87"/>
+      <c r="B131" s="87"/>
       <c r="C131" s="46" t="s">
         <v>456</v>
       </c>
@@ -6187,13 +6225,13 @@
       </c>
       <c r="G131" s="44"/>
       <c r="H131" s="46"/>
-      <c r="I131" s="89"/>
+      <c r="I131" s="87"/>
       <c r="J131" s="44"/>
       <c r="L131" s="45"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="89"/>
-      <c r="B132" s="89"/>
+      <c r="A132" s="87"/>
+      <c r="B132" s="87"/>
       <c r="C132" s="46" t="s">
         <v>459</v>
       </c>
@@ -6208,13 +6246,13 @@
       </c>
       <c r="G132" s="44"/>
       <c r="H132" s="46"/>
-      <c r="I132" s="89"/>
+      <c r="I132" s="87"/>
       <c r="J132" s="44"/>
       <c r="L132" s="45"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="89"/>
-      <c r="B133" s="89"/>
+      <c r="A133" s="87"/>
+      <c r="B133" s="87"/>
       <c r="C133" s="46" t="s">
         <v>460</v>
       </c>
@@ -6229,13 +6267,13 @@
       </c>
       <c r="G133" s="44"/>
       <c r="H133" s="46"/>
-      <c r="I133" s="89"/>
+      <c r="I133" s="87"/>
       <c r="J133" s="44"/>
       <c r="L133" s="45"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="89"/>
-      <c r="B134" s="89"/>
+      <c r="A134" s="87"/>
+      <c r="B134" s="87"/>
       <c r="C134" s="46" t="s">
         <v>462</v>
       </c>
@@ -6250,13 +6288,13 @@
       </c>
       <c r="G134" s="44"/>
       <c r="H134" s="46"/>
-      <c r="I134" s="89"/>
+      <c r="I134" s="87"/>
       <c r="J134" s="44"/>
       <c r="L134" s="45"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="89"/>
-      <c r="B135" s="89"/>
+      <c r="A135" s="87"/>
+      <c r="B135" s="87"/>
       <c r="C135" s="46" t="s">
         <v>464</v>
       </c>
@@ -6271,13 +6309,13 @@
       </c>
       <c r="G135" s="44"/>
       <c r="H135" s="46"/>
-      <c r="I135" s="89"/>
+      <c r="I135" s="87"/>
       <c r="J135" s="44"/>
       <c r="L135" s="45"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="89"/>
-      <c r="B136" s="89"/>
+      <c r="A136" s="87"/>
+      <c r="B136" s="87"/>
       <c r="C136" s="46" t="s">
         <v>465</v>
       </c>
@@ -6292,13 +6330,13 @@
       </c>
       <c r="G136" s="44"/>
       <c r="H136" s="46"/>
-      <c r="I136" s="89"/>
+      <c r="I136" s="87"/>
       <c r="J136" s="44"/>
       <c r="L136" s="45"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="89"/>
-      <c r="B137" s="89"/>
+      <c r="A137" s="87"/>
+      <c r="B137" s="87"/>
       <c r="C137" s="46" t="s">
         <v>465</v>
       </c>
@@ -6313,13 +6351,13 @@
       </c>
       <c r="G137" s="44"/>
       <c r="H137" s="46"/>
-      <c r="I137" s="89"/>
+      <c r="I137" s="87"/>
       <c r="J137" s="44"/>
       <c r="L137" s="45"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="89"/>
-      <c r="B138" s="89"/>
+      <c r="A138" s="87"/>
+      <c r="B138" s="87"/>
       <c r="C138" s="46" t="s">
         <v>469</v>
       </c>
@@ -6334,13 +6372,13 @@
       </c>
       <c r="G138" s="44"/>
       <c r="H138" s="46"/>
-      <c r="I138" s="89"/>
+      <c r="I138" s="87"/>
       <c r="J138" s="44"/>
       <c r="L138" s="45"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="89"/>
-      <c r="B139" s="89"/>
+      <c r="A139" s="87"/>
+      <c r="B139" s="87"/>
       <c r="C139" s="46" t="s">
         <v>472</v>
       </c>
@@ -6355,13 +6393,13 @@
       </c>
       <c r="G139" s="44"/>
       <c r="H139" s="46"/>
-      <c r="I139" s="89"/>
+      <c r="I139" s="87"/>
       <c r="J139" s="44"/>
       <c r="L139" s="45"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="89"/>
-      <c r="B140" s="89"/>
+      <c r="A140" s="87"/>
+      <c r="B140" s="87"/>
       <c r="C140" s="46" t="s">
         <v>474</v>
       </c>
@@ -6376,13 +6414,13 @@
       </c>
       <c r="G140" s="44"/>
       <c r="H140" s="46"/>
-      <c r="I140" s="89"/>
+      <c r="I140" s="87"/>
       <c r="J140" s="44"/>
       <c r="L140" s="45"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="89"/>
-      <c r="B141" s="89"/>
+      <c r="A141" s="87"/>
+      <c r="B141" s="87"/>
       <c r="C141" s="46" t="s">
         <v>477</v>
       </c>
@@ -6397,13 +6435,13 @@
       </c>
       <c r="G141" s="44"/>
       <c r="H141" s="46"/>
-      <c r="I141" s="89"/>
+      <c r="I141" s="87"/>
       <c r="J141" s="44"/>
       <c r="L141" s="45"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="90"/>
-      <c r="B142" s="90"/>
+      <c r="A142" s="88"/>
+      <c r="B142" s="88"/>
       <c r="C142" s="46" t="s">
         <v>477</v>
       </c>
@@ -6418,7 +6456,7 @@
       </c>
       <c r="G142" s="44"/>
       <c r="H142" s="46"/>
-      <c r="I142" s="90"/>
+      <c r="I142" s="88"/>
       <c r="J142" s="44"/>
       <c r="L142" s="45"/>
     </row>
@@ -6448,8 +6486,8 @@
       <c r="L143" s="45"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="89"/>
-      <c r="B144" s="89"/>
+      <c r="A144" s="87"/>
+      <c r="B144" s="87"/>
       <c r="C144" s="46" t="s">
         <v>493</v>
       </c>
@@ -6467,8 +6505,8 @@
       <c r="L144" s="45"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="89"/>
-      <c r="B145" s="89"/>
+      <c r="A145" s="87"/>
+      <c r="B145" s="87"/>
       <c r="C145" s="46" t="s">
         <v>495</v>
       </c>
@@ -6486,8 +6524,8 @@
       <c r="L145" s="45"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="89"/>
-      <c r="B146" s="89"/>
+      <c r="A146" s="87"/>
+      <c r="B146" s="87"/>
       <c r="C146" s="46"/>
       <c r="D146" s="44"/>
       <c r="E146" s="45"/>
@@ -6501,8 +6539,8 @@
       <c r="L146" s="45"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" s="90"/>
-      <c r="B147" s="90"/>
+      <c r="A147" s="88"/>
+      <c r="B147" s="88"/>
       <c r="C147" s="46"/>
       <c r="D147" s="44"/>
       <c r="E147" s="45"/>
@@ -6541,8 +6579,8 @@
       <c r="L148" s="45"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="89"/>
-      <c r="B149" s="89"/>
+      <c r="A149" s="87"/>
+      <c r="B149" s="87"/>
       <c r="C149" s="46" t="s">
         <v>500</v>
       </c>
@@ -6560,8 +6598,8 @@
       <c r="L149" s="45"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="89"/>
-      <c r="B150" s="89"/>
+      <c r="A150" s="87"/>
+      <c r="B150" s="87"/>
       <c r="C150" s="46" t="s">
         <v>501</v>
       </c>
@@ -6581,8 +6619,8 @@
       <c r="L150" s="45"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A151" s="89"/>
-      <c r="B151" s="89"/>
+      <c r="A151" s="87"/>
+      <c r="B151" s="87"/>
       <c r="C151" s="46" t="s">
         <v>504</v>
       </c>
@@ -6602,8 +6640,8 @@
       <c r="L151" s="45"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" s="89"/>
-      <c r="B152" s="89"/>
+      <c r="A152" s="87"/>
+      <c r="B152" s="87"/>
       <c r="C152" s="46" t="s">
         <v>507</v>
       </c>
@@ -6623,8 +6661,8 @@
       <c r="L152" s="45"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" s="89"/>
-      <c r="B153" s="89"/>
+      <c r="A153" s="87"/>
+      <c r="B153" s="87"/>
       <c r="C153" s="46" t="s">
         <v>509</v>
       </c>
@@ -6640,9 +6678,9 @@
       <c r="L153" s="45"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" s="89"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="93" t="s">
+      <c r="A154" s="87"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="89" t="s">
         <v>510</v>
       </c>
       <c r="D154" s="44"/>
@@ -6657,9 +6695,9 @@
       <c r="L154" s="45"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="89"/>
-      <c r="B155" s="89"/>
-      <c r="C155" s="94"/>
+      <c r="A155" s="87"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="90"/>
       <c r="D155" s="44"/>
       <c r="E155" s="45"/>
       <c r="F155" s="47">
@@ -6672,9 +6710,9 @@
       <c r="L155" s="45"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="89"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="93" t="s">
+      <c r="A156" s="87"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="89" t="s">
         <v>511</v>
       </c>
       <c r="D156" s="44"/>
@@ -6689,9 +6727,9 @@
       <c r="L156" s="45"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="89"/>
-      <c r="B157" s="89"/>
-      <c r="C157" s="100"/>
+      <c r="A157" s="87"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="91"/>
       <c r="D157" s="44"/>
       <c r="E157" s="45"/>
       <c r="F157" s="47">
@@ -6704,9 +6742,9 @@
       <c r="L157" s="45"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="89"/>
-      <c r="B158" s="89"/>
-      <c r="C158" s="94"/>
+      <c r="A158" s="87"/>
+      <c r="B158" s="87"/>
+      <c r="C158" s="90"/>
       <c r="D158" s="44"/>
       <c r="E158" s="45"/>
       <c r="F158" s="47">
@@ -6719,58 +6757,73 @@
       <c r="L158" s="45"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="89"/>
-      <c r="B159" s="89"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="44"/>
+      <c r="A159" s="87"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="92" t="s">
+        <v>512</v>
+      </c>
+      <c r="D159" s="44" t="s">
+        <v>515</v>
+      </c>
       <c r="E159" s="45"/>
-      <c r="F159" s="47">
-        <v>38.9</v>
+      <c r="F159" s="70">
+        <v>28.23</v>
       </c>
       <c r="G159" s="44"/>
       <c r="H159" s="46"/>
       <c r="I159" s="68"/>
       <c r="J159" s="44"/>
-      <c r="L159" s="45"/>
+      <c r="L159" s="163">
+        <f>SUM(F159:F161)</f>
+        <v>262.23</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="89"/>
-      <c r="B160" s="89"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="44"/>
+      <c r="A160" s="87"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="93"/>
+      <c r="D160" s="44" t="s">
+        <v>516</v>
+      </c>
       <c r="E160" s="45"/>
-      <c r="F160" s="47">
-        <v>14.7</v>
+      <c r="F160" s="70">
+        <v>94</v>
       </c>
       <c r="G160" s="44"/>
       <c r="H160" s="46"/>
       <c r="I160" s="68"/>
       <c r="J160" s="44"/>
-      <c r="L160" s="45"/>
+      <c r="L160" s="164"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="89"/>
-      <c r="B161" s="89"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="44"/>
+      <c r="A161" s="87"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="94"/>
+      <c r="D161" s="44" t="s">
+        <v>517</v>
+      </c>
       <c r="E161" s="45"/>
-      <c r="F161" s="47">
-        <v>4.87</v>
+      <c r="F161" s="70">
+        <v>140</v>
       </c>
       <c r="G161" s="44"/>
       <c r="H161" s="46"/>
       <c r="I161" s="68"/>
       <c r="J161" s="44"/>
-      <c r="L161" s="45"/>
+      <c r="L161" s="165"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" s="89"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="44"/>
+      <c r="A162" s="88"/>
+      <c r="B162" s="88"/>
+      <c r="C162" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="D162" s="44" t="s">
+        <v>518</v>
+      </c>
       <c r="E162" s="45"/>
       <c r="F162" s="47">
-        <v>4.1500000000000004</v>
+        <v>479</v>
       </c>
       <c r="G162" s="44"/>
       <c r="H162" s="46"/>
@@ -6779,81 +6832,74 @@
       <c r="L162" s="45"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" s="89"/>
-      <c r="B163" s="89"/>
-      <c r="C163" s="46"/>
+      <c r="A163" s="45">
+        <v>26</v>
+      </c>
+      <c r="B163" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="C163" s="69" t="s">
+        <v>514</v>
+      </c>
       <c r="D163" s="44"/>
       <c r="E163" s="45"/>
-      <c r="F163" s="47">
-        <v>51.99</v>
+      <c r="F163" s="70">
+        <v>2600</v>
       </c>
       <c r="G163" s="44"/>
       <c r="H163" s="46"/>
       <c r="I163" s="68"/>
       <c r="J163" s="44"/>
-      <c r="L163" s="45"/>
+      <c r="L163" s="70">
+        <v>2600</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="89"/>
-      <c r="B164" s="89"/>
-      <c r="C164" s="121" t="s">
-        <v>512</v>
-      </c>
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="46"/>
       <c r="D164" s="44"/>
       <c r="E164" s="45"/>
-      <c r="F164" s="70">
-        <v>28.23</v>
-      </c>
+      <c r="F164" s="47"/>
       <c r="G164" s="44"/>
       <c r="H164" s="46"/>
       <c r="I164" s="68"/>
       <c r="J164" s="44"/>
-      <c r="L164" s="88">
-        <f>SUM(F164:F166)</f>
-        <v>262.23</v>
-      </c>
+      <c r="L164" s="45"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" s="89"/>
-      <c r="B165" s="89"/>
-      <c r="C165" s="122"/>
+      <c r="A165" s="45"/>
+      <c r="B165" s="45"/>
+      <c r="C165" s="46"/>
       <c r="D165" s="44"/>
       <c r="E165" s="45"/>
-      <c r="F165" s="70">
-        <v>94</v>
-      </c>
+      <c r="F165" s="47"/>
       <c r="G165" s="44"/>
       <c r="H165" s="46"/>
       <c r="I165" s="68"/>
       <c r="J165" s="44"/>
-      <c r="L165" s="89"/>
+      <c r="L165" s="45"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="89"/>
-      <c r="B166" s="89"/>
-      <c r="C166" s="123"/>
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="46"/>
       <c r="D166" s="44"/>
       <c r="E166" s="45"/>
-      <c r="F166" s="70">
-        <v>140</v>
-      </c>
+      <c r="F166" s="47"/>
       <c r="G166" s="44"/>
       <c r="H166" s="46"/>
       <c r="I166" s="68"/>
       <c r="J166" s="44"/>
-      <c r="L166" s="90"/>
+      <c r="L166" s="45"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" s="90"/>
-      <c r="B167" s="90"/>
-      <c r="C167" s="46" t="s">
-        <v>513</v>
-      </c>
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="46"/>
       <c r="D167" s="44"/>
       <c r="E167" s="45"/>
-      <c r="F167" s="47">
-        <v>479</v>
-      </c>
+      <c r="F167" s="47"/>
       <c r="G167" s="44"/>
       <c r="H167" s="46"/>
       <c r="I167" s="68"/>
@@ -7510,165 +7556,8 @@
       <c r="J217" s="44"/>
       <c r="L217" s="45"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" s="45"/>
-      <c r="B218" s="45"/>
-      <c r="C218" s="46"/>
-      <c r="D218" s="44"/>
-      <c r="E218" s="45"/>
-      <c r="F218" s="47"/>
-      <c r="G218" s="44"/>
-      <c r="H218" s="46"/>
-      <c r="I218" s="68"/>
-      <c r="J218" s="44"/>
-      <c r="L218" s="45"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" s="45"/>
-      <c r="B219" s="45"/>
-      <c r="C219" s="46"/>
-      <c r="D219" s="44"/>
-      <c r="E219" s="45"/>
-      <c r="F219" s="47"/>
-      <c r="G219" s="44"/>
-      <c r="H219" s="46"/>
-      <c r="I219" s="68"/>
-      <c r="J219" s="44"/>
-      <c r="L219" s="45"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A220" s="45"/>
-      <c r="B220" s="45"/>
-      <c r="C220" s="46"/>
-      <c r="D220" s="44"/>
-      <c r="E220" s="45"/>
-      <c r="F220" s="47"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="46"/>
-      <c r="I220" s="68"/>
-      <c r="J220" s="44"/>
-      <c r="L220" s="45"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A221" s="45"/>
-      <c r="B221" s="45"/>
-      <c r="C221" s="46"/>
-      <c r="D221" s="44"/>
-      <c r="E221" s="45"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="44"/>
-      <c r="H221" s="46"/>
-      <c r="I221" s="68"/>
-      <c r="J221" s="44"/>
-      <c r="L221" s="45"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A222" s="45"/>
-      <c r="B222" s="45"/>
-      <c r="C222" s="46"/>
-      <c r="D222" s="44"/>
-      <c r="E222" s="45"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="44"/>
-      <c r="H222" s="46"/>
-      <c r="I222" s="68"/>
-      <c r="J222" s="44"/>
-      <c r="L222" s="45"/>
-    </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="L164:L166"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="B148:B167"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A167"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G97:G100"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A97:A100"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="L83:L84"/>
     <mergeCell ref="L89:L94"/>
@@ -7693,6 +7582,98 @@
     <mergeCell ref="I78:I82"/>
     <mergeCell ref="I83:I84"/>
     <mergeCell ref="G89:G94"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="L159:L161"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="B148:B162"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A162"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A118"/>
     <mergeCell ref="B112:B118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7727,19 +7708,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="147" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -7749,31 +7730,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="131" t="s">
+      <c r="J1" s="153" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="132"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="154"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -7793,7 +7774,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="129" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -7806,7 +7787,7 @@
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="128" t="s">
+      <c r="J3" s="132" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7826,7 +7807,7 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="146"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
@@ -7837,10 +7818,10 @@
       <c r="J4" s="133"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="127">
+      <c r="A5" s="130">
         <v>3</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="142" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -7851,16 +7832,16 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="137"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127" t="s">
+      <c r="G5" s="130"/>
+      <c r="H5" s="130" t="s">
         <v>74</v>
       </c>
       <c r="I5" s="134"/>
-      <c r="J5" s="127"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128"/>
-      <c r="B6" s="151"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -7869,16 +7850,16 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="139"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="140"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="136"/>
-      <c r="J6" s="128"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="133">
         <v>4</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="141" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -7890,25 +7871,25 @@
       <c r="E7" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="149" t="s">
+      <c r="F7" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="146">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="147">
+      <c r="I7" s="146">
         <v>630</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="130" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="133"/>
-      <c r="B8" s="149"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
@@ -7916,19 +7897,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="133"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="147"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="147"/>
-      <c r="J8" s="128"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="127">
+      <c r="A9" s="130">
         <v>5</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="127" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -7940,26 +7921,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="148" t="s">
+      <c r="F9" s="127" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="127" t="s">
+      <c r="H9" s="130" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="134">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="130" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="140"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -7969,17 +7950,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="145"/>
+      <c r="F10" s="129"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="140"/>
+      <c r="H10" s="131"/>
       <c r="I10" s="135"/>
-      <c r="J10" s="140"/>
+      <c r="J10" s="131"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="140"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -7989,17 +7970,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="140"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="135"/>
-      <c r="J11" s="140"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="140"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -8009,17 +7990,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="145"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="140"/>
+      <c r="H12" s="131"/>
       <c r="I12" s="135"/>
-      <c r="J12" s="140"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="140"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -8029,17 +8010,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="145"/>
+      <c r="F13" s="129"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="140"/>
+      <c r="H13" s="131"/>
       <c r="I13" s="135"/>
-      <c r="J13" s="140"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -8049,13 +8030,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="146"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="128"/>
+      <c r="H14" s="132"/>
       <c r="I14" s="136"/>
-      <c r="J14" s="128"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -8090,10 +8071,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127">
+      <c r="A16" s="130">
         <v>7</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="144" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -8102,10 +8083,10 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="148" t="s">
+      <c r="F16" s="127" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="134">
@@ -8115,127 +8096,127 @@
       <c r="I16" s="134">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="127" t="s">
+      <c r="J16" s="130" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="140"/>
-      <c r="B17" s="153"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="145"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="135"/>
       <c r="H17" s="138"/>
       <c r="I17" s="135"/>
-      <c r="J17" s="140"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="140"/>
-      <c r="B18" s="153"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="140"/>
-      <c r="F18" s="145"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="135"/>
       <c r="H18" s="138"/>
       <c r="I18" s="135"/>
-      <c r="J18" s="140"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140"/>
-      <c r="B19" s="153"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="145"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="135"/>
       <c r="H19" s="138"/>
       <c r="I19" s="135"/>
-      <c r="J19" s="140"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="140"/>
-      <c r="F20" s="145"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="135"/>
       <c r="H20" s="138"/>
       <c r="I20" s="135"/>
-      <c r="J20" s="140"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="140"/>
-      <c r="B21" s="153"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="145"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="135"/>
       <c r="H21" s="138"/>
       <c r="I21" s="135"/>
-      <c r="J21" s="140"/>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="140"/>
-      <c r="B22" s="153"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="140"/>
-      <c r="F22" s="145"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="135"/>
       <c r="H22" s="138"/>
       <c r="I22" s="135"/>
-      <c r="J22" s="140"/>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="140"/>
-      <c r="B23" s="153"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="146"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="128"/>
       <c r="G23" s="136"/>
       <c r="H23" s="139"/>
       <c r="I23" s="136"/>
-      <c r="J23" s="128"/>
+      <c r="J23" s="132"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="127">
+      <c r="A24" s="130">
         <v>8</v>
       </c>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="127" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -8244,10 +8225,10 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="E24" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="148" t="s">
+      <c r="F24" s="127" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="134">
@@ -8257,95 +8238,95 @@
       <c r="I24" s="134">
         <v>180.56</v>
       </c>
-      <c r="J24" s="127" t="s">
+      <c r="J24" s="130" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="140"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="145"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="135"/>
       <c r="H25" s="138"/>
       <c r="I25" s="135"/>
-      <c r="J25" s="140"/>
+      <c r="J25" s="131"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="140"/>
-      <c r="B26" s="145"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="145"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="135"/>
       <c r="H26" s="138"/>
       <c r="I26" s="135"/>
-      <c r="J26" s="140"/>
+      <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="140"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="145"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="135"/>
       <c r="H27" s="138"/>
       <c r="I27" s="135"/>
-      <c r="J27" s="140"/>
+      <c r="J27" s="131"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="140"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="145"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="135"/>
       <c r="H28" s="138"/>
       <c r="I28" s="135"/>
-      <c r="J28" s="140"/>
+      <c r="J28" s="131"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="128"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="128"/>
-      <c r="F29" s="146"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="128"/>
       <c r="G29" s="136"/>
       <c r="H29" s="139"/>
       <c r="I29" s="136"/>
-      <c r="J29" s="128"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127">
+      <c r="A30" s="130">
         <v>16</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="127" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -8354,10 +8335,10 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="127" t="s">
+      <c r="E30" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="148" t="s">
+      <c r="F30" s="127" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="134">
@@ -8367,28 +8348,28 @@
       <c r="I30" s="134">
         <v>180.56</v>
       </c>
-      <c r="J30" s="127" t="s">
+      <c r="J30" s="130" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="128"/>
-      <c r="B31" s="146"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="128"/>
-      <c r="F31" s="146"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="136"/>
       <c r="H31" s="139"/>
       <c r="I31" s="136"/>
-      <c r="J31" s="128"/>
+      <c r="J31" s="132"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127">
+      <c r="A32" s="130">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -8418,7 +8399,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="128"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -8476,7 +8457,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="127">
+      <c r="A35" s="130">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -8506,8 +8487,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="140"/>
-      <c r="B36" s="148" t="s">
+      <c r="A36" s="131"/>
+      <c r="B36" s="127" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -8534,8 +8515,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="140"/>
-      <c r="B37" s="146"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -8560,7 +8541,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="140"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="137" t="s">
         <v>228</v>
       </c>
@@ -8586,7 +8567,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="140"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="138"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
@@ -8610,7 +8591,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="140"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="139"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
@@ -8634,7 +8615,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="140"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="137" t="s">
         <v>237</v>
       </c>
@@ -8660,7 +8641,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="140"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="138"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
@@ -8684,7 +8665,7 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="140"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="138"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
@@ -8708,7 +8689,7 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="128"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="139"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
@@ -8762,10 +8743,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="127">
+      <c r="A46" s="130">
         <v>21</v>
       </c>
-      <c r="B46" s="148" t="s">
+      <c r="B46" s="127" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -8790,8 +8771,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="140"/>
-      <c r="B47" s="145"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -8814,8 +8795,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="140"/>
-      <c r="B48" s="145"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -8838,8 +8819,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="140"/>
-      <c r="B49" s="145"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="129"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -8860,8 +8841,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="140"/>
-      <c r="B50" s="145"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="129"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -8871,7 +8852,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="148" t="s">
+      <c r="F50" s="127" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -8884,8 +8865,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="140"/>
-      <c r="B51" s="145"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="129"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -8895,7 +8876,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="145"/>
+      <c r="F51" s="129"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -8906,8 +8887,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="128"/>
-      <c r="B52" s="146"/>
+      <c r="A52" s="132"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -8917,7 +8898,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="146"/>
+      <c r="F52" s="128"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -8928,10 +8909,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="127">
+      <c r="A53" s="130">
         <v>22</v>
       </c>
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="127" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -8943,7 +8924,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="148" t="s">
+      <c r="F53" s="127" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -8956,8 +8937,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="140"/>
-      <c r="B54" s="145"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="129"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -8967,7 +8948,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="145"/>
+      <c r="F54" s="129"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -8978,8 +8959,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="140"/>
-      <c r="B55" s="145"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -8989,7 +8970,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="145"/>
+      <c r="F55" s="129"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -9000,8 +8981,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="140"/>
-      <c r="B56" s="145"/>
+      <c r="A56" s="131"/>
+      <c r="B56" s="129"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -9011,7 +8992,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="145"/>
+      <c r="F56" s="129"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -9022,8 +9003,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="140"/>
-      <c r="B57" s="145"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="129"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -9033,7 +9014,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="145"/>
+      <c r="F57" s="129"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -9044,8 +9025,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="140"/>
-      <c r="B58" s="145"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="129"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -9055,7 +9036,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="146"/>
+      <c r="F58" s="128"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -9066,10 +9047,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="127">
+      <c r="A59" s="130">
         <v>23</v>
       </c>
-      <c r="B59" s="148" t="s">
+      <c r="B59" s="127" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -9094,8 +9075,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="140"/>
-      <c r="B60" s="145"/>
+      <c r="A60" s="131"/>
+      <c r="B60" s="129"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -9118,8 +9099,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="140"/>
-      <c r="B61" s="145"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -9142,8 +9123,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="140"/>
-      <c r="B62" s="145"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -9166,8 +9147,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="140"/>
-      <c r="B63" s="145"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -9177,17 +9158,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="148"/>
+      <c r="F63" s="127"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
       <c r="H63" s="137"/>
       <c r="I63" s="134"/>
-      <c r="J63" s="127"/>
+      <c r="J63" s="130"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="140"/>
-      <c r="B64" s="145"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -9197,17 +9178,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="145"/>
+      <c r="F64" s="129"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
       <c r="H64" s="138"/>
       <c r="I64" s="135"/>
-      <c r="J64" s="140"/>
+      <c r="J64" s="131"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="140"/>
-      <c r="B65" s="145"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="129"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -9217,17 +9198,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="145"/>
+      <c r="F65" s="129"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
       <c r="H65" s="138"/>
       <c r="I65" s="135"/>
-      <c r="J65" s="140"/>
+      <c r="J65" s="131"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="140"/>
-      <c r="B66" s="145"/>
+      <c r="A66" s="131"/>
+      <c r="B66" s="129"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -9237,17 +9218,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="146"/>
+      <c r="F66" s="128"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
       <c r="H66" s="139"/>
       <c r="I66" s="136"/>
-      <c r="J66" s="128"/>
+      <c r="J66" s="132"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="140"/>
-      <c r="B67" s="145"/>
+      <c r="A67" s="131"/>
+      <c r="B67" s="129"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -9267,13 +9248,13 @@
       <c r="I67" s="134">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="127" t="s">
+      <c r="J67" s="130" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="140"/>
-      <c r="B68" s="145"/>
+      <c r="A68" s="131"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -9287,11 +9268,11 @@
       <c r="G68" s="136"/>
       <c r="H68" s="12"/>
       <c r="I68" s="136"/>
-      <c r="J68" s="128"/>
+      <c r="J68" s="132"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="140"/>
-      <c r="B69" s="145"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -9302,8 +9283,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="140"/>
-      <c r="B70" s="145"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="129"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -9316,8 +9297,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="140"/>
-      <c r="B71" s="145"/>
+      <c r="A71" s="131"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -9336,8 +9317,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="140"/>
-      <c r="B72" s="145"/>
+      <c r="A72" s="131"/>
+      <c r="B72" s="129"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -9356,8 +9337,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="140"/>
-      <c r="B73" s="145"/>
+      <c r="A73" s="131"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -9376,8 +9357,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="140"/>
-      <c r="B74" s="145"/>
+      <c r="A74" s="131"/>
+      <c r="B74" s="129"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -9396,8 +9377,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="140"/>
-      <c r="B75" s="145"/>
+      <c r="A75" s="131"/>
+      <c r="B75" s="129"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -9416,8 +9397,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="140"/>
-      <c r="B76" s="145"/>
+      <c r="A76" s="131"/>
+      <c r="B76" s="129"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -9443,7 +9424,7 @@
       <c r="A77" s="133">
         <v>24</v>
       </c>
-      <c r="B77" s="154" t="s">
+      <c r="B77" s="140" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -9471,7 +9452,7 @@
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="133"/>
-      <c r="B78" s="154"/>
+      <c r="B78" s="140"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -9495,7 +9476,7 @@
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="133"/>
-      <c r="B79" s="154"/>
+      <c r="B79" s="140"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -9519,7 +9500,7 @@
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="133"/>
-      <c r="B80" s="154"/>
+      <c r="B80" s="140"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -9543,7 +9524,7 @@
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="133"/>
-      <c r="B81" s="154"/>
+      <c r="B81" s="140"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -9567,7 +9548,7 @@
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="133"/>
-      <c r="B82" s="154"/>
+      <c r="B82" s="140"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -9591,7 +9572,7 @@
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="133"/>
-      <c r="B83" s="154"/>
+      <c r="B83" s="140"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -9615,7 +9596,7 @@
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="133"/>
-      <c r="B84" s="154"/>
+      <c r="B84" s="140"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -9639,7 +9620,7 @@
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="133"/>
-      <c r="B85" s="154"/>
+      <c r="B85" s="140"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -9654,10 +9635,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="127">
+      <c r="A86" s="130">
         <v>25</v>
       </c>
-      <c r="B86" s="148" t="s">
+      <c r="B86" s="127" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -9682,8 +9663,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="140"/>
-      <c r="B87" s="145"/>
+      <c r="A87" s="131"/>
+      <c r="B87" s="129"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -9706,8 +9687,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="140"/>
-      <c r="B88" s="145"/>
+      <c r="A88" s="131"/>
+      <c r="B88" s="129"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -9722,8 +9703,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="140"/>
-      <c r="B89" s="145"/>
+      <c r="A89" s="131"/>
+      <c r="B89" s="129"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -9738,8 +9719,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="140"/>
-      <c r="B90" s="145"/>
+      <c r="A90" s="131"/>
+      <c r="B90" s="129"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -9754,8 +9735,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="128"/>
-      <c r="B91" s="146"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="128"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -9770,10 +9751,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="140">
+      <c r="A92" s="131">
         <v>26</v>
       </c>
-      <c r="B92" s="145" t="s">
+      <c r="B92" s="129" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -9790,8 +9771,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="140"/>
-      <c r="B93" s="145"/>
+      <c r="A93" s="131"/>
+      <c r="B93" s="129"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -9814,8 +9795,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="140"/>
-      <c r="B94" s="145"/>
+      <c r="A94" s="131"/>
+      <c r="B94" s="129"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -9897,7 +9878,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="148" t="s">
+      <c r="B97" s="127" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -9923,7 +9904,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="146"/>
+      <c r="B98" s="128"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -10007,7 +9988,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="148" t="s">
+      <c r="B101" s="127" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -10035,7 +10016,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="146"/>
+      <c r="B102" s="128"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -10061,7 +10042,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="148" t="s">
+      <c r="B103" s="127" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -10089,7 +10070,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="145"/>
+      <c r="B104" s="129"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -10115,7 +10096,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="145"/>
+      <c r="B105" s="129"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -10139,7 +10120,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="145"/>
+      <c r="B106" s="129"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -10163,7 +10144,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="145"/>
+      <c r="B107" s="129"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -10187,7 +10168,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="145"/>
+      <c r="B108" s="129"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -10211,7 +10192,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="145"/>
+      <c r="B109" s="129"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -10233,7 +10214,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="146"/>
+      <c r="B110" s="128"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -10365,6 +10346,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J16:J23"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:B110"/>
     <mergeCell ref="J63:J66"/>
@@ -10381,75 +10431,6 @@
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="J67:J68"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I16:I23"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FDA0D5-7E3D-483C-B4F2-EA8D6A7DA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A308D0E9-E85D-4804-8721-9832CCAA3E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="530">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1934,132 +1934,129 @@
   </si>
   <si>
     <t>建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正泰漏保开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电灯双控电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海金牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x1#平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控摄像机电源线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕毛扫把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插板插头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插板插头插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插板电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2.5#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神火电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700mAh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房下水热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤火炉盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生料带、电胶布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正泰漏保开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电灯双控电线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海金牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.12.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x1#平米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控摄像机电源线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕毛扫把</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1把</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.12.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插板插头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插板插头插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插板电线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x2.5#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神火电池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1700mAh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房下水热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏泊尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤火炉盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生料带、电胶布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.12.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2085,6 +2082,50 @@
   </si>
   <si>
     <t>海康威视监控摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轮车加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木匠（两天半）工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人烟钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两条，云烟（黄林拿错了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢筋水泥河沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租车，江淮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材，河沙，红砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2230,7 +2271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2442,6 +2483,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2450,7 +2529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2711,35 +2790,155 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2750,168 +2949,90 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2936,16 +3057,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3230,11 +3396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G168" sqref="G168:K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3250,10 +3416,12 @@
     <col min="9" max="9" width="16" style="42" customWidth="1"/>
     <col min="10" max="11" width="9" style="41"/>
     <col min="12" max="12" width="10.75" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="41"/>
+    <col min="13" max="13" width="9" style="41"/>
+    <col min="14" max="14" width="12" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>342</v>
       </c>
@@ -3270,8 +3438,8 @@
         <v>337</v>
       </c>
       <c r="F1" s="66">
-        <f>SUM(F2:F167)</f>
-        <v>39858.670000000006</v>
+        <f>SUM(F2:F168)</f>
+        <v>49121.670000000006</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>340</v>
@@ -3286,18 +3454,22 @@
         <v>334</v>
       </c>
       <c r="L1" s="85">
-        <f>SUM(L2:L796)</f>
-        <v>17534.23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="87">
+        <f>SUM(L2:L797)</f>
+        <v>24447.23</v>
+      </c>
+      <c r="N1" s="177">
+        <f>F1-L1</f>
+        <v>24674.440000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="103">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="112" t="s">
         <v>331</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -3309,23 +3481,23 @@
       <c r="F2" s="52">
         <v>1200</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="112" t="s">
         <v>332</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="113">
+      <c r="I2" s="118">
         <f>SUM(F2:F3)</f>
         <v>2400</v>
       </c>
       <c r="J2" s="44"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="90"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="46" t="s">
         <v>80</v>
       </c>
@@ -3335,22 +3507,22 @@
       <c r="F3" s="47">
         <v>1200</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="114"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="44"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="110">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="97">
         <v>2</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="113" t="s">
         <v>326</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -3362,23 +3534,23 @@
       <c r="F4" s="72">
         <v>720</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="H4" s="120" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="116">
+      <c r="I4" s="121">
         <f>SUM(F4:F9)</f>
         <v>3180</v>
       </c>
-      <c r="J4" s="106"/>
+      <c r="J4" s="128"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="104"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="75" t="s">
         <v>78</v>
       </c>
@@ -3388,16 +3560,16 @@
       <c r="F5" s="72">
         <v>720</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="107"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="129"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="104"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="75" t="s">
         <v>65</v>
       </c>
@@ -3407,16 +3579,16 @@
       <c r="F6" s="72">
         <v>468</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="107"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="129"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="104"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="75" t="s">
         <v>66</v>
       </c>
@@ -3426,16 +3598,16 @@
       <c r="F7" s="72">
         <v>432</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="107"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="129"/>
       <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="104"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="75" t="s">
         <v>67</v>
       </c>
@@ -3445,16 +3617,16 @@
       <c r="F8" s="72">
         <v>365</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="107"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="129"/>
       <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="105"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="75" t="s">
         <v>68</v>
       </c>
@@ -3464,20 +3636,20 @@
       <c r="F9" s="72">
         <v>475</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="108"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="130"/>
       <c r="L9" s="45"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="95">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="109">
         <v>3</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="107" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -3486,45 +3658,45 @@
       <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="125">
         <v>630</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="116" t="s">
         <v>327</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="102">
         <f>SUM(F10:F31)</f>
         <v>4803.82</v>
       </c>
-      <c r="J10" s="96"/>
+      <c r="J10" s="116"/>
       <c r="L10" s="45"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="90"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="44" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="45">
         <v>1</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="97"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="117"/>
       <c r="H11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="97"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="117"/>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="89" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="107" t="s">
         <v>347</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -3533,140 +3705,140 @@
       <c r="E12" s="60">
         <v>1</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="102">
         <v>1387.81</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="96"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="116"/>
       <c r="L12" s="45"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="91"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="61" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="60">
         <v>1</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="124"/>
       <c r="L13" s="45"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="91"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="61" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="F14" s="119"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="124"/>
       <c r="L14" s="45"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="91"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="61" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="60">
         <v>2</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="124"/>
       <c r="L15" s="45"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="91"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="61" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="60">
         <v>2</v>
       </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="124"/>
       <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="61" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="60">
         <v>4</v>
       </c>
-      <c r="F17" s="119"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="124"/>
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="61" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="60">
         <v>5</v>
       </c>
-      <c r="F18" s="119"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="124"/>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="90"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="61" t="s">
         <v>126</v>
       </c>
       <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="97"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="117"/>
       <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="89" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="107" t="s">
         <v>325</v>
       </c>
       <c r="D20" s="61" t="s">
@@ -3675,108 +3847,108 @@
       <c r="E20" s="60">
         <v>1</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="102">
         <v>180.56</v>
       </c>
-      <c r="G20" s="96" t="s">
+      <c r="G20" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="89" t="s">
+      <c r="H20" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="119"/>
-      <c r="J20" s="96"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="116"/>
       <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="61" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="60">
         <v>2</v>
       </c>
-      <c r="F21" s="119"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="124"/>
       <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="61" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="60">
         <v>2</v>
       </c>
-      <c r="F22" s="119"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="124"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="91"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="61" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="F23" s="119"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="109"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="124"/>
       <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="61" t="s">
         <v>136</v>
       </c>
       <c r="E24" s="60">
         <v>2</v>
       </c>
-      <c r="F24" s="119"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="109"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="124"/>
       <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="90"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="61" t="s">
         <v>137</v>
       </c>
       <c r="E25" s="60">
         <v>1</v>
       </c>
-      <c r="F25" s="120"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="97"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="117"/>
       <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="117" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="122" t="s">
         <v>436</v>
       </c>
       <c r="D26" s="61" t="s">
@@ -3785,39 +3957,39 @@
       <c r="E26" s="60">
         <v>1</v>
       </c>
-      <c r="F26" s="86">
+      <c r="F26" s="102">
         <v>1950</v>
       </c>
-      <c r="G26" s="96" t="s">
+      <c r="G26" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="110"/>
       <c r="J26" s="44"/>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="118"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="61" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="60">
         <v>1</v>
       </c>
-      <c r="F27" s="120"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="119"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="110"/>
       <c r="J27" s="44"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="43" t="s">
         <v>433</v>
       </c>
@@ -3836,13 +4008,13 @@
       <c r="H28" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="119"/>
+      <c r="I28" s="110"/>
       <c r="J28" s="44"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="46" t="s">
         <v>358</v>
       </c>
@@ -3861,13 +4033,13 @@
       <c r="H29" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="119"/>
+      <c r="I29" s="110"/>
       <c r="J29" s="44"/>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="46" t="s">
         <v>348</v>
       </c>
@@ -3886,13 +4058,13 @@
       <c r="H30" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="119"/>
+      <c r="I30" s="110"/>
       <c r="J30" s="44"/>
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="46" t="s">
         <v>349</v>
       </c>
@@ -3911,7 +4083,7 @@
       <c r="H31" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="120"/>
+      <c r="I31" s="111"/>
       <c r="J31" s="44"/>
       <c r="L31" s="45"/>
     </row>
@@ -3947,10 +4119,10 @@
       <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="95">
+      <c r="A33" s="109">
         <v>5</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="109" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="46" t="s">
@@ -3969,7 +4141,7 @@
         <v>174</v>
       </c>
       <c r="H33" s="46"/>
-      <c r="I33" s="86">
+      <c r="I33" s="102">
         <f>SUM(F33:F44)</f>
         <v>875.06999999999994</v>
       </c>
@@ -3977,8 +4149,8 @@
       <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="46" t="s">
         <v>323</v>
       </c>
@@ -3995,13 +4167,13 @@
         <v>166</v>
       </c>
       <c r="H34" s="46"/>
-      <c r="I34" s="87"/>
+      <c r="I34" s="103"/>
       <c r="J34" s="44"/>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="46" t="s">
         <v>323</v>
       </c>
@@ -4014,17 +4186,17 @@
       <c r="F35" s="47">
         <v>11.89</v>
       </c>
-      <c r="G35" s="89" t="s">
+      <c r="G35" s="107" t="s">
         <v>170</v>
       </c>
       <c r="H35" s="46"/>
-      <c r="I35" s="87"/>
+      <c r="I35" s="103"/>
       <c r="J35" s="44"/>
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="46" t="s">
         <v>437</v>
       </c>
@@ -4037,15 +4209,15 @@
       <c r="F36" s="47">
         <v>65.069999999999993</v>
       </c>
-      <c r="G36" s="91"/>
+      <c r="G36" s="112"/>
       <c r="H36" s="46"/>
-      <c r="I36" s="87"/>
+      <c r="I36" s="103"/>
       <c r="J36" s="44"/>
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="46" t="s">
         <v>437</v>
       </c>
@@ -4058,15 +4230,15 @@
       <c r="F37" s="47">
         <v>20.09</v>
       </c>
-      <c r="G37" s="91"/>
+      <c r="G37" s="112"/>
       <c r="H37" s="46"/>
-      <c r="I37" s="87"/>
+      <c r="I37" s="103"/>
       <c r="J37" s="44"/>
       <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="46" t="s">
         <v>437</v>
       </c>
@@ -4079,15 +4251,15 @@
       <c r="F38" s="47">
         <v>17.7</v>
       </c>
-      <c r="G38" s="91"/>
+      <c r="G38" s="112"/>
       <c r="H38" s="46"/>
-      <c r="I38" s="87"/>
+      <c r="I38" s="103"/>
       <c r="J38" s="44"/>
       <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="46" t="s">
         <v>437</v>
       </c>
@@ -4100,15 +4272,15 @@
       <c r="F39" s="47">
         <v>7.57</v>
       </c>
-      <c r="G39" s="91"/>
+      <c r="G39" s="112"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="87"/>
+      <c r="I39" s="103"/>
       <c r="J39" s="44"/>
       <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="46" t="s">
         <v>437</v>
       </c>
@@ -4121,15 +4293,15 @@
       <c r="F40" s="47">
         <v>32.619999999999997</v>
       </c>
-      <c r="G40" s="91"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="46"/>
-      <c r="I40" s="87"/>
+      <c r="I40" s="103"/>
       <c r="J40" s="44"/>
       <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="46" t="s">
         <v>437</v>
       </c>
@@ -4142,15 +4314,15 @@
       <c r="F41" s="47">
         <v>7.82</v>
       </c>
-      <c r="G41" s="91"/>
+      <c r="G41" s="112"/>
       <c r="H41" s="46"/>
-      <c r="I41" s="87"/>
+      <c r="I41" s="103"/>
       <c r="J41" s="44"/>
       <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="46" t="s">
         <v>323</v>
       </c>
@@ -4163,15 +4335,15 @@
       <c r="F42" s="58">
         <v>128.75</v>
       </c>
-      <c r="G42" s="90"/>
+      <c r="G42" s="108"/>
       <c r="H42" s="46"/>
-      <c r="I42" s="87"/>
+      <c r="I42" s="103"/>
       <c r="J42" s="44"/>
       <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="46" t="s">
         <v>438</v>
       </c>
@@ -4188,13 +4360,13 @@
         <v>173</v>
       </c>
       <c r="H43" s="46"/>
-      <c r="I43" s="87"/>
+      <c r="I43" s="103"/>
       <c r="J43" s="44"/>
       <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="46" t="s">
         <v>350</v>
       </c>
@@ -4211,15 +4383,15 @@
         <v>179</v>
       </c>
       <c r="H44" s="46"/>
-      <c r="I44" s="88"/>
+      <c r="I44" s="104"/>
       <c r="J44" s="44"/>
       <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="110">
+      <c r="A45" s="97">
         <v>6</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="97" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="73" t="s">
@@ -4238,7 +4410,7 @@
         <v>183</v>
       </c>
       <c r="H45" s="73"/>
-      <c r="I45" s="101">
+      <c r="I45" s="105">
         <f>SUM(F45:F57)</f>
         <v>616.48</v>
       </c>
@@ -4246,8 +4418,8 @@
       <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="73" t="s">
         <v>439</v>
       </c>
@@ -4264,13 +4436,13 @@
         <v>184</v>
       </c>
       <c r="H46" s="73"/>
-      <c r="I46" s="111"/>
+      <c r="I46" s="98"/>
       <c r="J46" s="75"/>
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="73" t="s">
         <v>439</v>
       </c>
@@ -4287,13 +4459,13 @@
         <v>187</v>
       </c>
       <c r="H47" s="73"/>
-      <c r="I47" s="111"/>
+      <c r="I47" s="98"/>
       <c r="J47" s="75"/>
       <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="73" t="s">
         <v>439</v>
       </c>
@@ -4306,17 +4478,17 @@
       <c r="F48" s="82">
         <v>17.16</v>
       </c>
-      <c r="G48" s="106" t="s">
+      <c r="G48" s="128" t="s">
         <v>322</v>
       </c>
       <c r="H48" s="73"/>
-      <c r="I48" s="111"/>
+      <c r="I48" s="98"/>
       <c r="J48" s="75"/>
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="73" t="s">
         <v>439</v>
       </c>
@@ -4329,15 +4501,15 @@
       <c r="F49" s="82">
         <v>19.43</v>
       </c>
-      <c r="G49" s="107"/>
+      <c r="G49" s="129"/>
       <c r="H49" s="73"/>
-      <c r="I49" s="111"/>
+      <c r="I49" s="98"/>
       <c r="J49" s="75"/>
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="73" t="s">
         <v>439</v>
       </c>
@@ -4350,15 +4522,15 @@
       <c r="F50" s="82">
         <v>14.29</v>
       </c>
-      <c r="G50" s="107"/>
+      <c r="G50" s="129"/>
       <c r="H50" s="73"/>
-      <c r="I50" s="111"/>
+      <c r="I50" s="98"/>
       <c r="J50" s="75"/>
       <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="73" t="s">
         <v>439</v>
       </c>
@@ -4371,15 +4543,15 @@
       <c r="F51" s="82">
         <v>15.78</v>
       </c>
-      <c r="G51" s="108"/>
+      <c r="G51" s="130"/>
       <c r="H51" s="73"/>
-      <c r="I51" s="111"/>
+      <c r="I51" s="98"/>
       <c r="J51" s="75"/>
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="80" t="s">
         <v>351</v>
       </c>
@@ -4396,13 +4568,13 @@
         <v>202</v>
       </c>
       <c r="H52" s="73"/>
-      <c r="I52" s="111"/>
+      <c r="I52" s="98"/>
       <c r="J52" s="75"/>
       <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="73" t="s">
         <v>109</v>
       </c>
@@ -4419,13 +4591,13 @@
         <v>189</v>
       </c>
       <c r="H53" s="73"/>
-      <c r="I53" s="111"/>
+      <c r="I53" s="98"/>
       <c r="J53" s="75"/>
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="73" t="s">
         <v>352</v>
       </c>
@@ -4442,14 +4614,14 @@
         <v>203</v>
       </c>
       <c r="H54" s="73"/>
-      <c r="I54" s="111"/>
+      <c r="I54" s="98"/>
       <c r="J54" s="75"/>
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="103" t="s">
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="113" t="s">
         <v>353</v>
       </c>
       <c r="D55" s="75" t="s">
@@ -4461,18 +4633,18 @@
       <c r="F55" s="72">
         <v>12.55</v>
       </c>
-      <c r="G55" s="103" t="s">
+      <c r="G55" s="113" t="s">
         <v>185</v>
       </c>
       <c r="H55" s="73"/>
-      <c r="I55" s="111"/>
+      <c r="I55" s="98"/>
       <c r="J55" s="75"/>
       <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="104"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="75" t="s">
         <v>159</v>
       </c>
@@ -4482,16 +4654,16 @@
       <c r="F56" s="72">
         <v>8.84</v>
       </c>
-      <c r="G56" s="104"/>
+      <c r="G56" s="114"/>
       <c r="H56" s="73"/>
-      <c r="I56" s="111"/>
+      <c r="I56" s="98"/>
       <c r="J56" s="75"/>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="105"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="75" t="s">
         <v>164</v>
       </c>
@@ -4501,17 +4673,17 @@
       <c r="F57" s="72">
         <v>22.7</v>
       </c>
-      <c r="G57" s="105"/>
+      <c r="G57" s="115"/>
       <c r="H57" s="73"/>
-      <c r="I57" s="112"/>
+      <c r="I57" s="99"/>
       <c r="J57" s="75"/>
       <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="95">
+      <c r="A58" s="109">
         <v>7</v>
       </c>
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="109" t="s">
         <v>208</v>
       </c>
       <c r="C58" s="46" t="s">
@@ -4530,7 +4702,7 @@
         <v>214</v>
       </c>
       <c r="H58" s="46"/>
-      <c r="I58" s="95">
+      <c r="I58" s="109">
         <f>SUM(F58:F62)</f>
         <v>908.84999999999991</v>
       </c>
@@ -4538,8 +4710,8 @@
       <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="87"/>
+      <c r="A59" s="103"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="46" t="s">
         <v>440</v>
       </c>
@@ -4556,13 +4728,13 @@
         <v>215</v>
       </c>
       <c r="H59" s="46"/>
-      <c r="I59" s="87"/>
+      <c r="I59" s="103"/>
       <c r="J59" s="44"/>
       <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
+      <c r="A60" s="103"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="46" t="s">
         <v>206</v>
       </c>
@@ -4579,13 +4751,13 @@
         <v>209</v>
       </c>
       <c r="H60" s="46"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="103"/>
       <c r="J60" s="44"/>
       <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
+      <c r="A61" s="103"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="46" t="s">
         <v>354</v>
       </c>
@@ -4602,13 +4774,13 @@
         <v>221</v>
       </c>
       <c r="H61" s="46"/>
-      <c r="I61" s="87"/>
+      <c r="I61" s="103"/>
       <c r="J61" s="44"/>
       <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="46" t="s">
         <v>355</v>
       </c>
@@ -4625,15 +4797,15 @@
         <v>211</v>
       </c>
       <c r="H62" s="46"/>
-      <c r="I62" s="88"/>
+      <c r="I62" s="104"/>
       <c r="J62" s="44"/>
       <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="110">
+      <c r="A63" s="97">
         <v>8</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="97" t="s">
         <v>217</v>
       </c>
       <c r="C63" s="73" t="s">
@@ -4652,7 +4824,7 @@
         <v>218</v>
       </c>
       <c r="H63" s="73"/>
-      <c r="I63" s="101">
+      <c r="I63" s="105">
         <f>SUM(F63:F68)</f>
         <v>170.51999999999998</v>
       </c>
@@ -4660,8 +4832,8 @@
       <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="111"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="98"/>
       <c r="C64" s="73" t="s">
         <v>241</v>
       </c>
@@ -4678,13 +4850,13 @@
         <v>220</v>
       </c>
       <c r="H64" s="73"/>
-      <c r="I64" s="111"/>
+      <c r="I64" s="98"/>
       <c r="J64" s="75"/>
       <c r="L64" s="45"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="73" t="s">
         <v>440</v>
       </c>
@@ -4701,13 +4873,13 @@
         <v>242</v>
       </c>
       <c r="H65" s="73"/>
-      <c r="I65" s="111"/>
+      <c r="I65" s="98"/>
       <c r="J65" s="75"/>
       <c r="L65" s="45"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="111"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="98"/>
       <c r="C66" s="73" t="s">
         <v>440</v>
       </c>
@@ -4724,14 +4896,14 @@
         <v>244</v>
       </c>
       <c r="H66" s="73"/>
-      <c r="I66" s="111"/>
+      <c r="I66" s="98"/>
       <c r="J66" s="75"/>
       <c r="L66" s="45"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="111"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="103" t="s">
+      <c r="A67" s="98"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="113" t="s">
         <v>357</v>
       </c>
       <c r="D67" s="73" t="s">
@@ -4743,18 +4915,18 @@
       <c r="F67" s="84">
         <v>20.78</v>
       </c>
-      <c r="G67" s="103" t="s">
+      <c r="G67" s="113" t="s">
         <v>246</v>
       </c>
       <c r="H67" s="73"/>
-      <c r="I67" s="111"/>
+      <c r="I67" s="98"/>
       <c r="J67" s="75"/>
       <c r="L67" s="45"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="112"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="105"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="115"/>
       <c r="D68" s="73" t="s">
         <v>430</v>
       </c>
@@ -4764,17 +4936,17 @@
       <c r="F68" s="72">
         <v>18.600000000000001</v>
       </c>
-      <c r="G68" s="105"/>
+      <c r="G68" s="115"/>
       <c r="H68" s="73"/>
-      <c r="I68" s="112"/>
+      <c r="I68" s="99"/>
       <c r="J68" s="75"/>
       <c r="L68" s="45"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="95">
+      <c r="A69" s="109">
         <v>9</v>
       </c>
-      <c r="B69" s="95" t="s">
+      <c r="B69" s="109" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="46" t="s">
@@ -4793,7 +4965,7 @@
         <v>236</v>
       </c>
       <c r="H69" s="46"/>
-      <c r="I69" s="86">
+      <c r="I69" s="102">
         <f>SUM(F69:F72)</f>
         <v>161.44</v>
       </c>
@@ -4801,9 +4973,9 @@
       <c r="L69" s="45"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="87"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="89" t="s">
+      <c r="A70" s="103"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="107" t="s">
         <v>359</v>
       </c>
       <c r="D70" s="46" t="s">
@@ -4815,18 +4987,18 @@
       <c r="F70" s="47">
         <v>4.12</v>
       </c>
-      <c r="G70" s="89" t="s">
+      <c r="G70" s="107" t="s">
         <v>230</v>
       </c>
       <c r="H70" s="46"/>
-      <c r="I70" s="87"/>
+      <c r="I70" s="103"/>
       <c r="J70" s="44"/>
       <c r="L70" s="45"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="87"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="91"/>
+      <c r="A71" s="103"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="46" t="s">
         <v>227</v>
       </c>
@@ -4836,16 +5008,16 @@
       <c r="F71" s="47">
         <v>21.12</v>
       </c>
-      <c r="G71" s="91"/>
+      <c r="G71" s="112"/>
       <c r="H71" s="46"/>
-      <c r="I71" s="87"/>
+      <c r="I71" s="103"/>
       <c r="J71" s="44"/>
       <c r="L71" s="45"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="90"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="108"/>
       <c r="D72" s="46" t="s">
         <v>231</v>
       </c>
@@ -4855,17 +5027,17 @@
       <c r="F72" s="47">
         <v>30.12</v>
       </c>
-      <c r="G72" s="90"/>
+      <c r="G72" s="108"/>
       <c r="H72" s="46"/>
-      <c r="I72" s="88"/>
+      <c r="I72" s="104"/>
       <c r="J72" s="44"/>
       <c r="L72" s="45"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="110">
+      <c r="A73" s="97">
         <v>10</v>
       </c>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="97" t="s">
         <v>222</v>
       </c>
       <c r="C73" s="73" t="s">
@@ -4884,7 +5056,7 @@
         <v>223</v>
       </c>
       <c r="H73" s="73"/>
-      <c r="I73" s="101">
+      <c r="I73" s="105">
         <f>SUM(F73:F74)</f>
         <v>487.9</v>
       </c>
@@ -4892,8 +5064,8 @@
       <c r="L73" s="45"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="112"/>
-      <c r="B74" s="112"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="73" t="s">
         <v>361</v>
       </c>
@@ -4910,15 +5082,15 @@
         <v>226</v>
       </c>
       <c r="H74" s="73"/>
-      <c r="I74" s="112"/>
+      <c r="I74" s="99"/>
       <c r="J74" s="75"/>
       <c r="L74" s="45"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="95">
+      <c r="A75" s="109">
         <v>11</v>
       </c>
-      <c r="B75" s="95" t="s">
+      <c r="B75" s="109" t="s">
         <v>265</v>
       </c>
       <c r="C75" s="46" t="s">
@@ -4933,11 +5105,11 @@
       <c r="F75" s="47">
         <v>65.760000000000005</v>
       </c>
-      <c r="G75" s="96" t="s">
+      <c r="G75" s="116" t="s">
         <v>266</v>
       </c>
       <c r="H75" s="46"/>
-      <c r="I75" s="86">
+      <c r="I75" s="102">
         <f>SUM(F75:F77)</f>
         <v>285.76</v>
       </c>
@@ -4945,8 +5117,8 @@
       <c r="L75" s="45"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="87"/>
-      <c r="B76" s="87"/>
+      <c r="A76" s="103"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="46"/>
       <c r="D76" s="44" t="s">
         <v>149</v>
@@ -4955,15 +5127,15 @@
         <v>119</v>
       </c>
       <c r="F76" s="45"/>
-      <c r="G76" s="97"/>
+      <c r="G76" s="117"/>
       <c r="H76" s="46"/>
-      <c r="I76" s="87"/>
+      <c r="I76" s="103"/>
       <c r="J76" s="44"/>
       <c r="L76" s="45"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="88"/>
-      <c r="B77" s="88"/>
+      <c r="A77" s="104"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="44" t="s">
         <v>263</v>
       </c>
@@ -4980,15 +5152,15 @@
         <v>362</v>
       </c>
       <c r="H77" s="46"/>
-      <c r="I77" s="88"/>
+      <c r="I77" s="104"/>
       <c r="J77" s="44"/>
       <c r="L77" s="45"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="110">
+      <c r="A78" s="97">
         <v>12</v>
       </c>
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="97" t="s">
         <v>255</v>
       </c>
       <c r="C78" s="73" t="s">
@@ -5007,7 +5179,7 @@
         <v>256</v>
       </c>
       <c r="H78" s="73"/>
-      <c r="I78" s="101">
+      <c r="I78" s="105">
         <f>SUM(F78:F82)</f>
         <v>3766.7900000000004</v>
       </c>
@@ -5015,8 +5187,8 @@
       <c r="L78" s="45"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="111"/>
-      <c r="B79" s="111"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="98"/>
       <c r="C79" s="73" t="s">
         <v>363</v>
       </c>
@@ -5033,13 +5205,13 @@
         <v>262</v>
       </c>
       <c r="H79" s="73"/>
-      <c r="I79" s="111"/>
+      <c r="I79" s="98"/>
       <c r="J79" s="75"/>
       <c r="L79" s="45"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="111"/>
-      <c r="B80" s="111"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="73" t="s">
         <v>321</v>
       </c>
@@ -5056,13 +5228,13 @@
         <v>256</v>
       </c>
       <c r="H80" s="73"/>
-      <c r="I80" s="111"/>
+      <c r="I80" s="98"/>
       <c r="J80" s="75"/>
       <c r="L80" s="45"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="111"/>
-      <c r="B81" s="111"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="73" t="s">
         <v>268</v>
       </c>
@@ -5079,13 +5251,13 @@
         <v>269</v>
       </c>
       <c r="H81" s="73"/>
-      <c r="I81" s="111"/>
+      <c r="I81" s="98"/>
       <c r="J81" s="75"/>
       <c r="L81" s="45"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="112"/>
-      <c r="B82" s="112"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="99"/>
       <c r="C82" s="75" t="s">
         <v>345</v>
       </c>
@@ -5104,18 +5276,18 @@
       <c r="H82" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="I82" s="112"/>
+      <c r="I82" s="99"/>
       <c r="J82" s="75"/>
       <c r="L82" s="45"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="95">
+      <c r="A83" s="109">
         <v>13</v>
       </c>
-      <c r="B83" s="95" t="s">
+      <c r="B83" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="92" t="s">
+      <c r="C83" s="126" t="s">
         <v>273</v>
       </c>
       <c r="D83" s="44" t="s">
@@ -5127,24 +5299,24 @@
       <c r="F83" s="70">
         <v>2500</v>
       </c>
-      <c r="G83" s="89" t="s">
+      <c r="G83" s="107" t="s">
         <v>364</v>
       </c>
       <c r="H83" s="46"/>
-      <c r="I83" s="86">
+      <c r="I83" s="102">
         <f>SUM(F83:F84)</f>
         <v>5706</v>
       </c>
       <c r="J83" s="44"/>
-      <c r="L83" s="125">
+      <c r="L83" s="100">
         <f>SUM(F83:F84)</f>
         <v>5706</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="88"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="94"/>
+      <c r="A84" s="104"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="127"/>
       <c r="D84" s="44" t="s">
         <v>275</v>
       </c>
@@ -5154,11 +5326,11 @@
       <c r="F84" s="70">
         <v>3206</v>
       </c>
-      <c r="G84" s="90"/>
+      <c r="G84" s="108"/>
       <c r="H84" s="46"/>
-      <c r="I84" s="88"/>
+      <c r="I84" s="104"/>
       <c r="J84" s="44"/>
-      <c r="L84" s="126"/>
+      <c r="L84" s="101"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="71">
@@ -5182,10 +5354,10 @@
       <c r="L85" s="45"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="95">
+      <c r="A86" s="109">
         <v>15</v>
       </c>
-      <c r="B86" s="95" t="s">
+      <c r="B86" s="109" t="s">
         <v>284</v>
       </c>
       <c r="C86" s="54" t="s">
@@ -5203,7 +5375,7 @@
       <c r="G86" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="I86" s="86">
+      <c r="I86" s="102">
         <f>SUM(F86:F94)</f>
         <v>6169.67</v>
       </c>
@@ -5211,8 +5383,8 @@
       <c r="L86" s="45"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="87"/>
-      <c r="B87" s="87"/>
+      <c r="A87" s="103"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="46" t="s">
         <v>358</v>
       </c>
@@ -5229,13 +5401,13 @@
         <v>285</v>
       </c>
       <c r="H87" s="46"/>
-      <c r="I87" s="87"/>
+      <c r="I87" s="103"/>
       <c r="J87" s="44"/>
       <c r="L87" s="45"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="87"/>
-      <c r="B88" s="87"/>
+      <c r="A88" s="103"/>
+      <c r="B88" s="103"/>
       <c r="C88" s="46" t="s">
         <v>286</v>
       </c>
@@ -5252,14 +5424,14 @@
         <v>288</v>
       </c>
       <c r="H88" s="46"/>
-      <c r="I88" s="87"/>
+      <c r="I88" s="103"/>
       <c r="J88" s="44"/>
       <c r="L88" s="45"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="87"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="92" t="s">
+      <c r="A89" s="103"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="126" t="s">
         <v>273</v>
       </c>
       <c r="D89" s="44" t="s">
@@ -5271,20 +5443,20 @@
       <c r="F89" s="70">
         <v>400</v>
       </c>
-      <c r="G89" s="89" t="s">
+      <c r="G89" s="107" t="s">
         <v>364</v>
       </c>
-      <c r="I89" s="87"/>
+      <c r="I89" s="103"/>
       <c r="J89" s="44"/>
-      <c r="L89" s="125">
+      <c r="L89" s="100">
         <f>SUM(F89:F94)</f>
         <v>5282</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="87"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="93"/>
+      <c r="A90" s="103"/>
+      <c r="B90" s="103"/>
+      <c r="C90" s="131"/>
       <c r="D90" s="44" t="s">
         <v>309</v>
       </c>
@@ -5294,18 +5466,18 @@
       <c r="F90" s="70">
         <v>1700</v>
       </c>
-      <c r="G90" s="91"/>
+      <c r="G90" s="112"/>
       <c r="H90" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I90" s="87"/>
+      <c r="I90" s="103"/>
       <c r="J90" s="44"/>
-      <c r="L90" s="126"/>
+      <c r="L90" s="101"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="87"/>
-      <c r="B91" s="87"/>
-      <c r="C91" s="93"/>
+      <c r="A91" s="103"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="131"/>
       <c r="D91" s="44" t="s">
         <v>300</v>
       </c>
@@ -5315,18 +5487,18 @@
       <c r="F91" s="70">
         <v>982</v>
       </c>
-      <c r="G91" s="91"/>
+      <c r="G91" s="112"/>
       <c r="H91" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I91" s="87"/>
+      <c r="I91" s="103"/>
       <c r="J91" s="44"/>
-      <c r="L91" s="126"/>
+      <c r="L91" s="101"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="87"/>
-      <c r="B92" s="87"/>
-      <c r="C92" s="94"/>
+      <c r="A92" s="103"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="127"/>
       <c r="D92" s="44" t="s">
         <v>301</v>
       </c>
@@ -5336,17 +5508,17 @@
       <c r="F92" s="70">
         <v>500</v>
       </c>
-      <c r="G92" s="91"/>
+      <c r="G92" s="112"/>
       <c r="H92" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="I92" s="87"/>
+      <c r="I92" s="103"/>
       <c r="J92" s="44"/>
-      <c r="L92" s="126"/>
+      <c r="L92" s="101"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="87"/>
-      <c r="B93" s="87"/>
+      <c r="A93" s="103"/>
+      <c r="B93" s="103"/>
       <c r="C93" s="69" t="s">
         <v>273</v>
       </c>
@@ -5359,19 +5531,19 @@
       <c r="F93" s="70">
         <v>1580</v>
       </c>
-      <c r="G93" s="91"/>
+      <c r="G93" s="112"/>
       <c r="H93" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="I93" s="87"/>
+      <c r="I93" s="103"/>
       <c r="J93" s="44"/>
-      <c r="L93" s="126"/>
+      <c r="L93" s="101"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="88"/>
-      <c r="B94" s="88"/>
+      <c r="A94" s="104"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="69" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D94" s="44" t="s">
         <v>310</v>
@@ -5382,22 +5554,22 @@
       <c r="F94" s="70">
         <v>120</v>
       </c>
-      <c r="G94" s="90"/>
+      <c r="G94" s="108"/>
       <c r="H94" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="I94" s="88"/>
+      <c r="I94" s="104"/>
       <c r="J94" s="44"/>
-      <c r="L94" s="126"/>
+      <c r="L94" s="101"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="110">
+      <c r="A95" s="97">
         <v>16</v>
       </c>
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="103" t="s">
+      <c r="C95" s="113" t="s">
         <v>346</v>
       </c>
       <c r="D95" s="73" t="s">
@@ -5406,44 +5578,44 @@
       <c r="E95" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="F95" s="101">
+      <c r="F95" s="105">
         <v>67.959999999999994</v>
       </c>
-      <c r="G95" s="106" t="s">
+      <c r="G95" s="128" t="s">
         <v>293</v>
       </c>
       <c r="H95" s="73"/>
-      <c r="I95" s="101">
+      <c r="I95" s="105">
         <v>67.959999999999994</v>
       </c>
       <c r="J95" s="75"/>
       <c r="L95" s="45"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="112"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="105"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="115"/>
       <c r="D96" s="73" t="s">
         <v>283</v>
       </c>
       <c r="E96" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="F96" s="102"/>
-      <c r="G96" s="108"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="130"/>
       <c r="H96" s="73"/>
-      <c r="I96" s="102"/>
+      <c r="I96" s="106"/>
       <c r="J96" s="75"/>
       <c r="L96" s="45"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="95">
+      <c r="A97" s="109">
         <v>17</v>
       </c>
-      <c r="B97" s="122" t="s">
+      <c r="B97" s="132" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="89" t="s">
+      <c r="C97" s="107" t="s">
         <v>63</v>
       </c>
       <c r="D97" s="51" t="s">
@@ -5455,11 +5627,11 @@
       <c r="F97" s="47">
         <v>21.91</v>
       </c>
-      <c r="G97" s="96" t="s">
+      <c r="G97" s="116" t="s">
         <v>59</v>
       </c>
       <c r="H97" s="46"/>
-      <c r="I97" s="86">
+      <c r="I97" s="102">
         <f>SUM(F97:F100)</f>
         <v>232.55999999999997</v>
       </c>
@@ -5467,9 +5639,9 @@
       <c r="L97" s="45"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="87"/>
-      <c r="B98" s="123"/>
-      <c r="C98" s="91"/>
+      <c r="A98" s="103"/>
+      <c r="B98" s="133"/>
+      <c r="C98" s="112"/>
       <c r="D98" s="49" t="s">
         <v>282</v>
       </c>
@@ -5479,16 +5651,16 @@
       <c r="F98" s="47">
         <v>132.5</v>
       </c>
-      <c r="G98" s="109"/>
+      <c r="G98" s="124"/>
       <c r="H98" s="46"/>
-      <c r="I98" s="87"/>
+      <c r="I98" s="103"/>
       <c r="J98" s="44"/>
       <c r="L98" s="45"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="87"/>
-      <c r="B99" s="123"/>
-      <c r="C99" s="91"/>
+      <c r="A99" s="103"/>
+      <c r="B99" s="133"/>
+      <c r="C99" s="112"/>
       <c r="D99" s="49" t="s">
         <v>280</v>
       </c>
@@ -5498,16 +5670,16 @@
       <c r="F99" s="47">
         <v>50.8</v>
       </c>
-      <c r="G99" s="109"/>
+      <c r="G99" s="124"/>
       <c r="H99" s="46"/>
-      <c r="I99" s="87"/>
+      <c r="I99" s="103"/>
       <c r="J99" s="44"/>
       <c r="L99" s="45"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="88"/>
-      <c r="B100" s="124"/>
-      <c r="C100" s="90"/>
+      <c r="A100" s="104"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="108"/>
       <c r="D100" s="49" t="s">
         <v>318</v>
       </c>
@@ -5517,9 +5689,9 @@
       <c r="F100" s="47">
         <v>27.35</v>
       </c>
-      <c r="G100" s="97"/>
+      <c r="G100" s="117"/>
       <c r="H100" s="46"/>
-      <c r="I100" s="88"/>
+      <c r="I100" s="104"/>
       <c r="J100" s="44"/>
       <c r="L100" s="45"/>
     </row>
@@ -5530,7 +5702,7 @@
       <c r="B101" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="C101" s="166" t="s">
+      <c r="C101" s="96" t="s">
         <v>303</v>
       </c>
       <c r="D101" s="75"/>
@@ -5553,16 +5725,16 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="95">
+      <c r="A102" s="109">
         <v>19</v>
       </c>
-      <c r="B102" s="95" t="s">
+      <c r="B102" s="109" t="s">
         <v>366</v>
       </c>
-      <c r="C102" s="96" t="s">
+      <c r="C102" s="116" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="96" t="s">
+      <c r="D102" s="116" t="s">
         <v>369</v>
       </c>
       <c r="E102" s="45" t="s">
@@ -5571,11 +5743,11 @@
       <c r="F102" s="47">
         <v>17.190000000000001</v>
       </c>
-      <c r="G102" s="96" t="s">
+      <c r="G102" s="116" t="s">
         <v>368</v>
       </c>
       <c r="H102" s="46"/>
-      <c r="I102" s="86">
+      <c r="I102" s="102">
         <f>SUM(F102:F105)</f>
         <v>84.960000000000008</v>
       </c>
@@ -5583,29 +5755,29 @@
       <c r="L102" s="45"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="87"/>
-      <c r="B103" s="87"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
+      <c r="A103" s="103"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="117"/>
       <c r="E103" s="45" t="s">
         <v>372</v>
       </c>
       <c r="F103" s="47">
         <v>19.34</v>
       </c>
-      <c r="G103" s="97"/>
+      <c r="G103" s="117"/>
       <c r="H103" s="46"/>
-      <c r="I103" s="87"/>
+      <c r="I103" s="103"/>
       <c r="J103" s="44"/>
       <c r="L103" s="45"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="87"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="96" t="s">
+      <c r="A104" s="103"/>
+      <c r="B104" s="103"/>
+      <c r="C104" s="116" t="s">
         <v>367</v>
       </c>
-      <c r="D104" s="96" t="s">
+      <c r="D104" s="116" t="s">
         <v>371</v>
       </c>
       <c r="E104" s="45" t="s">
@@ -5614,28 +5786,28 @@
       <c r="F104" s="47">
         <v>21</v>
       </c>
-      <c r="G104" s="96" t="s">
+      <c r="G104" s="116" t="s">
         <v>370</v>
       </c>
       <c r="H104" s="46"/>
-      <c r="I104" s="87"/>
+      <c r="I104" s="103"/>
       <c r="J104" s="44"/>
       <c r="L104" s="45"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="88"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
+      <c r="A105" s="104"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
       <c r="E105" s="45" t="s">
         <v>372</v>
       </c>
       <c r="F105" s="47">
         <v>27.43</v>
       </c>
-      <c r="G105" s="97"/>
+      <c r="G105" s="117"/>
       <c r="H105" s="46"/>
-      <c r="I105" s="88"/>
+      <c r="I105" s="104"/>
       <c r="J105" s="44"/>
       <c r="L105" s="45"/>
     </row>
@@ -5669,10 +5841,10 @@
       <c r="L106" s="45"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="98">
+      <c r="A107" s="138">
         <v>21</v>
       </c>
-      <c r="B107" s="95" t="s">
+      <c r="B107" s="109" t="s">
         <v>373</v>
       </c>
       <c r="C107" s="46" t="s">
@@ -5691,7 +5863,7 @@
         <v>374</v>
       </c>
       <c r="H107" s="46"/>
-      <c r="I107" s="86">
+      <c r="I107" s="102">
         <f>SUM(F107:F111)</f>
         <v>63.53</v>
       </c>
@@ -5699,9 +5871,9 @@
       <c r="L107" s="45"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="99"/>
-      <c r="B108" s="87"/>
-      <c r="C108" s="89" t="s">
+      <c r="A108" s="139"/>
+      <c r="B108" s="103"/>
+      <c r="C108" s="107" t="s">
         <v>384</v>
       </c>
       <c r="D108" s="44" t="s">
@@ -5713,18 +5885,18 @@
       <c r="F108" s="47">
         <v>12.09</v>
       </c>
-      <c r="G108" s="96" t="s">
+      <c r="G108" s="116" t="s">
         <v>382</v>
       </c>
       <c r="H108" s="46"/>
-      <c r="I108" s="87"/>
+      <c r="I108" s="103"/>
       <c r="J108" s="44"/>
       <c r="L108" s="45"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="99"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="90"/>
+      <c r="A109" s="139"/>
+      <c r="B109" s="103"/>
+      <c r="C109" s="108"/>
       <c r="D109" s="44" t="s">
         <v>385</v>
       </c>
@@ -5734,15 +5906,15 @@
       <c r="F109" s="47">
         <v>6.63</v>
       </c>
-      <c r="G109" s="97"/>
+      <c r="G109" s="117"/>
       <c r="H109" s="46"/>
-      <c r="I109" s="87"/>
+      <c r="I109" s="103"/>
       <c r="J109" s="44"/>
       <c r="L109" s="45"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="99"/>
-      <c r="B110" s="87"/>
+      <c r="A110" s="139"/>
+      <c r="B110" s="103"/>
       <c r="C110" s="46" t="s">
         <v>384</v>
       </c>
@@ -5759,13 +5931,13 @@
         <v>387</v>
       </c>
       <c r="H110" s="46"/>
-      <c r="I110" s="87"/>
+      <c r="I110" s="103"/>
       <c r="J110" s="44"/>
       <c r="L110" s="45"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="100"/>
-      <c r="B111" s="88"/>
+      <c r="A111" s="140"/>
+      <c r="B111" s="104"/>
       <c r="C111" s="46" t="s">
         <v>384</v>
       </c>
@@ -5782,15 +5954,15 @@
         <v>389</v>
       </c>
       <c r="H111" s="46"/>
-      <c r="I111" s="88"/>
+      <c r="I111" s="104"/>
       <c r="J111" s="44"/>
       <c r="L111" s="45"/>
     </row>
     <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="110">
+      <c r="A112" s="97">
         <v>22</v>
       </c>
-      <c r="B112" s="110" t="s">
+      <c r="B112" s="97" t="s">
         <v>392</v>
       </c>
       <c r="C112" s="73" t="s">
@@ -5811,7 +5983,7 @@
       <c r="H112" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="I112" s="101">
+      <c r="I112" s="105">
         <f>SUM(F112:F118)</f>
         <v>3137.64</v>
       </c>
@@ -5819,8 +5991,8 @@
       <c r="L112" s="45"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="111"/>
-      <c r="B113" s="111"/>
+      <c r="A113" s="98"/>
+      <c r="B113" s="98"/>
       <c r="C113" s="73" t="s">
         <v>367</v>
       </c>
@@ -5837,13 +6009,13 @@
         <v>368</v>
       </c>
       <c r="H113" s="73"/>
-      <c r="I113" s="111"/>
+      <c r="I113" s="98"/>
       <c r="J113" s="75"/>
       <c r="L113" s="45"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="111"/>
-      <c r="B114" s="111"/>
+      <c r="A114" s="98"/>
+      <c r="B114" s="98"/>
       <c r="C114" s="73" t="s">
         <v>399</v>
       </c>
@@ -5860,38 +6032,39 @@
         <v>398</v>
       </c>
       <c r="H114" s="73"/>
-      <c r="I114" s="111"/>
+      <c r="I114" s="98"/>
       <c r="J114" s="75"/>
       <c r="L114" s="45"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="111"/>
-      <c r="B115" s="111"/>
-      <c r="C115" s="69" t="s">
-        <v>481</v>
-      </c>
-      <c r="D115" s="75" t="s">
+      <c r="A115" s="98"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="178" t="s">
+        <v>529</v>
+      </c>
+      <c r="D115" s="96" t="s">
         <v>402</v>
       </c>
-      <c r="E115" s="71" t="s">
+      <c r="E115" s="95" t="s">
         <v>403</v>
       </c>
       <c r="F115" s="70">
         <v>2684</v>
       </c>
-      <c r="G115" s="75" t="s">
+      <c r="G115" s="96" t="s">
         <v>401</v>
       </c>
-      <c r="H115" s="73"/>
-      <c r="I115" s="111"/>
-      <c r="J115" s="75"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="98"/>
+      <c r="J115" s="96"/>
+      <c r="K115" s="96"/>
       <c r="L115" s="70">
         <v>2684</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="111"/>
-      <c r="B116" s="111"/>
+      <c r="A116" s="98"/>
+      <c r="B116" s="98"/>
       <c r="C116" s="75" t="s">
         <v>404</v>
       </c>
@@ -5906,13 +6079,13 @@
         <v>405</v>
       </c>
       <c r="H116" s="73"/>
-      <c r="I116" s="111"/>
+      <c r="I116" s="98"/>
       <c r="J116" s="75"/>
       <c r="L116" s="45"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="111"/>
-      <c r="B117" s="111"/>
+      <c r="A117" s="98"/>
+      <c r="B117" s="98"/>
       <c r="C117" s="73" t="s">
         <v>407</v>
       </c>
@@ -5927,18 +6100,18 @@
         <v>409</v>
       </c>
       <c r="H117" s="73"/>
-      <c r="I117" s="111"/>
+      <c r="I117" s="98"/>
       <c r="J117" s="75"/>
       <c r="L117" s="45"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="112"/>
-      <c r="B118" s="112"/>
+      <c r="A118" s="99"/>
+      <c r="B118" s="99"/>
       <c r="C118" s="75" t="s">
         <v>410</v>
       </c>
       <c r="D118" s="75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E118" s="71" t="s">
         <v>412</v>
@@ -5950,15 +6123,15 @@
         <v>411</v>
       </c>
       <c r="H118" s="73"/>
-      <c r="I118" s="112"/>
+      <c r="I118" s="99"/>
       <c r="J118" s="75"/>
       <c r="L118" s="45"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="95">
+      <c r="A119" s="109">
         <v>23</v>
       </c>
-      <c r="B119" s="95" t="s">
+      <c r="B119" s="109" t="s">
         <v>413</v>
       </c>
       <c r="C119" s="44" t="s">
@@ -5973,7 +6146,7 @@
       </c>
       <c r="G119" s="44"/>
       <c r="H119" s="46"/>
-      <c r="I119" s="86">
+      <c r="I119" s="102">
         <f>SUM(F119:F142)</f>
         <v>1698.7700000000002</v>
       </c>
@@ -5981,8 +6154,8 @@
       <c r="L119" s="45"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="87"/>
-      <c r="B120" s="87"/>
+      <c r="A120" s="103"/>
+      <c r="B120" s="103"/>
       <c r="C120" s="44" t="s">
         <v>416</v>
       </c>
@@ -5997,13 +6170,13 @@
       </c>
       <c r="G120" s="44"/>
       <c r="H120" s="46"/>
-      <c r="I120" s="87"/>
+      <c r="I120" s="103"/>
       <c r="J120" s="44"/>
       <c r="L120" s="45"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="87"/>
-      <c r="B121" s="87"/>
+      <c r="A121" s="103"/>
+      <c r="B121" s="103"/>
       <c r="C121" s="44" t="s">
         <v>419</v>
       </c>
@@ -6017,13 +6190,13 @@
         <v>398</v>
       </c>
       <c r="H121" s="46"/>
-      <c r="I121" s="87"/>
+      <c r="I121" s="103"/>
       <c r="J121" s="44"/>
       <c r="L121" s="45"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="87"/>
-      <c r="B122" s="87"/>
+      <c r="A122" s="103"/>
+      <c r="B122" s="103"/>
       <c r="C122" s="44" t="s">
         <v>421</v>
       </c>
@@ -6036,13 +6209,13 @@
       </c>
       <c r="G122" s="44"/>
       <c r="H122" s="46"/>
-      <c r="I122" s="87"/>
+      <c r="I122" s="103"/>
       <c r="J122" s="44"/>
       <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="87"/>
-      <c r="B123" s="87"/>
+      <c r="A123" s="103"/>
+      <c r="B123" s="103"/>
       <c r="C123" s="44" t="s">
         <v>424</v>
       </c>
@@ -6055,15 +6228,15 @@
       </c>
       <c r="G123" s="44"/>
       <c r="H123" s="46"/>
-      <c r="I123" s="87"/>
+      <c r="I123" s="103"/>
       <c r="J123" s="44"/>
       <c r="L123" s="45"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="87"/>
-      <c r="B124" s="87"/>
+      <c r="A124" s="103"/>
+      <c r="B124" s="103"/>
       <c r="C124" s="44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D124" s="44" t="s">
         <v>425</v>
@@ -6076,15 +6249,15 @@
       </c>
       <c r="G124" s="44"/>
       <c r="H124" s="46"/>
-      <c r="I124" s="87"/>
+      <c r="I124" s="103"/>
       <c r="J124" s="44"/>
       <c r="L124" s="45"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="87"/>
-      <c r="B125" s="87"/>
+      <c r="A125" s="103"/>
+      <c r="B125" s="103"/>
       <c r="C125" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D125" s="44" t="s">
         <v>442</v>
@@ -6099,13 +6272,13 @@
         <v>89</v>
       </c>
       <c r="H125" s="46"/>
-      <c r="I125" s="87"/>
+      <c r="I125" s="103"/>
       <c r="J125" s="44"/>
       <c r="L125" s="45"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="87"/>
-      <c r="B126" s="87"/>
+      <c r="A126" s="103"/>
+      <c r="B126" s="103"/>
       <c r="C126" s="44" t="s">
         <v>443</v>
       </c>
@@ -6120,13 +6293,13 @@
       </c>
       <c r="G126" s="44"/>
       <c r="H126" s="46"/>
-      <c r="I126" s="87"/>
+      <c r="I126" s="103"/>
       <c r="J126" s="44"/>
       <c r="L126" s="45"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="87"/>
-      <c r="B127" s="87"/>
+      <c r="A127" s="103"/>
+      <c r="B127" s="103"/>
       <c r="C127" s="46" t="s">
         <v>446</v>
       </c>
@@ -6141,18 +6314,18 @@
       </c>
       <c r="G127" s="44"/>
       <c r="H127" s="46"/>
-      <c r="I127" s="87"/>
+      <c r="I127" s="103"/>
       <c r="J127" s="44"/>
       <c r="L127" s="45"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="87"/>
-      <c r="B128" s="87"/>
+      <c r="A128" s="103"/>
+      <c r="B128" s="103"/>
       <c r="C128" s="46" t="s">
         <v>449</v>
       </c>
       <c r="D128" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E128" s="45" t="s">
         <v>448</v>
@@ -6162,13 +6335,13 @@
       </c>
       <c r="G128" s="44"/>
       <c r="H128" s="46"/>
-      <c r="I128" s="87"/>
+      <c r="I128" s="103"/>
       <c r="J128" s="44"/>
       <c r="L128" s="45"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="87"/>
-      <c r="B129" s="87"/>
+      <c r="A129" s="103"/>
+      <c r="B129" s="103"/>
       <c r="C129" s="46" t="s">
         <v>450</v>
       </c>
@@ -6183,13 +6356,13 @@
       </c>
       <c r="G129" s="44"/>
       <c r="H129" s="46"/>
-      <c r="I129" s="87"/>
+      <c r="I129" s="103"/>
       <c r="J129" s="44"/>
       <c r="L129" s="45"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="87"/>
-      <c r="B130" s="87"/>
+      <c r="A130" s="103"/>
+      <c r="B130" s="103"/>
       <c r="C130" s="46" t="s">
         <v>453</v>
       </c>
@@ -6204,18 +6377,18 @@
       </c>
       <c r="G130" s="44"/>
       <c r="H130" s="46"/>
-      <c r="I130" s="87"/>
+      <c r="I130" s="103"/>
       <c r="J130" s="44"/>
       <c r="L130" s="45"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="87"/>
-      <c r="B131" s="87"/>
+      <c r="A131" s="103"/>
+      <c r="B131" s="103"/>
       <c r="C131" s="46" t="s">
         <v>456</v>
       </c>
       <c r="D131" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E131" s="45" t="s">
         <v>457</v>
@@ -6225,18 +6398,18 @@
       </c>
       <c r="G131" s="44"/>
       <c r="H131" s="46"/>
-      <c r="I131" s="87"/>
+      <c r="I131" s="103"/>
       <c r="J131" s="44"/>
       <c r="L131" s="45"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="87"/>
-      <c r="B132" s="87"/>
+      <c r="A132" s="103"/>
+      <c r="B132" s="103"/>
       <c r="C132" s="46" t="s">
         <v>459</v>
       </c>
       <c r="D132" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E132" s="45" t="s">
         <v>458</v>
@@ -6246,13 +6419,13 @@
       </c>
       <c r="G132" s="44"/>
       <c r="H132" s="46"/>
-      <c r="I132" s="87"/>
+      <c r="I132" s="103"/>
       <c r="J132" s="44"/>
       <c r="L132" s="45"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="87"/>
-      <c r="B133" s="87"/>
+      <c r="A133" s="103"/>
+      <c r="B133" s="103"/>
       <c r="C133" s="46" t="s">
         <v>460</v>
       </c>
@@ -6267,13 +6440,13 @@
       </c>
       <c r="G133" s="44"/>
       <c r="H133" s="46"/>
-      <c r="I133" s="87"/>
+      <c r="I133" s="103"/>
       <c r="J133" s="44"/>
       <c r="L133" s="45"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="87"/>
-      <c r="B134" s="87"/>
+      <c r="A134" s="103"/>
+      <c r="B134" s="103"/>
       <c r="C134" s="46" t="s">
         <v>462</v>
       </c>
@@ -6288,18 +6461,18 @@
       </c>
       <c r="G134" s="44"/>
       <c r="H134" s="46"/>
-      <c r="I134" s="87"/>
+      <c r="I134" s="103"/>
       <c r="J134" s="44"/>
       <c r="L134" s="45"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="87"/>
-      <c r="B135" s="87"/>
+      <c r="A135" s="103"/>
+      <c r="B135" s="103"/>
       <c r="C135" s="46" t="s">
         <v>464</v>
       </c>
       <c r="D135" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E135" s="45" t="s">
         <v>457</v>
@@ -6309,13 +6482,13 @@
       </c>
       <c r="G135" s="44"/>
       <c r="H135" s="46"/>
-      <c r="I135" s="87"/>
+      <c r="I135" s="103"/>
       <c r="J135" s="44"/>
       <c r="L135" s="45"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="87"/>
-      <c r="B136" s="87"/>
+      <c r="A136" s="103"/>
+      <c r="B136" s="103"/>
       <c r="C136" s="46" t="s">
         <v>465</v>
       </c>
@@ -6330,13 +6503,13 @@
       </c>
       <c r="G136" s="44"/>
       <c r="H136" s="46"/>
-      <c r="I136" s="87"/>
+      <c r="I136" s="103"/>
       <c r="J136" s="44"/>
-      <c r="L136" s="45"/>
+      <c r="L136" s="182"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="87"/>
-      <c r="B137" s="87"/>
+      <c r="A137" s="103"/>
+      <c r="B137" s="103"/>
       <c r="C137" s="46" t="s">
         <v>465</v>
       </c>
@@ -6351,13 +6524,13 @@
       </c>
       <c r="G137" s="44"/>
       <c r="H137" s="46"/>
-      <c r="I137" s="87"/>
+      <c r="I137" s="103"/>
       <c r="J137" s="44"/>
-      <c r="L137" s="45"/>
+      <c r="L137" s="182"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="87"/>
-      <c r="B138" s="87"/>
+      <c r="A138" s="103"/>
+      <c r="B138" s="103"/>
       <c r="C138" s="46" t="s">
         <v>469</v>
       </c>
@@ -6372,18 +6545,18 @@
       </c>
       <c r="G138" s="44"/>
       <c r="H138" s="46"/>
-      <c r="I138" s="87"/>
+      <c r="I138" s="103"/>
       <c r="J138" s="44"/>
-      <c r="L138" s="45"/>
+      <c r="L138" s="182"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="87"/>
-      <c r="B139" s="87"/>
+      <c r="A139" s="103"/>
+      <c r="B139" s="103"/>
       <c r="C139" s="46" t="s">
         <v>472</v>
       </c>
       <c r="D139" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E139" s="45" t="s">
         <v>473</v>
@@ -6393,13 +6566,13 @@
       </c>
       <c r="G139" s="44"/>
       <c r="H139" s="46"/>
-      <c r="I139" s="87"/>
+      <c r="I139" s="103"/>
       <c r="J139" s="44"/>
-      <c r="L139" s="45"/>
+      <c r="L139" s="182"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="87"/>
-      <c r="B140" s="87"/>
+      <c r="A140" s="103"/>
+      <c r="B140" s="103"/>
       <c r="C140" s="46" t="s">
         <v>474</v>
       </c>
@@ -6414,13 +6587,13 @@
       </c>
       <c r="G140" s="44"/>
       <c r="H140" s="46"/>
-      <c r="I140" s="87"/>
+      <c r="I140" s="103"/>
       <c r="J140" s="44"/>
-      <c r="L140" s="45"/>
+      <c r="L140" s="182"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="87"/>
-      <c r="B141" s="87"/>
+      <c r="A141" s="103"/>
+      <c r="B141" s="103"/>
       <c r="C141" s="46" t="s">
         <v>477</v>
       </c>
@@ -6435,13 +6608,13 @@
       </c>
       <c r="G141" s="44"/>
       <c r="H141" s="46"/>
-      <c r="I141" s="87"/>
+      <c r="I141" s="103"/>
       <c r="J141" s="44"/>
-      <c r="L141" s="45"/>
+      <c r="L141" s="182"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="88"/>
-      <c r="B142" s="88"/>
+      <c r="A142" s="104"/>
+      <c r="B142" s="104"/>
       <c r="C142" s="46" t="s">
         <v>477</v>
       </c>
@@ -6456,25 +6629,25 @@
       </c>
       <c r="G142" s="44"/>
       <c r="H142" s="46"/>
-      <c r="I142" s="88"/>
+      <c r="I142" s="104"/>
       <c r="J142" s="44"/>
-      <c r="L142" s="45"/>
+      <c r="L142" s="182"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="95">
+      <c r="A143" s="109">
         <v>24</v>
       </c>
-      <c r="B143" s="95" t="s">
+      <c r="B143" s="109" t="s">
+        <v>488</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="D143" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="C143" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="D143" s="44" t="s">
+      <c r="E143" s="45" t="s">
         <v>490</v>
-      </c>
-      <c r="E143" s="45" t="s">
-        <v>491</v>
       </c>
       <c r="F143" s="47">
         <v>49.94</v>
@@ -6483,17 +6656,17 @@
       <c r="H143" s="46"/>
       <c r="I143" s="68"/>
       <c r="J143" s="44"/>
-      <c r="L143" s="45"/>
+      <c r="L143" s="182"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="87"/>
-      <c r="B144" s="87"/>
+      <c r="A144" s="103"/>
+      <c r="B144" s="103"/>
       <c r="C144" s="46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D144" s="44"/>
       <c r="E144" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F144" s="47">
         <v>16.170000000000002</v>
@@ -6502,17 +6675,17 @@
       <c r="H144" s="46"/>
       <c r="I144" s="68"/>
       <c r="J144" s="44"/>
-      <c r="L144" s="45"/>
+      <c r="L144" s="182"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="87"/>
-      <c r="B145" s="87"/>
+      <c r="A145" s="103"/>
+      <c r="B145" s="103"/>
       <c r="C145" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D145" s="44"/>
       <c r="E145" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F145" s="47">
         <v>7.53</v>
@@ -6521,11 +6694,11 @@
       <c r="H145" s="46"/>
       <c r="I145" s="68"/>
       <c r="J145" s="44"/>
-      <c r="L145" s="45"/>
+      <c r="L145" s="182"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="87"/>
-      <c r="B146" s="87"/>
+      <c r="A146" s="103"/>
+      <c r="B146" s="103"/>
       <c r="C146" s="46"/>
       <c r="D146" s="44"/>
       <c r="E146" s="45"/>
@@ -6536,11 +6709,11 @@
       <c r="H146" s="46"/>
       <c r="I146" s="68"/>
       <c r="J146" s="44"/>
-      <c r="L146" s="45"/>
+      <c r="L146" s="182"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" s="88"/>
-      <c r="B147" s="88"/>
+      <c r="A147" s="104"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="46"/>
       <c r="D147" s="44"/>
       <c r="E147" s="45"/>
@@ -6551,23 +6724,23 @@
       <c r="H147" s="46"/>
       <c r="I147" s="68"/>
       <c r="J147" s="44"/>
-      <c r="L147" s="45"/>
+      <c r="L147" s="182"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="95">
+      <c r="A148" s="109">
         <v>25</v>
       </c>
-      <c r="B148" s="95" t="s">
+      <c r="B148" s="109" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="C148" s="46" t="s">
+      <c r="D148" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="D148" s="44" t="s">
-        <v>499</v>
-      </c>
       <c r="E148" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F148" s="47">
         <v>4.95</v>
@@ -6576,17 +6749,17 @@
       <c r="H148" s="46"/>
       <c r="I148" s="68"/>
       <c r="J148" s="44"/>
-      <c r="L148" s="45"/>
+      <c r="L148" s="182"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="87"/>
-      <c r="B149" s="87"/>
+      <c r="A149" s="103"/>
+      <c r="B149" s="103"/>
       <c r="C149" s="46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D149" s="44"/>
       <c r="E149" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F149" s="47">
         <v>9.77</v>
@@ -6595,19 +6768,19 @@
       <c r="H149" s="46"/>
       <c r="I149" s="68"/>
       <c r="J149" s="44"/>
-      <c r="L149" s="45"/>
+      <c r="L149" s="182"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="87"/>
-      <c r="B150" s="87"/>
+      <c r="A150" s="103"/>
+      <c r="B150" s="103"/>
       <c r="C150" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="D150" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="D150" s="44" t="s">
+      <c r="E150" s="45" t="s">
         <v>502</v>
-      </c>
-      <c r="E150" s="45" t="s">
-        <v>503</v>
       </c>
       <c r="F150" s="47">
         <v>21.75</v>
@@ -6616,19 +6789,19 @@
       <c r="H150" s="46"/>
       <c r="I150" s="68"/>
       <c r="J150" s="44"/>
-      <c r="L150" s="45"/>
+      <c r="L150" s="182"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A151" s="87"/>
-      <c r="B151" s="87"/>
+      <c r="A151" s="103"/>
+      <c r="B151" s="103"/>
       <c r="C151" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="D151" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="D151" s="44" t="s">
+      <c r="E151" s="45" t="s">
         <v>505</v>
-      </c>
-      <c r="E151" s="45" t="s">
-        <v>506</v>
       </c>
       <c r="F151" s="47">
         <v>8.2200000000000006</v>
@@ -6637,19 +6810,19 @@
       <c r="H151" s="46"/>
       <c r="I151" s="68"/>
       <c r="J151" s="44"/>
-      <c r="L151" s="45"/>
+      <c r="L151" s="182"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" s="87"/>
-      <c r="B152" s="87"/>
+      <c r="A152" s="103"/>
+      <c r="B152" s="103"/>
       <c r="C152" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="D152" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="D152" s="44" t="s">
-        <v>508</v>
-      </c>
       <c r="E152" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F152" s="47">
         <v>284</v>
@@ -6658,13 +6831,13 @@
       <c r="H152" s="46"/>
       <c r="I152" s="68"/>
       <c r="J152" s="44"/>
-      <c r="L152" s="45"/>
+      <c r="L152" s="182"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" s="87"/>
-      <c r="B153" s="87"/>
+      <c r="A153" s="103"/>
+      <c r="B153" s="103"/>
       <c r="C153" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D153" s="44"/>
       <c r="E153" s="45"/>
@@ -6675,13 +6848,13 @@
       <c r="H153" s="46"/>
       <c r="I153" s="68"/>
       <c r="J153" s="44"/>
-      <c r="L153" s="45"/>
+      <c r="L153" s="182"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" s="87"/>
-      <c r="B154" s="87"/>
-      <c r="C154" s="89" t="s">
-        <v>510</v>
+      <c r="A154" s="103"/>
+      <c r="B154" s="103"/>
+      <c r="C154" s="107" t="s">
+        <v>509</v>
       </c>
       <c r="D154" s="44"/>
       <c r="E154" s="45"/>
@@ -6692,12 +6865,12 @@
       <c r="H154" s="46"/>
       <c r="I154" s="68"/>
       <c r="J154" s="44"/>
-      <c r="L154" s="45"/>
+      <c r="L154" s="182"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="87"/>
-      <c r="B155" s="87"/>
-      <c r="C155" s="90"/>
+      <c r="A155" s="103"/>
+      <c r="B155" s="103"/>
+      <c r="C155" s="108"/>
       <c r="D155" s="44"/>
       <c r="E155" s="45"/>
       <c r="F155" s="47">
@@ -6707,13 +6880,13 @@
       <c r="H155" s="46"/>
       <c r="I155" s="68"/>
       <c r="J155" s="44"/>
-      <c r="L155" s="45"/>
+      <c r="L155" s="182"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="87"/>
-      <c r="B156" s="87"/>
-      <c r="C156" s="89" t="s">
-        <v>511</v>
+      <c r="A156" s="103"/>
+      <c r="B156" s="103"/>
+      <c r="C156" s="107" t="s">
+        <v>510</v>
       </c>
       <c r="D156" s="44"/>
       <c r="E156" s="45"/>
@@ -6724,12 +6897,12 @@
       <c r="H156" s="46"/>
       <c r="I156" s="68"/>
       <c r="J156" s="44"/>
-      <c r="L156" s="45"/>
+      <c r="L156" s="182"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="87"/>
-      <c r="B157" s="87"/>
-      <c r="C157" s="91"/>
+      <c r="A157" s="103"/>
+      <c r="B157" s="103"/>
+      <c r="C157" s="112"/>
       <c r="D157" s="44"/>
       <c r="E157" s="45"/>
       <c r="F157" s="47">
@@ -6739,96 +6912,99 @@
       <c r="H157" s="46"/>
       <c r="I157" s="68"/>
       <c r="J157" s="44"/>
-      <c r="L157" s="45"/>
+      <c r="L157" s="182"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="87"/>
-      <c r="B158" s="87"/>
-      <c r="C158" s="90"/>
-      <c r="D158" s="44"/>
-      <c r="E158" s="45"/>
-      <c r="F158" s="47">
+      <c r="A158" s="103"/>
+      <c r="B158" s="103"/>
+      <c r="C158" s="108"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="86">
         <v>2.97</v>
       </c>
-      <c r="G158" s="44"/>
-      <c r="H158" s="46"/>
-      <c r="I158" s="68"/>
-      <c r="J158" s="44"/>
-      <c r="L158" s="45"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="88"/>
+      <c r="I158" s="179"/>
+      <c r="J158" s="91"/>
+      <c r="L158" s="182"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="87"/>
-      <c r="B159" s="87"/>
-      <c r="C159" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="D159" s="44" t="s">
-        <v>515</v>
-      </c>
-      <c r="E159" s="45"/>
+      <c r="A159" s="103"/>
+      <c r="B159" s="103"/>
+      <c r="C159" s="126" t="s">
+        <v>511</v>
+      </c>
+      <c r="D159" s="96" t="s">
+        <v>514</v>
+      </c>
+      <c r="E159" s="183"/>
       <c r="F159" s="70">
         <v>28.23</v>
       </c>
-      <c r="G159" s="44"/>
-      <c r="H159" s="46"/>
-      <c r="I159" s="68"/>
-      <c r="J159" s="44"/>
-      <c r="L159" s="163">
+      <c r="G159" s="184"/>
+      <c r="H159" s="185"/>
+      <c r="I159" s="185"/>
+      <c r="J159" s="185"/>
+      <c r="K159" s="186"/>
+      <c r="L159" s="135">
         <f>SUM(F159:F161)</f>
         <v>262.23</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="87"/>
-      <c r="B160" s="87"/>
-      <c r="C160" s="93"/>
-      <c r="D160" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="E160" s="45"/>
+      <c r="A160" s="103"/>
+      <c r="B160" s="103"/>
+      <c r="C160" s="131"/>
+      <c r="D160" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="E160" s="136"/>
       <c r="F160" s="70">
         <v>94</v>
       </c>
-      <c r="G160" s="44"/>
-      <c r="H160" s="46"/>
-      <c r="I160" s="68"/>
-      <c r="J160" s="44"/>
-      <c r="L160" s="164"/>
+      <c r="G160" s="187"/>
+      <c r="H160" s="188"/>
+      <c r="I160" s="188"/>
+      <c r="J160" s="188"/>
+      <c r="K160" s="189"/>
+      <c r="L160" s="136"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="87"/>
-      <c r="B161" s="87"/>
-      <c r="C161" s="94"/>
-      <c r="D161" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="E161" s="45"/>
+      <c r="A161" s="103"/>
+      <c r="B161" s="103"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="E161" s="137"/>
       <c r="F161" s="70">
         <v>140</v>
       </c>
-      <c r="G161" s="44"/>
-      <c r="H161" s="46"/>
-      <c r="I161" s="68"/>
-      <c r="J161" s="44"/>
-      <c r="L161" s="165"/>
+      <c r="G161" s="190"/>
+      <c r="H161" s="191"/>
+      <c r="I161" s="191"/>
+      <c r="J161" s="191"/>
+      <c r="K161" s="192"/>
+      <c r="L161" s="137"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" s="88"/>
-      <c r="B162" s="88"/>
+      <c r="A162" s="104"/>
+      <c r="B162" s="104"/>
       <c r="C162" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="D162" s="44" t="s">
         <v>518</v>
       </c>
-      <c r="E162" s="45"/>
-      <c r="F162" s="47">
+      <c r="D162" s="93" t="s">
+        <v>517</v>
+      </c>
+      <c r="E162" s="87"/>
+      <c r="F162" s="94">
         <v>479</v>
       </c>
-      <c r="G162" s="44"/>
-      <c r="H162" s="46"/>
-      <c r="I162" s="68"/>
-      <c r="J162" s="44"/>
+      <c r="G162" s="93"/>
+      <c r="H162" s="89"/>
+      <c r="I162" s="181"/>
+      <c r="J162" s="93"/>
       <c r="L162" s="45"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -6836,44 +7012,65 @@
         <v>26</v>
       </c>
       <c r="B163" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="C163" s="69" t="s">
         <v>513</v>
       </c>
-      <c r="C163" s="69" t="s">
-        <v>514</v>
-      </c>
-      <c r="D163" s="44"/>
-      <c r="E163" s="45"/>
+      <c r="D163" s="96"/>
+      <c r="E163" s="95"/>
       <c r="F163" s="70">
         <v>2600</v>
       </c>
-      <c r="G163" s="44"/>
-      <c r="H163" s="46"/>
-      <c r="I163" s="68"/>
-      <c r="J163" s="44"/>
+      <c r="G163" s="96"/>
+      <c r="H163" s="69"/>
+      <c r="I163" s="95"/>
+      <c r="J163" s="96"/>
+      <c r="K163" s="96"/>
       <c r="L163" s="70">
         <v>2600</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="45"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="44"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="46"/>
-      <c r="I164" s="68"/>
-      <c r="J164" s="44"/>
+      <c r="A164" s="45">
+        <v>27</v>
+      </c>
+      <c r="B164" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="C164" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="D164" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="E164" s="50"/>
+      <c r="F164" s="52">
+        <v>500</v>
+      </c>
+      <c r="G164" s="92"/>
+      <c r="H164" s="53"/>
+      <c r="I164" s="180"/>
+      <c r="J164" s="92"/>
       <c r="L164" s="45"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" s="45"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="46"/>
-      <c r="D165" s="44"/>
+      <c r="A165" s="109">
+        <v>28</v>
+      </c>
+      <c r="B165" s="109" t="s">
+        <v>522</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="D165" s="44" t="s">
+        <v>521</v>
+      </c>
       <c r="E165" s="45"/>
-      <c r="F165" s="47"/>
+      <c r="F165" s="47">
+        <v>1500</v>
+      </c>
       <c r="G165" s="44"/>
       <c r="H165" s="46"/>
       <c r="I165" s="68"/>
@@ -6881,56 +7078,79 @@
       <c r="L165" s="45"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="46"/>
+      <c r="A166" s="104"/>
+      <c r="B166" s="104"/>
+      <c r="C166" s="46" t="s">
+        <v>528</v>
+      </c>
       <c r="D166" s="44"/>
       <c r="E166" s="45"/>
-      <c r="F166" s="47"/>
+      <c r="F166" s="47">
+        <v>292</v>
+      </c>
       <c r="G166" s="44"/>
       <c r="H166" s="46"/>
       <c r="I166" s="68"/>
       <c r="J166" s="44"/>
-      <c r="L166" s="45"/>
+      <c r="L166" s="182">
+        <v>292</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" s="45"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="46"/>
-      <c r="D167" s="44"/>
-      <c r="E167" s="45"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="46"/>
-      <c r="I167" s="68"/>
-      <c r="J167" s="44"/>
+      <c r="A167" s="109">
+        <v>29</v>
+      </c>
+      <c r="B167" s="109" t="s">
+        <v>524</v>
+      </c>
+      <c r="C167" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="D167" s="91" t="s">
+        <v>526</v>
+      </c>
+      <c r="E167" s="90"/>
+      <c r="F167" s="86">
+        <v>350</v>
+      </c>
+      <c r="G167" s="91"/>
+      <c r="H167" s="88"/>
+      <c r="I167" s="179"/>
+      <c r="J167" s="91"/>
       <c r="L167" s="45"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" s="45"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="46"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="46"/>
-      <c r="I168" s="68"/>
-      <c r="J168" s="44"/>
-      <c r="L168" s="45"/>
+      <c r="A168" s="104"/>
+      <c r="B168" s="104"/>
+      <c r="C168" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="D168" s="96"/>
+      <c r="E168" s="95"/>
+      <c r="F168" s="70">
+        <v>6621</v>
+      </c>
+      <c r="G168" s="193"/>
+      <c r="H168" s="194"/>
+      <c r="I168" s="194"/>
+      <c r="J168" s="194"/>
+      <c r="K168" s="195"/>
+      <c r="L168" s="70">
+        <v>6621</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
       <c r="C169" s="46"/>
-      <c r="D169" s="44"/>
-      <c r="E169" s="45"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="46"/>
-      <c r="I169" s="68"/>
-      <c r="J169" s="44"/>
-      <c r="L169" s="45"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="92"/>
+      <c r="H169" s="53"/>
+      <c r="I169" s="180"/>
+      <c r="J169" s="92"/>
+      <c r="L169" s="182"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="45"/>
@@ -6943,7 +7163,7 @@
       <c r="H170" s="46"/>
       <c r="I170" s="68"/>
       <c r="J170" s="44"/>
-      <c r="L170" s="45"/>
+      <c r="L170" s="182"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="45"/>
@@ -6956,7 +7176,7 @@
       <c r="H171" s="46"/>
       <c r="I171" s="68"/>
       <c r="J171" s="44"/>
-      <c r="L171" s="45"/>
+      <c r="L171" s="182"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="45"/>
@@ -6969,7 +7189,7 @@
       <c r="H172" s="46"/>
       <c r="I172" s="68"/>
       <c r="J172" s="44"/>
-      <c r="L172" s="45"/>
+      <c r="L172" s="182"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="45"/>
@@ -6982,7 +7202,7 @@
       <c r="H173" s="46"/>
       <c r="I173" s="68"/>
       <c r="J173" s="44"/>
-      <c r="L173" s="45"/>
+      <c r="L173" s="182"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="45"/>
@@ -6995,7 +7215,7 @@
       <c r="H174" s="46"/>
       <c r="I174" s="68"/>
       <c r="J174" s="44"/>
-      <c r="L174" s="45"/>
+      <c r="L174" s="182"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="45"/>
@@ -7008,7 +7228,7 @@
       <c r="H175" s="46"/>
       <c r="I175" s="68"/>
       <c r="J175" s="44"/>
-      <c r="L175" s="45"/>
+      <c r="L175" s="182"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="45"/>
@@ -7021,7 +7241,7 @@
       <c r="H176" s="46"/>
       <c r="I176" s="68"/>
       <c r="J176" s="44"/>
-      <c r="L176" s="45"/>
+      <c r="L176" s="182"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="45"/>
@@ -7034,7 +7254,7 @@
       <c r="H177" s="46"/>
       <c r="I177" s="68"/>
       <c r="J177" s="44"/>
-      <c r="L177" s="45"/>
+      <c r="L177" s="182"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="45"/>
@@ -7047,7 +7267,7 @@
       <c r="H178" s="46"/>
       <c r="I178" s="68"/>
       <c r="J178" s="44"/>
-      <c r="L178" s="45"/>
+      <c r="L178" s="182"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="45"/>
@@ -7060,7 +7280,7 @@
       <c r="H179" s="46"/>
       <c r="I179" s="68"/>
       <c r="J179" s="44"/>
-      <c r="L179" s="45"/>
+      <c r="L179" s="182"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="45"/>
@@ -7073,7 +7293,7 @@
       <c r="H180" s="46"/>
       <c r="I180" s="68"/>
       <c r="J180" s="44"/>
-      <c r="L180" s="45"/>
+      <c r="L180" s="182"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="45"/>
@@ -7086,7 +7306,7 @@
       <c r="H181" s="46"/>
       <c r="I181" s="68"/>
       <c r="J181" s="44"/>
-      <c r="L181" s="45"/>
+      <c r="L181" s="182"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="45"/>
@@ -7099,7 +7319,7 @@
       <c r="H182" s="46"/>
       <c r="I182" s="68"/>
       <c r="J182" s="44"/>
-      <c r="L182" s="45"/>
+      <c r="L182" s="182"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="45"/>
@@ -7112,7 +7332,7 @@
       <c r="H183" s="46"/>
       <c r="I183" s="68"/>
       <c r="J183" s="44"/>
-      <c r="L183" s="45"/>
+      <c r="L183" s="182"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="45"/>
@@ -7125,7 +7345,7 @@
       <c r="H184" s="46"/>
       <c r="I184" s="68"/>
       <c r="J184" s="44"/>
-      <c r="L184" s="45"/>
+      <c r="L184" s="182"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="45"/>
@@ -7138,7 +7358,7 @@
       <c r="H185" s="46"/>
       <c r="I185" s="68"/>
       <c r="J185" s="44"/>
-      <c r="L185" s="45"/>
+      <c r="L185" s="182"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="45"/>
@@ -7151,7 +7371,7 @@
       <c r="H186" s="46"/>
       <c r="I186" s="68"/>
       <c r="J186" s="44"/>
-      <c r="L186" s="45"/>
+      <c r="L186" s="182"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="45"/>
@@ -7164,7 +7384,7 @@
       <c r="H187" s="46"/>
       <c r="I187" s="68"/>
       <c r="J187" s="44"/>
-      <c r="L187" s="45"/>
+      <c r="L187" s="182"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="45"/>
@@ -7177,7 +7397,7 @@
       <c r="H188" s="46"/>
       <c r="I188" s="68"/>
       <c r="J188" s="44"/>
-      <c r="L188" s="45"/>
+      <c r="L188" s="182"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="45"/>
@@ -7190,7 +7410,7 @@
       <c r="H189" s="46"/>
       <c r="I189" s="68"/>
       <c r="J189" s="44"/>
-      <c r="L189" s="45"/>
+      <c r="L189" s="182"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="45"/>
@@ -7203,7 +7423,7 @@
       <c r="H190" s="46"/>
       <c r="I190" s="68"/>
       <c r="J190" s="44"/>
-      <c r="L190" s="45"/>
+      <c r="L190" s="182"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="45"/>
@@ -7216,7 +7436,7 @@
       <c r="H191" s="46"/>
       <c r="I191" s="68"/>
       <c r="J191" s="44"/>
-      <c r="L191" s="45"/>
+      <c r="L191" s="182"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="45"/>
@@ -7229,7 +7449,7 @@
       <c r="H192" s="46"/>
       <c r="I192" s="68"/>
       <c r="J192" s="44"/>
-      <c r="L192" s="45"/>
+      <c r="L192" s="182"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="45"/>
@@ -7242,7 +7462,7 @@
       <c r="H193" s="46"/>
       <c r="I193" s="68"/>
       <c r="J193" s="44"/>
-      <c r="L193" s="45"/>
+      <c r="L193" s="182"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="45"/>
@@ -7255,7 +7475,7 @@
       <c r="H194" s="46"/>
       <c r="I194" s="68"/>
       <c r="J194" s="44"/>
-      <c r="L194" s="45"/>
+      <c r="L194" s="182"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="45"/>
@@ -7268,7 +7488,7 @@
       <c r="H195" s="46"/>
       <c r="I195" s="68"/>
       <c r="J195" s="44"/>
-      <c r="L195" s="45"/>
+      <c r="L195" s="182"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="45"/>
@@ -7281,7 +7501,7 @@
       <c r="H196" s="46"/>
       <c r="I196" s="68"/>
       <c r="J196" s="44"/>
-      <c r="L196" s="45"/>
+      <c r="L196" s="182"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="45"/>
@@ -7294,7 +7514,7 @@
       <c r="H197" s="46"/>
       <c r="I197" s="68"/>
       <c r="J197" s="44"/>
-      <c r="L197" s="45"/>
+      <c r="L197" s="182"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="45"/>
@@ -7307,7 +7527,7 @@
       <c r="H198" s="46"/>
       <c r="I198" s="68"/>
       <c r="J198" s="44"/>
-      <c r="L198" s="45"/>
+      <c r="L198" s="182"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="45"/>
@@ -7320,7 +7540,7 @@
       <c r="H199" s="46"/>
       <c r="I199" s="68"/>
       <c r="J199" s="44"/>
-      <c r="L199" s="45"/>
+      <c r="L199" s="182"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="45"/>
@@ -7333,7 +7553,7 @@
       <c r="H200" s="46"/>
       <c r="I200" s="68"/>
       <c r="J200" s="44"/>
-      <c r="L200" s="45"/>
+      <c r="L200" s="182"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="45"/>
@@ -7346,7 +7566,7 @@
       <c r="H201" s="46"/>
       <c r="I201" s="68"/>
       <c r="J201" s="44"/>
-      <c r="L201" s="45"/>
+      <c r="L201" s="182"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="45"/>
@@ -7359,7 +7579,7 @@
       <c r="H202" s="46"/>
       <c r="I202" s="68"/>
       <c r="J202" s="44"/>
-      <c r="L202" s="45"/>
+      <c r="L202" s="182"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="45"/>
@@ -7372,7 +7592,7 @@
       <c r="H203" s="46"/>
       <c r="I203" s="68"/>
       <c r="J203" s="44"/>
-      <c r="L203" s="45"/>
+      <c r="L203" s="182"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="45"/>
@@ -7385,7 +7605,7 @@
       <c r="H204" s="46"/>
       <c r="I204" s="68"/>
       <c r="J204" s="44"/>
-      <c r="L204" s="45"/>
+      <c r="L204" s="182"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="45"/>
@@ -7398,7 +7618,7 @@
       <c r="H205" s="46"/>
       <c r="I205" s="68"/>
       <c r="J205" s="44"/>
-      <c r="L205" s="45"/>
+      <c r="L205" s="182"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="45"/>
@@ -7411,7 +7631,7 @@
       <c r="H206" s="46"/>
       <c r="I206" s="68"/>
       <c r="J206" s="44"/>
-      <c r="L206" s="45"/>
+      <c r="L206" s="182"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="45"/>
@@ -7424,7 +7644,7 @@
       <c r="H207" s="46"/>
       <c r="I207" s="68"/>
       <c r="J207" s="44"/>
-      <c r="L207" s="45"/>
+      <c r="L207" s="182"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="45"/>
@@ -7437,7 +7657,7 @@
       <c r="H208" s="46"/>
       <c r="I208" s="68"/>
       <c r="J208" s="44"/>
-      <c r="L208" s="45"/>
+      <c r="L208" s="182"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="45"/>
@@ -7450,7 +7670,7 @@
       <c r="H209" s="46"/>
       <c r="I209" s="68"/>
       <c r="J209" s="44"/>
-      <c r="L209" s="45"/>
+      <c r="L209" s="182"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="45"/>
@@ -7463,7 +7683,7 @@
       <c r="H210" s="46"/>
       <c r="I210" s="68"/>
       <c r="J210" s="44"/>
-      <c r="L210" s="45"/>
+      <c r="L210" s="182"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="45"/>
@@ -7476,7 +7696,7 @@
       <c r="H211" s="46"/>
       <c r="I211" s="68"/>
       <c r="J211" s="44"/>
-      <c r="L211" s="45"/>
+      <c r="L211" s="182"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="45"/>
@@ -7489,7 +7709,7 @@
       <c r="H212" s="46"/>
       <c r="I212" s="68"/>
       <c r="J212" s="44"/>
-      <c r="L212" s="45"/>
+      <c r="L212" s="182"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="45"/>
@@ -7502,7 +7722,7 @@
       <c r="H213" s="46"/>
       <c r="I213" s="68"/>
       <c r="J213" s="44"/>
-      <c r="L213" s="45"/>
+      <c r="L213" s="182"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="45"/>
@@ -7515,7 +7735,7 @@
       <c r="H214" s="46"/>
       <c r="I214" s="68"/>
       <c r="J214" s="44"/>
-      <c r="L214" s="45"/>
+      <c r="L214" s="182"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="45"/>
@@ -7528,7 +7748,7 @@
       <c r="H215" s="46"/>
       <c r="I215" s="68"/>
       <c r="J215" s="44"/>
-      <c r="L215" s="45"/>
+      <c r="L215" s="182"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="45"/>
@@ -7541,7 +7761,7 @@
       <c r="H216" s="46"/>
       <c r="I216" s="68"/>
       <c r="J216" s="44"/>
-      <c r="L216" s="45"/>
+      <c r="L216" s="182"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="45"/>
@@ -7554,10 +7774,123 @@
       <c r="H217" s="46"/>
       <c r="I217" s="68"/>
       <c r="J217" s="44"/>
-      <c r="L217" s="45"/>
+      <c r="L217" s="182"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" s="45"/>
+      <c r="B218" s="45"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="44"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="44"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="68"/>
+      <c r="J218" s="44"/>
+      <c r="L218" s="182"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="124">
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="G159:K161"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="L159:L161"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="B148:B162"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A162"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C72"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="L83:L84"/>
     <mergeCell ref="L89:L94"/>
@@ -7582,99 +7915,6 @@
     <mergeCell ref="I78:I82"/>
     <mergeCell ref="I83:I84"/>
     <mergeCell ref="G89:G94"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G97:G100"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="L159:L161"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="B148:B162"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A162"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="B112:B118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7708,19 +7948,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="143" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -7730,31 +7970,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="147" t="s">
+      <c r="H1" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="153" t="s">
+      <c r="J1" s="145" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="154"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="146"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -7774,7 +8014,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="159" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -7783,11 +8023,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="136">
+      <c r="I3" s="150">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="142" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7807,21 +8047,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="128"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130">
+      <c r="A5" s="141">
         <v>3</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="164" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -7831,17 +8071,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="134"/>
-      <c r="J5" s="130"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="141"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132"/>
-      <c r="B6" s="143"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -7849,17 +8089,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="132"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="133">
+      <c r="A7" s="147">
         <v>4</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="163" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -7868,48 +8108,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="146">
+      <c r="G7" s="161">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="146">
+      <c r="I7" s="161">
         <v>630</v>
       </c>
-      <c r="J7" s="130" t="s">
+      <c r="J7" s="141" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="146"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="146"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="142"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="130">
+      <c r="A9" s="141">
         <v>5</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="162" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -7921,26 +8161,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="127" t="s">
+      <c r="F9" s="162" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="130" t="s">
+      <c r="H9" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="148">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="130" t="s">
+      <c r="J9" s="141" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -7950,17 +8190,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="129"/>
+      <c r="F10" s="159"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="131"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -7970,17 +8210,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="129"/>
+      <c r="F11" s="159"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="131"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -7990,17 +8230,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="129"/>
+      <c r="F12" s="159"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="131"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="131"/>
-      <c r="B13" s="129"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -8010,17 +8250,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="129"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="131"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="132"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -8030,13 +8270,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="128"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="132"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -8071,10 +8311,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130">
+      <c r="A16" s="141">
         <v>7</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="166" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -8083,140 +8323,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="148">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="134">
+      <c r="H16" s="151"/>
+      <c r="I16" s="148">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="130" t="s">
+      <c r="J16" s="141" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
-      <c r="B17" s="145"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="131"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="131"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="154"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
-      <c r="B18" s="145"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="131"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="131"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="154"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131"/>
-      <c r="B19" s="145"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="131"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="131"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="154"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
-      <c r="B20" s="145"/>
+      <c r="A20" s="154"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="131"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="154"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="145"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="131"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="154"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="131"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="145"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="132"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="132"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="142"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="130">
+      <c r="A24" s="141">
         <v>8</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="162" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -8225,108 +8465,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="130" t="s">
+      <c r="E24" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="134">
+      <c r="G24" s="148">
         <v>180.56</v>
       </c>
-      <c r="H24" s="137"/>
-      <c r="I24" s="134">
+      <c r="H24" s="151"/>
+      <c r="I24" s="148">
         <v>180.56</v>
       </c>
-      <c r="J24" s="130" t="s">
+      <c r="J24" s="141" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="131"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="131"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="154"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="131"/>
-      <c r="B26" s="129"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="131"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="154"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
-      <c r="B27" s="129"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="131"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="154"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="131"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="131"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="132"/>
-      <c r="B29" s="128"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="132"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="142"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130">
+      <c r="A30" s="141">
         <v>16</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="162" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -8335,41 +8575,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="130" t="s">
+      <c r="E30" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="127" t="s">
+      <c r="F30" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="134">
+      <c r="G30" s="148">
         <v>1950</v>
       </c>
-      <c r="H30" s="137"/>
-      <c r="I30" s="134">
+      <c r="H30" s="151"/>
+      <c r="I30" s="148">
         <v>180.56</v>
       </c>
-      <c r="J30" s="130" t="s">
+      <c r="J30" s="141" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="132"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="132"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="142"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="130">
+      <c r="A32" s="141">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -8399,7 +8639,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="132"/>
+      <c r="A33" s="142"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -8457,7 +8697,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="130">
+      <c r="A35" s="141">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -8487,8 +8727,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
-      <c r="B36" s="127" t="s">
+      <c r="A36" s="154"/>
+      <c r="B36" s="162" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -8515,8 +8755,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
-      <c r="B37" s="128"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -8541,8 +8781,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="131"/>
-      <c r="B38" s="137" t="s">
+      <c r="A38" s="154"/>
+      <c r="B38" s="151" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -8567,8 +8807,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="131"/>
-      <c r="B39" s="138"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -8591,8 +8831,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="131"/>
-      <c r="B40" s="139"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -8615,8 +8855,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="131"/>
-      <c r="B41" s="137" t="s">
+      <c r="A41" s="154"/>
+      <c r="B41" s="151" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -8641,8 +8881,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="131"/>
-      <c r="B42" s="138"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -8665,8 +8905,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="131"/>
-      <c r="B43" s="138"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -8689,8 +8929,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="132"/>
-      <c r="B44" s="139"/>
+      <c r="A44" s="142"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -8743,10 +8983,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="130">
+      <c r="A46" s="141">
         <v>21</v>
       </c>
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="162" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -8771,8 +9011,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="131"/>
-      <c r="B47" s="129"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -8795,8 +9035,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
-      <c r="B48" s="129"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="159"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -8819,8 +9059,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="131"/>
-      <c r="B49" s="129"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="159"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -8841,8 +9081,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="131"/>
-      <c r="B50" s="129"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -8852,7 +9092,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="127" t="s">
+      <c r="F50" s="162" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -8865,8 +9105,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="131"/>
-      <c r="B51" s="129"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -8876,7 +9116,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="129"/>
+      <c r="F51" s="159"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -8887,8 +9127,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="132"/>
-      <c r="B52" s="128"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -8898,7 +9138,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="128"/>
+      <c r="F52" s="160"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -8909,10 +9149,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="130">
+      <c r="A53" s="141">
         <v>22</v>
       </c>
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="162" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -8924,7 +9164,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="127" t="s">
+      <c r="F53" s="162" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -8937,8 +9177,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="131"/>
-      <c r="B54" s="129"/>
+      <c r="A54" s="154"/>
+      <c r="B54" s="159"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -8948,7 +9188,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="129"/>
+      <c r="F54" s="159"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -8959,8 +9199,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="131"/>
-      <c r="B55" s="129"/>
+      <c r="A55" s="154"/>
+      <c r="B55" s="159"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -8970,7 +9210,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="129"/>
+      <c r="F55" s="159"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -8981,8 +9221,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="131"/>
-      <c r="B56" s="129"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="159"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -8992,7 +9232,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="129"/>
+      <c r="F56" s="159"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -9003,8 +9243,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="131"/>
-      <c r="B57" s="129"/>
+      <c r="A57" s="154"/>
+      <c r="B57" s="159"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -9014,7 +9254,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="129"/>
+      <c r="F57" s="159"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -9025,8 +9265,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="131"/>
-      <c r="B58" s="129"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="159"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -9036,7 +9276,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="128"/>
+      <c r="F58" s="160"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -9047,10 +9287,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="130">
+      <c r="A59" s="141">
         <v>23</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="162" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -9075,8 +9315,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="131"/>
-      <c r="B60" s="129"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="159"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -9099,8 +9339,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131"/>
-      <c r="B61" s="129"/>
+      <c r="A61" s="154"/>
+      <c r="B61" s="159"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -9123,8 +9363,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131"/>
-      <c r="B62" s="129"/>
+      <c r="A62" s="154"/>
+      <c r="B62" s="159"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -9147,8 +9387,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="131"/>
-      <c r="B63" s="129"/>
+      <c r="A63" s="154"/>
+      <c r="B63" s="159"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -9158,17 +9398,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="127"/>
+      <c r="F63" s="162"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="137"/>
-      <c r="I63" s="134"/>
-      <c r="J63" s="130"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="131"/>
-      <c r="B64" s="129"/>
+      <c r="A64" s="154"/>
+      <c r="B64" s="159"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -9178,17 +9418,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="129"/>
+      <c r="F64" s="159"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="138"/>
-      <c r="I64" s="135"/>
-      <c r="J64" s="131"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="149"/>
+      <c r="J64" s="154"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="131"/>
-      <c r="B65" s="129"/>
+      <c r="A65" s="154"/>
+      <c r="B65" s="159"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -9198,17 +9438,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="129"/>
+      <c r="F65" s="159"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="138"/>
-      <c r="I65" s="135"/>
-      <c r="J65" s="131"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="149"/>
+      <c r="J65" s="154"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="131"/>
-      <c r="B66" s="129"/>
+      <c r="A66" s="154"/>
+      <c r="B66" s="159"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -9218,17 +9458,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="128"/>
+      <c r="F66" s="160"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="139"/>
-      <c r="I66" s="136"/>
-      <c r="J66" s="132"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="150"/>
+      <c r="J66" s="142"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="131"/>
-      <c r="B67" s="129"/>
+      <c r="A67" s="154"/>
+      <c r="B67" s="159"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -9238,23 +9478,23 @@
       <c r="E67" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="137" t="s">
+      <c r="F67" s="151" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="134">
+      <c r="G67" s="148">
         <v>67.959999999999994</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="134">
+      <c r="I67" s="148">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="130" t="s">
+      <c r="J67" s="141" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="131"/>
-      <c r="B68" s="129"/>
+      <c r="A68" s="154"/>
+      <c r="B68" s="159"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -9264,15 +9504,15 @@
       <c r="E68" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="139"/>
-      <c r="G68" s="136"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="150"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="136"/>
-      <c r="J68" s="132"/>
+      <c r="I68" s="150"/>
+      <c r="J68" s="142"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="131"/>
-      <c r="B69" s="129"/>
+      <c r="A69" s="154"/>
+      <c r="B69" s="159"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -9283,8 +9523,8 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="131"/>
-      <c r="B70" s="129"/>
+      <c r="A70" s="154"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="15" t="s">
         <v>292</v>
       </c>
@@ -9297,8 +9537,8 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="131"/>
-      <c r="B71" s="129"/>
+      <c r="A71" s="154"/>
+      <c r="B71" s="159"/>
       <c r="C71" s="38" t="s">
         <v>316</v>
       </c>
@@ -9317,8 +9557,8 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="131"/>
-      <c r="B72" s="129"/>
+      <c r="A72" s="154"/>
+      <c r="B72" s="159"/>
       <c r="C72" s="40" t="s">
         <v>282</v>
       </c>
@@ -9337,8 +9577,8 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="131"/>
-      <c r="B73" s="129"/>
+      <c r="A73" s="154"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="40" t="s">
         <v>280</v>
       </c>
@@ -9357,8 +9597,8 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="131"/>
-      <c r="B74" s="129"/>
+      <c r="A74" s="154"/>
+      <c r="B74" s="159"/>
       <c r="C74" s="40" t="s">
         <v>318</v>
       </c>
@@ -9377,8 +9617,8 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="131"/>
-      <c r="B75" s="129"/>
+      <c r="A75" s="154"/>
+      <c r="B75" s="159"/>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
@@ -9397,8 +9637,8 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="131"/>
-      <c r="B76" s="129"/>
+      <c r="A76" s="154"/>
+      <c r="B76" s="159"/>
       <c r="C76" s="15" t="s">
         <v>196</v>
       </c>
@@ -9421,10 +9661,10 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="133">
+      <c r="A77" s="147">
         <v>24</v>
       </c>
-      <c r="B77" s="140" t="s">
+      <c r="B77" s="168" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -9451,8 +9691,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="133"/>
-      <c r="B78" s="140"/>
+      <c r="A78" s="147"/>
+      <c r="B78" s="168"/>
       <c r="C78" s="12" t="s">
         <v>145</v>
       </c>
@@ -9475,8 +9715,8 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="133"/>
-      <c r="B79" s="140"/>
+      <c r="A79" s="147"/>
+      <c r="B79" s="168"/>
       <c r="C79" s="12" t="s">
         <v>148</v>
       </c>
@@ -9499,8 +9739,8 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="133"/>
-      <c r="B80" s="140"/>
+      <c r="A80" s="147"/>
+      <c r="B80" s="168"/>
       <c r="C80" s="12" t="s">
         <v>204</v>
       </c>
@@ -9523,8 +9763,8 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="133"/>
-      <c r="B81" s="140"/>
+      <c r="A81" s="147"/>
+      <c r="B81" s="168"/>
       <c r="C81" s="12" t="s">
         <v>213</v>
       </c>
@@ -9547,8 +9787,8 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="133"/>
-      <c r="B82" s="140"/>
+      <c r="A82" s="147"/>
+      <c r="B82" s="168"/>
       <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
@@ -9571,8 +9811,8 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="133"/>
-      <c r="B83" s="140"/>
+      <c r="A83" s="147"/>
+      <c r="B83" s="168"/>
       <c r="C83" s="12" t="s">
         <v>146</v>
       </c>
@@ -9595,8 +9835,8 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="133"/>
-      <c r="B84" s="140"/>
+      <c r="A84" s="147"/>
+      <c r="B84" s="168"/>
       <c r="C84" s="12" t="s">
         <v>199</v>
       </c>
@@ -9619,8 +9859,8 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="133"/>
-      <c r="B85" s="140"/>
+      <c r="A85" s="147"/>
+      <c r="B85" s="168"/>
       <c r="C85" s="12" t="s">
         <v>149</v>
       </c>
@@ -9635,10 +9875,10 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="130">
+      <c r="A86" s="141">
         <v>25</v>
       </c>
-      <c r="B86" s="127" t="s">
+      <c r="B86" s="162" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -9663,8 +9903,8 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="131"/>
-      <c r="B87" s="129"/>
+      <c r="A87" s="154"/>
+      <c r="B87" s="159"/>
       <c r="C87" s="12" t="s">
         <v>224</v>
       </c>
@@ -9687,8 +9927,8 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="131"/>
-      <c r="B88" s="129"/>
+      <c r="A88" s="154"/>
+      <c r="B88" s="159"/>
       <c r="C88" s="12" t="s">
         <v>151</v>
       </c>
@@ -9703,8 +9943,8 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="131"/>
-      <c r="B89" s="129"/>
+      <c r="A89" s="154"/>
+      <c r="B89" s="159"/>
       <c r="C89" s="12" t="s">
         <v>150</v>
       </c>
@@ -9719,8 +9959,8 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="131"/>
-      <c r="B90" s="129"/>
+      <c r="A90" s="154"/>
+      <c r="B90" s="159"/>
       <c r="C90" s="12" t="s">
         <v>152</v>
       </c>
@@ -9735,8 +9975,8 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="132"/>
-      <c r="B91" s="128"/>
+      <c r="A91" s="142"/>
+      <c r="B91" s="160"/>
       <c r="C91" s="12" t="s">
         <v>147</v>
       </c>
@@ -9751,10 +9991,10 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="131">
+      <c r="A92" s="154">
         <v>26</v>
       </c>
-      <c r="B92" s="129" t="s">
+      <c r="B92" s="159" t="s">
         <v>241</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -9771,8 +10011,8 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="131"/>
-      <c r="B93" s="129"/>
+      <c r="A93" s="154"/>
+      <c r="B93" s="159"/>
       <c r="C93" s="12" t="s">
         <v>216</v>
       </c>
@@ -9795,8 +10035,8 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="131"/>
-      <c r="B94" s="129"/>
+      <c r="A94" s="154"/>
+      <c r="B94" s="159"/>
       <c r="C94" s="12" t="s">
         <v>219</v>
       </c>
@@ -9878,7 +10118,7 @@
       <c r="A97" s="11">
         <v>29</v>
       </c>
-      <c r="B97" s="127" t="s">
+      <c r="B97" s="162" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -9904,7 +10144,7 @@
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
-      <c r="B98" s="128"/>
+      <c r="B98" s="160"/>
       <c r="C98" s="12" t="s">
         <v>286</v>
       </c>
@@ -9988,7 +10228,7 @@
       <c r="A101" s="11">
         <v>32</v>
       </c>
-      <c r="B101" s="127" t="s">
+      <c r="B101" s="162" t="s">
         <v>272</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -10016,7 +10256,7 @@
       <c r="A102" s="11">
         <v>33</v>
       </c>
-      <c r="B102" s="128"/>
+      <c r="B102" s="160"/>
       <c r="C102" s="12" t="s">
         <v>270</v>
       </c>
@@ -10042,7 +10282,7 @@
       <c r="A103" s="11">
         <v>34</v>
       </c>
-      <c r="B103" s="127" t="s">
+      <c r="B103" s="162" t="s">
         <v>273</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -10070,7 +10310,7 @@
       <c r="A104" s="11">
         <v>35</v>
       </c>
-      <c r="B104" s="129"/>
+      <c r="B104" s="159"/>
       <c r="C104" s="12" t="s">
         <v>275</v>
       </c>
@@ -10096,7 +10336,7 @@
       <c r="A105" s="11">
         <v>36</v>
       </c>
-      <c r="B105" s="129"/>
+      <c r="B105" s="159"/>
       <c r="C105" s="12" t="s">
         <v>308</v>
       </c>
@@ -10120,7 +10360,7 @@
       <c r="A106" s="11">
         <v>37</v>
       </c>
-      <c r="B106" s="129"/>
+      <c r="B106" s="159"/>
       <c r="C106" s="12" t="s">
         <v>309</v>
       </c>
@@ -10144,7 +10384,7 @@
       <c r="A107" s="11">
         <v>38</v>
       </c>
-      <c r="B107" s="129"/>
+      <c r="B107" s="159"/>
       <c r="C107" s="12" t="s">
         <v>300</v>
       </c>
@@ -10168,7 +10408,7 @@
       <c r="A108" s="11">
         <v>39</v>
       </c>
-      <c r="B108" s="129"/>
+      <c r="B108" s="159"/>
       <c r="C108" s="12" t="s">
         <v>301</v>
       </c>
@@ -10192,7 +10432,7 @@
       <c r="A109" s="11">
         <v>41</v>
       </c>
-      <c r="B109" s="129"/>
+      <c r="B109" s="159"/>
       <c r="C109" s="12" t="s">
         <v>306</v>
       </c>
@@ -10214,7 +10454,7 @@
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="128"/>
+      <c r="B110" s="160"/>
       <c r="C110" s="12" t="s">
         <v>310</v>
       </c>
@@ -10346,6 +10586,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -10362,75 +10671,6 @@
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H16:H23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10801,13 +11041,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -11013,28 +11253,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="158" t="s">
+      <c r="D1" s="175"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="156"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="155"/>
-      <c r="B2" s="159"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="173"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -11044,9 +11284,9 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="157"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/门窗表.xlsx
+++ b/门窗表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SketchUpPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779C589-56D3-48C9-82FD-3144A62FEF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B1374-978B-4EBF-8DA1-0901A7F8AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="33840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,22 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">门窗表!$C$1:$C$170</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">门窗表!$C$2:$C$170</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">门窗表!$G$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">门窗表!$G$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">门窗表!$G$2:$G$218</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">门窗表!$C$2:$C$218</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">门窗表!$G$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">门窗表!$G$2:$G$218</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">门窗表!$C$2:$C$218</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">门窗表!$G$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">门窗表!$G$2:$G$218</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">门窗表!$G$2:$G$170</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">门窗表!$C$2:$C$218</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">门窗表!$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">门窗表!$G$2:$G$218</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">门窗表!$C$2:$C$170</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">门窗表!$G$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">门窗表!$G$2:$G$170</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">门窗表!$C$2:$C$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="544">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2179,6 +2164,26 @@
   </si>
   <si>
     <t>// 租车不包括油费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2613,7 +2618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2874,225 +2879,300 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3117,146 +3197,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3264,7 +3206,7 @@
     <cellStyle name="常规 2" xfId="2" xr:uid="{6D64EA4D-9A41-4310-B70D-6E41787A3F58}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -3323,176 +3265,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3511,10 +3283,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3562,8 +3334,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{7794ADE3-F72D-4FFA-AA0F-66271CA891BD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
-              <cx:v>¥49,523.67 </cx:v>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>¥50,713.67 </cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -4599,20 +4371,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}">
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K178" sqref="K178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.625" style="42" customWidth="1"/>
     <col min="2" max="3" width="12" style="42" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="181" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="204" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="212" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="42" customWidth="1"/>
     <col min="7" max="7" width="17.625" style="42" customWidth="1"/>
     <col min="8" max="8" width="24.75" style="41" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.75" style="43" bestFit="1" customWidth="1"/>
@@ -4630,19 +4402,19 @@
       <c r="B1" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="173" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="E1" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="192" t="s">
+      <c r="F1" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="213">
+      <c r="G1" s="105">
         <f>SUM(G2:G1700)</f>
-        <v>49523.670000000006</v>
+        <v>50713.670000000006</v>
       </c>
       <c r="H1" s="55" t="s">
         <v>340</v>
@@ -4656,44 +4428,44 @@
       <c r="K1" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="214">
+      <c r="L1" s="106">
         <f>SUM(L2:L749)</f>
-        <v>24447.23</v>
-      </c>
-      <c r="M1" s="215">
+        <v>25637.23</v>
+      </c>
+      <c r="M1" s="107">
         <f>G1-L1</f>
         <v>25076.440000000006</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="103">
+      <c r="A2" s="109">
         <v>1</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="109" t="s">
         <v>333</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="126" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="186" t="s">
+      <c r="E2" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="193">
+      <c r="F2" s="49">
         <v>1</v>
       </c>
       <c r="G2" s="50">
         <v>1200</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="126" t="s">
         <v>332</v>
       </c>
       <c r="I2" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="124">
+      <c r="J2" s="132">
         <f>SUM(G2:G3)</f>
         <v>2400</v>
       </c>
@@ -4701,586 +4473,586 @@
       <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D3" s="175"/>
-      <c r="E3" s="183" t="s">
+      <c r="D3" s="123"/>
+      <c r="E3" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="194">
+      <c r="F3" s="45">
         <v>1</v>
       </c>
       <c r="G3" s="47">
         <v>1200</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="125"/>
+      <c r="J3" s="133"/>
       <c r="K3" s="44"/>
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="109">
+      <c r="A4" s="114">
         <v>2</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="114" t="s">
         <v>330</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="122" t="s">
         <v>326</v>
       </c>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="194">
+      <c r="F4" s="45">
         <v>1</v>
       </c>
       <c r="G4" s="63">
         <v>720</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="134" t="s">
         <v>329</v>
       </c>
-      <c r="J4" s="127">
+      <c r="J4" s="135">
         <f>SUM(G4:G9)</f>
         <v>3180</v>
       </c>
-      <c r="K4" s="117"/>
+      <c r="K4" s="140"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="184" t="s">
+      <c r="D5" s="126"/>
+      <c r="E5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="194">
+      <c r="F5" s="45">
         <v>1</v>
       </c>
       <c r="G5" s="63">
         <v>720</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="184" t="s">
+      <c r="D6" s="126"/>
+      <c r="E6" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="194">
+      <c r="F6" s="45">
         <v>1</v>
       </c>
       <c r="G6" s="63">
         <v>468</v>
       </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="141"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D7" s="174"/>
-      <c r="E7" s="184" t="s">
+      <c r="D7" s="126"/>
+      <c r="E7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="194">
+      <c r="F7" s="45">
         <v>1</v>
       </c>
       <c r="G7" s="63">
         <v>432</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="184" t="s">
+      <c r="D8" s="126"/>
+      <c r="E8" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="194">
+      <c r="F8" s="45">
         <v>1</v>
       </c>
       <c r="G8" s="63">
         <v>365</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="141"/>
       <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="184" t="s">
+      <c r="D9" s="123"/>
+      <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="194">
+      <c r="F9" s="45">
         <v>1</v>
       </c>
       <c r="G9" s="63">
         <v>475</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="119"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="142"/>
       <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="87">
+      <c r="A10" s="108">
         <v>3</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="108" t="s">
         <v>328</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="143" t="s">
         <v>326</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="194">
+      <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="119">
         <v>630</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="130" t="s">
         <v>327</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="128">
+      <c r="J10" s="119">
         <f>SUM(G10:G31)</f>
         <v>4803.82</v>
       </c>
-      <c r="K10" s="104"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="184" t="s">
+      <c r="D11" s="143"/>
+      <c r="E11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="194">
+      <c r="F11" s="45">
         <v>1</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="105"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="129"/>
-      <c r="K11" s="105"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="131"/>
       <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="143" t="s">
         <v>347</v>
       </c>
-      <c r="E12" s="195" t="s">
+      <c r="E12" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="196">
+      <c r="F12" s="98">
         <v>1</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G12" s="119">
         <v>1387.81</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="104"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="195" t="s">
+      <c r="D13" s="143"/>
+      <c r="E13" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="196">
+      <c r="F13" s="98">
         <v>1</v>
       </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="120"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="138"/>
       <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="195" t="s">
+      <c r="D14" s="143"/>
+      <c r="E14" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="196">
+      <c r="F14" s="98">
         <v>1</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="120"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="138"/>
       <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D15" s="177"/>
-      <c r="E15" s="195" t="s">
+      <c r="D15" s="143"/>
+      <c r="E15" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="196">
+      <c r="F15" s="98">
         <v>2</v>
       </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="120"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="138"/>
       <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="195" t="s">
+      <c r="D16" s="143"/>
+      <c r="E16" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="196">
+      <c r="F16" s="98">
         <v>2</v>
       </c>
-      <c r="G16" s="129"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="120"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="138"/>
       <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="195" t="s">
+      <c r="D17" s="143"/>
+      <c r="E17" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="196">
+      <c r="F17" s="98">
         <v>4</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="120"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="138"/>
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="195" t="s">
+      <c r="D18" s="143"/>
+      <c r="E18" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="196">
+      <c r="F18" s="98">
         <v>5</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="120"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="138"/>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="195" t="s">
+      <c r="D19" s="143"/>
+      <c r="E19" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="196">
+      <c r="F19" s="98">
         <v>1</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="105"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="131"/>
       <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D20" s="178" t="s">
+      <c r="D20" s="139" t="s">
         <v>325</v>
       </c>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="196">
+      <c r="F20" s="98">
         <v>1</v>
       </c>
-      <c r="G20" s="128">
+      <c r="G20" s="119">
         <v>180.56</v>
       </c>
-      <c r="H20" s="104" t="s">
+      <c r="H20" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="100" t="s">
+      <c r="I20" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="J20" s="129"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="195" t="s">
+      <c r="D21" s="139"/>
+      <c r="E21" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="196">
+      <c r="F21" s="98">
         <v>2</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="120"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="138"/>
       <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="195" t="s">
+      <c r="D22" s="139"/>
+      <c r="E22" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="196">
+      <c r="F22" s="98">
         <v>2</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="120"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="138"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="195" t="s">
+      <c r="D23" s="139"/>
+      <c r="E23" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="196">
+      <c r="F23" s="98">
         <v>1</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="120"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="195" t="s">
+      <c r="D24" s="139"/>
+      <c r="E24" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="196">
+      <c r="F24" s="98">
         <v>2</v>
       </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="120"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="138"/>
       <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="103"/>
-      <c r="B25" s="103"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="195" t="s">
+      <c r="D25" s="139"/>
+      <c r="E25" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="196">
+      <c r="F25" s="98">
         <v>1</v>
       </c>
-      <c r="G25" s="130"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="105"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="131"/>
       <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D26" s="179" t="s">
+      <c r="D26" s="136" t="s">
         <v>436</v>
       </c>
-      <c r="E26" s="195" t="s">
+      <c r="E26" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="196">
+      <c r="F26" s="98">
         <v>1</v>
       </c>
-      <c r="G26" s="128">
+      <c r="G26" s="119">
         <v>1950</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="100" t="s">
+      <c r="I26" s="122" t="s">
         <v>432</v>
       </c>
-      <c r="J26" s="129"/>
+      <c r="J26" s="124"/>
       <c r="K26" s="44"/>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D27" s="180"/>
-      <c r="E27" s="195" t="s">
+      <c r="D27" s="137"/>
+      <c r="E27" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="196">
+      <c r="F27" s="98">
         <v>1</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="129"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
       <c r="K27" s="44"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D28" s="181" t="s">
+      <c r="D28" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="E28" s="184" t="s">
+      <c r="E28" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="194">
+      <c r="F28" s="45">
         <v>1</v>
       </c>
       <c r="G28" s="47">
@@ -5292,23 +5064,23 @@
       <c r="I28" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="129"/>
+      <c r="J28" s="124"/>
       <c r="K28" s="44"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="183" t="s">
+      <c r="E29" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="F29" s="194" t="s">
+      <c r="F29" s="45" t="s">
         <v>235</v>
       </c>
       <c r="G29" s="47">
@@ -5320,23 +5092,23 @@
       <c r="I29" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="J29" s="129"/>
+      <c r="J29" s="124"/>
       <c r="K29" s="44"/>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="E30" s="184" t="s">
+      <c r="E30" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="194">
+      <c r="F30" s="45">
         <v>1</v>
       </c>
       <c r="G30" s="47">
@@ -5348,23 +5120,23 @@
       <c r="I30" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="129"/>
+      <c r="J30" s="124"/>
       <c r="K30" s="44"/>
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="E31" s="184" t="s">
+      <c r="E31" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="194" t="s">
+      <c r="F31" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G31" s="47">
@@ -5376,7 +5148,7 @@
       <c r="I31" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="130"/>
+      <c r="J31" s="125"/>
       <c r="K31" s="44"/>
       <c r="L31" s="45"/>
     </row>
@@ -5390,13 +5162,13 @@
       <c r="C32" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D32" s="181" t="s">
+      <c r="D32" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="E32" s="184" t="s">
+      <c r="E32" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="194">
+      <c r="F32" s="45">
         <v>1</v>
       </c>
       <c r="G32" s="63">
@@ -5415,22 +5187,22 @@
       <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="87">
+      <c r="A33" s="108">
         <v>5</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="108" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="184" t="s">
+      <c r="E33" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="194">
+      <c r="F33" s="45">
         <v>40</v>
       </c>
       <c r="G33" s="47">
@@ -5440,7 +5212,7 @@
         <v>174</v>
       </c>
       <c r="I33" s="46"/>
-      <c r="J33" s="128">
+      <c r="J33" s="119">
         <f>SUM(G33:G44)</f>
         <v>875.06999999999994</v>
       </c>
@@ -5448,18 +5220,18 @@
       <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D34" s="182" t="s">
+      <c r="D34" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="E34" s="184" t="s">
+      <c r="E34" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="194" t="s">
+      <c r="F34" s="45" t="s">
         <v>165</v>
       </c>
       <c r="G34" s="47">
@@ -5469,217 +5241,217 @@
         <v>166</v>
       </c>
       <c r="I34" s="46"/>
-      <c r="J34" s="103"/>
+      <c r="J34" s="109"/>
       <c r="K34" s="44"/>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D35" s="182" t="s">
+      <c r="D35" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="E35" s="184" t="s">
+      <c r="E35" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="194">
+      <c r="F35" s="45">
         <v>10</v>
       </c>
       <c r="G35" s="47">
         <v>11.89</v>
       </c>
-      <c r="H35" s="100" t="s">
+      <c r="H35" s="122" t="s">
         <v>170</v>
       </c>
       <c r="I35" s="46"/>
-      <c r="J35" s="103"/>
+      <c r="J35" s="109"/>
       <c r="K35" s="44"/>
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D36" s="182" t="s">
+      <c r="D36" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="E36" s="184" t="s">
+      <c r="E36" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="194">
+      <c r="F36" s="45">
         <v>2</v>
       </c>
       <c r="G36" s="47">
         <v>65.069999999999993</v>
       </c>
-      <c r="H36" s="102"/>
+      <c r="H36" s="126"/>
       <c r="I36" s="46"/>
-      <c r="J36" s="103"/>
+      <c r="J36" s="109"/>
       <c r="K36" s="44"/>
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D37" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="194">
+      <c r="F37" s="45">
         <v>2</v>
       </c>
       <c r="G37" s="47">
         <v>20.09</v>
       </c>
-      <c r="H37" s="102"/>
+      <c r="H37" s="126"/>
       <c r="I37" s="46"/>
-      <c r="J37" s="103"/>
+      <c r="J37" s="109"/>
       <c r="K37" s="44"/>
       <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="E38" s="184" t="s">
+      <c r="E38" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="194">
+      <c r="F38" s="45">
         <v>3</v>
       </c>
       <c r="G38" s="47">
         <v>17.7</v>
       </c>
-      <c r="H38" s="102"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="46"/>
-      <c r="J38" s="103"/>
+      <c r="J38" s="109"/>
       <c r="K38" s="44"/>
       <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="194">
+      <c r="F39" s="45">
         <v>3</v>
       </c>
       <c r="G39" s="47">
         <v>7.57</v>
       </c>
-      <c r="H39" s="102"/>
+      <c r="H39" s="126"/>
       <c r="I39" s="46"/>
-      <c r="J39" s="103"/>
+      <c r="J39" s="109"/>
       <c r="K39" s="44"/>
       <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="E40" s="184" t="s">
+      <c r="E40" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="194">
+      <c r="F40" s="45">
         <v>2</v>
       </c>
       <c r="G40" s="47">
         <v>32.619999999999997</v>
       </c>
-      <c r="H40" s="102"/>
+      <c r="H40" s="126"/>
       <c r="I40" s="46"/>
-      <c r="J40" s="103"/>
+      <c r="J40" s="109"/>
       <c r="K40" s="44"/>
       <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="E41" s="184" t="s">
+      <c r="E41" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="194">
+      <c r="F41" s="45">
         <v>5</v>
       </c>
       <c r="G41" s="47">
         <v>7.82</v>
       </c>
-      <c r="H41" s="102"/>
+      <c r="H41" s="126"/>
       <c r="I41" s="46"/>
-      <c r="J41" s="103"/>
+      <c r="J41" s="109"/>
       <c r="K41" s="44"/>
       <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="E42" s="197" t="s">
+      <c r="E42" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="198" t="s">
+      <c r="F42" s="100" t="s">
         <v>169</v>
       </c>
       <c r="G42" s="53">
         <v>128.75</v>
       </c>
-      <c r="H42" s="101"/>
+      <c r="H42" s="123"/>
       <c r="I42" s="46"/>
-      <c r="J42" s="103"/>
+      <c r="J42" s="109"/>
       <c r="K42" s="44"/>
       <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="103"/>
-      <c r="B43" s="103"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="92" t="s">
         <v>438</v>
       </c>
-      <c r="E43" s="184" t="s">
+      <c r="E43" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="194" t="s">
+      <c r="F43" s="45" t="s">
         <v>169</v>
       </c>
       <c r="G43" s="47">
@@ -5689,23 +5461,23 @@
         <v>173</v>
       </c>
       <c r="I43" s="46"/>
-      <c r="J43" s="103"/>
+      <c r="J43" s="109"/>
       <c r="K43" s="44"/>
       <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="E44" s="184" t="s">
+      <c r="E44" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="194" t="s">
+      <c r="F44" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G44" s="47">
@@ -5715,27 +5487,27 @@
         <v>179</v>
       </c>
       <c r="I44" s="46"/>
-      <c r="J44" s="88"/>
+      <c r="J44" s="110"/>
       <c r="K44" s="44"/>
       <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="109">
+      <c r="A45" s="114">
         <v>6</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="114" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="92" t="s">
         <v>439</v>
       </c>
-      <c r="E45" s="184" t="s">
+      <c r="E45" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="194" t="s">
+      <c r="F45" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G45" s="63">
@@ -5745,7 +5517,7 @@
         <v>183</v>
       </c>
       <c r="I45" s="64"/>
-      <c r="J45" s="112">
+      <c r="J45" s="120">
         <f>SUM(G45:G57)</f>
         <v>616.48</v>
       </c>
@@ -5753,18 +5525,18 @@
       <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="110"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="92" t="s">
         <v>439</v>
       </c>
-      <c r="E46" s="184" t="s">
+      <c r="E46" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="194" t="s">
+      <c r="F46" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G46" s="63">
@@ -5774,23 +5546,23 @@
         <v>184</v>
       </c>
       <c r="I46" s="64"/>
-      <c r="J46" s="110"/>
+      <c r="J46" s="115"/>
       <c r="K46" s="66"/>
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="110"/>
-      <c r="B47" s="110"/>
-      <c r="C47" s="169" t="s">
+      <c r="A47" s="115"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="88" t="s">
         <v>530</v>
       </c>
-      <c r="D47" s="183" t="s">
+      <c r="D47" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="E47" s="184" t="s">
+      <c r="E47" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="194" t="s">
+      <c r="F47" s="45" t="s">
         <v>186</v>
       </c>
       <c r="G47" s="63">
@@ -5800,121 +5572,121 @@
         <v>187</v>
       </c>
       <c r="I47" s="64"/>
-      <c r="J47" s="110"/>
+      <c r="J47" s="115"/>
       <c r="K47" s="66"/>
       <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="110"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="169" t="s">
+      <c r="A48" s="115"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="88" t="s">
         <v>530</v>
       </c>
-      <c r="D48" s="183" t="s">
+      <c r="D48" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="E48" s="199" t="s">
+      <c r="E48" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="198" t="s">
+      <c r="F48" s="100" t="s">
         <v>169</v>
       </c>
       <c r="G48" s="72">
         <v>17.16</v>
       </c>
-      <c r="H48" s="117" t="s">
+      <c r="H48" s="140" t="s">
         <v>322</v>
       </c>
       <c r="I48" s="64"/>
-      <c r="J48" s="110"/>
+      <c r="J48" s="115"/>
       <c r="K48" s="66"/>
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="110"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="169" t="s">
+      <c r="A49" s="115"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="88" t="s">
         <v>530</v>
       </c>
-      <c r="D49" s="183" t="s">
+      <c r="D49" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="E49" s="197" t="s">
+      <c r="E49" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="198" t="s">
+      <c r="F49" s="100" t="s">
         <v>116</v>
       </c>
       <c r="G49" s="72">
         <v>19.43</v>
       </c>
-      <c r="H49" s="118"/>
+      <c r="H49" s="141"/>
       <c r="I49" s="64"/>
-      <c r="J49" s="110"/>
+      <c r="J49" s="115"/>
       <c r="K49" s="66"/>
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="110"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="169" t="s">
+      <c r="A50" s="115"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="88" t="s">
         <v>530</v>
       </c>
-      <c r="D50" s="183" t="s">
+      <c r="D50" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="E50" s="197" t="s">
+      <c r="E50" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="198" t="s">
+      <c r="F50" s="100" t="s">
         <v>116</v>
       </c>
       <c r="G50" s="72">
         <v>14.29</v>
       </c>
-      <c r="H50" s="118"/>
+      <c r="H50" s="141"/>
       <c r="I50" s="64"/>
-      <c r="J50" s="110"/>
+      <c r="J50" s="115"/>
       <c r="K50" s="66"/>
       <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="110"/>
-      <c r="B51" s="110"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D51" s="182" t="s">
+      <c r="D51" s="92" t="s">
         <v>439</v>
       </c>
-      <c r="E51" s="197" t="s">
+      <c r="E51" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="F51" s="198" t="s">
+      <c r="F51" s="100" t="s">
         <v>169</v>
       </c>
       <c r="G51" s="72">
         <v>15.78</v>
       </c>
-      <c r="H51" s="119"/>
+      <c r="H51" s="142"/>
       <c r="I51" s="64"/>
-      <c r="J51" s="110"/>
+      <c r="J51" s="115"/>
       <c r="K51" s="66"/>
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="110"/>
-      <c r="B52" s="110"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D52" s="181" t="s">
+      <c r="D52" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="E52" s="183" t="s">
+      <c r="E52" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="194" t="s">
+      <c r="F52" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G52" s="63">
@@ -5924,23 +5696,23 @@
         <v>202</v>
       </c>
       <c r="I52" s="64"/>
-      <c r="J52" s="110"/>
+      <c r="J52" s="115"/>
       <c r="K52" s="66"/>
       <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="110"/>
-      <c r="B53" s="110"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D53" s="182" t="s">
+      <c r="D53" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="184" t="s">
+      <c r="E53" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="F53" s="194" t="s">
+      <c r="F53" s="45" t="s">
         <v>116</v>
       </c>
       <c r="G53" s="63">
@@ -5950,23 +5722,23 @@
         <v>189</v>
       </c>
       <c r="I53" s="64"/>
-      <c r="J53" s="110"/>
+      <c r="J53" s="115"/>
       <c r="K53" s="66"/>
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="110"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D54" s="183" t="s">
+      <c r="D54" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="E54" s="184" t="s">
+      <c r="E54" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F54" s="194" t="s">
+      <c r="F54" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G54" s="63">
@@ -5976,97 +5748,97 @@
         <v>203</v>
       </c>
       <c r="I54" s="64"/>
-      <c r="J54" s="110"/>
+      <c r="J54" s="115"/>
       <c r="K54" s="66"/>
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="110"/>
-      <c r="B55" s="110"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D55" s="176" t="s">
+      <c r="D55" s="122" t="s">
         <v>353</v>
       </c>
-      <c r="E55" s="184" t="s">
+      <c r="E55" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="194">
+      <c r="F55" s="45">
         <v>8</v>
       </c>
       <c r="G55" s="63">
         <v>12.55</v>
       </c>
-      <c r="H55" s="121" t="s">
+      <c r="H55" s="127" t="s">
         <v>185</v>
       </c>
       <c r="I55" s="64"/>
-      <c r="J55" s="110"/>
+      <c r="J55" s="115"/>
       <c r="K55" s="66"/>
       <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="110"/>
-      <c r="B56" s="110"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D56" s="174"/>
-      <c r="E56" s="184" t="s">
+      <c r="D56" s="126"/>
+      <c r="E56" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="194">
+      <c r="F56" s="45">
         <v>6</v>
       </c>
       <c r="G56" s="63">
         <v>8.84</v>
       </c>
-      <c r="H56" s="123"/>
+      <c r="H56" s="128"/>
       <c r="I56" s="64"/>
-      <c r="J56" s="110"/>
+      <c r="J56" s="115"/>
       <c r="K56" s="66"/>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="110"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D57" s="175"/>
-      <c r="E57" s="184" t="s">
+      <c r="D57" s="123"/>
+      <c r="E57" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="F57" s="194">
+      <c r="F57" s="45">
         <v>8</v>
       </c>
       <c r="G57" s="63">
         <v>22.7</v>
       </c>
-      <c r="H57" s="122"/>
+      <c r="H57" s="129"/>
       <c r="I57" s="64"/>
-      <c r="J57" s="111"/>
+      <c r="J57" s="116"/>
       <c r="K57" s="66"/>
       <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="87">
+      <c r="A58" s="108">
         <v>7</v>
       </c>
-      <c r="B58" s="87" t="s">
+      <c r="B58" s="108" t="s">
         <v>208</v>
       </c>
       <c r="C58" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D58" s="183" t="s">
+      <c r="D58" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="E58" s="184" t="s">
+      <c r="E58" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="194" t="s">
+      <c r="F58" s="45" t="s">
         <v>116</v>
       </c>
       <c r="G58" s="45">
@@ -6076,7 +5848,7 @@
         <v>214</v>
       </c>
       <c r="I58" s="46"/>
-      <c r="J58" s="87">
+      <c r="J58" s="108">
         <f>SUM(G58:G62)</f>
         <v>908.84999999999991</v>
       </c>
@@ -6084,18 +5856,18 @@
       <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="103"/>
-      <c r="B59" s="103"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="109"/>
       <c r="C59" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D59" s="183" t="s">
+      <c r="D59" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="E59" s="184" t="s">
+      <c r="E59" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="194" t="s">
+      <c r="F59" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G59" s="45">
@@ -6105,23 +5877,23 @@
         <v>215</v>
       </c>
       <c r="I59" s="46"/>
-      <c r="J59" s="103"/>
+      <c r="J59" s="109"/>
       <c r="K59" s="44"/>
       <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="103"/>
-      <c r="B60" s="103"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D60" s="183" t="s">
+      <c r="D60" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="184" t="s">
+      <c r="E60" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F60" s="194" t="s">
+      <c r="F60" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G60" s="47">
@@ -6131,23 +5903,23 @@
         <v>209</v>
       </c>
       <c r="I60" s="46"/>
-      <c r="J60" s="103"/>
+      <c r="J60" s="109"/>
       <c r="K60" s="44"/>
       <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="103"/>
-      <c r="B61" s="103"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="109"/>
       <c r="C61" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D61" s="183" t="s">
+      <c r="D61" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="E61" s="184" t="s">
+      <c r="E61" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="194" t="s">
+      <c r="F61" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G61" s="47">
@@ -6157,23 +5929,23 @@
         <v>221</v>
       </c>
       <c r="I61" s="46"/>
-      <c r="J61" s="103"/>
+      <c r="J61" s="109"/>
       <c r="K61" s="44"/>
       <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D62" s="183" t="s">
+      <c r="D62" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="E62" s="184" t="s">
+      <c r="E62" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="194" t="s">
+      <c r="F62" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G62" s="47">
@@ -6183,27 +5955,27 @@
         <v>211</v>
       </c>
       <c r="I62" s="46"/>
-      <c r="J62" s="88"/>
+      <c r="J62" s="110"/>
       <c r="K62" s="44"/>
       <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="109">
+      <c r="A63" s="114">
         <v>8</v>
       </c>
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="114" t="s">
         <v>217</v>
       </c>
       <c r="C63" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D63" s="183" t="s">
+      <c r="D63" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="E63" s="184" t="s">
+      <c r="E63" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F63" s="194" t="s">
+      <c r="F63" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G63" s="63">
@@ -6213,7 +5985,7 @@
         <v>218</v>
       </c>
       <c r="I63" s="64"/>
-      <c r="J63" s="112">
+      <c r="J63" s="120">
         <f>SUM(G63:G68)</f>
         <v>170.51999999999998</v>
       </c>
@@ -6221,18 +5993,18 @@
       <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="110"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="115"/>
       <c r="C64" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D64" s="183" t="s">
+      <c r="D64" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="184" t="s">
+      <c r="E64" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="F64" s="194" t="s">
+      <c r="F64" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G64" s="63">
@@ -6242,23 +6014,23 @@
         <v>220</v>
       </c>
       <c r="I64" s="64"/>
-      <c r="J64" s="110"/>
+      <c r="J64" s="115"/>
       <c r="K64" s="66"/>
       <c r="L64" s="45"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="110"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="115"/>
       <c r="C65" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D65" s="183" t="s">
+      <c r="D65" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="E65" s="183" t="s">
+      <c r="E65" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="F65" s="194" t="s">
+      <c r="F65" s="45" t="s">
         <v>239</v>
       </c>
       <c r="G65" s="63">
@@ -6268,23 +6040,23 @@
         <v>242</v>
       </c>
       <c r="I65" s="64"/>
-      <c r="J65" s="110"/>
+      <c r="J65" s="115"/>
       <c r="K65" s="66"/>
       <c r="L65" s="45"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="110"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="115"/>
       <c r="C66" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D66" s="183" t="s">
+      <c r="D66" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="E66" s="183" t="s">
+      <c r="E66" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="F66" s="194" t="s">
+      <c r="F66" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G66" s="63">
@@ -6294,75 +6066,75 @@
         <v>244</v>
       </c>
       <c r="I66" s="64"/>
-      <c r="J66" s="110"/>
+      <c r="J66" s="115"/>
       <c r="K66" s="66"/>
       <c r="L66" s="45"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="110"/>
-      <c r="B67" s="110"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="115"/>
       <c r="C67" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D67" s="176" t="s">
+      <c r="D67" s="122" t="s">
         <v>357</v>
       </c>
-      <c r="E67" s="183" t="s">
+      <c r="E67" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="F67" s="194" t="s">
+      <c r="F67" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G67" s="73">
         <v>20.78</v>
       </c>
-      <c r="H67" s="121" t="s">
+      <c r="H67" s="127" t="s">
         <v>246</v>
       </c>
       <c r="I67" s="64"/>
-      <c r="J67" s="110"/>
+      <c r="J67" s="115"/>
       <c r="K67" s="66"/>
       <c r="L67" s="45"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="111"/>
-      <c r="B68" s="111"/>
+      <c r="A68" s="116"/>
+      <c r="B68" s="116"/>
       <c r="C68" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D68" s="175"/>
-      <c r="E68" s="183" t="s">
+      <c r="D68" s="123"/>
+      <c r="E68" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="F68" s="194" t="s">
+      <c r="F68" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G68" s="63">
         <v>18.600000000000001</v>
       </c>
-      <c r="H68" s="122"/>
+      <c r="H68" s="129"/>
       <c r="I68" s="64"/>
-      <c r="J68" s="111"/>
+      <c r="J68" s="116"/>
       <c r="K68" s="66"/>
       <c r="L68" s="45"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="87">
+      <c r="A69" s="108">
         <v>9</v>
       </c>
-      <c r="B69" s="87" t="s">
+      <c r="B69" s="108" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D69" s="183" t="s">
+      <c r="D69" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="E69" s="183" t="s">
+      <c r="E69" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="F69" s="194" t="s">
+      <c r="F69" s="45" t="s">
         <v>234</v>
       </c>
       <c r="G69" s="47">
@@ -6372,7 +6144,7 @@
         <v>236</v>
       </c>
       <c r="I69" s="46"/>
-      <c r="J69" s="128">
+      <c r="J69" s="119">
         <f>SUM(G69:G72)</f>
         <v>161.44</v>
       </c>
@@ -6380,92 +6152,92 @@
       <c r="L69" s="45"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="103"/>
-      <c r="B70" s="103"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="109"/>
       <c r="C70" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D70" s="176" t="s">
+      <c r="D70" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="E70" s="183" t="s">
+      <c r="E70" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F70" s="194" t="s">
+      <c r="F70" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G70" s="47">
         <v>4.12</v>
       </c>
-      <c r="H70" s="100" t="s">
+      <c r="H70" s="122" t="s">
         <v>230</v>
       </c>
       <c r="I70" s="46"/>
-      <c r="J70" s="103"/>
+      <c r="J70" s="109"/>
       <c r="K70" s="44"/>
       <c r="L70" s="45"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="103"/>
-      <c r="B71" s="103"/>
+      <c r="A71" s="109"/>
+      <c r="B71" s="109"/>
       <c r="C71" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D71" s="174"/>
-      <c r="E71" s="183" t="s">
+      <c r="D71" s="126"/>
+      <c r="E71" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F71" s="194" t="s">
+      <c r="F71" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G71" s="47">
         <v>21.12</v>
       </c>
-      <c r="H71" s="102"/>
+      <c r="H71" s="126"/>
       <c r="I71" s="46"/>
-      <c r="J71" s="103"/>
+      <c r="J71" s="109"/>
       <c r="K71" s="44"/>
       <c r="L71" s="45"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="110"/>
       <c r="C72" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D72" s="175"/>
-      <c r="E72" s="183" t="s">
+      <c r="D72" s="123"/>
+      <c r="E72" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="F72" s="194" t="s">
+      <c r="F72" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G72" s="47">
         <v>30.12</v>
       </c>
-      <c r="H72" s="101"/>
+      <c r="H72" s="123"/>
       <c r="I72" s="46"/>
-      <c r="J72" s="88"/>
+      <c r="J72" s="110"/>
       <c r="K72" s="44"/>
       <c r="L72" s="45"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="109">
+      <c r="A73" s="114">
         <v>10</v>
       </c>
-      <c r="B73" s="109" t="s">
+      <c r="B73" s="114" t="s">
         <v>222</v>
       </c>
       <c r="C73" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D73" s="183" t="s">
+      <c r="D73" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="E73" s="184" t="s">
+      <c r="E73" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="194" t="s">
+      <c r="F73" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G73" s="63">
@@ -6475,7 +6247,7 @@
         <v>223</v>
       </c>
       <c r="I73" s="64"/>
-      <c r="J73" s="112">
+      <c r="J73" s="120">
         <f>SUM(G73:G74)</f>
         <v>487.9</v>
       </c>
@@ -6483,18 +6255,18 @@
       <c r="L73" s="45"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="111"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D74" s="183" t="s">
+      <c r="D74" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="E74" s="184" t="s">
+      <c r="E74" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="F74" s="194" t="s">
+      <c r="F74" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G74" s="63">
@@ -6504,37 +6276,37 @@
         <v>226</v>
       </c>
       <c r="I74" s="64"/>
-      <c r="J74" s="111"/>
+      <c r="J74" s="116"/>
       <c r="K74" s="66"/>
       <c r="L74" s="45"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="87">
+      <c r="A75" s="108">
         <v>11</v>
       </c>
-      <c r="B75" s="87" t="s">
+      <c r="B75" s="108" t="s">
         <v>265</v>
       </c>
       <c r="C75" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D75" s="183" t="s">
+      <c r="D75" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="E75" s="184" t="s">
+      <c r="E75" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F75" s="194" t="s">
+      <c r="F75" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G75" s="47">
         <v>65.760000000000005</v>
       </c>
-      <c r="H75" s="104" t="s">
+      <c r="H75" s="130" t="s">
         <v>266</v>
       </c>
       <c r="I75" s="46"/>
-      <c r="J75" s="128">
+      <c r="J75" s="119">
         <f>SUM(G75:G77)</f>
         <v>285.76</v>
       </c>
@@ -6542,38 +6314,38 @@
       <c r="L75" s="45"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="103"/>
-      <c r="B76" s="103"/>
+      <c r="A76" s="109"/>
+      <c r="B76" s="109"/>
       <c r="C76" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D76" s="183"/>
-      <c r="E76" s="184" t="s">
+      <c r="D76" s="46"/>
+      <c r="E76" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="194" t="s">
+      <c r="F76" s="45" t="s">
         <v>119</v>
       </c>
       <c r="G76" s="45"/>
-      <c r="H76" s="105"/>
+      <c r="H76" s="131"/>
       <c r="I76" s="46"/>
-      <c r="J76" s="103"/>
+      <c r="J76" s="109"/>
       <c r="K76" s="44"/>
       <c r="L76" s="45"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="103"/>
-      <c r="B77" s="103"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="D77" s="184" t="s">
+      <c r="D77" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E77" s="184" t="s">
+      <c r="E77" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="F77" s="194" t="s">
+      <c r="F77" s="45" t="s">
         <v>264</v>
       </c>
       <c r="G77" s="47">
@@ -6583,21 +6355,21 @@
         <v>362</v>
       </c>
       <c r="I77" s="46"/>
-      <c r="J77" s="88"/>
+      <c r="J77" s="110"/>
       <c r="K77" s="44"/>
       <c r="L77" s="45"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="110"/>
       <c r="C78" s="82" t="s">
         <v>534</v>
       </c>
-      <c r="D78" s="184" t="s">
+      <c r="D78" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="E78" s="184"/>
-      <c r="F78" s="194"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="47">
         <v>229</v>
       </c>
@@ -6608,22 +6380,22 @@
       <c r="L78" s="45"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="109">
+      <c r="A79" s="114">
         <v>12</v>
       </c>
-      <c r="B79" s="109" t="s">
+      <c r="B79" s="114" t="s">
         <v>255</v>
       </c>
       <c r="C79" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="D79" s="183" t="s">
+      <c r="D79" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="E79" s="184" t="s">
+      <c r="E79" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="F79" s="194" t="s">
+      <c r="F79" s="45" t="s">
         <v>254</v>
       </c>
       <c r="G79" s="63">
@@ -6633,7 +6405,7 @@
         <v>256</v>
       </c>
       <c r="I79" s="64"/>
-      <c r="J79" s="112">
+      <c r="J79" s="120">
         <f>SUM(G79:G83)</f>
         <v>3766.7900000000004</v>
       </c>
@@ -6641,18 +6413,18 @@
       <c r="L79" s="45"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="110"/>
-      <c r="B80" s="110"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="115"/>
       <c r="C80" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="D80" s="183" t="s">
+      <c r="D80" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="E80" s="184" t="s">
+      <c r="E80" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="F80" s="194" t="s">
+      <c r="F80" s="45" t="s">
         <v>261</v>
       </c>
       <c r="G80" s="63">
@@ -6662,23 +6434,23 @@
         <v>262</v>
       </c>
       <c r="I80" s="64"/>
-      <c r="J80" s="110"/>
+      <c r="J80" s="115"/>
       <c r="K80" s="66"/>
       <c r="L80" s="45"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="110"/>
-      <c r="B81" s="110"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="115"/>
       <c r="C81" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D81" s="183" t="s">
+      <c r="D81" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="E81" s="184" t="s">
+      <c r="E81" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="F81" s="194" t="s">
+      <c r="F81" s="45" t="s">
         <v>311</v>
       </c>
       <c r="G81" s="63">
@@ -6688,23 +6460,23 @@
         <v>256</v>
       </c>
       <c r="I81" s="64"/>
-      <c r="J81" s="110"/>
+      <c r="J81" s="115"/>
       <c r="K81" s="66"/>
       <c r="L81" s="45"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="110"/>
-      <c r="B82" s="110"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="D82" s="183" t="s">
+      <c r="D82" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="E82" s="184" t="s">
+      <c r="E82" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="F82" s="194" t="s">
+      <c r="F82" s="45" t="s">
         <v>268</v>
       </c>
       <c r="G82" s="63">
@@ -6714,23 +6486,23 @@
         <v>269</v>
       </c>
       <c r="I82" s="64"/>
-      <c r="J82" s="110"/>
+      <c r="J82" s="115"/>
       <c r="K82" s="66"/>
       <c r="L82" s="45"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="111"/>
-      <c r="B83" s="111"/>
+      <c r="A83" s="116"/>
+      <c r="B83" s="116"/>
       <c r="C83" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="D83" s="184" t="s">
+      <c r="D83" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="E83" s="184" t="s">
+      <c r="E83" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="F83" s="194" t="s">
+      <c r="F83" s="45" t="s">
         <v>271</v>
       </c>
       <c r="G83" s="63">
@@ -6742,67 +6514,67 @@
       <c r="I83" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="J83" s="111"/>
+      <c r="J83" s="116"/>
       <c r="K83" s="66"/>
       <c r="L83" s="45"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="87">
+      <c r="A84" s="108">
         <v>13</v>
       </c>
-      <c r="B84" s="87" t="s">
+      <c r="B84" s="108" t="s">
         <v>320</v>
       </c>
       <c r="C84" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D84" s="176" t="s">
+      <c r="D84" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="E84" s="184" t="s">
+      <c r="E84" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="F84" s="194" t="s">
+      <c r="F84" s="45" t="s">
         <v>277</v>
       </c>
       <c r="G84" s="61">
         <v>2500</v>
       </c>
-      <c r="H84" s="100" t="s">
+      <c r="H84" s="122" t="s">
         <v>364</v>
       </c>
       <c r="I84" s="46"/>
-      <c r="J84" s="128">
+      <c r="J84" s="119">
         <f>SUM(G84:G85)</f>
         <v>5706</v>
       </c>
       <c r="K84" s="44"/>
-      <c r="L84" s="131">
+      <c r="L84" s="117">
         <f>SUM(G84:G85)</f>
         <v>5706</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="88"/>
-      <c r="B85" s="88"/>
+      <c r="A85" s="110"/>
+      <c r="B85" s="110"/>
       <c r="C85" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D85" s="175"/>
-      <c r="E85" s="184" t="s">
+      <c r="D85" s="123"/>
+      <c r="E85" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="F85" s="194" t="s">
+      <c r="F85" s="45" t="s">
         <v>277</v>
       </c>
       <c r="G85" s="61">
         <v>3206</v>
       </c>
-      <c r="H85" s="101"/>
+      <c r="H85" s="123"/>
       <c r="I85" s="46"/>
-      <c r="J85" s="88"/>
+      <c r="J85" s="110"/>
       <c r="K85" s="44"/>
-      <c r="L85" s="132"/>
+      <c r="L85" s="118"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="62">
@@ -6814,11 +6586,11 @@
       <c r="C86" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="D86" s="183" t="s">
+      <c r="D86" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="E86" s="183"/>
-      <c r="F86" s="194"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="63"/>
       <c r="H86" s="66" t="s">
         <v>343</v>
@@ -6829,22 +6601,22 @@
       <c r="L86" s="45"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="87">
+      <c r="A87" s="108">
         <v>15</v>
       </c>
-      <c r="B87" s="87" t="s">
+      <c r="B87" s="108" t="s">
         <v>284</v>
       </c>
       <c r="C87" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D87" s="185" t="s">
+      <c r="D87" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E87" s="200" t="s">
+      <c r="E87" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="194" t="s">
+      <c r="F87" s="45" t="s">
         <v>344</v>
       </c>
       <c r="G87" s="47">
@@ -6853,7 +6625,7 @@
       <c r="H87" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="J87" s="128">
+      <c r="J87" s="119">
         <f>SUM(G87:G95)</f>
         <v>6169.67</v>
       </c>
@@ -6861,18 +6633,18 @@
       <c r="L87" s="45"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="103"/>
-      <c r="B88" s="103"/>
+      <c r="A88" s="109"/>
+      <c r="B88" s="109"/>
       <c r="C88" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D88" s="183" t="s">
+      <c r="D88" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="E88" s="183" t="s">
+      <c r="E88" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="F88" s="194" t="s">
+      <c r="F88" s="45" t="s">
         <v>249</v>
       </c>
       <c r="G88" s="47">
@@ -6882,23 +6654,23 @@
         <v>285</v>
       </c>
       <c r="I88" s="46"/>
-      <c r="J88" s="103"/>
+      <c r="J88" s="109"/>
       <c r="K88" s="44"/>
       <c r="L88" s="45"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="103"/>
-      <c r="B89" s="103"/>
+      <c r="A89" s="109"/>
+      <c r="B89" s="109"/>
       <c r="C89" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D89" s="183" t="s">
+      <c r="D89" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="E89" s="184" t="s">
+      <c r="E89" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="F89" s="194" t="s">
+      <c r="F89" s="45" t="s">
         <v>287</v>
       </c>
       <c r="G89" s="47">
@@ -6908,241 +6680,241 @@
         <v>288</v>
       </c>
       <c r="I89" s="46"/>
-      <c r="J89" s="103"/>
+      <c r="J89" s="109"/>
       <c r="K89" s="44"/>
       <c r="L89" s="45"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="103"/>
-      <c r="B90" s="103"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="109"/>
       <c r="C90" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D90" s="176" t="s">
+      <c r="D90" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="E90" s="184" t="s">
+      <c r="E90" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="F90" s="194" t="s">
+      <c r="F90" s="45" t="s">
         <v>277</v>
       </c>
       <c r="G90" s="61">
         <v>400</v>
       </c>
-      <c r="H90" s="100" t="s">
+      <c r="H90" s="122" t="s">
         <v>364</v>
       </c>
-      <c r="J90" s="103"/>
+      <c r="J90" s="109"/>
       <c r="K90" s="44"/>
-      <c r="L90" s="131">
+      <c r="L90" s="117">
         <f>SUM(G90:G95)</f>
         <v>5282</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="103"/>
-      <c r="B91" s="103"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="109"/>
       <c r="C91" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D91" s="174"/>
-      <c r="E91" s="184" t="s">
+      <c r="D91" s="126"/>
+      <c r="E91" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="F91" s="194" t="s">
+      <c r="F91" s="45" t="s">
         <v>277</v>
       </c>
       <c r="G91" s="61">
         <v>1700</v>
       </c>
-      <c r="H91" s="102"/>
+      <c r="H91" s="126"/>
       <c r="I91" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="J91" s="103"/>
+      <c r="J91" s="109"/>
       <c r="K91" s="44"/>
-      <c r="L91" s="132"/>
+      <c r="L91" s="118"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="103"/>
-      <c r="B92" s="103"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="109"/>
       <c r="C92" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D92" s="174"/>
-      <c r="E92" s="184" t="s">
+      <c r="D92" s="126"/>
+      <c r="E92" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="F92" s="194" t="s">
+      <c r="F92" s="45" t="s">
         <v>277</v>
       </c>
       <c r="G92" s="61">
         <v>982</v>
       </c>
-      <c r="H92" s="102"/>
+      <c r="H92" s="126"/>
       <c r="I92" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="J92" s="103"/>
+      <c r="J92" s="109"/>
       <c r="K92" s="44"/>
-      <c r="L92" s="132"/>
+      <c r="L92" s="118"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="103"/>
-      <c r="B93" s="103"/>
+      <c r="A93" s="109"/>
+      <c r="B93" s="109"/>
       <c r="C93" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D93" s="175"/>
-      <c r="E93" s="184" t="s">
+      <c r="D93" s="123"/>
+      <c r="E93" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="F93" s="194" t="s">
+      <c r="F93" s="45" t="s">
         <v>277</v>
       </c>
       <c r="G93" s="61">
         <v>500</v>
       </c>
-      <c r="H93" s="102"/>
+      <c r="H93" s="126"/>
       <c r="I93" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="J93" s="103"/>
+      <c r="J93" s="109"/>
       <c r="K93" s="44"/>
-      <c r="L93" s="132"/>
+      <c r="L93" s="118"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="103"/>
-      <c r="B94" s="103"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="109"/>
       <c r="C94" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D94" s="183" t="s">
+      <c r="D94" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="E94" s="184" t="s">
+      <c r="E94" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="F94" s="194" t="s">
+      <c r="F94" s="45" t="s">
         <v>307</v>
       </c>
       <c r="G94" s="61">
         <v>1580</v>
       </c>
-      <c r="H94" s="102"/>
+      <c r="H94" s="126"/>
       <c r="I94" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="J94" s="103"/>
+      <c r="J94" s="109"/>
       <c r="K94" s="44"/>
-      <c r="L94" s="132"/>
+      <c r="L94" s="118"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="88"/>
-      <c r="B95" s="88"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="110"/>
       <c r="C95" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D95" s="183" t="s">
+      <c r="D95" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="E95" s="184" t="s">
+      <c r="E95" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="F95" s="194" t="s">
+      <c r="F95" s="45" t="s">
         <v>311</v>
       </c>
       <c r="G95" s="61">
         <v>120</v>
       </c>
-      <c r="H95" s="101"/>
+      <c r="H95" s="123"/>
       <c r="I95" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="J95" s="88"/>
+      <c r="J95" s="110"/>
       <c r="K95" s="44"/>
-      <c r="L95" s="132"/>
+      <c r="L95" s="118"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="109">
+      <c r="A96" s="114">
         <v>16</v>
       </c>
-      <c r="B96" s="109" t="s">
+      <c r="B96" s="114" t="s">
         <v>290</v>
       </c>
       <c r="C96" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D96" s="176" t="s">
+      <c r="D96" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="E96" s="183" t="s">
+      <c r="E96" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="F96" s="194" t="s">
+      <c r="F96" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G96" s="112">
+      <c r="G96" s="120">
         <v>67.959999999999994</v>
       </c>
-      <c r="H96" s="117" t="s">
+      <c r="H96" s="140" t="s">
         <v>293</v>
       </c>
       <c r="I96" s="64"/>
-      <c r="J96" s="112">
+      <c r="J96" s="120">
         <v>67.959999999999994</v>
       </c>
       <c r="K96" s="66"/>
       <c r="L96" s="45"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="111"/>
-      <c r="B97" s="111"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D97" s="175"/>
-      <c r="E97" s="183" t="s">
+      <c r="D97" s="123"/>
+      <c r="E97" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="F97" s="194" t="s">
+      <c r="F97" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="G97" s="113"/>
-      <c r="H97" s="119"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="142"/>
       <c r="I97" s="64"/>
-      <c r="J97" s="113"/>
+      <c r="J97" s="121"/>
       <c r="K97" s="66"/>
       <c r="L97" s="45"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="87">
+      <c r="A98" s="108">
         <v>17</v>
       </c>
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="111" t="s">
         <v>313</v>
       </c>
       <c r="C98" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="D98" s="176" t="s">
+      <c r="D98" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="E98" s="201" t="s">
+      <c r="E98" s="103" t="s">
         <v>316</v>
       </c>
-      <c r="F98" s="202" t="s">
+      <c r="F98" s="48" t="s">
         <v>315</v>
       </c>
       <c r="G98" s="47">
         <v>21.91</v>
       </c>
-      <c r="H98" s="104" t="s">
+      <c r="H98" s="130" t="s">
         <v>59</v>
       </c>
       <c r="I98" s="46"/>
-      <c r="J98" s="128">
+      <c r="J98" s="119">
         <f>SUM(G98:G101)</f>
         <v>232.55999999999997</v>
       </c>
@@ -7150,87 +6922,86 @@
       <c r="L98" s="45"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="103"/>
-      <c r="B99" s="115"/>
+      <c r="A99" s="109"/>
+      <c r="B99" s="112"/>
       <c r="C99" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="D99" s="174"/>
-      <c r="E99" s="203" t="s">
+      <c r="D99" s="126"/>
+      <c r="E99" s="104" t="s">
         <v>282</v>
       </c>
-      <c r="F99" s="202" t="s">
+      <c r="F99" s="48" t="s">
         <v>312</v>
       </c>
       <c r="G99" s="47">
         <v>132.5</v>
       </c>
-      <c r="H99" s="120"/>
+      <c r="H99" s="138"/>
       <c r="I99" s="46"/>
-      <c r="J99" s="103"/>
+      <c r="J99" s="109"/>
       <c r="K99" s="44"/>
       <c r="L99" s="45"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="103"/>
-      <c r="B100" s="115"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="112"/>
       <c r="C100" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="D100" s="174"/>
-      <c r="E100" s="203" t="s">
+      <c r="D100" s="126"/>
+      <c r="E100" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="F100" s="202" t="s">
+      <c r="F100" s="48" t="s">
         <v>314</v>
       </c>
       <c r="G100" s="47">
         <v>50.8</v>
       </c>
-      <c r="H100" s="120"/>
+      <c r="H100" s="138"/>
       <c r="I100" s="46"/>
-      <c r="J100" s="103"/>
+      <c r="J100" s="109"/>
       <c r="K100" s="44"/>
       <c r="L100" s="45"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="103"/>
-      <c r="B101" s="115"/>
+      <c r="A101" s="109"/>
+      <c r="B101" s="112"/>
       <c r="C101" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="D101" s="175"/>
-      <c r="E101" s="203" t="s">
+      <c r="D101" s="123"/>
+      <c r="E101" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="F101" s="202" t="s">
+      <c r="F101" s="48" t="s">
         <v>315</v>
       </c>
       <c r="G101" s="47">
         <v>27.35</v>
       </c>
-      <c r="H101" s="105"/>
+      <c r="H101" s="131"/>
       <c r="I101" s="46"/>
-      <c r="J101" s="88"/>
+      <c r="J101" s="110"/>
       <c r="K101" s="44"/>
       <c r="L101" s="45"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="88"/>
-      <c r="B102" s="116"/>
-      <c r="C102" s="172" t="s">
+      <c r="A102" s="110"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="90" t="s">
         <v>534</v>
       </c>
-      <c r="D102" s="186" t="s">
+      <c r="D102" s="51" t="s">
         <v>537</v>
       </c>
-      <c r="E102" s="203"/>
-      <c r="F102" s="202"/>
+      <c r="E102" s="104"/>
+      <c r="F102" s="48"/>
       <c r="G102" s="47">
         <v>173</v>
       </c>
       <c r="H102" s="79"/>
-      <c r="I102" s="171"/>
       <c r="J102" s="49"/>
       <c r="K102" s="44"/>
       <c r="L102" s="45"/>
@@ -7245,11 +7016,11 @@
       <c r="C103" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="D103" s="184" t="s">
+      <c r="D103" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="E103" s="184"/>
-      <c r="F103" s="194"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="61">
         <v>1000</v>
       </c>
@@ -7268,32 +7039,32 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="87">
+      <c r="A104" s="108">
         <v>19</v>
       </c>
-      <c r="B104" s="87" t="s">
+      <c r="B104" s="108" t="s">
         <v>366</v>
       </c>
       <c r="C104" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D104" s="187" t="s">
+      <c r="D104" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="E104" s="187" t="s">
+      <c r="E104" s="130" t="s">
         <v>369</v>
       </c>
-      <c r="F104" s="194" t="s">
+      <c r="F104" s="45" t="s">
         <v>372</v>
       </c>
       <c r="G104" s="47">
         <v>17.190000000000001</v>
       </c>
-      <c r="H104" s="104" t="s">
+      <c r="H104" s="130" t="s">
         <v>368</v>
       </c>
       <c r="I104" s="46"/>
-      <c r="J104" s="128">
+      <c r="J104" s="119">
         <f>SUM(G104:G107)</f>
         <v>84.960000000000008</v>
       </c>
@@ -7301,68 +7072,68 @@
       <c r="L104" s="45"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="103"/>
-      <c r="B105" s="103"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="109"/>
       <c r="C105" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D105" s="188"/>
-      <c r="E105" s="188"/>
-      <c r="F105" s="194" t="s">
+      <c r="D105" s="131"/>
+      <c r="E105" s="131"/>
+      <c r="F105" s="45" t="s">
         <v>372</v>
       </c>
       <c r="G105" s="47">
         <v>19.34</v>
       </c>
-      <c r="H105" s="105"/>
+      <c r="H105" s="131"/>
       <c r="I105" s="46"/>
-      <c r="J105" s="103"/>
+      <c r="J105" s="109"/>
       <c r="K105" s="44"/>
       <c r="L105" s="45"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="103"/>
-      <c r="B106" s="103"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="109"/>
       <c r="C106" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D106" s="187" t="s">
+      <c r="D106" s="130" t="s">
         <v>367</v>
       </c>
-      <c r="E106" s="187" t="s">
+      <c r="E106" s="130" t="s">
         <v>371</v>
       </c>
-      <c r="F106" s="194" t="s">
+      <c r="F106" s="45" t="s">
         <v>372</v>
       </c>
       <c r="G106" s="47">
         <v>21</v>
       </c>
-      <c r="H106" s="104" t="s">
+      <c r="H106" s="130" t="s">
         <v>370</v>
       </c>
       <c r="I106" s="46"/>
-      <c r="J106" s="103"/>
+      <c r="J106" s="109"/>
       <c r="K106" s="44"/>
       <c r="L106" s="45"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="88"/>
-      <c r="B107" s="88"/>
+      <c r="A107" s="110"/>
+      <c r="B107" s="110"/>
       <c r="C107" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D107" s="188"/>
-      <c r="E107" s="188"/>
-      <c r="F107" s="194" t="s">
+      <c r="D107" s="131"/>
+      <c r="E107" s="131"/>
+      <c r="F107" s="45" t="s">
         <v>372</v>
       </c>
       <c r="G107" s="47">
         <v>27.43</v>
       </c>
-      <c r="H107" s="105"/>
+      <c r="H107" s="131"/>
       <c r="I107" s="46"/>
-      <c r="J107" s="88"/>
+      <c r="J107" s="110"/>
       <c r="K107" s="44"/>
       <c r="L107" s="45"/>
     </row>
@@ -7376,13 +7147,13 @@
       <c r="C108" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D108" s="189" t="s">
+      <c r="D108" s="79" t="s">
         <v>380</v>
       </c>
-      <c r="E108" s="189" t="s">
+      <c r="E108" s="79" t="s">
         <v>380</v>
       </c>
-      <c r="F108" s="194" t="s">
+      <c r="F108" s="45" t="s">
         <v>381</v>
       </c>
       <c r="G108" s="63">
@@ -7399,22 +7170,22 @@
       <c r="L108" s="45"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="106">
+      <c r="A109" s="144">
         <v>21</v>
       </c>
-      <c r="B109" s="87" t="s">
+      <c r="B109" s="108" t="s">
         <v>373</v>
       </c>
       <c r="C109" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D109" s="183" t="s">
+      <c r="D109" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="E109" s="184" t="s">
+      <c r="E109" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="F109" s="194" t="s">
+      <c r="F109" s="45" t="s">
         <v>376</v>
       </c>
       <c r="G109" s="47">
@@ -7424,7 +7195,7 @@
         <v>374</v>
       </c>
       <c r="I109" s="46"/>
-      <c r="J109" s="128">
+      <c r="J109" s="119">
         <f>SUM(G109:G113)</f>
         <v>63.53</v>
       </c>
@@ -7432,66 +7203,66 @@
       <c r="L109" s="45"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="107"/>
-      <c r="B110" s="103"/>
+      <c r="A110" s="145"/>
+      <c r="B110" s="109"/>
       <c r="C110" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D110" s="176" t="s">
+      <c r="D110" s="122" t="s">
         <v>384</v>
       </c>
-      <c r="E110" s="184" t="s">
+      <c r="E110" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="F110" s="194" t="s">
+      <c r="F110" s="45" t="s">
         <v>372</v>
       </c>
       <c r="G110" s="47">
         <v>12.09</v>
       </c>
-      <c r="H110" s="104" t="s">
+      <c r="H110" s="130" t="s">
         <v>382</v>
       </c>
       <c r="I110" s="46"/>
-      <c r="J110" s="103"/>
+      <c r="J110" s="109"/>
       <c r="K110" s="44"/>
       <c r="L110" s="45"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="107"/>
-      <c r="B111" s="103"/>
+      <c r="A111" s="145"/>
+      <c r="B111" s="109"/>
       <c r="C111" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D111" s="175"/>
-      <c r="E111" s="184" t="s">
+      <c r="D111" s="123"/>
+      <c r="E111" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="F111" s="194" t="s">
+      <c r="F111" s="45" t="s">
         <v>386</v>
       </c>
       <c r="G111" s="47">
         <v>6.63</v>
       </c>
-      <c r="H111" s="105"/>
+      <c r="H111" s="131"/>
       <c r="I111" s="46"/>
-      <c r="J111" s="103"/>
+      <c r="J111" s="109"/>
       <c r="K111" s="44"/>
       <c r="L111" s="45"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="107"/>
-      <c r="B112" s="103"/>
+      <c r="A112" s="145"/>
+      <c r="B112" s="109"/>
       <c r="C112" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D112" s="183" t="s">
+      <c r="D112" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="184" t="s">
+      <c r="E112" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="F112" s="194" t="s">
+      <c r="F112" s="45" t="s">
         <v>386</v>
       </c>
       <c r="G112" s="47">
@@ -7501,23 +7272,23 @@
         <v>387</v>
       </c>
       <c r="I112" s="46"/>
-      <c r="J112" s="103"/>
+      <c r="J112" s="109"/>
       <c r="K112" s="44"/>
       <c r="L112" s="45"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="108"/>
-      <c r="B113" s="88"/>
+      <c r="A113" s="146"/>
+      <c r="B113" s="110"/>
       <c r="C113" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D113" s="183" t="s">
+      <c r="D113" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="184" t="s">
+      <c r="E113" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="F113" s="194" t="s">
+      <c r="F113" s="45" t="s">
         <v>391</v>
       </c>
       <c r="G113" s="47">
@@ -7527,27 +7298,27 @@
         <v>389</v>
       </c>
       <c r="I113" s="46"/>
-      <c r="J113" s="88"/>
+      <c r="J113" s="110"/>
       <c r="K113" s="44"/>
       <c r="L113" s="45"/>
     </row>
     <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="109">
+      <c r="A114" s="114">
         <v>22</v>
       </c>
-      <c r="B114" s="109" t="s">
+      <c r="B114" s="114" t="s">
         <v>392</v>
       </c>
       <c r="C114" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D114" s="183" t="s">
+      <c r="D114" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="E114" s="184" t="s">
+      <c r="E114" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="F114" s="194" t="s">
+      <c r="F114" s="45" t="s">
         <v>394</v>
       </c>
       <c r="G114" s="63">
@@ -7559,7 +7330,7 @@
       <c r="I114" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="J114" s="112">
+      <c r="J114" s="120">
         <f>SUM(G114:G120)</f>
         <v>3137.64</v>
       </c>
@@ -7567,18 +7338,18 @@
       <c r="L114" s="45"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="110"/>
-      <c r="B115" s="110"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="115"/>
       <c r="C115" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D115" s="183" t="s">
+      <c r="D115" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="E115" s="184" t="s">
+      <c r="E115" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="F115" s="194" t="s">
+      <c r="F115" s="45" t="s">
         <v>397</v>
       </c>
       <c r="G115" s="63">
@@ -7588,23 +7359,23 @@
         <v>368</v>
       </c>
       <c r="I115" s="64"/>
-      <c r="J115" s="110"/>
+      <c r="J115" s="115"/>
       <c r="K115" s="66"/>
       <c r="L115" s="45"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="110"/>
-      <c r="B116" s="110"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="115"/>
       <c r="C116" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D116" s="183" t="s">
+      <c r="D116" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="E116" s="184" t="s">
+      <c r="E116" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="F116" s="194" t="s">
+      <c r="F116" s="45" t="s">
         <v>400</v>
       </c>
       <c r="G116" s="63">
@@ -7614,23 +7385,23 @@
         <v>398</v>
       </c>
       <c r="I116" s="64"/>
-      <c r="J116" s="110"/>
+      <c r="J116" s="115"/>
       <c r="K116" s="66"/>
       <c r="L116" s="45"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="110"/>
-      <c r="B117" s="110"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="115"/>
       <c r="C117" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="D117" s="190" t="s">
+      <c r="D117" s="94" t="s">
         <v>528</v>
       </c>
-      <c r="E117" s="184" t="s">
+      <c r="E117" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="F117" s="194" t="s">
+      <c r="F117" s="45" t="s">
         <v>403</v>
       </c>
       <c r="G117" s="61">
@@ -7640,23 +7411,23 @@
         <v>401</v>
       </c>
       <c r="I117" s="60"/>
-      <c r="J117" s="110"/>
+      <c r="J117" s="115"/>
       <c r="K117" s="83"/>
       <c r="L117" s="61">
         <v>2684</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="110"/>
-      <c r="B118" s="110"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="115"/>
       <c r="C118" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D118" s="184" t="s">
+      <c r="D118" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="E118" s="184"/>
-      <c r="F118" s="194" t="s">
+      <c r="E118" s="44"/>
+      <c r="F118" s="45" t="s">
         <v>406</v>
       </c>
       <c r="G118" s="63">
@@ -7666,20 +7437,20 @@
         <v>405</v>
       </c>
       <c r="I118" s="64"/>
-      <c r="J118" s="110"/>
+      <c r="J118" s="115"/>
       <c r="K118" s="66"/>
       <c r="L118" s="45"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="110"/>
-      <c r="B119" s="110"/>
+      <c r="A119" s="115"/>
+      <c r="B119" s="115"/>
       <c r="C119" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D119" s="183" t="s">
+      <c r="D119" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="F119" s="194" t="s">
+      <c r="F119" s="45" t="s">
         <v>408</v>
       </c>
       <c r="G119" s="63">
@@ -7689,23 +7460,23 @@
         <v>409</v>
       </c>
       <c r="I119" s="64"/>
-      <c r="J119" s="110"/>
+      <c r="J119" s="115"/>
       <c r="K119" s="66"/>
       <c r="L119" s="45"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="111"/>
-      <c r="B120" s="111"/>
+      <c r="A120" s="116"/>
+      <c r="B120" s="116"/>
       <c r="C120" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="D120" s="184" t="s">
+      <c r="D120" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="E120" s="184" t="s">
+      <c r="E120" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="F120" s="194" t="s">
+      <c r="F120" s="45" t="s">
         <v>412</v>
       </c>
       <c r="G120" s="63">
@@ -7715,25 +7486,25 @@
         <v>411</v>
       </c>
       <c r="I120" s="64"/>
-      <c r="J120" s="111"/>
+      <c r="J120" s="116"/>
       <c r="K120" s="66"/>
       <c r="L120" s="45"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="87">
+      <c r="A121" s="108">
         <v>23</v>
       </c>
-      <c r="B121" s="87" t="s">
+      <c r="B121" s="108" t="s">
         <v>413</v>
       </c>
       <c r="C121" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D121" s="184" t="s">
+      <c r="D121" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="E121" s="184"/>
-      <c r="F121" s="194" t="s">
+      <c r="E121" s="44"/>
+      <c r="F121" s="45" t="s">
         <v>415</v>
       </c>
       <c r="G121" s="47">
@@ -7741,7 +7512,7 @@
       </c>
       <c r="H121" s="44"/>
       <c r="I121" s="46"/>
-      <c r="J121" s="128">
+      <c r="J121" s="119">
         <f>SUM(G121:G144)</f>
         <v>1698.7700000000002</v>
       </c>
@@ -7749,18 +7520,18 @@
       <c r="L121" s="45"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="103"/>
-      <c r="B122" s="103"/>
+      <c r="A122" s="109"/>
+      <c r="B122" s="109"/>
       <c r="C122" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D122" s="184" t="s">
+      <c r="D122" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="E122" s="184" t="s">
+      <c r="E122" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="F122" s="194" t="s">
+      <c r="F122" s="45" t="s">
         <v>417</v>
       </c>
       <c r="G122" s="47">
@@ -7768,20 +7539,20 @@
       </c>
       <c r="H122" s="44"/>
       <c r="I122" s="46"/>
-      <c r="J122" s="103"/>
+      <c r="J122" s="109"/>
       <c r="K122" s="44"/>
       <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="103"/>
-      <c r="B123" s="103"/>
+      <c r="A123" s="109"/>
+      <c r="B123" s="109"/>
       <c r="C123" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D123" s="184" t="s">
+      <c r="D123" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="F123" s="194" t="s">
+      <c r="F123" s="45" t="s">
         <v>420</v>
       </c>
       <c r="G123" s="47">
@@ -7791,21 +7562,21 @@
         <v>398</v>
       </c>
       <c r="I123" s="46"/>
-      <c r="J123" s="103"/>
+      <c r="J123" s="109"/>
       <c r="K123" s="44"/>
       <c r="L123" s="45"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="103"/>
-      <c r="B124" s="103"/>
+      <c r="A124" s="109"/>
+      <c r="B124" s="109"/>
       <c r="C124" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D124" s="184" t="s">
+      <c r="D124" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E124" s="184"/>
-      <c r="F124" s="194" t="s">
+      <c r="E124" s="44"/>
+      <c r="F124" s="45" t="s">
         <v>422</v>
       </c>
       <c r="G124" s="47">
@@ -7813,21 +7584,21 @@
       </c>
       <c r="H124" s="44"/>
       <c r="I124" s="46"/>
-      <c r="J124" s="103"/>
+      <c r="J124" s="109"/>
       <c r="K124" s="44"/>
       <c r="L124" s="45"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="103"/>
-      <c r="B125" s="103"/>
+      <c r="A125" s="109"/>
+      <c r="B125" s="109"/>
       <c r="C125" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D125" s="184" t="s">
+      <c r="D125" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="E125" s="184"/>
-      <c r="F125" s="194" t="s">
+      <c r="E125" s="44"/>
+      <c r="F125" s="45" t="s">
         <v>423</v>
       </c>
       <c r="G125" s="47">
@@ -7835,23 +7606,23 @@
       </c>
       <c r="H125" s="44"/>
       <c r="I125" s="46"/>
-      <c r="J125" s="103"/>
+      <c r="J125" s="109"/>
       <c r="K125" s="44"/>
       <c r="L125" s="45"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="103"/>
-      <c r="B126" s="103"/>
+      <c r="A126" s="109"/>
+      <c r="B126" s="109"/>
       <c r="C126" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D126" s="184" t="s">
+      <c r="D126" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="E126" s="184" t="s">
+      <c r="E126" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="F126" s="194" t="s">
+      <c r="F126" s="45" t="s">
         <v>420</v>
       </c>
       <c r="G126" s="47">
@@ -7859,23 +7630,23 @@
       </c>
       <c r="H126" s="44"/>
       <c r="I126" s="46"/>
-      <c r="J126" s="103"/>
+      <c r="J126" s="109"/>
       <c r="K126" s="44"/>
       <c r="L126" s="45"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="103"/>
-      <c r="B127" s="103"/>
+      <c r="A127" s="109"/>
+      <c r="B127" s="109"/>
       <c r="C127" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D127" s="184" t="s">
+      <c r="D127" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="E127" s="184" t="s">
+      <c r="E127" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="F127" s="194" t="s">
+      <c r="F127" s="45" t="s">
         <v>426</v>
       </c>
       <c r="G127" s="47">
@@ -7885,23 +7656,23 @@
         <v>89</v>
       </c>
       <c r="I127" s="46"/>
-      <c r="J127" s="103"/>
+      <c r="J127" s="109"/>
       <c r="K127" s="44"/>
       <c r="L127" s="45"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="103"/>
-      <c r="B128" s="103"/>
+      <c r="A128" s="109"/>
+      <c r="B128" s="109"/>
       <c r="C128" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D128" s="184" t="s">
+      <c r="D128" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="E128" s="184" t="s">
+      <c r="E128" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="F128" s="194" t="s">
+      <c r="F128" s="45" t="s">
         <v>445</v>
       </c>
       <c r="G128" s="47">
@@ -7909,23 +7680,23 @@
       </c>
       <c r="H128" s="44"/>
       <c r="I128" s="46"/>
-      <c r="J128" s="103"/>
+      <c r="J128" s="109"/>
       <c r="K128" s="44"/>
       <c r="L128" s="45"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="103"/>
-      <c r="B129" s="103"/>
+      <c r="A129" s="109"/>
+      <c r="B129" s="109"/>
       <c r="C129" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D129" s="183" t="s">
+      <c r="D129" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="E129" s="184" t="s">
+      <c r="E129" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="F129" s="194" t="s">
+      <c r="F129" s="45" t="s">
         <v>448</v>
       </c>
       <c r="G129" s="47">
@@ -7933,23 +7704,23 @@
       </c>
       <c r="H129" s="44"/>
       <c r="I129" s="46"/>
-      <c r="J129" s="103"/>
+      <c r="J129" s="109"/>
       <c r="K129" s="44"/>
       <c r="L129" s="45"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="103"/>
-      <c r="B130" s="103"/>
+      <c r="A130" s="109"/>
+      <c r="B130" s="109"/>
       <c r="C130" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D130" s="183" t="s">
+      <c r="D130" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="E130" s="184" t="s">
+      <c r="E130" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="F130" s="194" t="s">
+      <c r="F130" s="45" t="s">
         <v>448</v>
       </c>
       <c r="G130" s="47">
@@ -7957,23 +7728,23 @@
       </c>
       <c r="H130" s="44"/>
       <c r="I130" s="46"/>
-      <c r="J130" s="103"/>
+      <c r="J130" s="109"/>
       <c r="K130" s="44"/>
       <c r="L130" s="45"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="103"/>
-      <c r="B131" s="103"/>
+      <c r="A131" s="109"/>
+      <c r="B131" s="109"/>
       <c r="C131" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D131" s="183" t="s">
+      <c r="D131" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="E131" s="184" t="s">
+      <c r="E131" s="44" t="s">
         <v>451</v>
       </c>
-      <c r="F131" s="194" t="s">
+      <c r="F131" s="45" t="s">
         <v>452</v>
       </c>
       <c r="G131" s="47">
@@ -7981,23 +7752,23 @@
       </c>
       <c r="H131" s="44"/>
       <c r="I131" s="46"/>
-      <c r="J131" s="103"/>
+      <c r="J131" s="109"/>
       <c r="K131" s="44"/>
       <c r="L131" s="45"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="103"/>
-      <c r="B132" s="103"/>
+      <c r="A132" s="109"/>
+      <c r="B132" s="109"/>
       <c r="C132" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D132" s="183" t="s">
+      <c r="D132" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="E132" s="184" t="s">
+      <c r="E132" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="F132" s="194" t="s">
+      <c r="F132" s="45" t="s">
         <v>455</v>
       </c>
       <c r="G132" s="47">
@@ -8005,23 +7776,23 @@
       </c>
       <c r="H132" s="44"/>
       <c r="I132" s="46"/>
-      <c r="J132" s="103"/>
+      <c r="J132" s="109"/>
       <c r="K132" s="44"/>
       <c r="L132" s="45"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="103"/>
-      <c r="B133" s="103"/>
+      <c r="A133" s="109"/>
+      <c r="B133" s="109"/>
       <c r="C133" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D133" s="183" t="s">
+      <c r="D133" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="E133" s="184" t="s">
+      <c r="E133" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="F133" s="194" t="s">
+      <c r="F133" s="45" t="s">
         <v>457</v>
       </c>
       <c r="G133" s="47">
@@ -8029,23 +7800,23 @@
       </c>
       <c r="H133" s="44"/>
       <c r="I133" s="46"/>
-      <c r="J133" s="103"/>
+      <c r="J133" s="109"/>
       <c r="K133" s="44"/>
       <c r="L133" s="45"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="103"/>
-      <c r="B134" s="103"/>
+      <c r="A134" s="109"/>
+      <c r="B134" s="109"/>
       <c r="C134" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D134" s="183" t="s">
+      <c r="D134" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="E134" s="184" t="s">
+      <c r="E134" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="F134" s="194" t="s">
+      <c r="F134" s="45" t="s">
         <v>458</v>
       </c>
       <c r="G134" s="47">
@@ -8053,23 +7824,23 @@
       </c>
       <c r="H134" s="44"/>
       <c r="I134" s="46"/>
-      <c r="J134" s="103"/>
+      <c r="J134" s="109"/>
       <c r="K134" s="44"/>
       <c r="L134" s="45"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="103"/>
-      <c r="B135" s="103"/>
+      <c r="A135" s="109"/>
+      <c r="B135" s="109"/>
       <c r="C135" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D135" s="183" t="s">
+      <c r="D135" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="E135" s="184" t="s">
+      <c r="E135" s="44" t="s">
         <v>461</v>
       </c>
-      <c r="F135" s="194" t="s">
+      <c r="F135" s="45" t="s">
         <v>457</v>
       </c>
       <c r="G135" s="47">
@@ -8077,23 +7848,23 @@
       </c>
       <c r="H135" s="44"/>
       <c r="I135" s="46"/>
-      <c r="J135" s="103"/>
+      <c r="J135" s="109"/>
       <c r="K135" s="44"/>
       <c r="L135" s="45"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="103"/>
-      <c r="B136" s="103"/>
+      <c r="A136" s="109"/>
+      <c r="B136" s="109"/>
       <c r="C136" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D136" s="183" t="s">
+      <c r="D136" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="E136" s="184" t="s">
+      <c r="E136" s="44" t="s">
         <v>463</v>
       </c>
-      <c r="F136" s="194" t="s">
+      <c r="F136" s="45" t="s">
         <v>457</v>
       </c>
       <c r="G136" s="47">
@@ -8101,23 +7872,23 @@
       </c>
       <c r="H136" s="44"/>
       <c r="I136" s="46"/>
-      <c r="J136" s="103"/>
+      <c r="J136" s="109"/>
       <c r="K136" s="44"/>
       <c r="L136" s="45"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="103"/>
-      <c r="B137" s="103"/>
+      <c r="A137" s="109"/>
+      <c r="B137" s="109"/>
       <c r="C137" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D137" s="183" t="s">
+      <c r="D137" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="E137" s="184" t="s">
+      <c r="E137" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="F137" s="194" t="s">
+      <c r="F137" s="45" t="s">
         <v>457</v>
       </c>
       <c r="G137" s="47">
@@ -8125,23 +7896,23 @@
       </c>
       <c r="H137" s="44"/>
       <c r="I137" s="46"/>
-      <c r="J137" s="103"/>
+      <c r="J137" s="109"/>
       <c r="K137" s="44"/>
       <c r="L137" s="45"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="103"/>
-      <c r="B138" s="103"/>
+      <c r="A138" s="109"/>
+      <c r="B138" s="109"/>
       <c r="C138" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D138" s="183" t="s">
+      <c r="D138" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="E138" s="184" t="s">
+      <c r="E138" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="F138" s="194" t="s">
+      <c r="F138" s="45" t="s">
         <v>455</v>
       </c>
       <c r="G138" s="47">
@@ -8149,23 +7920,23 @@
       </c>
       <c r="H138" s="44"/>
       <c r="I138" s="46"/>
-      <c r="J138" s="103"/>
+      <c r="J138" s="109"/>
       <c r="K138" s="44"/>
       <c r="L138" s="47"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="103"/>
-      <c r="B139" s="103"/>
+      <c r="A139" s="109"/>
+      <c r="B139" s="109"/>
       <c r="C139" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D139" s="183" t="s">
+      <c r="D139" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="E139" s="184" t="s">
+      <c r="E139" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="F139" s="194" t="s">
+      <c r="F139" s="45" t="s">
         <v>466</v>
       </c>
       <c r="G139" s="47">
@@ -8173,23 +7944,23 @@
       </c>
       <c r="H139" s="44"/>
       <c r="I139" s="46"/>
-      <c r="J139" s="103"/>
+      <c r="J139" s="109"/>
       <c r="K139" s="44"/>
       <c r="L139" s="47"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="103"/>
-      <c r="B140" s="103"/>
+      <c r="A140" s="109"/>
+      <c r="B140" s="109"/>
       <c r="C140" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D140" s="183" t="s">
+      <c r="D140" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="E140" s="184" t="s">
+      <c r="E140" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="F140" s="194" t="s">
+      <c r="F140" s="45" t="s">
         <v>471</v>
       </c>
       <c r="G140" s="47">
@@ -8197,23 +7968,23 @@
       </c>
       <c r="H140" s="44"/>
       <c r="I140" s="46"/>
-      <c r="J140" s="103"/>
+      <c r="J140" s="109"/>
       <c r="K140" s="44"/>
       <c r="L140" s="47"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="103"/>
-      <c r="B141" s="103"/>
+      <c r="A141" s="109"/>
+      <c r="B141" s="109"/>
       <c r="C141" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D141" s="183" t="s">
+      <c r="D141" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="E141" s="184" t="s">
+      <c r="E141" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="F141" s="194" t="s">
+      <c r="F141" s="45" t="s">
         <v>473</v>
       </c>
       <c r="G141" s="47">
@@ -8221,23 +7992,23 @@
       </c>
       <c r="H141" s="44"/>
       <c r="I141" s="46"/>
-      <c r="J141" s="103"/>
+      <c r="J141" s="109"/>
       <c r="K141" s="44"/>
       <c r="L141" s="47"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="103"/>
-      <c r="B142" s="103"/>
+      <c r="A142" s="109"/>
+      <c r="B142" s="109"/>
       <c r="C142" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D142" s="183" t="s">
+      <c r="D142" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="E142" s="184" t="s">
+      <c r="E142" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="F142" s="194" t="s">
+      <c r="F142" s="45" t="s">
         <v>474</v>
       </c>
       <c r="G142" s="47">
@@ -8245,23 +8016,23 @@
       </c>
       <c r="H142" s="44"/>
       <c r="I142" s="46"/>
-      <c r="J142" s="103"/>
+      <c r="J142" s="109"/>
       <c r="K142" s="44"/>
       <c r="L142" s="47"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="103"/>
-      <c r="B143" s="103"/>
+      <c r="A143" s="109"/>
+      <c r="B143" s="109"/>
       <c r="C143" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D143" s="183" t="s">
+      <c r="D143" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="E143" s="184" t="s">
+      <c r="E143" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="F143" s="194" t="s">
+      <c r="F143" s="45" t="s">
         <v>478</v>
       </c>
       <c r="G143" s="47">
@@ -8269,23 +8040,23 @@
       </c>
       <c r="H143" s="44"/>
       <c r="I143" s="46"/>
-      <c r="J143" s="103"/>
+      <c r="J143" s="109"/>
       <c r="K143" s="44"/>
       <c r="L143" s="47"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="88"/>
-      <c r="B144" s="88"/>
+      <c r="A144" s="110"/>
+      <c r="B144" s="110"/>
       <c r="C144" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D144" s="183" t="s">
+      <c r="D144" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="E144" s="184" t="s">
+      <c r="E144" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="F144" s="194" t="s">
+      <c r="F144" s="45" t="s">
         <v>478</v>
       </c>
       <c r="G144" s="47">
@@ -8293,27 +8064,27 @@
       </c>
       <c r="H144" s="44"/>
       <c r="I144" s="46"/>
-      <c r="J144" s="88"/>
+      <c r="J144" s="110"/>
       <c r="K144" s="44"/>
       <c r="L144" s="47"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="87">
+      <c r="A145" s="108">
         <v>24</v>
       </c>
-      <c r="B145" s="87" t="s">
+      <c r="B145" s="108" t="s">
         <v>487</v>
       </c>
       <c r="C145" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D145" s="183" t="s">
+      <c r="D145" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="E145" s="184" t="s">
+      <c r="E145" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="F145" s="194" t="s">
+      <c r="F145" s="45" t="s">
         <v>489</v>
       </c>
       <c r="G145" s="47">
@@ -8326,16 +8097,16 @@
       <c r="L145" s="47"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="103"/>
-      <c r="B146" s="103"/>
+      <c r="A146" s="109"/>
+      <c r="B146" s="109"/>
       <c r="C146" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D146" s="183" t="s">
+      <c r="D146" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="E146" s="184"/>
-      <c r="F146" s="194" t="s">
+      <c r="E146" s="44"/>
+      <c r="F146" s="45" t="s">
         <v>492</v>
       </c>
       <c r="G146" s="47">
@@ -8348,16 +8119,16 @@
       <c r="L146" s="47"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" s="103"/>
-      <c r="B147" s="103"/>
+      <c r="A147" s="109"/>
+      <c r="B147" s="109"/>
       <c r="C147" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D147" s="183" t="s">
+      <c r="D147" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="E147" s="184"/>
-      <c r="F147" s="194" t="s">
+      <c r="E147" s="44"/>
+      <c r="F147" s="45" t="s">
         <v>494</v>
       </c>
       <c r="G147" s="47">
@@ -8370,16 +8141,16 @@
       <c r="L147" s="47"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="103"/>
-      <c r="B148" s="103"/>
+      <c r="A148" s="109"/>
+      <c r="B148" s="109"/>
       <c r="C148" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D148" s="183" t="s">
+      <c r="D148" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="E148" s="184"/>
-      <c r="F148" s="194"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="45"/>
       <c r="G148" s="47">
         <v>34.44</v>
       </c>
@@ -8390,16 +8161,16 @@
       <c r="L148" s="47"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="88"/>
-      <c r="B149" s="88"/>
+      <c r="A149" s="110"/>
+      <c r="B149" s="110"/>
       <c r="C149" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D149" s="183" t="s">
+      <c r="D149" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="E149" s="184"/>
-      <c r="F149" s="194"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="47">
         <v>28.65</v>
       </c>
@@ -8410,22 +8181,22 @@
       <c r="L149" s="47"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="87">
+      <c r="A150" s="108">
         <v>25</v>
       </c>
-      <c r="B150" s="87" t="s">
+      <c r="B150" s="108" t="s">
         <v>495</v>
       </c>
       <c r="C150" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D150" s="183" t="s">
+      <c r="D150" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="E150" s="184" t="s">
+      <c r="E150" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="F150" s="194" t="s">
+      <c r="F150" s="45" t="s">
         <v>494</v>
       </c>
       <c r="G150" s="47">
@@ -8438,16 +8209,16 @@
       <c r="L150" s="47"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A151" s="103"/>
-      <c r="B151" s="103"/>
+      <c r="A151" s="109"/>
+      <c r="B151" s="109"/>
       <c r="C151" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D151" s="183" t="s">
+      <c r="D151" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="E151" s="184"/>
-      <c r="F151" s="194" t="s">
+      <c r="E151" s="44"/>
+      <c r="F151" s="45" t="s">
         <v>494</v>
       </c>
       <c r="G151" s="47">
@@ -8460,18 +8231,18 @@
       <c r="L151" s="47"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" s="103"/>
-      <c r="B152" s="103"/>
+      <c r="A152" s="109"/>
+      <c r="B152" s="109"/>
       <c r="C152" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D152" s="183" t="s">
+      <c r="D152" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="E152" s="184" t="s">
+      <c r="E152" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="F152" s="194" t="s">
+      <c r="F152" s="45" t="s">
         <v>501</v>
       </c>
       <c r="G152" s="47">
@@ -8484,18 +8255,18 @@
       <c r="L152" s="47"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" s="103"/>
-      <c r="B153" s="103"/>
+      <c r="A153" s="109"/>
+      <c r="B153" s="109"/>
       <c r="C153" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D153" s="183" t="s">
+      <c r="D153" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="E153" s="184" t="s">
+      <c r="E153" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="F153" s="194" t="s">
+      <c r="F153" s="45" t="s">
         <v>504</v>
       </c>
       <c r="G153" s="47">
@@ -8508,18 +8279,18 @@
       <c r="L153" s="47"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A154" s="103"/>
-      <c r="B154" s="103"/>
+      <c r="A154" s="109"/>
+      <c r="B154" s="109"/>
       <c r="C154" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D154" s="183" t="s">
+      <c r="D154" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="E154" s="184" t="s">
+      <c r="E154" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="F154" s="194" t="s">
+      <c r="F154" s="45" t="s">
         <v>504</v>
       </c>
       <c r="G154" s="47">
@@ -8532,16 +8303,16 @@
       <c r="L154" s="47"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="103"/>
-      <c r="B155" s="103"/>
+      <c r="A155" s="109"/>
+      <c r="B155" s="109"/>
       <c r="C155" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D155" s="183" t="s">
+      <c r="D155" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="E155" s="184"/>
-      <c r="F155" s="194"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="47">
         <v>63.96</v>
       </c>
@@ -8552,16 +8323,16 @@
       <c r="L155" s="47"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="103"/>
-      <c r="B156" s="103"/>
+      <c r="A156" s="109"/>
+      <c r="B156" s="109"/>
       <c r="C156" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D156" s="176" t="s">
+      <c r="D156" s="122" t="s">
         <v>508</v>
       </c>
-      <c r="E156" s="184"/>
-      <c r="F156" s="194"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="47">
         <v>40.229999999999997</v>
       </c>
@@ -8572,14 +8343,14 @@
       <c r="L156" s="47"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="103"/>
-      <c r="B157" s="103"/>
+      <c r="A157" s="109"/>
+      <c r="B157" s="109"/>
       <c r="C157" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D157" s="175"/>
-      <c r="E157" s="184"/>
-      <c r="F157" s="194"/>
+      <c r="D157" s="123"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="45"/>
       <c r="G157" s="47">
         <v>22.2</v>
       </c>
@@ -8590,16 +8361,16 @@
       <c r="L157" s="47"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="103"/>
-      <c r="B158" s="103"/>
+      <c r="A158" s="109"/>
+      <c r="B158" s="109"/>
       <c r="C158" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D158" s="176" t="s">
+      <c r="D158" s="122" t="s">
         <v>509</v>
       </c>
-      <c r="E158" s="184"/>
-      <c r="F158" s="194"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="45"/>
       <c r="G158" s="47">
         <v>7.98</v>
       </c>
@@ -8610,14 +8381,14 @@
       <c r="L158" s="47"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="103"/>
-      <c r="B159" s="103"/>
+      <c r="A159" s="109"/>
+      <c r="B159" s="109"/>
       <c r="C159" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D159" s="174"/>
-      <c r="E159" s="184"/>
-      <c r="F159" s="194"/>
+      <c r="D159" s="126"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="45"/>
       <c r="G159" s="47">
         <v>2.97</v>
       </c>
@@ -8628,14 +8399,14 @@
       <c r="L159" s="47"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="103"/>
-      <c r="B160" s="103"/>
+      <c r="A160" s="109"/>
+      <c r="B160" s="109"/>
       <c r="C160" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D160" s="175"/>
-      <c r="E160" s="205"/>
-      <c r="F160" s="206"/>
+      <c r="D160" s="123"/>
+      <c r="E160" s="78"/>
+      <c r="F160" s="87"/>
       <c r="G160" s="74">
         <v>2.97</v>
       </c>
@@ -8646,83 +8417,83 @@
       <c r="L160" s="47"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="103"/>
-      <c r="B161" s="103"/>
+      <c r="A161" s="109"/>
+      <c r="B161" s="109"/>
       <c r="C161" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D161" s="176" t="s">
+      <c r="D161" s="122" t="s">
         <v>510</v>
       </c>
-      <c r="E161" s="184" t="s">
+      <c r="E161" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="F161" s="207"/>
+      <c r="F161" s="108"/>
       <c r="G161" s="61">
         <v>28.23</v>
       </c>
-      <c r="H161" s="91"/>
-      <c r="I161" s="92"/>
-      <c r="J161" s="92"/>
-      <c r="K161" s="92"/>
-      <c r="L161" s="99">
+      <c r="H161" s="147"/>
+      <c r="I161" s="148"/>
+      <c r="J161" s="148"/>
+      <c r="K161" s="148"/>
+      <c r="L161" s="155">
         <f>SUM(G161:G163)</f>
         <v>262.23</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" s="103"/>
-      <c r="B162" s="103"/>
+      <c r="A162" s="109"/>
+      <c r="B162" s="109"/>
       <c r="C162" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D162" s="174"/>
-      <c r="E162" s="184" t="s">
+      <c r="D162" s="126"/>
+      <c r="E162" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="F162" s="208"/>
+      <c r="F162" s="109"/>
       <c r="G162" s="61">
         <v>94</v>
       </c>
-      <c r="H162" s="93"/>
-      <c r="I162" s="94"/>
-      <c r="J162" s="94"/>
-      <c r="K162" s="94"/>
-      <c r="L162" s="89"/>
+      <c r="H162" s="149"/>
+      <c r="I162" s="150"/>
+      <c r="J162" s="150"/>
+      <c r="K162" s="150"/>
+      <c r="L162" s="156"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" s="103"/>
-      <c r="B163" s="103"/>
+      <c r="A163" s="109"/>
+      <c r="B163" s="109"/>
       <c r="C163" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D163" s="175"/>
-      <c r="E163" s="184" t="s">
+      <c r="D163" s="123"/>
+      <c r="E163" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="F163" s="209"/>
+      <c r="F163" s="110"/>
       <c r="G163" s="61">
         <v>140</v>
       </c>
-      <c r="H163" s="95"/>
-      <c r="I163" s="96"/>
-      <c r="J163" s="96"/>
-      <c r="K163" s="96"/>
-      <c r="L163" s="90"/>
+      <c r="H163" s="151"/>
+      <c r="I163" s="152"/>
+      <c r="J163" s="152"/>
+      <c r="K163" s="152"/>
+      <c r="L163" s="157"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="88"/>
-      <c r="B164" s="88"/>
+      <c r="A164" s="110"/>
+      <c r="B164" s="110"/>
       <c r="C164" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D164" s="183" t="s">
+      <c r="D164" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="E164" s="210" t="s">
+      <c r="E164" s="80" t="s">
         <v>516</v>
       </c>
-      <c r="F164" s="211"/>
+      <c r="F164" s="75"/>
       <c r="G164" s="81">
         <v>479</v>
       </c>
@@ -8742,11 +8513,11 @@
       <c r="C165" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="D165" s="183" t="s">
+      <c r="D165" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="E165" s="184"/>
-      <c r="F165" s="194"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="45"/>
       <c r="G165" s="61">
         <v>2600</v>
       </c>
@@ -8768,13 +8539,13 @@
       <c r="C166" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="D166" s="183" t="s">
+      <c r="D166" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="E166" s="189" t="s">
+      <c r="E166" s="79" t="s">
         <v>520</v>
       </c>
-      <c r="F166" s="193"/>
+      <c r="F166" s="49"/>
       <c r="G166" s="50">
         <v>500</v>
       </c>
@@ -8785,22 +8556,22 @@
       <c r="L166" s="45"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" s="87">
+      <c r="A167" s="108">
         <v>28</v>
       </c>
-      <c r="B167" s="87" t="s">
+      <c r="B167" s="108" t="s">
         <v>521</v>
       </c>
       <c r="C167" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="D167" s="183" t="s">
+      <c r="D167" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="E167" s="184" t="s">
+      <c r="E167" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="F167" s="194"/>
+      <c r="F167" s="45"/>
       <c r="G167" s="47">
         <v>1500</v>
       </c>
@@ -8811,16 +8582,16 @@
       <c r="L167" s="45"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" s="88"/>
-      <c r="B168" s="88"/>
+      <c r="A168" s="110"/>
+      <c r="B168" s="110"/>
       <c r="C168" s="82" t="s">
         <v>534</v>
       </c>
-      <c r="D168" s="183" t="s">
+      <c r="D168" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="184"/>
-      <c r="F168" s="194"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="45"/>
       <c r="G168" s="47">
         <v>292</v>
       </c>
@@ -8833,22 +8604,22 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A169" s="87">
+      <c r="A169" s="108">
         <v>29</v>
       </c>
-      <c r="B169" s="87" t="s">
+      <c r="B169" s="108" t="s">
         <v>523</v>
       </c>
       <c r="C169" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="D169" s="183" t="s">
+      <c r="D169" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="E169" s="205" t="s">
+      <c r="E169" s="78" t="s">
         <v>525</v>
       </c>
-      <c r="F169" s="206"/>
+      <c r="F169" s="87"/>
       <c r="G169" s="74">
         <v>350</v>
       </c>
@@ -8859,57 +8630,153 @@
       <c r="L169" s="45"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" s="88"/>
-      <c r="B170" s="88"/>
+      <c r="A170" s="110"/>
+      <c r="B170" s="110"/>
       <c r="C170" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D170" s="183" t="s">
+      <c r="D170" s="46" t="s">
         <v>526</v>
       </c>
-      <c r="E170" s="184"/>
-      <c r="F170" s="194"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="45"/>
       <c r="G170" s="61">
         <v>6621</v>
       </c>
-      <c r="H170" s="97"/>
-      <c r="I170" s="98"/>
-      <c r="J170" s="98"/>
-      <c r="K170" s="98"/>
+      <c r="H170" s="153"/>
+      <c r="I170" s="154"/>
+      <c r="J170" s="154"/>
+      <c r="K170" s="154"/>
       <c r="L170" s="61">
         <v>6621</v>
       </c>
     </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" s="194">
+        <v>30</v>
+      </c>
+      <c r="B171" s="194" t="s">
+        <v>539</v>
+      </c>
+      <c r="C171" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="D171" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="E171" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="F171" s="45"/>
+      <c r="G171" s="61">
+        <v>717</v>
+      </c>
+      <c r="H171" s="83"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="82"/>
+      <c r="K171" s="83"/>
+      <c r="L171" s="61">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="194"/>
+      <c r="B172" s="194"/>
+      <c r="C172" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="D172" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="E172" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="F172" s="45"/>
+      <c r="G172" s="61">
+        <v>473</v>
+      </c>
+      <c r="H172" s="83"/>
+      <c r="I172" s="60"/>
+      <c r="J172" s="82"/>
+      <c r="K172" s="83"/>
+      <c r="L172" s="61">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C170" xr:uid="{E5046F32-8784-4BFA-8E19-635E82C6630A}"/>
-  <mergeCells count="124">
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="L90:L95"/>
-    <mergeCell ref="J87:J95"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="J104:J107"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="B121:B144"/>
-    <mergeCell ref="A121:A144"/>
-    <mergeCell ref="J121:J144"/>
-    <mergeCell ref="J114:J120"/>
-    <mergeCell ref="J109:J113"/>
-    <mergeCell ref="J10:J31"/>
-    <mergeCell ref="J33:J44"/>
-    <mergeCell ref="J45:J57"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="J63:J68"/>
-    <mergeCell ref="J69:J72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="H90:H95"/>
+  <mergeCells count="126">
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="F161:F163"/>
+    <mergeCell ref="H161:K163"/>
+    <mergeCell ref="H170:K170"/>
+    <mergeCell ref="L161:L163"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="B150:B164"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A164"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="K4:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K19"/>
+    <mergeCell ref="K20:K25"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B87:B95"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="B104:B107"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
@@ -8934,79 +8801,37 @@
     <mergeCell ref="H35:H42"/>
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="K4:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K19"/>
-    <mergeCell ref="K20:K25"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="J104:J107"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="B121:B144"/>
+    <mergeCell ref="A121:A144"/>
+    <mergeCell ref="J121:J144"/>
+    <mergeCell ref="J114:J120"/>
+    <mergeCell ref="J109:J113"/>
+    <mergeCell ref="J10:J31"/>
+    <mergeCell ref="J33:J44"/>
+    <mergeCell ref="J45:J57"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="J63:J68"/>
+    <mergeCell ref="J69:J72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="H90:H95"/>
     <mergeCell ref="H106:H107"/>
     <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B87:B95"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B104:B107"/>
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="E106:E107"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A164"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="H161:K163"/>
-    <mergeCell ref="H170:K170"/>
-    <mergeCell ref="L161:L163"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="B150:B164"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L90:L95"/>
+    <mergeCell ref="J87:J95"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J98:J101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -9084,19 +8909,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="160" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -9106,31 +8931,31 @@
         <f>SUM(G3:G124)</f>
         <v>30975.78000000001</v>
       </c>
-      <c r="H1" s="153" t="s">
+      <c r="H1" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="153" t="s">
+      <c r="I1" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="162" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="160"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="163"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -9150,7 +8975,7 @@
       <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="135" t="s">
+      <c r="F3" s="176" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="24">
@@ -9159,11 +8984,11 @@
       <c r="H3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="142">
+      <c r="I3" s="167">
         <f>SUM(G3:G4)</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="138" t="s">
+      <c r="J3" s="159" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9183,21 +9008,21 @@
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="177"/>
       <c r="G4" s="16">
         <v>1200</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="136">
+      <c r="A5" s="158">
         <v>3</v>
       </c>
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="181" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -9207,17 +9032,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136" t="s">
+      <c r="F5" s="168"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="136"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="158"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
-      <c r="B6" s="149"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
@@ -9225,17 +9050,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="138"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="159"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="139">
+      <c r="A7" s="164">
         <v>4</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="180" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -9244,48 +9069,48 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="152">
+      <c r="G7" s="178">
         <v>630</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="152">
+      <c r="I7" s="178">
         <v>630</v>
       </c>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="158" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
-      <c r="B8" s="147"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="152"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="178"/>
       <c r="H8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="152"/>
-      <c r="J8" s="138"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="136">
+      <c r="A9" s="158">
         <v>5</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="179" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -9297,26 +9122,26 @@
       <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="179" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="16">
         <v>720</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="140">
+      <c r="I9" s="165">
         <f>SUM(G9:G14)</f>
         <v>3180</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="158" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="137"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
@@ -9326,17 +9151,17 @@
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="176"/>
       <c r="G10" s="16">
         <v>720</v>
       </c>
-      <c r="H10" s="137"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="137"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="171"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="137"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="12" t="s">
         <v>65</v>
       </c>
@@ -9346,17 +9171,17 @@
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="135"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="16">
         <v>468</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="137"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="137"/>
-      <c r="B12" s="135"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -9366,17 +9191,17 @@
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="135"/>
+      <c r="F12" s="176"/>
       <c r="G12" s="16">
         <v>432</v>
       </c>
-      <c r="H12" s="137"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="137"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="171"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="137"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -9386,17 +9211,17 @@
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="135"/>
+      <c r="F13" s="176"/>
       <c r="G13" s="16">
         <v>365</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="137"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138"/>
-      <c r="B14" s="134"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
@@ -9406,13 +9231,13 @@
       <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="134"/>
+      <c r="F14" s="177"/>
       <c r="G14" s="16">
         <v>475</v>
       </c>
-      <c r="H14" s="138"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="138"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -9447,10 +9272,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="136">
+      <c r="A16" s="158">
         <v>7</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="183" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -9459,140 +9284,140 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="E16" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="133" t="s">
+      <c r="F16" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="140">
+      <c r="G16" s="165">
         <v>1387.81</v>
       </c>
-      <c r="H16" s="143"/>
-      <c r="I16" s="140">
+      <c r="H16" s="168"/>
+      <c r="I16" s="165">
         <v>1387.81</v>
       </c>
-      <c r="J16" s="136" t="s">
+      <c r="J16" s="158" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="151"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="137"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="137"/>
-      <c r="B18" s="151"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="137"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="137"/>
-      <c r="B19" s="151"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="137"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="137"/>
-      <c r="B20" s="151"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="137"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="137"/>
-      <c r="B21" s="151"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="184"/>
       <c r="C21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="137"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137"/>
-      <c r="B22" s="151"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="137"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="137"/>
-      <c r="B23" s="151"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="184"/>
       <c r="C23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="138"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="138"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="136">
+      <c r="A24" s="158">
         <v>8</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="179" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -9601,108 +9426,108 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="136" t="s">
+      <c r="E24" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="133" t="s">
+      <c r="F24" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="140">
+      <c r="G24" s="165">
         <v>180.56</v>
       </c>
-      <c r="H24" s="143"/>
-      <c r="I24" s="140">
+      <c r="H24" s="168"/>
+      <c r="I24" s="165">
         <v>180.56</v>
       </c>
-      <c r="J24" s="136" t="s">
+      <c r="J24" s="158" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="137"/>
-      <c r="B25" s="135"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="137"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
-      <c r="B26" s="135"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="137"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="137"/>
-      <c r="B27" s="135"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="137"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="137"/>
-      <c r="B28" s="135"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="137"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="137"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="138"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="E29" s="138"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="138"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="136">
+      <c r="A30" s="158">
         <v>16</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="179" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -9711,41 +9536,41 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="136" t="s">
+      <c r="E30" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="133" t="s">
+      <c r="F30" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="140">
+      <c r="G30" s="165">
         <v>1950</v>
       </c>
-      <c r="H30" s="143"/>
-      <c r="I30" s="140">
+      <c r="H30" s="168"/>
+      <c r="I30" s="165">
         <v>180.56</v>
       </c>
-      <c r="J30" s="136" t="s">
+      <c r="J30" s="158" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="138"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="138"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="138"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="136">
+      <c r="A32" s="158">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -9775,7 +9600,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="138"/>
+      <c r="A33" s="159"/>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
@@ -9833,7 +9658,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="136">
+      <c r="A35" s="158">
         <v>19</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -9863,8 +9688,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="137"/>
-      <c r="B36" s="133" t="s">
+      <c r="A36" s="171"/>
+      <c r="B36" s="179" t="s">
         <v>232</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -9891,8 +9716,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="137"/>
-      <c r="B37" s="134"/>
+      <c r="A37" s="171"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="15" t="s">
         <v>248</v>
       </c>
@@ -9917,8 +9742,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="137"/>
-      <c r="B38" s="143" t="s">
+      <c r="A38" s="171"/>
+      <c r="B38" s="168" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -9943,8 +9768,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="137"/>
-      <c r="B39" s="144"/>
+      <c r="A39" s="171"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="15" t="s">
         <v>227</v>
       </c>
@@ -9967,8 +9792,8 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="137"/>
-      <c r="B40" s="145"/>
+      <c r="A40" s="171"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="15" t="s">
         <v>231</v>
       </c>
@@ -9991,8 +9816,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="137"/>
-      <c r="B41" s="143" t="s">
+      <c r="A41" s="171"/>
+      <c r="B41" s="168" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -10017,8 +9842,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="137"/>
-      <c r="B42" s="144"/>
+      <c r="A42" s="171"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="15" t="s">
         <v>243</v>
       </c>
@@ -10041,8 +9866,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="137"/>
-      <c r="B43" s="144"/>
+      <c r="A43" s="171"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="15" t="s">
         <v>245</v>
       </c>
@@ -10065,8 +9890,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="138"/>
-      <c r="B44" s="145"/>
+      <c r="A44" s="159"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="15" t="s">
         <v>247</v>
       </c>
@@ -10119,10 +9944,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="136">
+      <c r="A46" s="158">
         <v>21</v>
       </c>
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="179" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -10147,8 +9972,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="137"/>
-      <c r="B47" s="135"/>
+      <c r="A47" s="171"/>
+      <c r="B47" s="176"/>
       <c r="C47" s="12" t="s">
         <v>157</v>
       </c>
@@ -10171,8 +9996,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="137"/>
-      <c r="B48" s="135"/>
+      <c r="A48" s="171"/>
+      <c r="B48" s="176"/>
       <c r="C48" s="12" t="s">
         <v>158</v>
       </c>
@@ -10195,8 +10020,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="137"/>
-      <c r="B49" s="135"/>
+      <c r="A49" s="171"/>
+      <c r="B49" s="176"/>
       <c r="C49" s="32" t="s">
         <v>168</v>
       </c>
@@ -10217,8 +10042,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="137"/>
-      <c r="B50" s="135"/>
+      <c r="A50" s="171"/>
+      <c r="B50" s="176"/>
       <c r="C50" s="12" t="s">
         <v>163</v>
       </c>
@@ -10228,7 +10053,7 @@
       <c r="E50" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="133" t="s">
+      <c r="F50" s="179" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="16">
@@ -10241,8 +10066,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="137"/>
-      <c r="B51" s="135"/>
+      <c r="A51" s="171"/>
+      <c r="B51" s="176"/>
       <c r="C51" s="12" t="s">
         <v>159</v>
       </c>
@@ -10252,7 +10077,7 @@
       <c r="E51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="135"/>
+      <c r="F51" s="176"/>
       <c r="G51" s="16">
         <v>8.84</v>
       </c>
@@ -10263,8 +10088,8 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="138"/>
-      <c r="B52" s="134"/>
+      <c r="A52" s="159"/>
+      <c r="B52" s="177"/>
       <c r="C52" s="12" t="s">
         <v>164</v>
       </c>
@@ -10274,7 +10099,7 @@
       <c r="E52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="134"/>
+      <c r="F52" s="177"/>
       <c r="G52" s="16">
         <v>22.7</v>
       </c>
@@ -10285,10 +10110,10 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="136">
+      <c r="A53" s="158">
         <v>22</v>
       </c>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="179" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -10300,7 +10125,7 @@
       <c r="E53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="133" t="s">
+      <c r="F53" s="179" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="16">
@@ -10313,8 +10138,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="137"/>
-      <c r="B54" s="135"/>
+      <c r="A54" s="171"/>
+      <c r="B54" s="176"/>
       <c r="C54" s="12" t="s">
         <v>161</v>
       </c>
@@ -10324,7 +10149,7 @@
       <c r="E54" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="135"/>
+      <c r="F54" s="176"/>
       <c r="G54" s="16">
         <v>20.09</v>
       </c>
@@ -10335,8 +10160,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="137"/>
-      <c r="B55" s="135"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="176"/>
       <c r="C55" s="12" t="s">
         <v>175</v>
       </c>
@@ -10346,7 +10171,7 @@
       <c r="E55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="135"/>
+      <c r="F55" s="176"/>
       <c r="G55" s="16">
         <v>17.7</v>
       </c>
@@ -10357,8 +10182,8 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="137"/>
-      <c r="B56" s="135"/>
+      <c r="A56" s="171"/>
+      <c r="B56" s="176"/>
       <c r="C56" s="12" t="s">
         <v>176</v>
       </c>
@@ -10368,7 +10193,7 @@
       <c r="E56" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="135"/>
+      <c r="F56" s="176"/>
       <c r="G56" s="16">
         <v>7.57</v>
       </c>
@@ -10379,8 +10204,8 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="137"/>
-      <c r="B57" s="135"/>
+      <c r="A57" s="171"/>
+      <c r="B57" s="176"/>
       <c r="C57" s="12" t="s">
         <v>177</v>
       </c>
@@ -10390,7 +10215,7 @@
       <c r="E57" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="135"/>
+      <c r="F57" s="176"/>
       <c r="G57" s="16">
         <v>32.619999999999997</v>
       </c>
@@ -10401,8 +10226,8 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="137"/>
-      <c r="B58" s="135"/>
+      <c r="A58" s="171"/>
+      <c r="B58" s="176"/>
       <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
@@ -10412,7 +10237,7 @@
       <c r="E58" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="134"/>
+      <c r="F58" s="177"/>
       <c r="G58" s="16">
         <v>7.82</v>
       </c>
@@ -10423,10 +10248,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="136">
+      <c r="A59" s="158">
         <v>23</v>
       </c>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="179" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -10451,8 +10276,8 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="137"/>
-      <c r="B60" s="135"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="176"/>
       <c r="C60" s="12" t="s">
         <v>180</v>
       </c>
@@ -10475,8 +10300,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="137"/>
-      <c r="B61" s="135"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="176"/>
       <c r="C61" s="12" t="s">
         <v>195</v>
       </c>
@@ -10499,8 +10324,8 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="137"/>
-      <c r="B62" s="135"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="176"/>
       <c r="C62" s="12" t="s">
         <v>188</v>
       </c>
@@ -10523,8 +10348,8 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="137"/>
-      <c r="B63" s="135"/>
+      <c r="A63" s="171"/>
+      <c r="B63" s="176"/>
       <c r="C63" s="35" t="s">
         <v>190</v>
       </c>
@@ -10534,17 +10359,17 @@
       <c r="E63" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="133"/>
+      <c r="F63" s="179"/>
       <c r="G63" s="16">
         <v>17.16</v>
       </c>
-      <c r="H63" s="143"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="136"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="158"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="137"/>
-      <c r="B64" s="135"/>
+      <c r="A64" s="171"/>
+      <c r="B64" s="176"/>
       <c r="C64" s="32" t="s">
         <v>192</v>
       </c>
@@ -10554,17 +10379,17 @@
       <c r="E64" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="135"/>
+      <c r="F64" s="176"/>
       <c r="G64" s="11">
         <v>19.43</v>
       </c>
-      <c r="H64" s="144"/>
-      <c r="I64" s="141"/>
-      <c r="J64" s="137"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="166"/>
+      <c r="J64" s="171"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="137"/>
-      <c r="B65" s="135"/>
+      <c r="A65" s="171"/>
+      <c r="B65" s="176"/>
       <c r="C65" s="32" t="s">
         <v>194</v>
       </c>
@@ -10574,17 +10399,17 @@
       <c r="E65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F65" s="135"/>
+      <c r="F65" s="176"/>
       <c r="G65" s="16">
         <v>14.29</v>
       </c>
-      <c r="H65" s="144"/>
-      <c r="I65" s="141"/>
-      <c r="J65" s="137"/>
+      <c r="H65" s="169"/>
+      <c r="I65" s="166"/>
+      <c r="J65" s="171"/>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="137"/>
-      <c r="B66" s="135"/>
+      <c r="A66" s="171"/>
+      <c r="B66" s="176"/>
       <c r="C66" s="32" t="s">
         <v>278</v>
       </c>
@@ -10594,17 +10419,17 @@
       <c r="E66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="134"/>
+      <c r="F66" s="177"/>
       <c r="G66" s="16">
         <v>15.78</v>
       </c>
-      <c r="H66" s="145"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="138"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="167"/>
+      <c r="J66" s="159"/>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="137"/>
-      <c r="B67" s="135"/>
+      <c r="A67" s="171"/>
+      <c r="B67" s="176"/>
       <c r="C67" s="15" t="s">
         <v>294</v>
       </c>
@@ -10614,23 +10439,23 @@
       <c r="E67" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="143" t="s">
+      <c r="F67" s="168" t="s">
         <v>293</v>
       </c>
-      <c r="G67" s="140">
+      <c r="G67" s="165">
         <v>67.959999999999994</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="140">
+      <c r="I67" s="165">
         <v>67.959999999999994</v>
       </c>
-      <c r="J67" s="136" t="s">
+      <c r="J67" s="158" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="137"/>
-      <c r="B68" s="135"/>
+      <c r="A68" s="171"/>
+      <c r="B68" s="176"/>
       <c r="C68" s="15" t="s">
         <v>283</v>
       </c>
@@ -10640,15 +10465,15 @@
       <c r="E68" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="145"/>
-      <c r="G68" s="142"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="167"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="142"/>
-      <c r="J68" s="138"/>
+      <c r="I68" s="167"/>
+      <c r="J68" s="159"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="137"/>
-      <c r="B69" s="135"/>
+      <c r="A69" s="171"/>
+      <c r="B69" s="176"/>
       <c r="C69" s="15"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -10659,8 +10484,8 @@
       <c r="J69" s="11"/>
     </ro